--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCFDA2F-F523-4A57-BFD7-693C1F467808}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273ACA72-2350-453C-88BE-DFC6AA5F8675}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -2569,7 +2569,7 @@
                     <c:v>0.39672835426305358</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>0.39672835426305358</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0.39672835426305358</c:v>
@@ -2608,7 +2608,7 @@
                     <c:v>0.39672835426305358</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>0.39672835426305358</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0.39672835426305358</c:v>
@@ -2706,7 +2706,7 @@
                   <c:v>0.39672835426305353</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.39672835426305353</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.39672835426305353</c:v>
@@ -3009,7 +3009,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>0.39672835426305358</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3051,7 +3051,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>0.39672835426305358</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3149,7 +3149,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.39672835426305353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17366,11 +17366,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -17420,14 +17418,14 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/52</f>
-        <v>14.055961538461535</v>
+        <v>15.826346153846155</v>
       </c>
       <c r="O1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43731.280440126429</v>
+        <v>43733.069959116809</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17479,7 +17477,7 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>11000</v>
+        <v>9020</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -17491,19 +17489,25 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="G3">
         <v>0.1</v>
       </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2">
-        <v>26.07</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17511,7 +17515,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>11006</v>
+        <v>11000</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -17523,19 +17527,19 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G4">
         <v>0.1</v>
       </c>
       <c r="J4">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>20</v>
       </c>
       <c r="L4" s="2">
-        <v>26.69</v>
+        <v>26.07</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17543,7 +17547,7 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>11008</v>
+        <v>11006</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -17555,19 +17559,19 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>1.1399999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G5">
         <v>0.1</v>
       </c>
       <c r="J5">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K5">
         <v>20</v>
       </c>
       <c r="L5" s="2">
-        <v>26.27</v>
+        <v>26.69</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17575,7 +17579,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>11009</v>
+        <v>11007</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -17587,19 +17591,19 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="G6">
         <v>0.1</v>
       </c>
       <c r="J6">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="K6">
         <v>20</v>
       </c>
       <c r="L6" s="2">
-        <v>26.72</v>
+        <v>30.91</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17607,7 +17611,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>12000</v>
+        <v>11008</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -17619,19 +17623,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>1.22</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G7">
         <v>0.1</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="J7">
+        <v>0.8</v>
+      </c>
+      <c r="K7">
         <v>20</v>
       </c>
       <c r="L7" s="2">
-        <v>27.95</v>
+        <v>26.27</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17639,7 +17643,7 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>12006</v>
+        <v>11009</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -17651,19 +17655,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>1.27</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G8">
         <v>0.1</v>
       </c>
-      <c r="H8">
-        <v>0.6</v>
-      </c>
-      <c r="I8">
+      <c r="J8">
+        <v>0.9</v>
+      </c>
+      <c r="K8">
         <v>20</v>
       </c>
       <c r="L8" s="2">
-        <v>29.32</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17671,31 +17675,31 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>12007</v>
+        <v>12000</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="G9">
         <v>0.1</v>
       </c>
       <c r="H9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>20</v>
       </c>
       <c r="L9" s="2">
-        <v>29.61</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17703,7 +17707,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>12008</v>
+        <v>12006</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -17715,19 +17719,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="G10">
         <v>0.1</v>
       </c>
       <c r="H10">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I10">
         <v>20</v>
       </c>
       <c r="L10" s="2">
-        <v>28.24</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17735,37 +17739,31 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>15008</v>
+        <v>12007</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H11">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I11">
         <v>20</v>
       </c>
-      <c r="J11">
-        <v>0.2</v>
-      </c>
-      <c r="K11">
-        <v>20</v>
-      </c>
       <c r="L11" s="2">
-        <v>46.1</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17773,37 +17771,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>15016</v>
+        <v>12008</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H12">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I12">
         <v>20</v>
       </c>
-      <c r="J12">
-        <v>0.2</v>
-      </c>
-      <c r="K12">
-        <v>50</v>
-      </c>
       <c r="L12" s="2">
-        <v>51.16</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17811,37 +17803,31 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>15017</v>
+        <v>12010</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H13">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>20</v>
       </c>
-      <c r="J13">
-        <v>0.2</v>
-      </c>
-      <c r="K13">
-        <v>100</v>
-      </c>
       <c r="L13" s="2">
-        <v>54.02</v>
+        <v>31.56</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17849,19 +17835,19 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>15027</v>
+        <v>15008</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0.66669999999999996</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="G14">
         <v>10</v>
@@ -17870,7 +17856,7 @@
         <v>0.2</v>
       </c>
       <c r="I14">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J14">
         <v>0.2</v>
@@ -17879,7 +17865,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="2">
-        <v>54.1</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17887,19 +17873,19 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>15028</v>
+        <v>15016</v>
       </c>
       <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
         <v>5</v>
       </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
       <c r="E15" s="1">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="F15" s="2">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -17908,7 +17894,7 @@
         <v>0.2</v>
       </c>
       <c r="I15">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J15">
         <v>0.2</v>
@@ -17917,7 +17903,7 @@
         <v>50</v>
       </c>
       <c r="L15" s="2">
-        <v>57.75</v>
+        <v>51.16</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17925,19 +17911,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>15029</v>
+        <v>15017</v>
       </c>
       <c r="C16">
         <v>6</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="2">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -17946,7 +17932,7 @@
         <v>0.2</v>
       </c>
       <c r="I16">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J16">
         <v>0.2</v>
@@ -17955,7 +17941,7 @@
         <v>100</v>
       </c>
       <c r="L16" s="2">
-        <v>53.04</v>
+        <v>54.02</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17963,19 +17949,19 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>15033</v>
+        <v>15027</v>
       </c>
       <c r="C17">
         <v>6</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1">
-        <v>0.5</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F17" s="2">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -17984,7 +17970,7 @@
         <v>0.2</v>
       </c>
       <c r="I17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J17">
         <v>0.2</v>
@@ -17993,7 +17979,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="2">
-        <v>56.79</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18001,19 +17987,19 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>15034</v>
+        <v>15028</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="2">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -18022,7 +18008,7 @@
         <v>0.2</v>
       </c>
       <c r="I18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J18">
         <v>0.2</v>
@@ -18031,7 +18017,7 @@
         <v>50</v>
       </c>
       <c r="L18" s="2">
-        <v>56.14</v>
+        <v>57.22</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18039,19 +18025,19 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>15035</v>
+        <v>15029</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F19" s="2">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -18060,7 +18046,7 @@
         <v>0.2</v>
       </c>
       <c r="I19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J19">
         <v>0.2</v>
@@ -18069,6 +18055,120 @@
         <v>100</v>
       </c>
       <c r="L19" s="2">
+        <v>53.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>15033</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>0.2</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20" s="2">
+        <v>56.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>15034</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>0.2</v>
+      </c>
+      <c r="K21">
+        <v>50</v>
+      </c>
+      <c r="L21" s="2">
+        <v>56.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>15035</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>0.2</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22" s="2">
         <v>55.69</v>
       </c>
     </row>
@@ -18082,8 +18182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH61" sqref="AH61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18183,7 +18283,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4000'!N1</f>
-        <v>14.055961538461535</v>
+        <v>15.826346153846155</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -18860,9 +18960,9 @@
         <f ca="1">IFERROR(VLOOKUP(AZ6, $B$1:$F1003, 5), "")</f>
         <v>0.14004200921492455</v>
       </c>
-      <c r="AE6" s="61" t="str">
+      <c r="AE6" s="61">
         <f ca="1">IFERROR(VLOOKUP(BA6, $B$1:$F1003, 5), "")</f>
-        <v/>
+        <v>0.39672835426305353</v>
       </c>
       <c r="AF6" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB6, $B$1:$F1003, 5), "")</f>
@@ -20184,9 +20284,9 @@
         <f ca="1">IFERROR(VLOOKUP(AZ6, $B$1:$G1003, 6), "")</f>
         <v>7.8280421509049208E-2</v>
       </c>
-      <c r="AE16" s="61" t="str">
+      <c r="AE16" s="61">
         <f ca="1">IFERROR(VLOOKUP(BA6, $B$1:$G1003, 6), "")</f>
-        <v/>
+        <v>0.39672835426305358</v>
       </c>
       <c r="AF16" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB6, $B$1:$G1003, 6), "")</f>
@@ -20225,7 +20325,7 @@
       </c>
       <c r="AP16" s="88">
         <f ca="1">IFERROR(VLOOKUP(BA6, $B$1:$G1003, 2), "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="90">
         <f ca="1">IFERROR(VLOOKUP(BB6, $B$1:$G1003, 2), "")</f>
@@ -21567,31 +21667,31 @@
       </c>
       <c r="C30" s="37">
         <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="37">
         <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="53" t="e">
+      <c r="E30" s="53">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F30" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F30" s="53">
         <f>IFERROR((E30 + Params!$B$3^2/(2 * C30))/(1 + Params!$B$3^2/C30), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G30" s="39" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G30" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C30))*SQRT(E30*(1-E30)/C30 + (Params!$B$3/(2*C30))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H30" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H30" s="39">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I30" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I30" s="39">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -21660,7 +21760,7 @@
       </c>
       <c r="AJ30" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF30, $B$1:$F1027, 5), "")</f>
-        <v>0.5</v>
+        <v>0.45388134592680052</v>
       </c>
       <c r="AK30" s="39" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG30, $B$1:$F1027, 5), "")</f>
@@ -21843,7 +21943,7 @@
       </c>
       <c r="AI31" s="40">
         <f ca="1">IFERROR(VLOOKUP(BE31, $B$1:$F1028, 5), "")</f>
-        <v>0.57916737037662547</v>
+        <v>0.56915438023844434</v>
       </c>
       <c r="AJ31" s="50">
         <f ca="1">IFERROR(VLOOKUP(BF31, $B$1:$F1028, 5), "")</f>
@@ -23080,13 +23180,13 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG46-1, 0)</f>
         <v>11007</v>
       </c>
-      <c r="AI46" s="39" t="str">
+      <c r="AI46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$F1007, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AJ46" s="39" t="str">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="AJ46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 6), "")</f>
-        <v/>
+        <v>0.39672835426305358</v>
       </c>
     </row>
     <row r="47" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24163,13 +24263,13 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG64-1, 0)</f>
         <v>12010</v>
       </c>
-      <c r="AI64" s="39" t="str">
+      <c r="AI64" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$F1025, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AJ64" s="39" t="str">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="AJ64" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$G1025, 6), "")</f>
-        <v/>
+        <v>0.39672835426305358</v>
       </c>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.55000000000000004">
@@ -24670,31 +24770,31 @@
       </c>
       <c r="C74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E74" s="53" t="e">
+      <c r="E74" s="53">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F74" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F74" s="53">
         <f>IFERROR((E74 + Params!$B$3^2/(2 * C74))/(1 + Params!$B$3^2/C74), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G74" s="39" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G74" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C74))*SQRT(E74*(1-E74)/C74 + (Params!$B$3/(2*C74))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H74" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H74" s="39">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I74" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I74" s="39">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
       <c r="AA74" s="37"/>
       <c r="AB74" s="44"/>
@@ -25378,31 +25478,31 @@
       </c>
       <c r="C88" s="37">
         <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" s="37">
         <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E88" s="53" t="e">
+      <c r="E88" s="53">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F88" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F88" s="53">
         <f>IFERROR((E88 + Params!$B$3^2/(2 * C88))/(1 + Params!$B$3^2/C88), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G88" s="39" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G88" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C88))*SQRT(E88*(1-E88)/C88 + (Params!$B$3/(2*C88))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H88" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H88" s="39">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I88" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I88" s="39">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
       <c r="AA88" s="37"/>
       <c r="AB88" s="44"/>
@@ -27357,7 +27457,7 @@
       </c>
       <c r="C143" s="37">
         <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D143" s="37">
         <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -27365,23 +27465,23 @@
       </c>
       <c r="E143" s="53">
         <f t="shared" si="30"/>
-        <v>0.58490566037735847</v>
+        <v>0.57407407407407407</v>
       </c>
       <c r="F143" s="53">
         <f>IFERROR((E143 + Params!$B$3^2/(2 * C143))/(1 + Params!$B$3^2/C143), NA())</f>
-        <v>0.57916737037662547</v>
+        <v>0.56915438023844434</v>
       </c>
       <c r="G143" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C143))*SQRT(E143*(1-E143)/C143 + (Params!$B$3/(2*C143))^2), NA())</f>
-        <v>0.1282255465320879</v>
+        <v>0.12752940177498129</v>
       </c>
       <c r="H143" s="39">
         <f t="shared" si="31"/>
-        <v>0.45094182384453757</v>
+        <v>0.44162497846346305</v>
       </c>
       <c r="I143" s="39">
         <f t="shared" si="32"/>
-        <v>0.70739291690871342</v>
+        <v>0.69668378201342562</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27527,7 +27627,7 @@
       </c>
       <c r="C148" s="37">
         <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D148" s="37">
         <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -27535,23 +27635,23 @@
       </c>
       <c r="E148" s="53">
         <f t="shared" si="30"/>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F148" s="53">
         <f>IFERROR((E148 + Params!$B$3^2/(2 * C148))/(1 + Params!$B$3^2/C148), NA())</f>
-        <v>0.5</v>
+        <v>0.45388134592680052</v>
       </c>
       <c r="G148" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C148))*SQRT(E148*(1-E148)/C148 + (Params!$B$3/(2*C148))^2), NA())</f>
-        <v>0.31238719310059126</v>
+        <v>0.29566442366417367</v>
       </c>
       <c r="H148" s="39">
         <f t="shared" si="31"/>
-        <v>0.18761280689940874</v>
+        <v>0.15821692226262685</v>
       </c>
       <c r="I148" s="39">
         <f t="shared" si="32"/>
-        <v>0.81238719310059126</v>
+        <v>0.74954576959097419</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273ACA72-2350-453C-88BE-DFC6AA5F8675}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F05A875-DC0C-4DD7-926B-969F33FD031B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -1157,7 +1157,7 @@
                   <c:v>0.53893595813605788</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22744829304759534</c:v>
+                  <c:v>0.21101606750664662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15589,7 +15589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -15636,7 +15638,7 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/52</f>
-        <v>17.297115384615385</v>
+        <v>17.448653846153846</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -16795,16 +16797,16 @@
         <v>9038</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>0.1111</v>
+        <v>0.1</v>
       </c>
       <c r="F33" s="2">
-        <v>3.58</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="G33">
         <v>0.1</v>
@@ -16822,7 +16824,7 @@
         <v>10</v>
       </c>
       <c r="L33">
-        <v>50.16</v>
+        <v>58.04</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17425,7 +17427,7 @@
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43733.069959116809</v>
+        <v>43733.095930297364</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -18182,7 +18184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
@@ -18427,7 +18429,7 @@
       </c>
       <c r="L3" s="47">
         <f>+THUNDER_3200!N1</f>
-        <v>17.297115384615385</v>
+        <v>17.448653846153846</v>
       </c>
       <c r="AC3" s="78"/>
       <c r="AD3" s="79" t="str">
@@ -18986,7 +18988,7 @@
       </c>
       <c r="AK6" s="97">
         <f ca="1">IFERROR(VLOOKUP(BG6, $B$1:$F1003, 5), "")</f>
-        <v>0.22744829304759534</v>
+        <v>0.21101606750664662</v>
       </c>
       <c r="AL6" s="100">
         <f t="shared" ca="1" si="3"/>
@@ -20310,7 +20312,7 @@
       </c>
       <c r="AK16" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG6, $B$1:$G1003, 6), "")</f>
-        <v>0.20755792172046483</v>
+        <v>0.19314031799092549</v>
       </c>
       <c r="AL16" s="100">
         <f t="shared" ca="1" si="7"/>
@@ -20349,7 +20351,7 @@
       </c>
       <c r="AV16" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG6, $B$1:$G1003, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:59" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -23261,7 +23263,7 @@
       </c>
       <c r="C48" s="37">
         <f>IFERROR(VLOOKUP($B48, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B48, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B48, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" s="37">
         <f>IFERROR(VLOOKUP($B48, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B48, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B48, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -23269,23 +23271,23 @@
       </c>
       <c r="E48" s="53">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="F48" s="53">
         <f>IFERROR((E48 + Params!$B$3^2/(2 * C48))/(1 + Params!$B$3^2/C48), NA())</f>
-        <v>0.22744829304759534</v>
+        <v>0.21101606750664662</v>
       </c>
       <c r="G48" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C48))*SQRT(E48*(1-E48)/C48 + (Params!$B$3/(2*C48))^2), NA())</f>
-        <v>0.20755792172046483</v>
+        <v>0.19314031799092549</v>
       </c>
       <c r="H48" s="39">
         <f t="shared" si="1"/>
-        <v>1.9890371327130507E-2</v>
+        <v>1.7875749515721129E-2</v>
       </c>
       <c r="I48" s="39">
         <f t="shared" si="2"/>
-        <v>0.43500621476806017</v>
+        <v>0.4041563854975721</v>
       </c>
       <c r="AA48" s="37">
         <v>20</v>

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F05A875-DC0C-4DD7-926B-969F33FD031B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45CF784-A953-4AFC-A3D9-395637EF1061}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="67">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>Diag</t>
+  </si>
+  <si>
+    <t>models</t>
   </si>
 </sst>
 </file>
@@ -17368,9 +17371,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -17420,14 +17425,14 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/52</f>
-        <v>15.826346153846155</v>
+        <v>17.382884615384611</v>
       </c>
       <c r="O1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43733.095930297364</v>
+        <v>43734.864400819089</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17517,7 +17522,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>11000</v>
+        <v>9021</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -17529,19 +17534,25 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="G4">
         <v>0.1</v>
       </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
         <v>20</v>
       </c>
       <c r="L4" s="2">
-        <v>26.07</v>
+        <v>34.32</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17549,7 +17560,7 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>11006</v>
+        <v>9022</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -17561,19 +17572,25 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="G5">
         <v>0.1</v>
       </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
       <c r="J5">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L5" s="2">
-        <v>26.69</v>
+        <v>34.36</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17581,7 +17598,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>11007</v>
+        <v>11000</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -17593,19 +17610,19 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>1.34</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G6">
         <v>0.1</v>
       </c>
       <c r="J6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>20</v>
       </c>
       <c r="L6" s="2">
-        <v>30.91</v>
+        <v>26.07</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17613,7 +17630,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>11008</v>
+        <v>11006</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -17625,19 +17642,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>1.1399999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G7">
         <v>0.1</v>
       </c>
       <c r="J7">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K7">
         <v>20</v>
       </c>
       <c r="L7" s="2">
-        <v>26.27</v>
+        <v>26.69</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17645,7 +17662,7 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>11009</v>
+        <v>11007</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -17657,19 +17674,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="G8">
         <v>0.1</v>
       </c>
       <c r="J8">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="K8">
         <v>20</v>
       </c>
       <c r="L8" s="2">
-        <v>26.72</v>
+        <v>30.91</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17677,7 +17694,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>12000</v>
+        <v>11008</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -17689,19 +17706,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>1.22</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G9">
         <v>0.1</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="J9">
+        <v>0.8</v>
+      </c>
+      <c r="K9">
         <v>20</v>
       </c>
       <c r="L9" s="2">
-        <v>27.95</v>
+        <v>26.27</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17709,7 +17726,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>12006</v>
+        <v>11009</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -17721,19 +17738,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>1.27</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G10">
         <v>0.1</v>
       </c>
-      <c r="H10">
-        <v>0.6</v>
-      </c>
-      <c r="I10">
+      <c r="J10">
+        <v>0.9</v>
+      </c>
+      <c r="K10">
         <v>20</v>
       </c>
       <c r="L10" s="2">
-        <v>29.32</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17741,31 +17758,31 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>12007</v>
+        <v>12000</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="G11">
         <v>0.1</v>
       </c>
       <c r="H11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>20</v>
       </c>
       <c r="L11" s="2">
-        <v>29.61</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17773,7 +17790,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>12008</v>
+        <v>12006</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -17785,19 +17802,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="G12">
         <v>0.1</v>
       </c>
       <c r="H12">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I12">
         <v>20</v>
       </c>
       <c r="L12" s="2">
-        <v>28.24</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17805,31 +17822,31 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>12010</v>
+        <v>12007</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="G13">
         <v>0.1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I13">
         <v>20</v>
       </c>
       <c r="L13" s="2">
-        <v>31.56</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17837,10 +17854,10 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>15008</v>
+        <v>12008</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -17849,25 +17866,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H14">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I14">
         <v>20</v>
       </c>
-      <c r="J14">
-        <v>0.2</v>
-      </c>
-      <c r="K14">
-        <v>20</v>
-      </c>
       <c r="L14" s="2">
-        <v>46.1</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17875,37 +17886,31 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>15016</v>
+        <v>12010</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H15">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>20</v>
       </c>
-      <c r="J15">
-        <v>0.2</v>
-      </c>
-      <c r="K15">
-        <v>50</v>
-      </c>
       <c r="L15" s="2">
-        <v>51.16</v>
+        <v>31.56</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17913,19 +17918,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>15017</v>
+        <v>15008</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -17940,10 +17945,10 @@
         <v>0.2</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L16" s="2">
-        <v>54.02</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17951,19 +17956,19 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>15027</v>
+        <v>15016</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.625</v>
       </c>
       <c r="F17" s="2">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -17972,16 +17977,16 @@
         <v>0.2</v>
       </c>
       <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>0.2</v>
+      </c>
+      <c r="K17">
         <v>50</v>
       </c>
-      <c r="J17">
-        <v>0.2</v>
-      </c>
-      <c r="K17">
-        <v>20</v>
-      </c>
       <c r="L17" s="2">
-        <v>54.1</v>
+        <v>51.16</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17989,7 +17994,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>15028</v>
+        <v>15017</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -18001,7 +18006,7 @@
         <v>0.5</v>
       </c>
       <c r="F18" s="2">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -18010,16 +18015,16 @@
         <v>0.2</v>
       </c>
       <c r="I18">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J18">
         <v>0.2</v>
       </c>
       <c r="K18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L18" s="2">
-        <v>57.22</v>
+        <v>54.02</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18027,19 +18032,19 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>15029</v>
+        <v>15027</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="E19" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="F19" s="2">
-        <v>1.36</v>
+        <v>1.66</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -18054,10 +18059,10 @@
         <v>0.2</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L19" s="2">
-        <v>53.04</v>
+        <v>64.63</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18065,19 +18070,19 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>15033</v>
+        <v>15028</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" s="1">
-        <v>0.42859999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="F20" s="2">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="G20">
         <v>10</v>
@@ -18086,16 +18091,16 @@
         <v>0.2</v>
       </c>
       <c r="I20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J20">
         <v>0.2</v>
       </c>
       <c r="K20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L20" s="2">
-        <v>56.31</v>
+        <v>57.22</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18103,19 +18108,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>15034</v>
+        <v>15029</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="F21" s="2">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="G21">
         <v>10</v>
@@ -18124,16 +18129,16 @@
         <v>0.2</v>
       </c>
       <c r="I21">
+        <v>50</v>
+      </c>
+      <c r="J21">
+        <v>0.2</v>
+      </c>
+      <c r="K21">
         <v>100</v>
       </c>
-      <c r="J21">
-        <v>0.2</v>
-      </c>
-      <c r="K21">
-        <v>50</v>
-      </c>
       <c r="L21" s="2">
-        <v>56.14</v>
+        <v>54.05</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18141,19 +18146,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15035</v>
+        <v>15033</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="F22" s="2">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -18168,9 +18173,85 @@
         <v>0.2</v>
       </c>
       <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22" s="2">
+        <v>56.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>15034</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
         <v>100</v>
       </c>
-      <c r="L22" s="2">
+      <c r="J23">
+        <v>0.2</v>
+      </c>
+      <c r="K23">
+        <v>50</v>
+      </c>
+      <c r="L23" s="2">
+        <v>56.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>15035</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <v>0.2</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="L24" s="2">
         <v>55.69</v>
       </c>
     </row>
@@ -18184,8 +18265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="Q37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL44" sqref="AL44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18200,7 +18281,8 @@
     <col min="33" max="33" width="7.41796875" customWidth="1"/>
     <col min="34" max="34" width="7.41796875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="7.15625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="6.62890625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.62890625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.578125" customWidth="1"/>
     <col min="40" max="40" width="10.7890625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="8.41796875" bestFit="1" customWidth="1"/>
     <col min="42" max="48" width="4.9453125" bestFit="1" customWidth="1"/>
@@ -18285,7 +18367,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4000'!N1</f>
-        <v>15.826346153846155</v>
+        <v>17.382884615384611</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -19150,9 +19232,9 @@
         <f ca="1">IFERROR(VLOOKUP(AZ7, $B$1:$F1004, 5), "")</f>
         <v>0.16338328226733051</v>
       </c>
-      <c r="AE7" s="61" t="str">
+      <c r="AE7" s="61">
         <f ca="1">IFERROR(VLOOKUP(BA7, $B$1:$F1004, 5), "")</f>
-        <v/>
+        <v>0.39672835426305353</v>
       </c>
       <c r="AF7" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB7, $B$1:$F1004, 5), "")</f>
@@ -19332,9 +19414,9 @@
         <f ca="1">IFERROR(VLOOKUP(AZ8, $B$1:$F1005, 5), "")</f>
         <v>0.22733743570903744</v>
       </c>
-      <c r="AE8" s="62" t="str">
+      <c r="AE8" s="62">
         <f ca="1">IFERROR(VLOOKUP(BA8, $B$1:$F1005, 5), "")</f>
-        <v/>
+        <v>0.39672835426305353</v>
       </c>
       <c r="AF8" s="50">
         <f ca="1">IFERROR(VLOOKUP(BB8, $B$1:$F1005, 5), "")</f>
@@ -20394,9 +20476,9 @@
         <f ca="1">IFERROR(VLOOKUP(AZ7, $B$1:$G1004, 6), "")</f>
         <v>8.6364668187580054E-2</v>
       </c>
-      <c r="AE17" s="61" t="str">
+      <c r="AE17" s="61">
         <f ca="1">IFERROR(VLOOKUP(BA7, $B$1:$G1004, 6), "")</f>
-        <v/>
+        <v>0.39672835426305358</v>
       </c>
       <c r="AF17" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB7, $B$1:$G1004, 6), "")</f>
@@ -20435,7 +20517,7 @@
       </c>
       <c r="AP17" s="88">
         <f ca="1">IFERROR(VLOOKUP(BA7, $B$1:$G1004, 2), "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="88">
         <f ca="1">IFERROR(VLOOKUP(BB7, $B$1:$G1004, 2), "")</f>
@@ -20502,9 +20584,9 @@
         <f ca="1">IFERROR(VLOOKUP(AZ8, $B$1:$G1005, 6), "")</f>
         <v>0.13546859984556112</v>
       </c>
-      <c r="AE18" s="61" t="str">
+      <c r="AE18" s="61">
         <f ca="1">IFERROR(VLOOKUP(BA8, $B$1:$G1005, 6), "")</f>
-        <v/>
+        <v>0.39672835426305358</v>
       </c>
       <c r="AF18" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB8, $B$1:$G1005, 6), "")</f>
@@ -20543,7 +20625,7 @@
       </c>
       <c r="AP18" s="88">
         <f ca="1">IFERROR(VLOOKUP(BA8, $B$1:$G1005, 2), "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="88">
         <f ca="1">IFERROR(VLOOKUP(BB8, $B$1:$G1005, 2), "")</f>
@@ -21758,7 +21840,7 @@
       </c>
       <c r="AI30" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE30, $B$1:$F1027, 5), "")</f>
-        <v>0.60160949439115585</v>
+        <v>0.5</v>
       </c>
       <c r="AJ30" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF30, $B$1:$F1027, 5), "")</f>
@@ -21862,31 +21944,31 @@
       </c>
       <c r="C31" s="37">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="37">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="53" t="e">
+      <c r="E31" s="53">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F31" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F31" s="53">
         <f>IFERROR((E31 + Params!$B$3^2/(2 * C31))/(1 + Params!$B$3^2/C31), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G31" s="39" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G31" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C31))*SQRT(E31*(1-E31)/C31 + (Params!$B$3/(2*C31))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H31" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H31" s="39">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I31" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I31" s="39">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -21949,7 +22031,7 @@
       </c>
       <c r="AJ31" s="50">
         <f ca="1">IFERROR(VLOOKUP(BF31, $B$1:$F1028, 5), "")</f>
-        <v>0.60160949439115585</v>
+        <v>0.63835596221959856</v>
       </c>
       <c r="AK31" s="50" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG31, $B$1:$F1028, 5), "")</f>
@@ -22033,31 +22115,31 @@
       </c>
       <c r="C32" s="37">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="37">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="53" t="e">
+      <c r="E32" s="53">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F32" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F32" s="53">
         <f>IFERROR((E32 + Params!$B$3^2/(2 * C32))/(1 + Params!$B$3^2/C32), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G32" s="39" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G32" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C32))*SQRT(E32*(1-E32)/C32 + (Params!$B$3/(2*C32))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H32" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H32" s="39">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I32" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I32" s="39">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
       <c r="Q32">
         <v>10</v>
@@ -22116,7 +22198,7 @@
       </c>
       <c r="AI32" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE32, $B$1:$F1029, 5), "")</f>
-        <v>0.60160949439115585</v>
+        <v>0.63835596221959856</v>
       </c>
       <c r="AJ32" s="40">
         <f ca="1">IFERROR(VLOOKUP(BF32, $B$1:$F1029, 5), "")</f>
@@ -22663,6 +22745,9 @@
       <c r="AJ38" s="37" t="s">
         <v>64</v>
       </c>
+      <c r="AK38" s="37" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="39" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="37"/>
@@ -22728,6 +22813,10 @@
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 6), "")</f>
         <v>0.39672835426305358</v>
       </c>
+      <c r="AK39" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 2), "")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="37"/>
@@ -22793,6 +22882,10 @@
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 6), "")</f>
         <v/>
       </c>
+      <c r="AK40" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 2), "")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="37"/>
@@ -22858,11 +22951,15 @@
         <f ca="1">IFERROR(VLOOKUP(AH41, $B$1:$G1002, 6), "")</f>
         <v>8.6364668187580054E-2</v>
       </c>
-      <c r="AK41">
+      <c r="AK41" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH41, $B$1:$G1002, 2), "")</f>
+        <v>63</v>
+      </c>
+      <c r="AL41">
         <v>11002</v>
       </c>
-      <c r="AL41" s="39" t="str">
-        <f>IFERROR(VLOOKUP(AK41, $B$1:$F1002, 5), "")</f>
+      <c r="AM41" s="39" t="str">
+        <f>IFERROR(VLOOKUP(AL41, $B$1:$F1002, 5), "")</f>
         <v/>
       </c>
     </row>
@@ -22930,6 +23027,10 @@
         <f ca="1">IFERROR(VLOOKUP(AH42, $B$1:$G1003, 6), "")</f>
         <v>0.15966951112455921</v>
       </c>
+      <c r="AK42" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH42, $B$1:$G1003, 2), "")</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="43" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="37"/>
@@ -22995,6 +23096,10 @@
         <f ca="1">IFERROR(VLOOKUP(AH43, $B$1:$G1004, 6), "")</f>
         <v>0.1513544071794288</v>
       </c>
+      <c r="AK43" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH43, $B$1:$G1004, 2), "")</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="44" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="37"/>
@@ -23060,6 +23165,10 @@
         <f ca="1">IFERROR(VLOOKUP(AH44, $B$1:$G1005, 6), "")</f>
         <v>0.11372259376924314</v>
       </c>
+      <c r="AK44" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH44, $B$1:$G1005, 2), "")</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="45" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="37"/>
@@ -23125,6 +23234,10 @@
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 6), "")</f>
         <v>0.39672835426305358</v>
       </c>
+      <c r="AK45" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 2), "")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="37"/>
@@ -23190,6 +23303,10 @@
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 6), "")</f>
         <v>0.39672835426305358</v>
       </c>
+      <c r="AK46" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 2), "")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="37"/>
@@ -23255,6 +23372,10 @@
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$G1008, 6), "")</f>
         <v>0.39672835426305358</v>
       </c>
+      <c r="AK47" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$G1008, 2), "")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="37"/>
@@ -23320,8 +23441,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 6), "")</f>
         <v>0.39672835426305358</v>
       </c>
-    </row>
-    <row r="49" spans="1:38" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK48" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 2), "")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="37"/>
       <c r="B49" s="31">
         <v>9039</v>
@@ -23385,8 +23510,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:38" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK49" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 2), "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="37"/>
       <c r="B50" s="31">
         <v>9040</v>
@@ -23420,7 +23549,7 @@
         <v>0.74954576959097419</v>
       </c>
     </row>
-    <row r="51" spans="1:38" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="37"/>
       <c r="B51" s="31">
         <v>9041</v>
@@ -23454,7 +23583,7 @@
         <v>0.69426214541619813</v>
       </c>
     </row>
-    <row r="52" spans="1:38" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="37"/>
       <c r="B52" s="31">
         <v>9042</v>
@@ -23488,7 +23617,7 @@
         <v>0.47089480576986154</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="37"/>
       <c r="B53" s="31">
         <v>9043</v>
@@ -23551,8 +23680,11 @@
       <c r="AJ53" s="37" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK53" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="37"/>
       <c r="B54" s="31">
         <v>9044</v>
@@ -23616,8 +23748,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 6), "")</f>
         <v>0.39672835426305358</v>
       </c>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK54" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 2), "")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="37"/>
       <c r="B55" s="31">
         <v>9045</v>
@@ -23681,8 +23817,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH55, $B$1:$G1016, 6), "")</f>
         <v>0.14125333185830088</v>
       </c>
-    </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK55" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH55, $B$1:$G1016, 2), "")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="37"/>
       <c r="B56" s="31">
         <v>9046</v>
@@ -23746,15 +23886,19 @@
         <f ca="1">IFERROR(VLOOKUP(AH56, $B$1:$G1017, 6), "")</f>
         <v>0.12771091409769464</v>
       </c>
-      <c r="AK56">
+      <c r="AK56" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH56, $B$1:$G1017, 2), "")</f>
+        <v>31</v>
+      </c>
+      <c r="AL56">
         <v>12002</v>
       </c>
-      <c r="AL56" s="39">
-        <f>IFERROR(VLOOKUP(AK56, $B$1:$F1017, 5), "")</f>
+      <c r="AM56" s="39">
+        <f>IFERROR(VLOOKUP(AL56, $B$1:$F1017, 5), "")</f>
         <v>0.17061466770220793</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="37"/>
       <c r="B57" s="31">
         <v>9047</v>
@@ -23818,8 +23962,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH57, $B$1:$G1018, 6), "")</f>
         <v>0.11372259376924314</v>
       </c>
-    </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK57" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH57, $B$1:$G1018, 2), "")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="37"/>
       <c r="B58" s="31">
         <v>9048</v>
@@ -23883,8 +24031,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH58, $B$1:$G1019, 6), "")</f>
         <v>0.11372259376924314</v>
       </c>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK58" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH58, $B$1:$G1019, 2), "")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="37"/>
       <c r="B59" s="31">
         <v>10000</v>
@@ -23948,8 +24100,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH59, $B$1:$G1020, 6), "")</f>
         <v>0.12894725413152699</v>
       </c>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK59" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH59, $B$1:$G1020, 2), "")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="37"/>
       <c r="B60" s="31">
         <v>10001</v>
@@ -24013,8 +24169,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$G1021, 6), "")</f>
         <v>0.39672835426305358</v>
       </c>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK60" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$G1021, 2), "")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="37"/>
       <c r="B61" s="31">
         <v>10002</v>
@@ -24078,8 +24238,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$G1022, 6), "")</f>
         <v>0.39672835426305358</v>
       </c>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK61" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$G1022, 2), "")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="37"/>
       <c r="B62" s="31">
         <v>10003</v>
@@ -24143,8 +24307,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$G1023, 6), "")</f>
         <v>0.39672835426305358</v>
       </c>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK62" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$G1023, 2), "")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="37"/>
       <c r="B63" s="31">
         <v>10004</v>
@@ -24208,8 +24376,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$G1024, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK63" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$G1024, 2), "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="37"/>
       <c r="B64" s="31">
         <v>10005</v>
@@ -24272,6 +24444,10 @@
       <c r="AJ64" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$G1025, 6), "")</f>
         <v>0.39672835426305358</v>
+      </c>
+      <c r="AK64" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$G1025, 2), "")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.55000000000000004">
@@ -27425,7 +27601,7 @@
       </c>
       <c r="C142" s="37">
         <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D142" s="37">
         <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -27433,23 +27609,23 @@
       </c>
       <c r="E142" s="53">
         <f t="shared" si="30"/>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="F142" s="53">
         <f>IFERROR((E142 + Params!$B$3^2/(2 * C142))/(1 + Params!$B$3^2/C142), NA())</f>
-        <v>0.60160949439115585</v>
+        <v>0.5</v>
       </c>
       <c r="G142" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C142))*SQRT(E142*(1-E142)/C142 + (Params!$B$3/(2*C142))^2), NA())</f>
-        <v>0.30162117304962721</v>
+        <v>0.28478747317555814</v>
       </c>
       <c r="H142" s="39">
         <f t="shared" si="31"/>
-        <v>0.29998832134152864</v>
+        <v>0.21521252682444186</v>
       </c>
       <c r="I142" s="39">
         <f t="shared" si="32"/>
-        <v>0.90323066744078306</v>
+        <v>0.78478747317555819</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27493,31 +27669,31 @@
       </c>
       <c r="C144" s="37">
         <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D144" s="37">
         <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E144" s="53">
         <f t="shared" si="30"/>
-        <v>0.66666666666666663</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F144" s="53">
         <f>IFERROR((E144 + Params!$B$3^2/(2 * C144))/(1 + Params!$B$3^2/C144), NA())</f>
-        <v>0.60160949439115585</v>
+        <v>0.63835596221959856</v>
       </c>
       <c r="G144" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C144))*SQRT(E144*(1-E144)/C144 + (Params!$B$3/(2*C144))^2), NA())</f>
-        <v>0.30162117304962721</v>
+        <v>0.27942687207138589</v>
       </c>
       <c r="H144" s="39">
         <f t="shared" si="31"/>
-        <v>0.29998832134152864</v>
+        <v>0.35892909014821267</v>
       </c>
       <c r="I144" s="39">
         <f t="shared" si="32"/>
-        <v>0.90323066744078306</v>
+        <v>0.9177828342909844</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27663,31 +27839,31 @@
       </c>
       <c r="C149" s="37">
         <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D149" s="37">
         <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E149" s="53">
         <f t="shared" si="30"/>
-        <v>0.66666666666666663</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F149" s="53">
         <f>IFERROR((E149 + Params!$B$3^2/(2 * C149))/(1 + Params!$B$3^2/C149), NA())</f>
-        <v>0.60160949439115585</v>
+        <v>0.63835596221959856</v>
       </c>
       <c r="G149" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C149))*SQRT(E149*(1-E149)/C149 + (Params!$B$3/(2*C149))^2), NA())</f>
-        <v>0.30162117304962721</v>
+        <v>0.27942687207138589</v>
       </c>
       <c r="H149" s="39">
         <f t="shared" si="31"/>
-        <v>0.29998832134152864</v>
+        <v>0.35892909014821267</v>
       </c>
       <c r="I149" s="39">
         <f t="shared" si="32"/>
-        <v>0.90323066744078306</v>
+        <v>0.9177828342909844</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45CF784-A953-4AFC-A3D9-395637EF1061}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B661FE61-FD87-4151-A51E-CEA35A12F27C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -1289,7 +1289,7 @@
                   <c:v>0.41555195243885962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53368909012505383</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.35550803375332329</c:v>
@@ -1333,7 +1333,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.33110390487771924</c:v>
+                  <c:v>0.30532020931971093</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.38319212559182658</c:v>
@@ -15592,8 +15592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15641,7 +15641,7 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/52</f>
-        <v>17.448653846153846</v>
+        <v>17.779615384615386</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -16192,16 +16192,16 @@
         <v>9011</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17" s="1">
-        <v>0.54549999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="2">
-        <v>2.72</v>
+        <v>3.21</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -16219,7 +16219,7 @@
         <v>100</v>
       </c>
       <c r="L17">
-        <v>32.619999999999997</v>
+        <v>38.58</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16990,16 +16990,16 @@
         <v>9044</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="E38" s="1">
-        <v>0.25</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="F38" s="2">
-        <v>2.42</v>
+        <v>3.22</v>
       </c>
       <c r="G38">
         <v>0.1</v>
@@ -17017,7 +17017,7 @@
         <v>200</v>
       </c>
       <c r="L38">
-        <v>33.880000000000003</v>
+        <v>45.13</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17371,11 +17371,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -17425,14 +17423,14 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/52</f>
-        <v>17.382884615384611</v>
+        <v>22.92115384615385</v>
       </c>
       <c r="O1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43734.864400819089</v>
+        <v>43740.611454309117</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17440,7 +17438,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>9019</v>
+        <v>9009</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -17452,7 +17450,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.83</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -17461,16 +17459,16 @@
         <v>0.2</v>
       </c>
       <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>0.2</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="J2">
-        <v>0.2</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
       <c r="L2" s="2">
-        <v>25.25</v>
+        <v>42.02</v>
       </c>
       <c r="O2" s="92" t="s">
         <v>59</v>
@@ -17484,19 +17482,19 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>9020</v>
+        <v>9012</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>1.33</v>
+        <v>1.72</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -17505,16 +17503,16 @@
         <v>0.2</v>
       </c>
       <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>0.2</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
       <c r="L3" s="2">
-        <v>30.6</v>
+        <v>39.47</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17522,19 +17520,19 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>9021</v>
+        <v>9015</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>1.49</v>
+        <v>1.78</v>
       </c>
       <c r="G4">
         <v>0.1</v>
@@ -17543,16 +17541,16 @@
         <v>0.2</v>
       </c>
       <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="J4">
-        <v>0.2</v>
-      </c>
-      <c r="K4">
-        <v>20</v>
-      </c>
       <c r="L4" s="2">
-        <v>34.32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17560,7 +17558,7 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>9022</v>
+        <v>9019</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -17572,7 +17570,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>1.49</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -17587,10 +17585,10 @@
         <v>0.2</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="L5" s="2">
-        <v>34.36</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17598,7 +17596,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>11000</v>
+        <v>9020</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -17610,19 +17608,25 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="G6">
         <v>0.1</v>
       </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L6" s="2">
-        <v>26.07</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17630,7 +17634,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>11006</v>
+        <v>9021</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -17642,19 +17646,25 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="G7">
         <v>0.1</v>
       </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
       <c r="J7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
         <v>20</v>
       </c>
       <c r="L7" s="2">
-        <v>26.69</v>
+        <v>34.32</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17662,7 +17672,7 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>11007</v>
+        <v>9022</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -17674,19 +17684,25 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
       <c r="G8">
         <v>0.1</v>
       </c>
+      <c r="H8">
+        <v>0.2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
       <c r="J8">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="K8">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L8" s="2">
-        <v>30.91</v>
+        <v>34.36</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17694,31 +17710,37 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>11008</v>
+        <v>9023</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>1.1399999999999999</v>
+        <v>1.78</v>
       </c>
       <c r="G9">
         <v>0.1</v>
       </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
       <c r="J9">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L9" s="2">
-        <v>26.27</v>
+        <v>40.98</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17726,7 +17748,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>11009</v>
+        <v>9024</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -17738,19 +17760,25 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.81</v>
       </c>
       <c r="G10">
         <v>0.1</v>
       </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>50</v>
+      </c>
       <c r="J10">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L10" s="2">
-        <v>26.72</v>
+        <v>41.59</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17758,7 +17786,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>12000</v>
+        <v>9043</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -17770,19 +17798,25 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>1.22</v>
+        <v>1.81</v>
       </c>
       <c r="G11">
         <v>0.1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
+        <v>200</v>
       </c>
       <c r="L11" s="2">
-        <v>27.95</v>
+        <v>41.69</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17790,7 +17824,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>12006</v>
+        <v>10007</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -17802,19 +17836,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>1.27</v>
+        <v>1.79</v>
       </c>
       <c r="G12">
         <v>0.1</v>
       </c>
       <c r="H12">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>29.32</v>
+        <v>41.24</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17822,31 +17856,31 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>12007</v>
+        <v>11000</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1.29</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G13">
         <v>0.1</v>
       </c>
-      <c r="H13">
-        <v>0.7</v>
-      </c>
-      <c r="I13">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>20</v>
       </c>
       <c r="L13" s="2">
-        <v>29.61</v>
+        <v>26.07</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17854,7 +17888,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>12008</v>
+        <v>11006</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -17866,19 +17900,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1.23</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G14">
         <v>0.1</v>
       </c>
-      <c r="H14">
-        <v>0.8</v>
-      </c>
-      <c r="I14">
+      <c r="J14">
+        <v>0.6</v>
+      </c>
+      <c r="K14">
         <v>20</v>
       </c>
       <c r="L14" s="2">
-        <v>28.24</v>
+        <v>26.69</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17886,7 +17920,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>12010</v>
+        <v>11007</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -17898,19 +17932,19 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="G15">
         <v>0.1</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
+      <c r="J15">
+        <v>0.7</v>
+      </c>
+      <c r="K15">
         <v>20</v>
       </c>
       <c r="L15" s="2">
-        <v>31.56</v>
+        <v>30.91</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17918,10 +17952,10 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>15008</v>
+        <v>11008</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -17930,25 +17964,19 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>1.18</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G16">
-        <v>10</v>
-      </c>
-      <c r="H16">
-        <v>0.2</v>
-      </c>
-      <c r="I16">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="J16">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="K16">
         <v>20</v>
       </c>
       <c r="L16" s="2">
-        <v>46.1</v>
+        <v>26.27</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17956,37 +17984,31 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>15016</v>
+        <v>11009</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>1.31</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="H17">
-        <v>0.2</v>
-      </c>
-      <c r="I17">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="J17">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="K17">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L17" s="2">
-        <v>51.16</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17994,37 +18016,31 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>15017</v>
+        <v>12000</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>20</v>
       </c>
-      <c r="J18">
-        <v>0.2</v>
-      </c>
-      <c r="K18">
-        <v>100</v>
-      </c>
       <c r="L18" s="2">
-        <v>54.02</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18032,37 +18048,31 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>15027</v>
+        <v>12006</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>1.66</v>
+        <v>1.27</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H19">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I19">
-        <v>50</v>
-      </c>
-      <c r="J19">
-        <v>0.2</v>
-      </c>
-      <c r="K19">
         <v>20</v>
       </c>
       <c r="L19" s="2">
-        <v>64.63</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18070,37 +18080,31 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>15028</v>
+        <v>12007</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H20">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I20">
-        <v>50</v>
-      </c>
-      <c r="J20">
-        <v>0.2</v>
-      </c>
-      <c r="K20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L20" s="2">
-        <v>57.22</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18108,37 +18112,31 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>15029</v>
+        <v>12008</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.71430000000000005</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H21">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I21">
-        <v>50</v>
-      </c>
-      <c r="J21">
-        <v>0.2</v>
-      </c>
-      <c r="K21">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L21" s="2">
-        <v>54.05</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18146,37 +18144,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15033</v>
+        <v>12010</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0.42859999999999998</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H22">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>100</v>
-      </c>
-      <c r="J22">
-        <v>0.2</v>
-      </c>
-      <c r="K22">
         <v>20</v>
       </c>
       <c r="L22" s="2">
-        <v>56.31</v>
+        <v>31.56</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18184,19 +18176,19 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>15034</v>
+        <v>15008</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0.71430000000000005</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -18205,16 +18197,16 @@
         <v>0.2</v>
       </c>
       <c r="I23">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J23">
         <v>0.2</v>
       </c>
       <c r="K23">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L23" s="2">
-        <v>56.86</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18222,19 +18214,19 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>15035</v>
+        <v>15016</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.625</v>
       </c>
       <c r="F24" s="2">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -18243,15 +18235,281 @@
         <v>0.2</v>
       </c>
       <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>0.2</v>
+      </c>
+      <c r="K24">
+        <v>50</v>
+      </c>
+      <c r="L24" s="2">
+        <v>51.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>15017</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>0.2</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>0.2</v>
+      </c>
+      <c r="K25">
         <v>100</v>
       </c>
-      <c r="J24">
-        <v>0.2</v>
-      </c>
-      <c r="K24">
+      <c r="L25" s="2">
+        <v>54.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>15027</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="I26">
+        <v>50</v>
+      </c>
+      <c r="J26">
+        <v>0.2</v>
+      </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
+      <c r="L26" s="2">
+        <v>64.63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>15028</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
+        <v>50</v>
+      </c>
+      <c r="J27">
+        <v>0.2</v>
+      </c>
+      <c r="K27">
+        <v>50</v>
+      </c>
+      <c r="L27" s="2">
+        <v>57.22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>15029</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
+      <c r="I28">
+        <v>50</v>
+      </c>
+      <c r="J28">
+        <v>0.2</v>
+      </c>
+      <c r="K28">
         <v>100</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L28" s="2">
+        <v>54.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>15033</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>0.2</v>
+      </c>
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29">
+        <v>0.2</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
+      </c>
+      <c r="L29" s="2">
+        <v>56.31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>15034</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>0.2</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="J30">
+        <v>0.2</v>
+      </c>
+      <c r="K30">
+        <v>50</v>
+      </c>
+      <c r="L30" s="2">
+        <v>56.86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>15035</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>0.2</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <v>0.2</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="L31" s="2">
         <v>55.69</v>
       </c>
     </row>
@@ -18367,7 +18625,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4000'!N1</f>
-        <v>17.382884615384611</v>
+        <v>22.92115384615385</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -18511,7 +18769,7 @@
       </c>
       <c r="L3" s="47">
         <f>+THUNDER_3200!N1</f>
-        <v>17.448653846153846</v>
+        <v>17.779615384615386</v>
       </c>
       <c r="AC3" s="78"/>
       <c r="AD3" s="79" t="str">
@@ -18686,21 +18944,21 @@
         <f ca="1">IFERROR(VLOOKUP(BA4, $B$1:$F1001, 5), "")</f>
         <v>7.2821015720186622E-2</v>
       </c>
-      <c r="AF4" s="58" t="str">
+      <c r="AF4" s="58">
         <f ca="1">IFERROR(VLOOKUP(BB4, $B$1:$F1001, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AG4" s="58" t="str">
+        <v>0.60327164573694647</v>
+      </c>
+      <c r="AG4" s="58">
         <f ca="1">IFERROR(VLOOKUP(BC4, $B$1:$F1001, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AH4" s="58" t="str">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="AH4" s="58">
         <f ca="1">IFERROR(VLOOKUP(BD4, $B$1:$F1001, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AI4" s="59" t="str">
+        <v>0.60327164573694647</v>
+      </c>
+      <c r="AI4" s="59">
         <f ca="1">IFERROR(VLOOKUP(BE4, $B$1:$F1001, 5), "")</f>
-        <v/>
+        <v>0.39672835426305353</v>
       </c>
       <c r="AJ4" s="58">
         <f ca="1">IFERROR(VLOOKUP(BF4, $B$1:$F1001, 5), "")</f>
@@ -19584,9 +19842,9 @@
         <f ca="1">IFERROR(VLOOKUP(AZ9, $B$1:$F1006, 5), "")</f>
         <v>0.1699347905951506</v>
       </c>
-      <c r="AE9" s="61" t="str">
+      <c r="AE9" s="61">
         <f ca="1">IFERROR(VLOOKUP(BA9, $B$1:$F1006, 5), "")</f>
-        <v/>
+        <v>0.60327164573694647</v>
       </c>
       <c r="AF9" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$F1006, 5), "")</f>
@@ -19594,7 +19852,7 @@
       </c>
       <c r="AG9" s="39">
         <f ca="1">IFERROR(VLOOKUP(BC9, $B$1:$F1006, 5), "")</f>
-        <v>0.53368909012505383</v>
+        <v>0.5</v>
       </c>
       <c r="AH9" s="39">
         <f ca="1">IFERROR(VLOOKUP(BD9, $B$1:$F1006, 5), "")</f>
@@ -19754,13 +20012,13 @@
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$F1007, 5), "")</f>
         <v/>
       </c>
-      <c r="AE10" s="63" t="str">
+      <c r="AE10" s="63">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$F1007, 5), "")</f>
-        <v/>
+        <v>0.39672835426305353</v>
       </c>
       <c r="AF10" s="55">
         <f ca="1">IFERROR(VLOOKUP(BB10, $B$1:$F1007, 5), "")</f>
-        <v>0.33110390487771924</v>
+        <v>0.30532020931971093</v>
       </c>
       <c r="AG10" s="55">
         <f ca="1">IFERROR(VLOOKUP(BC10, $B$1:$F1007, 5), "")</f>
@@ -20156,21 +20414,21 @@
         <f ca="1">IFERROR(VLOOKUP(BA4, $B$1:$G1001, 6), "")</f>
         <v>6.1782363059360045E-2</v>
       </c>
-      <c r="AF14" s="58" t="str">
+      <c r="AF14" s="58">
         <f ca="1">IFERROR(VLOOKUP(BB4, $B$1:$G1001, 6), "")</f>
-        <v/>
-      </c>
-      <c r="AG14" s="58" t="str">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="AG14" s="58">
         <f ca="1">IFERROR(VLOOKUP(BC4, $B$1:$G1001, 6), "")</f>
-        <v/>
-      </c>
-      <c r="AH14" s="58" t="str">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="AH14" s="58">
         <f ca="1">IFERROR(VLOOKUP(BD4, $B$1:$G1001, 6), "")</f>
-        <v/>
-      </c>
-      <c r="AI14" s="58" t="str">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="AI14" s="58">
         <f ca="1">IFERROR(VLOOKUP(BE4, $B$1:$G1001, 6), "")</f>
-        <v/>
+        <v>0.39672835426305358</v>
       </c>
       <c r="AJ14" s="58">
         <f ca="1">IFERROR(VLOOKUP(BF4, $B$1:$G1001, 6), "")</f>
@@ -20197,19 +20455,19 @@
       </c>
       <c r="AQ14" s="88">
         <f ca="1">IFERROR(VLOOKUP(BB4, $B$1:$G1001, 2), "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14" s="88">
         <f ca="1">IFERROR(VLOOKUP(BC4, $B$1:$G1001, 2), "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS14" s="88">
         <f ca="1">IFERROR(VLOOKUP(BD4, $B$1:$G1001, 2), "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" s="88">
         <f ca="1">IFERROR(VLOOKUP(BE4, $B$1:$G1001, 2), "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="88">
         <f ca="1">IFERROR(VLOOKUP(BF4, $B$1:$G1001, 2), "")</f>
@@ -20659,31 +20917,31 @@
       </c>
       <c r="C19" s="37">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="37">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="53" t="e">
+      <c r="E19" s="53">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F19" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F19" s="53">
         <f>IFERROR((E19 + Params!$B$3^2/(2 * C19))/(1 + Params!$B$3^2/C19), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G19" s="39" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G19" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C19))*SQRT(E19*(1-E19)/C19 + (Params!$B$3/(2*C19))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H19" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H19" s="39">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I19" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I19" s="39">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
       <c r="AC19" s="70">
         <v>100</v>
@@ -20692,9 +20950,9 @@
         <f ca="1">IFERROR(VLOOKUP(AZ9, $B$1:$G1006, 6), "")</f>
         <v>0.11859277894870295</v>
       </c>
-      <c r="AE19" s="61" t="str">
+      <c r="AE19" s="61">
         <f ca="1">IFERROR(VLOOKUP(BA9, $B$1:$G1006, 6), "")</f>
-        <v/>
+        <v>0.39672835426305358</v>
       </c>
       <c r="AF19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$G1006, 6), "")</f>
@@ -20702,7 +20960,7 @@
       </c>
       <c r="AG19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BC9, $B$1:$G1006, 6), "")</f>
-        <v>0.25360133443506561</v>
+        <v>0.24622182960657779</v>
       </c>
       <c r="AH19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BD9, $B$1:$G1006, 6), "")</f>
@@ -20733,7 +20991,7 @@
       </c>
       <c r="AP19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BA9, $B$1:$G1006, 2), "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$G1006, 2), "")</f>
@@ -20741,7 +20999,7 @@
       </c>
       <c r="AR19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BC9, $B$1:$G1006, 2), "")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BD9, $B$1:$G1006, 2), "")</f>
@@ -20800,13 +21058,13 @@
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$G1007, 6), "")</f>
         <v/>
       </c>
-      <c r="AE20" s="63" t="str">
+      <c r="AE20" s="63">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$G1007, 6), "")</f>
-        <v/>
+        <v>0.39672835426305358</v>
       </c>
       <c r="AF20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BB10, $B$1:$G1007, 6), "")</f>
-        <v>0.2596262160196916</v>
+        <v>0.24209644700748373</v>
       </c>
       <c r="AG20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BC10, $B$1:$G1007, 6), "")</f>
@@ -20841,11 +21099,11 @@
       </c>
       <c r="AP20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$G1007, 2), "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BB10, $B$1:$G1007, 2), "")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BC10, $B$1:$G1007, 2), "")</f>
@@ -20875,7 +21133,7 @@
       </c>
       <c r="C21" s="37">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="37">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -20883,23 +21141,23 @@
       </c>
       <c r="E21" s="53">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.5</v>
       </c>
       <c r="F21" s="53">
         <f>IFERROR((E21 + Params!$B$3^2/(2 * C21))/(1 + Params!$B$3^2/C21), NA())</f>
-        <v>0.53368909012505383</v>
+        <v>0.5</v>
       </c>
       <c r="G21" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C21))*SQRT(E21*(1-E21)/C21 + (Params!$B$3/(2*C21))^2), NA())</f>
-        <v>0.25360133443506561</v>
+        <v>0.24622182960657779</v>
       </c>
       <c r="H21" s="39">
         <f t="shared" si="1"/>
-        <v>0.28008775568998823</v>
+        <v>0.25377817039342221</v>
       </c>
       <c r="I21" s="39">
         <f t="shared" si="2"/>
-        <v>0.78729042456011944</v>
+        <v>0.74622182960657779</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -20909,31 +21167,31 @@
       </c>
       <c r="C22" s="37">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="37">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="53" t="e">
+        <v>1</v>
+      </c>
+      <c r="E22" s="53">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F22" s="53" t="e">
+        <v>1</v>
+      </c>
+      <c r="F22" s="53">
         <f>IFERROR((E22 + Params!$B$3^2/(2 * C22))/(1 + Params!$B$3^2/C22), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G22" s="39" t="e">
+        <v>0.60327164573694647</v>
+      </c>
+      <c r="G22" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C22))*SQRT(E22*(1-E22)/C22 + (Params!$B$3/(2*C22))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H22" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H22" s="39">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I22" s="39" t="e">
+        <v>0.20654329147389289</v>
+      </c>
+      <c r="I22" s="39">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -21011,31 +21269,31 @@
       </c>
       <c r="C25" s="37">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="37">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="53" t="e">
+        <v>1</v>
+      </c>
+      <c r="E25" s="53">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F25" s="53" t="e">
+        <v>1</v>
+      </c>
+      <c r="F25" s="53">
         <f>IFERROR((E25 + Params!$B$3^2/(2 * C25))/(1 + Params!$B$3^2/C25), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G25" s="39" t="e">
+        <v>0.60327164573694647</v>
+      </c>
+      <c r="G25" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C25))*SQRT(E25*(1-E25)/C25 + (Params!$B$3/(2*C25))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H25" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H25" s="39">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I25" s="39" t="e">
+        <v>0.20654329147389289</v>
+      </c>
+      <c r="I25" s="39">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="AA25"/>
       <c r="AB25"/>
@@ -22286,31 +22544,31 @@
       </c>
       <c r="C33" s="37">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="37">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="53" t="e">
+        <v>1</v>
+      </c>
+      <c r="E33" s="53">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F33" s="53" t="e">
+        <v>1</v>
+      </c>
+      <c r="F33" s="53">
         <f>IFERROR((E33 + Params!$B$3^2/(2 * C33))/(1 + Params!$B$3^2/C33), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G33" s="39" t="e">
+        <v>0.60327164573694647</v>
+      </c>
+      <c r="G33" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C33))*SQRT(E33*(1-E33)/C33 + (Params!$B$3/(2*C33))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H33" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H33" s="39">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I33" s="39" t="e">
+        <v>0.20654329147389289</v>
+      </c>
+      <c r="I33" s="39">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <v>20</v>
@@ -22457,31 +22715,31 @@
       </c>
       <c r="C34" s="37">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="37">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="53" t="e">
+      <c r="E34" s="53">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F34" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F34" s="53">
         <f>IFERROR((E34 + Params!$B$3^2/(2 * C34))/(1 + Params!$B$3^2/C34), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G34" s="39" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G34" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C34))*SQRT(E34*(1-E34)/C34 + (Params!$B$3/(2*C34))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H34" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H34" s="39">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I34" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I34" s="39">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
       <c r="Q34">
         <v>50</v>
@@ -23624,31 +23882,31 @@
       </c>
       <c r="C53" s="37">
         <f>IFERROR(VLOOKUP($B53, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B53, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B53, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="37">
         <f>IFERROR(VLOOKUP($B53, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B53, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B53, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="53" t="e">
+      <c r="E53" s="53">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F53" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F53" s="53">
         <f>IFERROR((E53 + Params!$B$3^2/(2 * C53))/(1 + Params!$B$3^2/C53), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G53" s="39" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G53" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C53))*SQRT(E53*(1-E53)/C53 + (Params!$B$3/(2*C53))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H53" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H53" s="39">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I53" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I53" s="39">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
       <c r="AA53" s="37" t="s">
         <v>10</v>
@@ -23691,7 +23949,7 @@
       </c>
       <c r="C54" s="37">
         <f>IFERROR(VLOOKUP($B54, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B54, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B54, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="37">
         <f>IFERROR(VLOOKUP($B54, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B54, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B54, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -23699,23 +23957,23 @@
       </c>
       <c r="E54" s="53">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="F54" s="53">
         <f>IFERROR((E54 + Params!$B$3^2/(2 * C54))/(1 + Params!$B$3^2/C54), NA())</f>
-        <v>0.33110390487771924</v>
+        <v>0.30532020931971093</v>
       </c>
       <c r="G54" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C54))*SQRT(E54*(1-E54)/C54 + (Params!$B$3/(2*C54))^2), NA())</f>
-        <v>0.2596262160196916</v>
+        <v>0.24209644700748373</v>
       </c>
       <c r="H54" s="39">
         <f t="shared" si="1"/>
-        <v>7.1477688858027633E-2</v>
+        <v>6.3223762312227205E-2</v>
       </c>
       <c r="I54" s="39">
         <f t="shared" si="2"/>
-        <v>0.59073012089741084</v>
+        <v>0.54741665632719472</v>
       </c>
       <c r="AA54" s="37"/>
       <c r="AB54" s="44"/>
@@ -24491,31 +24749,31 @@
       </c>
       <c r="C66" s="37">
         <f>IFERROR(VLOOKUP($B66, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B66, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B66, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="37">
         <f>IFERROR(VLOOKUP($B66, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B66, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B66, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E66" s="53" t="e">
+      <c r="E66" s="53">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F66" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F66" s="53">
         <f>IFERROR((E66 + Params!$B$3^2/(2 * C66))/(1 + Params!$B$3^2/C66), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G66" s="39" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G66" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C66))*SQRT(E66*(1-E66)/C66 + (Params!$B$3/(2*C66))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H66" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H66" s="39">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I66" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I66" s="39">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B661FE61-FD87-4151-A51E-CEA35A12F27C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147BBC50-C9F3-4340-A0A9-8DF614AAB3CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -1113,7 +1113,7 @@
                   <c:v>0.22744829304759534</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14957637677547969</c:v>
+                  <c:v>0.13877008438330826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,7 +1251,7 @@
                   <c:v>0.54439280785778066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.63835596221959856</c:v>
+                  <c:v>0.66889609512228076</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.45388134592680052</c:v>
@@ -1342,10 +1342,10 @@
                   <c:v>0.5722459831233383</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53893595813605788</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33034744842562436</c:v>
+                  <c:v>0.39839050560884404</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.24665585731657882</c:v>
@@ -1712,7 +1712,7 @@
                     <c:v>0.11859277894870295</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>0.39672835426305358</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1742,7 +1742,7 @@
                     <c:v>0.11859277894870295</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>0.39672835426305358</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1813,7 +1813,7 @@
                   <c:v>0.1699347905951506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.39672835426305353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1877,7 +1877,7 @@
                     <c:v>7.8113748837375874E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>0.39672835426305358</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1907,7 +1907,7 @@
                     <c:v>7.8113748837375874E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>0.39672835426305358</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1978,7 +1978,7 @@
                   <c:v>8.3830822924320328E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.39672835426305353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2266,7 +2266,7 @@
                         <c:v>0.25376561351947091</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>#N/A</c:v>
+                        <c:v>0.79345670852610706</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15593,7 +15593,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L48"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15641,7 +15641,7 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/52</f>
-        <v>17.779615384615386</v>
+        <v>18.918076923076924</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -16724,16 +16724,16 @@
         <v>9034</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1">
-        <v>0.71430000000000005</v>
+        <v>0.75</v>
       </c>
       <c r="F31" s="2">
-        <v>2.88</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G31">
         <v>0.1</v>
@@ -16751,7 +16751,7 @@
         <v>50</v>
       </c>
       <c r="L31">
-        <v>40.270000000000003</v>
+        <v>59.23</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16762,7 +16762,7 @@
         <v>9037</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -16771,7 +16771,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>2.91</v>
+        <v>3.62</v>
       </c>
       <c r="G32">
         <v>0.1</v>
@@ -16789,7 +16789,7 @@
         <v>5</v>
       </c>
       <c r="L32">
-        <v>40.78</v>
+        <v>50.68</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17104,16 +17104,16 @@
         <v>9047</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
       <c r="E41" s="1">
-        <v>0.55559999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="F41" s="2">
-        <v>2.94</v>
+        <v>3.53</v>
       </c>
       <c r="G41">
         <v>0.1</v>
@@ -17131,7 +17131,7 @@
         <v>200</v>
       </c>
       <c r="L41">
-        <v>41.15</v>
+        <v>49.37</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17142,16 +17142,16 @@
         <v>9048</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="1">
-        <v>0.2</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F42" s="2">
-        <v>4.28</v>
+        <v>5.86</v>
       </c>
       <c r="G42">
         <v>0.1</v>
@@ -17169,7 +17169,7 @@
         <v>200</v>
       </c>
       <c r="L42">
-        <v>59.99</v>
+        <v>82.11</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17371,7 +17371,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17423,14 +17423,14 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/52</f>
-        <v>22.92115384615385</v>
+        <v>24.917307692307695</v>
       </c>
       <c r="O1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43740.611454309117</v>
+        <v>43742.91882285435</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17438,7 +17438,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>9009</v>
+        <v>7007</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -17450,25 +17450,19 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="G2">
         <v>0.1</v>
       </c>
-      <c r="H2">
-        <v>0.2</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
       <c r="J2">
         <v>0.2</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="L2" s="2">
-        <v>42.02</v>
+        <v>44.59</v>
       </c>
       <c r="O2" s="92" t="s">
         <v>59</v>
@@ -17482,19 +17476,19 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>9012</v>
+        <v>9009</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -17503,7 +17497,7 @@
         <v>0.2</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J3">
         <v>0.2</v>
@@ -17512,7 +17506,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="2">
-        <v>39.47</v>
+        <v>42.02</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17520,7 +17514,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>9015</v>
+        <v>9012</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -17532,7 +17526,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="G4">
         <v>0.1</v>
@@ -17541,7 +17535,7 @@
         <v>0.2</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>0.2</v>
@@ -17550,7 +17544,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="2">
-        <v>41</v>
+        <v>39.47</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17558,19 +17552,19 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>9019</v>
+        <v>9015</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -17579,16 +17573,16 @@
         <v>0.2</v>
       </c>
       <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="J5">
-        <v>0.2</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
       <c r="L5" s="2">
-        <v>25.25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17596,7 +17590,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>9020</v>
+        <v>9019</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -17608,7 +17602,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>1.33</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -17623,10 +17617,10 @@
         <v>0.2</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L6" s="2">
-        <v>30.6</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17634,7 +17628,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>9021</v>
+        <v>9020</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -17646,7 +17640,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="G7">
         <v>0.1</v>
@@ -17661,10 +17655,10 @@
         <v>0.2</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L7" s="2">
-        <v>34.32</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17672,7 +17666,7 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>9022</v>
+        <v>9021</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -17699,10 +17693,10 @@
         <v>0.2</v>
       </c>
       <c r="K8">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L8" s="2">
-        <v>34.36</v>
+        <v>34.32</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17710,19 +17704,19 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>9023</v>
+        <v>9022</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>1.78</v>
+        <v>1.49</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -17737,10 +17731,10 @@
         <v>0.2</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L9" s="2">
-        <v>40.98</v>
+        <v>34.36</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17748,19 +17742,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>9024</v>
+        <v>9023</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="G10">
         <v>0.1</v>
@@ -17769,16 +17763,16 @@
         <v>0.2</v>
       </c>
       <c r="I10">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>0.2</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L10" s="2">
-        <v>41.59</v>
+        <v>40.98</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17786,7 +17780,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>9043</v>
+        <v>9024</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -17807,16 +17801,16 @@
         <v>0.2</v>
       </c>
       <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="J11">
-        <v>0.2</v>
-      </c>
-      <c r="K11">
-        <v>200</v>
-      </c>
       <c r="L11" s="2">
-        <v>41.69</v>
+        <v>41.59</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17824,7 +17818,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>10007</v>
+        <v>9043</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -17836,7 +17830,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -17845,10 +17839,16 @@
         <v>0.2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+      <c r="K12">
+        <v>200</v>
       </c>
       <c r="L12" s="2">
-        <v>41.24</v>
+        <v>41.69</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17856,7 +17856,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>11000</v>
+        <v>10006</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -17868,19 +17868,19 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1.1299999999999999</v>
+        <v>2.11</v>
       </c>
       <c r="G13">
         <v>0.1</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>20</v>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>200</v>
       </c>
       <c r="L13" s="2">
-        <v>26.07</v>
+        <v>48.62</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17888,7 +17888,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>11006</v>
+        <v>10007</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -17900,19 +17900,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.79</v>
       </c>
       <c r="G14">
         <v>0.1</v>
       </c>
-      <c r="J14">
-        <v>0.6</v>
-      </c>
-      <c r="K14">
-        <v>20</v>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>26.69</v>
+        <v>41.24</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17920,7 +17920,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>11007</v>
+        <v>11000</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -17932,19 +17932,19 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>1.34</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G15">
         <v>0.1</v>
       </c>
       <c r="J15">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>20</v>
       </c>
       <c r="L15" s="2">
-        <v>30.91</v>
+        <v>26.07</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17952,7 +17952,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>11008</v>
+        <v>11006</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -17964,19 +17964,19 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>1.1399999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G16">
         <v>0.1</v>
       </c>
       <c r="J16">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K16">
         <v>20</v>
       </c>
       <c r="L16" s="2">
-        <v>26.27</v>
+        <v>26.69</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17984,7 +17984,7 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>11009</v>
+        <v>11007</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -17996,19 +17996,19 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="G17">
         <v>0.1</v>
       </c>
       <c r="J17">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="K17">
         <v>20</v>
       </c>
       <c r="L17" s="2">
-        <v>26.72</v>
+        <v>30.91</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18016,7 +18016,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>12000</v>
+        <v>11008</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -18028,19 +18028,19 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>1.22</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G18">
         <v>0.1</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="J18">
+        <v>0.8</v>
+      </c>
+      <c r="K18">
         <v>20</v>
       </c>
       <c r="L18" s="2">
-        <v>27.95</v>
+        <v>26.27</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18048,7 +18048,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>12006</v>
+        <v>11009</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -18060,19 +18060,19 @@
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>1.27</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G19">
         <v>0.1</v>
       </c>
-      <c r="H19">
-        <v>0.6</v>
-      </c>
-      <c r="I19">
+      <c r="J19">
+        <v>0.9</v>
+      </c>
+      <c r="K19">
         <v>20</v>
       </c>
       <c r="L19" s="2">
-        <v>29.32</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18080,31 +18080,31 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>12007</v>
+        <v>12000</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="G20">
         <v>0.1</v>
       </c>
       <c r="H20">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>20</v>
       </c>
       <c r="L20" s="2">
-        <v>29.61</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18112,7 +18112,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>12008</v>
+        <v>12006</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -18124,19 +18124,19 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="G21">
         <v>0.1</v>
       </c>
       <c r="H21">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="L21" s="2">
-        <v>28.24</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18144,31 +18144,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12010</v>
+        <v>12007</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="G22">
         <v>0.1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I22">
         <v>20</v>
       </c>
       <c r="L22" s="2">
-        <v>31.56</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18176,10 +18176,10 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>15008</v>
+        <v>12008</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -18188,25 +18188,19 @@
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H23">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I23">
         <v>20</v>
       </c>
-      <c r="J23">
-        <v>0.2</v>
-      </c>
-      <c r="K23">
-        <v>20</v>
-      </c>
       <c r="L23" s="2">
-        <v>46.1</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18214,37 +18208,31 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>15016</v>
+        <v>12010</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H24">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>20</v>
       </c>
-      <c r="J24">
-        <v>0.2</v>
-      </c>
-      <c r="K24">
-        <v>50</v>
-      </c>
       <c r="L24" s="2">
-        <v>51.16</v>
+        <v>31.56</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18252,19 +18240,19 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>15017</v>
+        <v>15008</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -18279,10 +18267,10 @@
         <v>0.2</v>
       </c>
       <c r="K25">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L25" s="2">
-        <v>54.02</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18290,19 +18278,19 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>15027</v>
+        <v>15016</v>
       </c>
       <c r="C26">
         <v>8</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="F26" s="2">
-        <v>1.66</v>
+        <v>1.31</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -18311,16 +18299,16 @@
         <v>0.2</v>
       </c>
       <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>0.2</v>
+      </c>
+      <c r="K26">
         <v>50</v>
       </c>
-      <c r="J26">
-        <v>0.2</v>
-      </c>
-      <c r="K26">
-        <v>20</v>
-      </c>
       <c r="L26" s="2">
-        <v>64.63</v>
+        <v>51.16</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18328,7 +18316,7 @@
         <v>20</v>
       </c>
       <c r="B27">
-        <v>15028</v>
+        <v>15017</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -18340,7 +18328,7 @@
         <v>0.5</v>
       </c>
       <c r="F27" s="2">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -18349,16 +18337,16 @@
         <v>0.2</v>
       </c>
       <c r="I27">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J27">
         <v>0.2</v>
       </c>
       <c r="K27">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L27" s="2">
-        <v>57.22</v>
+        <v>54.02</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18366,19 +18354,19 @@
         <v>20</v>
       </c>
       <c r="B28">
-        <v>15029</v>
+        <v>15027</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="1">
-        <v>0.71430000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="F28" s="2">
-        <v>1.39</v>
+        <v>1.66</v>
       </c>
       <c r="G28">
         <v>10</v>
@@ -18393,10 +18381,10 @@
         <v>0.2</v>
       </c>
       <c r="K28">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L28" s="2">
-        <v>54.05</v>
+        <v>64.63</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18404,19 +18392,19 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>15033</v>
+        <v>15028</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" s="1">
-        <v>0.42859999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="F29" s="2">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="G29">
         <v>10</v>
@@ -18425,16 +18413,16 @@
         <v>0.2</v>
       </c>
       <c r="I29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <v>0.2</v>
       </c>
       <c r="K29">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L29" s="2">
-        <v>56.31</v>
+        <v>57.22</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18442,7 +18430,7 @@
         <v>20</v>
       </c>
       <c r="B30">
-        <v>15034</v>
+        <v>15029</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -18454,7 +18442,7 @@
         <v>0.71430000000000005</v>
       </c>
       <c r="F30" s="2">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -18463,16 +18451,16 @@
         <v>0.2</v>
       </c>
       <c r="I30">
+        <v>50</v>
+      </c>
+      <c r="J30">
+        <v>0.2</v>
+      </c>
+      <c r="K30">
         <v>100</v>
       </c>
-      <c r="J30">
-        <v>0.2</v>
-      </c>
-      <c r="K30">
-        <v>50</v>
-      </c>
       <c r="L30" s="2">
-        <v>56.86</v>
+        <v>54.05</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18480,19 +18468,19 @@
         <v>20</v>
       </c>
       <c r="B31">
-        <v>15035</v>
+        <v>15033</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F31" s="2">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -18507,9 +18495,85 @@
         <v>0.2</v>
       </c>
       <c r="K31">
+        <v>20</v>
+      </c>
+      <c r="L31" s="2">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>15034</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>0.2</v>
+      </c>
+      <c r="I32">
         <v>100</v>
       </c>
-      <c r="L31" s="2">
+      <c r="J32">
+        <v>0.2</v>
+      </c>
+      <c r="K32">
+        <v>50</v>
+      </c>
+      <c r="L32" s="2">
+        <v>56.86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>15035</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>0.2</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33">
+        <v>0.2</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33" s="2">
         <v>55.69</v>
       </c>
     </row>
@@ -18523,8 +18587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL44" sqref="AL44"/>
+    <sheetView tabSelected="1" topLeftCell="J79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG10" sqref="BG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18540,7 +18604,7 @@
     <col min="34" max="34" width="7.41796875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="7.15625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="6.62890625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.578125" customWidth="1"/>
+    <col min="37" max="37" width="7.1015625" customWidth="1"/>
     <col min="40" max="40" width="10.7890625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="8.41796875" bestFit="1" customWidth="1"/>
     <col min="42" max="48" width="4.9453125" bestFit="1" customWidth="1"/>
@@ -18625,7 +18689,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4000'!N1</f>
-        <v>22.92115384615385</v>
+        <v>24.917307692307695</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -18769,7 +18833,7 @@
       </c>
       <c r="L3" s="47">
         <f>+THUNDER_3200!N1</f>
-        <v>17.779615384615386</v>
+        <v>18.918076923076924</v>
       </c>
       <c r="AC3" s="78"/>
       <c r="AD3" s="79" t="str">
@@ -18800,9 +18864,9 @@
         <f ca="1">IFERROR(VLOOKUP(BF3, $B$1:$F1000, 5), "")</f>
         <v>8.3830822924320328E-2</v>
       </c>
-      <c r="AK3" s="94" t="str">
+      <c r="AK3" s="94">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$F1000, 5), "")</f>
-        <v/>
+        <v>0.39672835426305353</v>
       </c>
       <c r="AL3" s="100" t="str">
         <f ca="1">OFFSET(AD3, 0, ROW(AD3)-ROW($AD$3))</f>
@@ -19140,7 +19204,7 @@
       </c>
       <c r="AK5" s="97">
         <f ca="1">IFERROR(VLOOKUP(BG5, $B$1:$F1002, 5), "")</f>
-        <v>0.14957637677547969</v>
+        <v>0.13877008438330826</v>
       </c>
       <c r="AL5" s="100">
         <f t="shared" ca="1" si="3"/>
@@ -19694,7 +19758,7 @@
       </c>
       <c r="AJ8" s="50">
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$F1005, 5), "")</f>
-        <v>0.63835596221959856</v>
+        <v>0.66889609512228076</v>
       </c>
       <c r="AK8" s="98">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$F1005, 5), "")</f>
@@ -19809,31 +19873,31 @@
       </c>
       <c r="C9" s="37">
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="37">
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="53" t="e">
+      <c r="E9" s="53">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F9" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F9" s="53">
         <f>IFERROR((E9 + Params!$B$3^2/(2 * C9))/(1 + Params!$B$3^2/C9), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G9" s="39" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G9" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C9))*SQRT(E9*(1-E9)/C9 + (Params!$B$3/(2*C9))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H9" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H9" s="39">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I9" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I9" s="39">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
       <c r="AC9" s="70">
         <v>100</v>
@@ -20008,9 +20072,9 @@
       <c r="AC10" s="72">
         <v>200</v>
       </c>
-      <c r="AD10" s="76" t="str">
+      <c r="AD10" s="76">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$F1007, 5), "")</f>
-        <v/>
+        <v>0.39672835426305353</v>
       </c>
       <c r="AE10" s="63">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$F1007, 5), "")</f>
@@ -20030,11 +20094,11 @@
       </c>
       <c r="AI10" s="56">
         <f ca="1">IFERROR(VLOOKUP(BE10, $B$1:$F1007, 5), "")</f>
-        <v>0.53893595813605788</v>
+        <v>0.5</v>
       </c>
       <c r="AJ10" s="55">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$F1007, 5), "")</f>
-        <v>0.33034744842562436</v>
+        <v>0.39839050560884404</v>
       </c>
       <c r="AK10" s="99">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$F1007, 5), "")</f>
@@ -20328,9 +20392,9 @@
         <f ca="1">IFERROR(VLOOKUP(BF3, $B$1:$G1000, 6), "")</f>
         <v>7.8113748837375874E-2</v>
       </c>
-      <c r="AK13" s="68" t="str">
+      <c r="AK13" s="68">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$G1000, 6), "")</f>
-        <v/>
+        <v>0.39672835426305358</v>
       </c>
       <c r="AL13" s="100" t="str">
         <f ca="1">OFFSET(AD13, 0, ROW(AD13)-ROW($AD$13))</f>
@@ -20367,7 +20431,7 @@
       </c>
       <c r="AV13" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$G1000, 2), "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:69" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -20544,7 +20608,7 @@
       </c>
       <c r="AK15" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG5, $B$1:$G1002, 6), "")</f>
-        <v>0.14957637677547969</v>
+        <v>0.13877008438330829</v>
       </c>
       <c r="AL15" s="100">
         <f t="shared" ca="1" si="7"/>
@@ -20583,7 +20647,7 @@
       </c>
       <c r="AV15" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG5, $B$1:$G1002, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:69" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -20864,7 +20928,7 @@
       </c>
       <c r="AJ18" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$G1005, 6), "")</f>
-        <v>0.27942687207138589</v>
+        <v>0.2596262160196916</v>
       </c>
       <c r="AK18" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$G1005, 6), "")</f>
@@ -20903,7 +20967,7 @@
       </c>
       <c r="AU18" s="88">
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$G1005, 2), "")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV18" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$G1005, 2), "")</f>
@@ -21054,9 +21118,9 @@
       <c r="AC20" s="72">
         <v>200</v>
       </c>
-      <c r="AD20" s="63" t="str">
+      <c r="AD20" s="63">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$G1007, 6), "")</f>
-        <v/>
+        <v>0.39672835426305358</v>
       </c>
       <c r="AE20" s="63">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$G1007, 6), "")</f>
@@ -21076,11 +21140,11 @@
       </c>
       <c r="AI20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BE10, $B$1:$G1007, 6), "")</f>
-        <v>0.27228861239202817</v>
+        <v>0.26341040638451269</v>
       </c>
       <c r="AJ20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$G1007, 6), "")</f>
-        <v>0.29412428745583691</v>
+        <v>0.30162117304962721</v>
       </c>
       <c r="AK20" s="87">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 6), "")</f>
@@ -21095,7 +21159,7 @@
       </c>
       <c r="AO20" s="88">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$G1007, 2), "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$G1007, 2), "")</f>
@@ -21115,11 +21179,11 @@
       </c>
       <c r="AT20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BE10, $B$1:$G1007, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU20" s="90">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$G1007, 2), "")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV20" s="91">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 2), "")</f>
@@ -22102,7 +22166,7 @@
       </c>
       <c r="AJ30" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF30, $B$1:$F1027, 5), "")</f>
-        <v>0.45388134592680052</v>
+        <v>0.5</v>
       </c>
       <c r="AK30" s="39" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG30, $B$1:$F1027, 5), "")</f>
@@ -22876,29 +22940,29 @@
       <c r="Q36">
         <v>200</v>
       </c>
-      <c r="R36" s="1" t="str">
+      <c r="R36" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="S36" s="1" t="str">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="S36" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="T36" s="1" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="T36" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
       <c r="U36" s="1">
         <f t="shared" ca="1" si="13"/>
         <v>0.24665585731657882</v>
       </c>
-      <c r="V36" s="1" t="str">
+      <c r="V36" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="W36" s="1" t="str">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="W36" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>0.39672835426305358</v>
       </c>
       <c r="X36"/>
       <c r="Y36" s="1">
@@ -23366,31 +23430,31 @@
       </c>
       <c r="C44" s="37">
         <f>IFERROR(VLOOKUP($B44, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B44, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B44, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D44" s="37">
         <f>IFERROR(VLOOKUP($B44, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B44, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B44, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E44" s="53">
         <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="F44" s="53">
         <f>IFERROR((E44 + Params!$B$3^2/(2 * C44))/(1 + Params!$B$3^2/C44), NA())</f>
-        <v>0.63835596221959856</v>
+        <v>0.66889609512228076</v>
       </c>
       <c r="G44" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C44))*SQRT(E44*(1-E44)/C44 + (Params!$B$3/(2*C44))^2), NA())</f>
-        <v>0.27942687207138589</v>
+        <v>0.2596262160196916</v>
       </c>
       <c r="H44" s="39">
         <f t="shared" si="1"/>
-        <v>0.35892909014821267</v>
+        <v>0.40926987910258916</v>
       </c>
       <c r="I44" s="39">
         <f t="shared" si="2"/>
-        <v>0.9177828342909844</v>
+        <v>0.92852231114197237</v>
       </c>
       <c r="AA44" s="37">
         <v>20</v>
@@ -23573,7 +23637,7 @@
       </c>
       <c r="C47" s="37">
         <f>IFERROR(VLOOKUP($B47, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B47, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B47, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" s="37">
         <f>IFERROR(VLOOKUP($B47, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B47, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B47, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -23585,11 +23649,11 @@
       </c>
       <c r="F47" s="53">
         <f>IFERROR((E47 + Params!$B$3^2/(2 * C47))/(1 + Params!$B$3^2/C47), NA())</f>
-        <v>0.14957637677547969</v>
+        <v>0.13877008438330826</v>
       </c>
       <c r="G47" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C47))*SQRT(E47*(1-E47)/C47 + (Params!$B$3/(2*C47))^2), NA())</f>
-        <v>0.14957637677547969</v>
+        <v>0.13877008438330829</v>
       </c>
       <c r="H47" s="39">
         <f t="shared" si="1"/>
@@ -23597,7 +23661,7 @@
       </c>
       <c r="I47" s="39">
         <f t="shared" si="2"/>
-        <v>0.29915275355095938</v>
+        <v>0.27754016876661658</v>
       </c>
       <c r="AA47" s="37">
         <v>20</v>
@@ -24163,7 +24227,7 @@
       </c>
       <c r="C57" s="37">
         <f>IFERROR(VLOOKUP($B57, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B57, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B57, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" s="37">
         <f>IFERROR(VLOOKUP($B57, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B57, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B57, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24171,23 +24235,23 @@
       </c>
       <c r="E57" s="53">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.5</v>
       </c>
       <c r="F57" s="53">
         <f>IFERROR((E57 + Params!$B$3^2/(2 * C57))/(1 + Params!$B$3^2/C57), NA())</f>
-        <v>0.53893595813605788</v>
+        <v>0.5</v>
       </c>
       <c r="G57" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C57))*SQRT(E57*(1-E57)/C57 + (Params!$B$3/(2*C57))^2), NA())</f>
-        <v>0.27228861239202817</v>
+        <v>0.26341040638451269</v>
       </c>
       <c r="H57" s="39">
         <f t="shared" si="1"/>
-        <v>0.26664734574402971</v>
+        <v>0.23658959361548731</v>
       </c>
       <c r="I57" s="39">
         <f t="shared" si="2"/>
-        <v>0.81122457052808605</v>
+        <v>0.76341040638451263</v>
       </c>
       <c r="AA57" s="37"/>
       <c r="AB57" s="44"/>
@@ -24232,31 +24296,31 @@
       </c>
       <c r="C58" s="37">
         <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" s="37">
         <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="53">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F58" s="53">
         <f>IFERROR((E58 + Params!$B$3^2/(2 * C58))/(1 + Params!$B$3^2/C58), NA())</f>
-        <v>0.33034744842562436</v>
+        <v>0.39839050560884404</v>
       </c>
       <c r="G58" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C58))*SQRT(E58*(1-E58)/C58 + (Params!$B$3/(2*C58))^2), NA())</f>
-        <v>0.29412428745583691</v>
+        <v>0.30162117304962721</v>
       </c>
       <c r="H58" s="39">
         <f t="shared" si="1"/>
-        <v>3.6223160969787449E-2</v>
+        <v>9.6769332559216825E-2</v>
       </c>
       <c r="I58" s="39">
         <f t="shared" si="2"/>
-        <v>0.62447173588146132</v>
+        <v>0.70001167865847125</v>
       </c>
       <c r="AA58" s="37"/>
       <c r="AB58" s="44"/>
@@ -24715,31 +24779,31 @@
       </c>
       <c r="C65" s="37">
         <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="37">
         <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="53" t="e">
+      <c r="E65" s="53">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F65" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F65" s="53">
         <f>IFERROR((E65 + Params!$B$3^2/(2 * C65))/(1 + Params!$B$3^2/C65), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G65" s="39" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G65" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C65))*SQRT(E65*(1-E65)/C65 + (Params!$B$3/(2*C65))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H65" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H65" s="39">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I65" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I65" s="39">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.55000000000000004">
@@ -28063,31 +28127,31 @@
       </c>
       <c r="C148" s="37">
         <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D148" s="37">
         <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E148" s="53">
         <f t="shared" si="30"/>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="F148" s="53">
         <f>IFERROR((E148 + Params!$B$3^2/(2 * C148))/(1 + Params!$B$3^2/C148), NA())</f>
-        <v>0.45388134592680052</v>
+        <v>0.5</v>
       </c>
       <c r="G148" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C148))*SQRT(E148*(1-E148)/C148 + (Params!$B$3/(2*C148))^2), NA())</f>
-        <v>0.29566442366417367</v>
+        <v>0.28478747317555814</v>
       </c>
       <c r="H148" s="39">
         <f t="shared" si="31"/>
-        <v>0.15821692226262685</v>
+        <v>0.21521252682444186</v>
       </c>
       <c r="I148" s="39">
         <f t="shared" si="32"/>
-        <v>0.74954576959097419</v>
+        <v>0.78478747317555819</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147BBC50-C9F3-4340-A0A9-8DF614AAB3CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AC9547-3022-4504-923D-B69279864B00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="67">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -2569,7 +2569,7 @@
                     <c:v>0.11372259376924314</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.39672835426305358</c:v>
@@ -2578,7 +2578,7 @@
                     <c:v>0.39672835426305358</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2608,7 +2608,7 @@
                     <c:v>0.11372259376924314</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.39672835426305358</c:v>
@@ -2617,7 +2617,7 @@
                     <c:v>0.39672835426305358</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>0</c:v>
@@ -2706,7 +2706,7 @@
                   <c:v>0.13594252746033506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39672835426305353</c:v>
+                  <c:v>0.32881402355519035</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.39672835426305353</c:v>
@@ -2715,7 +2715,7 @@
                   <c:v>0.39672835426305353</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39672835426305353</c:v>
+                  <c:v>0.32881402355519035</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -17371,7 +17371,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17423,14 +17423,14 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/52</f>
-        <v>24.917307692307695</v>
+        <v>7.1794230769230776</v>
       </c>
       <c r="O1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43742.91882285435</v>
+        <v>43725.401186850067</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17506,7 +17506,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="2">
-        <v>42.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17544,7 +17544,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="2">
-        <v>39.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="2">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17620,7 +17620,7 @@
         <v>5</v>
       </c>
       <c r="L6" s="2">
-        <v>25.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17658,7 +17658,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2">
-        <v>30.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17696,7 +17696,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="2">
-        <v>34.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17734,7 +17734,7 @@
         <v>50</v>
       </c>
       <c r="L9" s="2">
-        <v>34.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17772,7 +17772,7 @@
         <v>100</v>
       </c>
       <c r="L10" s="2">
-        <v>40.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17810,7 +17810,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="2">
-        <v>41.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17818,7 +17818,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>9043</v>
+        <v>9036</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -17830,7 +17830,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>1.81</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -17839,16 +17839,16 @@
         <v>0.2</v>
       </c>
       <c r="I12">
+        <v>200</v>
+      </c>
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="J12">
-        <v>0.2</v>
-      </c>
-      <c r="K12">
-        <v>200</v>
-      </c>
       <c r="L12" s="2">
-        <v>41.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17856,7 +17856,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>10006</v>
+        <v>9043</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -17868,7 +17868,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>2.11</v>
+        <v>1.81</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -17877,10 +17877,16 @@
         <v>0.2</v>
       </c>
       <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13">
         <v>200</v>
       </c>
       <c r="L13" s="2">
-        <v>48.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17888,7 +17894,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -17900,7 +17906,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1.79</v>
+        <v>2.11</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -17909,10 +17915,10 @@
         <v>0.2</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L14" s="2">
-        <v>41.24</v>
+        <v>48.62</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17920,7 +17926,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>11000</v>
+        <v>10007</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -17932,19 +17938,19 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.79</v>
       </c>
       <c r="G15">
         <v>0.1</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>20</v>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>26.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17952,7 +17958,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>11006</v>
+        <v>11000</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -17964,19 +17970,19 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G16">
         <v>0.1</v>
       </c>
       <c r="J16">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>20</v>
       </c>
       <c r="L16" s="2">
-        <v>26.69</v>
+        <v>26.07</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17984,10 +17990,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>11007</v>
+        <v>11006</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -17996,19 +18002,19 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>1.34</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G17">
         <v>0.1</v>
       </c>
       <c r="J17">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K17">
         <v>20</v>
       </c>
       <c r="L17" s="2">
-        <v>30.91</v>
+        <v>26.06</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18016,7 +18022,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>11008</v>
+        <v>11007</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -18028,19 +18034,19 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>1.1399999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="G18">
         <v>0.1</v>
       </c>
       <c r="J18">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K18">
         <v>20</v>
       </c>
       <c r="L18" s="2">
-        <v>26.27</v>
+        <v>30.91</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18048,7 +18054,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>11009</v>
+        <v>11008</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -18060,19 +18066,19 @@
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G19">
         <v>0.1</v>
       </c>
       <c r="J19">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K19">
         <v>20</v>
       </c>
       <c r="L19" s="2">
-        <v>26.72</v>
+        <v>26.27</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18080,10 +18086,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>12000</v>
+        <v>11009</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -18092,19 +18098,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="G20">
         <v>0.1</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="J20">
+        <v>0.9</v>
+      </c>
+      <c r="K20">
         <v>20</v>
       </c>
       <c r="L20" s="2">
-        <v>27.95</v>
+        <v>24.13</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18112,7 +18118,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>12006</v>
+        <v>12000</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -18124,19 +18130,19 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="G21">
         <v>0.1</v>
       </c>
       <c r="H21">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="L21" s="2">
-        <v>29.32</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18144,31 +18150,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12007</v>
+        <v>12006</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="G22">
         <v>0.1</v>
       </c>
       <c r="H22">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I22">
         <v>20</v>
       </c>
       <c r="L22" s="2">
-        <v>29.61</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18176,31 +18182,31 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>12008</v>
+        <v>12007</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="G23">
         <v>0.1</v>
       </c>
       <c r="H23">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I23">
         <v>20</v>
       </c>
       <c r="L23" s="2">
-        <v>28.24</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18208,7 +18214,7 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>12010</v>
+        <v>12008</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -18220,19 +18226,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="G24">
         <v>0.1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I24">
         <v>20</v>
       </c>
       <c r="L24" s="2">
-        <v>31.56</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18240,10 +18246,10 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>15008</v>
+        <v>12010</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -18252,25 +18258,19 @@
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H25">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>20</v>
       </c>
-      <c r="J25">
-        <v>0.2</v>
-      </c>
-      <c r="K25">
-        <v>20</v>
-      </c>
       <c r="L25" s="2">
-        <v>46.1</v>
+        <v>31.56</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18278,19 +18278,19 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>15016</v>
+        <v>15008</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -18305,10 +18305,10 @@
         <v>0.2</v>
       </c>
       <c r="K26">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L26" s="2">
-        <v>51.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18316,19 +18316,19 @@
         <v>20</v>
       </c>
       <c r="B27">
-        <v>15017</v>
+        <v>15016</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E27" s="1">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="F27" s="2">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -18343,10 +18343,10 @@
         <v>0.2</v>
       </c>
       <c r="K27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L27" s="2">
-        <v>54.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18354,19 +18354,19 @@
         <v>20</v>
       </c>
       <c r="B28">
-        <v>15027</v>
+        <v>15017</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" s="1">
-        <v>0.5</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="F28" s="2">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="G28">
         <v>10</v>
@@ -18375,16 +18375,16 @@
         <v>0.2</v>
       </c>
       <c r="I28">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J28">
         <v>0.2</v>
       </c>
       <c r="K28">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L28" s="2">
-        <v>64.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18392,19 +18392,19 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>15028</v>
+        <v>15027</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29" s="1">
         <v>0.5</v>
       </c>
       <c r="F29" s="2">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="G29">
         <v>10</v>
@@ -18419,10 +18419,10 @@
         <v>0.2</v>
       </c>
       <c r="K29">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L29" s="2">
-        <v>57.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18430,19 +18430,19 @@
         <v>20</v>
       </c>
       <c r="B30">
-        <v>15029</v>
+        <v>15028</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1">
-        <v>0.71430000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="F30" s="2">
-        <v>1.39</v>
+        <v>1.71</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -18457,10 +18457,10 @@
         <v>0.2</v>
       </c>
       <c r="K30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L30" s="2">
-        <v>54.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18468,19 +18468,19 @@
         <v>20</v>
       </c>
       <c r="B31">
-        <v>15033</v>
+        <v>15029</v>
       </c>
       <c r="C31">
         <v>8</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F31" s="2">
-        <v>1.72</v>
+        <v>1.33</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -18489,16 +18489,16 @@
         <v>0.2</v>
       </c>
       <c r="I31">
+        <v>50</v>
+      </c>
+      <c r="J31">
+        <v>0.2</v>
+      </c>
+      <c r="K31">
         <v>100</v>
       </c>
-      <c r="J31">
-        <v>0.2</v>
-      </c>
-      <c r="K31">
-        <v>20</v>
-      </c>
       <c r="L31" s="2">
-        <v>66.900000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18506,19 +18506,19 @@
         <v>20</v>
       </c>
       <c r="B32">
-        <v>15034</v>
+        <v>15033</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" s="1">
-        <v>0.71430000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="F32" s="2">
-        <v>1.46</v>
+        <v>1.72</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -18533,10 +18533,10 @@
         <v>0.2</v>
       </c>
       <c r="K32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L32" s="2">
-        <v>56.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18544,19 +18544,19 @@
         <v>20</v>
       </c>
       <c r="B33">
-        <v>15035</v>
+        <v>15034</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="F33" s="2">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -18571,10 +18571,48 @@
         <v>0.2</v>
       </c>
       <c r="K33">
+        <v>50</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>15035</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>0.2</v>
+      </c>
+      <c r="I34">
         <v>100</v>
       </c>
-      <c r="L33" s="2">
-        <v>55.69</v>
+      <c r="J34">
+        <v>0.2</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18587,8 +18625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG10" sqref="BG10"/>
+    <sheetView tabSelected="1" topLeftCell="Q4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH49" sqref="AH49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18689,7 +18727,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4000'!N1</f>
-        <v>24.917307692307695</v>
+        <v>7.1794230769230776</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -19028,9 +19066,9 @@
         <f ca="1">IFERROR(VLOOKUP(BF4, $B$1:$F1001, 5), "")</f>
         <v>0.21101606750664662</v>
       </c>
-      <c r="AK4" s="96" t="str">
+      <c r="AK4" s="96">
         <f ca="1">IFERROR(VLOOKUP(BG4, $B$1:$F1001, 5), "")</f>
-        <v/>
+        <v>0.39672835426305353</v>
       </c>
       <c r="AL4" s="100">
         <f t="shared" ref="AL4:AL10" ca="1" si="3">OFFSET(AD4, 0, ROW(AD4)-ROW($AD$3))</f>
@@ -20498,9 +20536,9 @@
         <f ca="1">IFERROR(VLOOKUP(BF4, $B$1:$G1001, 6), "")</f>
         <v>0.19314031799092549</v>
       </c>
-      <c r="AK14" s="60" t="str">
+      <c r="AK14" s="60">
         <f ca="1">IFERROR(VLOOKUP(BG4, $B$1:$G1001, 6), "")</f>
-        <v/>
+        <v>0.39672835426305358</v>
       </c>
       <c r="AL14" s="100">
         <f t="shared" ref="AL14:AL20" ca="1" si="7">OFFSET(AD14, 0, ROW(AD14)-ROW($AD$13))</f>
@@ -20539,7 +20577,7 @@
       </c>
       <c r="AV14" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG4, $B$1:$G1001, 2), "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:69" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -22349,7 +22387,7 @@
       </c>
       <c r="AI31" s="40">
         <f ca="1">IFERROR(VLOOKUP(BE31, $B$1:$F1028, 5), "")</f>
-        <v>0.56915438023844434</v>
+        <v>0.56684313253656315</v>
       </c>
       <c r="AJ31" s="50">
         <f ca="1">IFERROR(VLOOKUP(BF31, $B$1:$F1028, 5), "")</f>
@@ -22516,11 +22554,11 @@
       </c>
       <c r="AH32" s="39">
         <f ca="1">IFERROR(VLOOKUP(BD32, $B$1:$F1029, 5), "")</f>
-        <v>0.5</v>
+        <v>0.54611865407319948</v>
       </c>
       <c r="AI32" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE32, $B$1:$F1029, 5), "")</f>
-        <v>0.63835596221959856</v>
+        <v>0.66889609512228076</v>
       </c>
       <c r="AJ32" s="40">
         <f ca="1">IFERROR(VLOOKUP(BF32, $B$1:$F1029, 5), "")</f>
@@ -23550,15 +23588,15 @@
       </c>
       <c r="AI45" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$F1006, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AJ45" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AK45" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23568,31 +23606,31 @@
       </c>
       <c r="C46" s="37">
         <f>IFERROR(VLOOKUP($B46, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B46, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B46, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="37">
         <f>IFERROR(VLOOKUP($B46, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B46, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B46, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="53" t="e">
+      <c r="E46" s="53">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F46" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F46" s="53">
         <f>IFERROR((E46 + Params!$B$3^2/(2 * C46))/(1 + Params!$B$3^2/C46), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G46" s="39" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G46" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C46))*SQRT(E46*(1-E46)/C46 + (Params!$B$3/(2*C46))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H46" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H46" s="39">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I46" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I46" s="39">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
       <c r="AA46" s="37">
         <v>20</v>
@@ -23757,15 +23795,15 @@
       </c>
       <c r="AI48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$F1009, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AJ48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AK48" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24772,7 +24810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="37"/>
       <c r="B65" s="31">
         <v>10006</v>
@@ -24806,7 +24844,7 @@
         <v>0.79345670852610706</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="37"/>
       <c r="B66" s="31">
         <v>10007</v>
@@ -24840,7 +24878,7 @@
         <v>0.79345670852610706</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="37"/>
       <c r="B67" s="31">
         <v>11000</v>
@@ -24874,7 +24912,7 @@
         <v>0.79345670852610706</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="37"/>
       <c r="B68" s="31">
         <v>11001</v>
@@ -24937,8 +24975,11 @@
       <c r="AJ68" s="37" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK68" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="37"/>
       <c r="B69" s="31">
         <v>11002</v>
@@ -25002,8 +25043,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$G1030, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK69" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$G1030, 2), "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="37"/>
       <c r="B70" s="31">
         <v>11003</v>
@@ -25067,8 +25112,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH70, $B$1:$G1031, 6), "")</f>
         <v>8.6364668187580054E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK70" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH70, $B$1:$G1031, 2), "")</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="37"/>
       <c r="B71" s="31">
         <v>11004</v>
@@ -25132,8 +25181,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH71, $B$1:$G1032, 6), "")</f>
         <v>0.1513544071794288</v>
       </c>
-    </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK71" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH71, $B$1:$G1032, 2), "")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="37"/>
       <c r="B72" s="31">
         <v>11005</v>
@@ -25197,15 +25250,19 @@
         <f ca="1">IFERROR(VLOOKUP(AH72, $B$1:$G1033, 6), "")</f>
         <v>0.16646649029588362</v>
       </c>
-    </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK72" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH72, $B$1:$G1033, 2), "")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="37"/>
       <c r="B73" s="31">
         <v>11006</v>
       </c>
       <c r="C73" s="37">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" s="37">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25217,11 +25274,11 @@
       </c>
       <c r="F73" s="53">
         <f>IFERROR((E73 + Params!$B$3^2/(2 * C73))/(1 + Params!$B$3^2/C73), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G73" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C73))*SQRT(E73*(1-E73)/C73 + (Params!$B$3/(2*C73))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H73" s="39">
         <f t="shared" si="22"/>
@@ -25229,7 +25286,7 @@
       </c>
       <c r="I73" s="39">
         <f t="shared" si="23"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="AA73" s="37">
         <v>20</v>
@@ -25262,8 +25319,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH73, $B$1:$G1034, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK73" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH73, $B$1:$G1034, 2), "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="37"/>
       <c r="B74" s="31">
         <v>11007</v>
@@ -25309,8 +25370,12 @@
         <f>IFERROR(VLOOKUP(AH74, $B$1:$G1035, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK74" s="41" t="str">
+        <f>IFERROR(VLOOKUP(AH74, $B$1:$G1035, 2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="37"/>
       <c r="B75" s="31">
         <v>11008</v>
@@ -25356,15 +25421,19 @@
         <f>IFERROR(VLOOKUP(AH75, $B$1:$G1036, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK75" s="41" t="str">
+        <f>IFERROR(VLOOKUP(AH75, $B$1:$G1036, 2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="37"/>
       <c r="B76" s="31">
         <v>11009</v>
       </c>
       <c r="C76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25376,11 +25445,11 @@
       </c>
       <c r="F76" s="53">
         <f>IFERROR((E76 + Params!$B$3^2/(2 * C76))/(1 + Params!$B$3^2/C76), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G76" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C76))*SQRT(E76*(1-E76)/C76 + (Params!$B$3/(2*C76))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H76" s="39">
         <f t="shared" si="22"/>
@@ -25388,7 +25457,7 @@
       </c>
       <c r="I76" s="39">
         <f t="shared" si="23"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="AA76" s="37"/>
       <c r="AB76" s="44"/>
@@ -25403,8 +25472,12 @@
         <f>IFERROR(VLOOKUP(AH76, $B$1:$G1037, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK76" s="41" t="str">
+        <f>IFERROR(VLOOKUP(AH76, $B$1:$G1037, 2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="37"/>
       <c r="B77" s="31">
         <v>11010</v>
@@ -25450,8 +25523,12 @@
         <f>IFERROR(VLOOKUP(AH77, $B$1:$G1038, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK77" s="41" t="str">
+        <f>IFERROR(VLOOKUP(AH77, $B$1:$G1038, 2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="37"/>
       <c r="B78" s="31">
         <v>12000</v>
@@ -25497,8 +25574,12 @@
         <f>IFERROR(VLOOKUP(AH78, $B$1:$G1039, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK78" s="41" t="str">
+        <f>IFERROR(VLOOKUP(AH78, $B$1:$G1039, 2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="37"/>
       <c r="B79" s="31">
         <v>12001</v>
@@ -25544,8 +25625,12 @@
         <f>IFERROR(VLOOKUP(AH79, $B$1:$G1040, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK79" s="41" t="str">
+        <f>IFERROR(VLOOKUP(AH79, $B$1:$G1040, 2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="37"/>
       <c r="B80" s="31">
         <v>12002</v>
@@ -25579,7 +25664,7 @@
         <v>0.29956192183373492</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="37"/>
       <c r="B81" s="31">
         <v>12003</v>
@@ -25613,7 +25698,7 @@
         <v>0.24966512122957818</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="37"/>
       <c r="B82" s="31">
         <v>12004</v>
@@ -25647,7 +25732,7 @@
         <v>0.24966512122957818</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="37"/>
       <c r="B83" s="31">
         <v>12005</v>
@@ -25710,8 +25795,11 @@
       <c r="AJ83" s="37" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK83" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="37"/>
       <c r="B84" s="31">
         <v>12006</v>
@@ -25775,8 +25863,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$G1045, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK84" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$G1045, 2), "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="37"/>
       <c r="B85" s="31">
         <v>12007</v>
@@ -25840,8 +25932,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH85, $B$1:$G1046, 6), "")</f>
         <v>0.12771091409769464</v>
       </c>
-    </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK85" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH85, $B$1:$G1046, 2), "")</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="37"/>
       <c r="B86" s="31">
         <v>12008</v>
@@ -25905,8 +26001,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH86, $B$1:$G1047, 6), "")</f>
         <v>0.14125333185830088</v>
       </c>
-    </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK86" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH86, $B$1:$G1047, 2), "")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="37"/>
       <c r="B87" s="31">
         <v>12009</v>
@@ -25970,8 +26070,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH87, $B$1:$G1048, 6), "")</f>
         <v>0.17192549374266075</v>
       </c>
-    </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK87" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH87, $B$1:$G1048, 2), "")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="37"/>
       <c r="B88" s="31">
         <v>12010</v>
@@ -26035,8 +26139,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH88, $B$1:$G1049, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK88" s="41">
+        <f ca="1">IFERROR(VLOOKUP(AH88, $B$1:$G1049, 2), "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="37"/>
       <c r="B89" s="31">
         <v>13000</v>
@@ -26082,8 +26190,12 @@
         <f>IFERROR(VLOOKUP(AH89, $B$1:$G1050, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK89" s="41" t="str">
+        <f>IFERROR(VLOOKUP(AH89, $B$1:$G1050, 2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="37"/>
       <c r="B90" s="31">
         <v>13001</v>
@@ -26129,8 +26241,12 @@
         <f>IFERROR(VLOOKUP(AH90, $B$1:$G1051, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK90" s="41" t="str">
+        <f>IFERROR(VLOOKUP(AH90, $B$1:$G1051, 2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="37"/>
       <c r="B91" s="31">
         <v>13002</v>
@@ -26176,8 +26292,12 @@
         <f>IFERROR(VLOOKUP(AH91, $B$1:$G1052, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK91" s="41" t="str">
+        <f>IFERROR(VLOOKUP(AH91, $B$1:$G1052, 2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="37"/>
       <c r="B92" s="31">
         <v>13003</v>
@@ -26223,8 +26343,12 @@
         <f>IFERROR(VLOOKUP(AH92, $B$1:$G1053, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK92" s="41" t="str">
+        <f>IFERROR(VLOOKUP(AH92, $B$1:$G1053, 2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="37"/>
       <c r="B93" s="31">
         <v>13004</v>
@@ -26270,8 +26394,12 @@
         <f>IFERROR(VLOOKUP(AH93, $B$1:$G1054, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK93" s="41" t="str">
+        <f>IFERROR(VLOOKUP(AH93, $B$1:$G1054, 2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="37"/>
       <c r="B94" s="31">
         <v>13005</v>
@@ -26317,8 +26445,12 @@
         <f>IFERROR(VLOOKUP(AH94, $B$1:$G1055, 6), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK94" s="41" t="str">
+        <f>IFERROR(VLOOKUP(AH94, $B$1:$G1055, 2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="37"/>
       <c r="B95" s="31">
         <v>13006</v>
@@ -26352,7 +26484,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="37"/>
       <c r="B96" s="31">
         <v>13007</v>
@@ -27583,31 +27715,31 @@
       </c>
       <c r="C132" s="37">
         <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D132" s="37">
         <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E132" s="53">
         <f t="shared" si="27"/>
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F132" s="53">
         <f>IFERROR((E132 + Params!$B$3^2/(2 * C132))/(1 + Params!$B$3^2/C132), NA())</f>
-        <v>0.5</v>
+        <v>0.54611865407319948</v>
       </c>
       <c r="G132" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C132))*SQRT(E132*(1-E132)/C132 + (Params!$B$3/(2*C132))^2), NA())</f>
-        <v>0.31238719310059126</v>
+        <v>0.29566442366417367</v>
       </c>
       <c r="H132" s="39">
         <f t="shared" si="28"/>
-        <v>0.18761280689940874</v>
+        <v>0.25045423040902581</v>
       </c>
       <c r="I132" s="39">
         <f t="shared" si="29"/>
-        <v>0.81238719310059126</v>
+        <v>0.84178307773737315</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27957,31 +28089,31 @@
       </c>
       <c r="C143" s="37">
         <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D143" s="37">
         <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E143" s="53">
         <f t="shared" si="30"/>
-        <v>0.57407407407407407</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F143" s="53">
         <f>IFERROR((E143 + Params!$B$3^2/(2 * C143))/(1 + Params!$B$3^2/C143), NA())</f>
-        <v>0.56915438023844434</v>
+        <v>0.56684313253656315</v>
       </c>
       <c r="G143" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C143))*SQRT(E143*(1-E143)/C143 + (Params!$B$3/(2*C143))^2), NA())</f>
-        <v>0.12752940177498129</v>
+        <v>0.12546924333250761</v>
       </c>
       <c r="H143" s="39">
         <f t="shared" si="31"/>
-        <v>0.44162497846346305</v>
+        <v>0.44137388920405551</v>
       </c>
       <c r="I143" s="39">
         <f t="shared" si="32"/>
-        <v>0.69668378201342562</v>
+        <v>0.6923123758690708</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27991,31 +28123,31 @@
       </c>
       <c r="C144" s="37">
         <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D144" s="37">
         <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E144" s="53">
         <f t="shared" si="30"/>
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="F144" s="53">
         <f>IFERROR((E144 + Params!$B$3^2/(2 * C144))/(1 + Params!$B$3^2/C144), NA())</f>
-        <v>0.63835596221959856</v>
+        <v>0.66889609512228076</v>
       </c>
       <c r="G144" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C144))*SQRT(E144*(1-E144)/C144 + (Params!$B$3/(2*C144))^2), NA())</f>
-        <v>0.27942687207138589</v>
+        <v>0.2596262160196916</v>
       </c>
       <c r="H144" s="39">
         <f t="shared" si="31"/>
-        <v>0.35892909014821267</v>
+        <v>0.40926987910258916</v>
       </c>
       <c r="I144" s="39">
         <f t="shared" si="32"/>
-        <v>0.9177828342909844</v>
+        <v>0.92852231114197237</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AC9547-3022-4504-923D-B69279864B00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AADF926-6F6F-4EF1-8073-BD1665F1FBFB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="7" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="11" r:id="rId1"/>
@@ -1333,7 +1333,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.30532020931971093</c:v>
+                  <c:v>0.28326205062998494</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.38319212559182658</c:v>
@@ -2572,10 +2572,10 @@
                     <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>0.32881402355519035</c:v>
@@ -2611,16 +2611,16 @@
                     <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>0.39672835426305358</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2709,16 +2709,16 @@
                   <c:v>0.32881402355519035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39672835426305353</c:v>
+                  <c:v>0.32881402355519035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39672835426305353</c:v>
+                  <c:v>0.32881402355519035</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.32881402355519035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.60327164573694647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3000,7 +3000,7 @@
                     <c:v>0.12894725413152699</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.39672835426305358</c:v>
@@ -3042,7 +3042,7 @@
                     <c:v>0.12894725413152699</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.39672835426305358</c:v>
@@ -3140,7 +3140,7 @@
                   <c:v>0.17061466770220793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39672835426305353</c:v>
+                  <c:v>0.32881402355519035</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.60327164573694647</c:v>
@@ -15592,9 +15592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -15641,7 +15639,7 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/52</f>
-        <v>18.918076923076924</v>
+        <v>0.78846153846153844</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -16219,7 +16217,7 @@
         <v>100</v>
       </c>
       <c r="L17">
-        <v>38.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16295,7 +16293,7 @@
         <v>100</v>
       </c>
       <c r="L19">
-        <v>32.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16371,7 +16369,7 @@
         <v>100</v>
       </c>
       <c r="L21">
-        <v>36.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16561,7 +16559,7 @@
         <v>100</v>
       </c>
       <c r="L26">
-        <v>33.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16599,7 +16597,7 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>45.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16637,7 +16635,7 @@
         <v>5</v>
       </c>
       <c r="L28">
-        <v>43.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16675,7 +16673,7 @@
         <v>10</v>
       </c>
       <c r="L29">
-        <v>51.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16713,7 +16711,7 @@
         <v>20</v>
       </c>
       <c r="L30">
-        <v>62.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16751,7 +16749,7 @@
         <v>50</v>
       </c>
       <c r="L31">
-        <v>59.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16789,7 +16787,7 @@
         <v>5</v>
       </c>
       <c r="L32">
-        <v>50.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16827,7 +16825,7 @@
         <v>10</v>
       </c>
       <c r="L33">
-        <v>58.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16865,7 +16863,7 @@
         <v>20</v>
       </c>
       <c r="L34">
-        <v>53.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16903,7 +16901,7 @@
         <v>50</v>
       </c>
       <c r="L35">
-        <v>37.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16941,7 +16939,7 @@
         <v>100</v>
       </c>
       <c r="L36">
-        <v>67.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16990,16 +16988,16 @@
         <v>9044</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="E38" s="1">
-        <v>0.22220000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F38" s="2">
-        <v>3.22</v>
+        <v>3.82</v>
       </c>
       <c r="G38">
         <v>0.1</v>
@@ -17017,7 +17015,7 @@
         <v>200</v>
       </c>
       <c r="L38">
-        <v>45.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17055,7 +17053,7 @@
         <v>200</v>
       </c>
       <c r="L39">
-        <v>43.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17093,7 +17091,7 @@
         <v>200</v>
       </c>
       <c r="L40">
-        <v>53.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17131,7 +17129,7 @@
         <v>200</v>
       </c>
       <c r="L41">
-        <v>49.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17169,7 +17167,7 @@
         <v>200</v>
       </c>
       <c r="L42">
-        <v>82.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17371,9 +17369,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -17423,14 +17421,14 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/52</f>
-        <v>7.1794230769230776</v>
+        <v>7.71</v>
       </c>
       <c r="O1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43725.401186850067</v>
+        <v>43726.073306134262</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -18025,7 +18023,7 @@
         <v>11007</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -18034,7 +18032,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -18046,7 +18044,7 @@
         <v>20</v>
       </c>
       <c r="L18" s="2">
-        <v>30.91</v>
+        <v>29.35</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18057,7 +18055,7 @@
         <v>11008</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -18066,7 +18064,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>1.1399999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -18078,7 +18076,7 @@
         <v>20</v>
       </c>
       <c r="L19" s="2">
-        <v>26.27</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18118,16 +18116,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>12000</v>
+        <v>11010</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>1.22</v>
@@ -18135,14 +18133,14 @@
       <c r="G21">
         <v>0.1</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" s="2">
-        <v>27.95</v>
+        <v>27.97</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18150,7 +18148,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12006</v>
+        <v>12000</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -18162,19 +18160,19 @@
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="G22">
         <v>0.1</v>
       </c>
       <c r="H22">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>20</v>
       </c>
       <c r="L22" s="2">
-        <v>29.32</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18182,31 +18180,31 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>12007</v>
+        <v>12006</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G23">
         <v>0.1</v>
       </c>
       <c r="H23">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I23">
         <v>20</v>
       </c>
       <c r="L23" s="2">
-        <v>29.61</v>
+        <v>29.37</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18214,31 +18212,31 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>12008</v>
+        <v>12007</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="G24">
         <v>0.1</v>
       </c>
       <c r="H24">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I24">
         <v>20</v>
       </c>
       <c r="L24" s="2">
-        <v>28.24</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18246,7 +18244,7 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>12010</v>
+        <v>12008</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -18258,19 +18256,19 @@
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="G25">
         <v>0.1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I25">
         <v>20</v>
       </c>
       <c r="L25" s="2">
-        <v>31.56</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18278,10 +18276,10 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>15008</v>
+        <v>12010</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -18290,25 +18288,19 @@
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H26">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>20</v>
       </c>
-      <c r="J26">
-        <v>0.2</v>
-      </c>
-      <c r="K26">
-        <v>20</v>
-      </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>31.56</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18316,19 +18308,19 @@
         <v>20</v>
       </c>
       <c r="B27">
-        <v>15016</v>
+        <v>15008</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>0.625</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F27" s="2">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -18343,7 +18335,7 @@
         <v>0.2</v>
       </c>
       <c r="K27">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
@@ -18354,19 +18346,19 @@
         <v>20</v>
       </c>
       <c r="B28">
-        <v>15017</v>
+        <v>15016</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E28" s="1">
-        <v>0.57140000000000002</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F28" s="2">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="G28">
         <v>10</v>
@@ -18381,7 +18373,7 @@
         <v>0.2</v>
       </c>
       <c r="K28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -18392,19 +18384,19 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>15027</v>
+        <v>15017</v>
       </c>
       <c r="C29">
         <v>8</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="F29" s="2">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G29">
         <v>10</v>
@@ -18413,13 +18405,13 @@
         <v>0.2</v>
       </c>
       <c r="I29">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J29">
         <v>0.2</v>
       </c>
       <c r="K29">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
@@ -18430,7 +18422,7 @@
         <v>20</v>
       </c>
       <c r="B30">
-        <v>15028</v>
+        <v>15027</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -18442,7 +18434,7 @@
         <v>0.5</v>
       </c>
       <c r="F30" s="2">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -18457,7 +18449,7 @@
         <v>0.2</v>
       </c>
       <c r="K30">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -18468,19 +18460,19 @@
         <v>20</v>
       </c>
       <c r="B31">
-        <v>15029</v>
+        <v>15028</v>
       </c>
       <c r="C31">
         <v>8</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E31" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F31" s="2">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -18495,7 +18487,7 @@
         <v>0.2</v>
       </c>
       <c r="K31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -18506,19 +18498,19 @@
         <v>20</v>
       </c>
       <c r="B32">
-        <v>15033</v>
+        <v>15029</v>
       </c>
       <c r="C32">
         <v>8</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E32" s="1">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F32" s="2">
-        <v>1.72</v>
+        <v>1.33</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -18527,13 +18519,13 @@
         <v>0.2</v>
       </c>
       <c r="I32">
+        <v>50</v>
+      </c>
+      <c r="J32">
+        <v>0.2</v>
+      </c>
+      <c r="K32">
         <v>100</v>
-      </c>
-      <c r="J32">
-        <v>0.2</v>
-      </c>
-      <c r="K32">
-        <v>20</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -18544,19 +18536,19 @@
         <v>20</v>
       </c>
       <c r="B33">
-        <v>15034</v>
+        <v>15033</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33" s="1">
-        <v>0.71430000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="F33" s="2">
-        <v>1.46</v>
+        <v>1.72</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -18571,7 +18563,7 @@
         <v>0.2</v>
       </c>
       <c r="K33">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
@@ -18582,19 +18574,19 @@
         <v>20</v>
       </c>
       <c r="B34">
-        <v>15035</v>
+        <v>15034</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E34" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="F34" s="2">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="G34">
         <v>10</v>
@@ -18609,9 +18601,47 @@
         <v>0.2</v>
       </c>
       <c r="K34">
+        <v>50</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>15035</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>0.2</v>
+      </c>
+      <c r="I35">
         <v>100</v>
       </c>
-      <c r="L34" s="2">
+      <c r="J35">
+        <v>0.2</v>
+      </c>
+      <c r="K35">
+        <v>100</v>
+      </c>
+      <c r="L35" s="2">
         <v>0</v>
       </c>
     </row>
@@ -18625,7 +18655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH49" sqref="AH49"/>
     </sheetView>
   </sheetViews>
@@ -18727,7 +18757,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4000'!N1</f>
-        <v>7.1794230769230776</v>
+        <v>7.71</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -18871,7 +18901,7 @@
       </c>
       <c r="L3" s="47">
         <f>+THUNDER_3200!N1</f>
-        <v>18.918076923076924</v>
+        <v>0.78846153846153844</v>
       </c>
       <c r="AC3" s="78"/>
       <c r="AD3" s="79" t="str">
@@ -20120,7 +20150,7 @@
       </c>
       <c r="AF10" s="55">
         <f ca="1">IFERROR(VLOOKUP(BB10, $B$1:$F1007, 5), "")</f>
-        <v>0.30532020931971093</v>
+        <v>0.28326205062998494</v>
       </c>
       <c r="AG10" s="55">
         <f ca="1">IFERROR(VLOOKUP(BC10, $B$1:$F1007, 5), "")</f>
@@ -21166,7 +21196,7 @@
       </c>
       <c r="AF20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BB10, $B$1:$G1007, 6), "")</f>
-        <v>0.24209644700748373</v>
+        <v>0.22658110264929165</v>
       </c>
       <c r="AG20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BC10, $B$1:$G1007, 6), "")</f>
@@ -21205,7 +21235,7 @@
       </c>
       <c r="AQ20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BB10, $B$1:$G1007, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BC10, $B$1:$G1007, 2), "")</f>
@@ -22196,7 +22226,7 @@
       </c>
       <c r="AH30" s="40">
         <f ca="1">IFERROR(VLOOKUP(BD30, $B$1:$F1027, 5), "")</f>
-        <v>0.21724574737604052</v>
+        <v>0.29678101121768818</v>
       </c>
       <c r="AI30" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE30, $B$1:$F1027, 5), "")</f>
@@ -22383,7 +22413,7 @@
       </c>
       <c r="AH31" s="50">
         <f ca="1">IFERROR(VLOOKUP(BD31, $B$1:$F1028, 5), "")</f>
-        <v>0.58444804756114044</v>
+        <v>0.61680787440817342</v>
       </c>
       <c r="AI31" s="40">
         <f ca="1">IFERROR(VLOOKUP(BE31, $B$1:$F1028, 5), "")</f>
@@ -22554,7 +22584,7 @@
       </c>
       <c r="AH32" s="39">
         <f ca="1">IFERROR(VLOOKUP(BD32, $B$1:$F1029, 5), "")</f>
-        <v>0.54611865407319948</v>
+        <v>0.58444804756114044</v>
       </c>
       <c r="AI32" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE32, $B$1:$F1029, 5), "")</f>
@@ -23657,15 +23687,15 @@
       </c>
       <c r="AI46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$F1007, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AJ46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AK46" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23726,15 +23756,15 @@
       </c>
       <c r="AI47" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$F1008, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AJ47" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$G1008, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AK47" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$G1008, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23862,17 +23892,17 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG49-1, 0)</f>
         <v>11010</v>
       </c>
-      <c r="AI49" s="39" t="str">
+      <c r="AI49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$F1010, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AJ49" s="39" t="str">
+        <v>0.60327164573694647</v>
+      </c>
+      <c r="AJ49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 6), "")</f>
-        <v/>
+        <v>0.39672835426305358</v>
       </c>
       <c r="AK49" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 2), "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24051,7 +24081,7 @@
       </c>
       <c r="C54" s="37">
         <f>IFERROR(VLOOKUP($B54, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B54, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B54, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" s="37">
         <f>IFERROR(VLOOKUP($B54, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B54, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B54, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24059,23 +24089,23 @@
       </c>
       <c r="E54" s="53">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.2</v>
       </c>
       <c r="F54" s="53">
         <f>IFERROR((E54 + Params!$B$3^2/(2 * C54))/(1 + Params!$B$3^2/C54), NA())</f>
-        <v>0.30532020931971093</v>
+        <v>0.28326205062998494</v>
       </c>
       <c r="G54" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C54))*SQRT(E54*(1-E54)/C54 + (Params!$B$3/(2*C54))^2), NA())</f>
-        <v>0.24209644700748373</v>
+        <v>0.22658110264929165</v>
       </c>
       <c r="H54" s="39">
         <f t="shared" si="1"/>
-        <v>6.3223762312227205E-2</v>
+        <v>5.6680947980693286E-2</v>
       </c>
       <c r="I54" s="39">
         <f t="shared" si="2"/>
-        <v>0.54741665632719472</v>
+        <v>0.50984315327927665</v>
       </c>
       <c r="AA54" s="37"/>
       <c r="AB54" s="44"/>
@@ -24523,15 +24553,15 @@
       </c>
       <c r="AI60" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$F1021, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AJ60" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$G1021, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AK60" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$G1021, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -25331,7 +25361,7 @@
       </c>
       <c r="C74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25343,11 +25373,11 @@
       </c>
       <c r="F74" s="53">
         <f>IFERROR((E74 + Params!$B$3^2/(2 * C74))/(1 + Params!$B$3^2/C74), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G74" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C74))*SQRT(E74*(1-E74)/C74 + (Params!$B$3/(2*C74))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H74" s="39">
         <f t="shared" si="22"/>
@@ -25355,7 +25385,7 @@
       </c>
       <c r="I74" s="39">
         <f t="shared" si="23"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="AA74" s="37"/>
       <c r="AB74" s="44"/>
@@ -25382,7 +25412,7 @@
       </c>
       <c r="C75" s="37">
         <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" s="37">
         <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25394,11 +25424,11 @@
       </c>
       <c r="F75" s="53">
         <f>IFERROR((E75 + Params!$B$3^2/(2 * C75))/(1 + Params!$B$3^2/C75), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G75" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C75))*SQRT(E75*(1-E75)/C75 + (Params!$B$3/(2*C75))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H75" s="39">
         <f t="shared" si="22"/>
@@ -25406,7 +25436,7 @@
       </c>
       <c r="I75" s="39">
         <f t="shared" si="23"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="AA75" s="37"/>
       <c r="AB75" s="44"/>
@@ -25484,31 +25514,31 @@
       </c>
       <c r="C77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E77" s="53" t="e">
+        <v>1</v>
+      </c>
+      <c r="E77" s="53">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F77" s="53" t="e">
+        <v>1</v>
+      </c>
+      <c r="F77" s="53">
         <f>IFERROR((E77 + Params!$B$3^2/(2 * C77))/(1 + Params!$B$3^2/C77), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G77" s="39" t="e">
+        <v>0.60327164573694647</v>
+      </c>
+      <c r="G77" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C77))*SQRT(E77*(1-E77)/C77 + (Params!$B$3/(2*C77))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H77" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H77" s="39">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I77" s="39" t="e">
+        <v>0.20654329147389289</v>
+      </c>
+      <c r="I77" s="39">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="AA77" s="37"/>
       <c r="AB77" s="44"/>
@@ -25806,7 +25836,7 @@
       </c>
       <c r="C84" s="37">
         <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" s="37">
         <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25818,11 +25848,11 @@
       </c>
       <c r="F84" s="53">
         <f>IFERROR((E84 + Params!$B$3^2/(2 * C84))/(1 + Params!$B$3^2/C84), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G84" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C84))*SQRT(E84*(1-E84)/C84 + (Params!$B$3/(2*C84))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H84" s="39">
         <f t="shared" si="22"/>
@@ -25830,7 +25860,7 @@
       </c>
       <c r="I84" s="39">
         <f t="shared" si="23"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="AA84" s="37"/>
       <c r="AB84" s="44"/>
@@ -27409,31 +27439,31 @@
       </c>
       <c r="C123" s="37">
         <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D123" s="37">
         <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" s="53">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F123" s="53">
         <f>IFERROR((E123 + Params!$B$3^2/(2 * C123))/(1 + Params!$B$3^2/C123), NA())</f>
-        <v>0.21724574737604052</v>
+        <v>0.29678101121768818</v>
       </c>
       <c r="G123" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C123))*SQRT(E123*(1-E123)/C123 + (Params!$B$3/(2*C123))^2), NA())</f>
-        <v>0.21724574737604055</v>
+        <v>0.26672842534595786</v>
       </c>
       <c r="H123" s="39">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3.005258587173032E-2</v>
       </c>
       <c r="I123" s="39">
         <f t="shared" si="23"/>
-        <v>0.43449149475208104</v>
+        <v>0.56350943656364605</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27681,31 +27711,31 @@
       </c>
       <c r="C131" s="37">
         <f>IFERROR(VLOOKUP($B131, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" s="37">
         <f>IFERROR(VLOOKUP($B131, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B131, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B131, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E131" s="53">
         <f t="shared" ref="E131:E140" si="27">IFERROR(D131/C131, NA())</f>
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F131" s="53">
         <f>IFERROR((E131 + Params!$B$3^2/(2 * C131))/(1 + Params!$B$3^2/C131), NA())</f>
-        <v>0.58444804756114044</v>
+        <v>0.61680787440817342</v>
       </c>
       <c r="G131" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C131))*SQRT(E131*(1-E131)/C131 + (Params!$B$3/(2*C131))^2), NA())</f>
-        <v>0.27871019297733857</v>
+        <v>0.26261052690908371</v>
       </c>
       <c r="H131" s="39">
         <f t="shared" ref="H131:H140" si="28">F131-G131</f>
-        <v>0.30573785458380187</v>
+        <v>0.35419734749908971</v>
       </c>
       <c r="I131" s="39">
         <f t="shared" ref="I131:I140" si="29">F131+G131</f>
-        <v>0.863158240538479</v>
+        <v>0.87941840131725713</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27715,31 +27745,31 @@
       </c>
       <c r="C132" s="37">
         <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D132" s="37">
         <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E132" s="53">
         <f t="shared" si="27"/>
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="F132" s="53">
         <f>IFERROR((E132 + Params!$B$3^2/(2 * C132))/(1 + Params!$B$3^2/C132), NA())</f>
-        <v>0.54611865407319948</v>
+        <v>0.58444804756114044</v>
       </c>
       <c r="G132" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C132))*SQRT(E132*(1-E132)/C132 + (Params!$B$3/(2*C132))^2), NA())</f>
-        <v>0.29566442366417367</v>
+        <v>0.27871019297733857</v>
       </c>
       <c r="H132" s="39">
         <f t="shared" si="28"/>
-        <v>0.25045423040902581</v>
+        <v>0.30573785458380187</v>
       </c>
       <c r="I132" s="39">
         <f t="shared" si="29"/>
-        <v>0.84178307773737315</v>
+        <v>0.863158240538479</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AADF926-6F6F-4EF1-8073-BD1665F1FBFB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E46E43-CD8A-4B16-A5B0-CD36DB4A2421}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="7" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="11" r:id="rId1"/>
@@ -1157,7 +1157,7 @@
                   <c:v>0.44292353275428198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53893595813605788</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.21101606750664662</c:v>
@@ -2982,7 +2982,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.40547134519913386</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.14125333185830088</c:v>
@@ -3006,13 +3006,13 @@
                     <c:v>0.39672835426305358</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3024,7 +3024,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.40547134519913386</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.14125333185830088</c:v>
@@ -3048,13 +3048,13 @@
                     <c:v>0.39672835426305358</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3122,7 +3122,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.39672835426305353</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.20528680794408075</c:v>
@@ -3146,13 +3146,13 @@
                   <c:v>0.60327164573694647</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39672835426305353</c:v>
+                  <c:v>0.32881402355519035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.32881402355519035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39672835426305353</c:v>
+                  <c:v>0.32881402355519035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15592,7 +15592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -15638,8 +15640,8 @@
         <v>53</v>
       </c>
       <c r="N1" s="45">
-        <f>SUM(L2:L1000)/52</f>
-        <v>0.78846153846153844</v>
+        <f>SUM(L2:L1000)/32</f>
+        <v>1.28125</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -16646,16 +16648,16 @@
         <v>9032</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
       <c r="E29" s="1">
-        <v>0.55559999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="F29" s="2">
-        <v>3.67</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="G29">
         <v>0.1</v>
@@ -17369,9 +17371,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -17421,14 +17423,14 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/52</f>
-        <v>7.71</v>
+        <v>8.3017307692307689</v>
       </c>
       <c r="O1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43726.073306134262</v>
+        <v>43727.074194195156</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17460,7 +17462,7 @@
         <v>200</v>
       </c>
       <c r="L2" s="2">
-        <v>44.59</v>
+        <v>42.66</v>
       </c>
       <c r="O2" s="92" t="s">
         <v>59</v>
@@ -17591,7 +17593,7 @@
         <v>9019</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17600,7 +17602,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -17629,7 +17631,7 @@
         <v>9020</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17638,7 +17640,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G7">
         <v>0.1</v>
@@ -17667,7 +17669,7 @@
         <v>9021</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -17676,7 +17678,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -17857,7 +17859,7 @@
         <v>9043</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -17866,7 +17868,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -17916,7 +17918,7 @@
         <v>200</v>
       </c>
       <c r="L14" s="2">
-        <v>48.62</v>
+        <v>46.51</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17980,7 +17982,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="2">
-        <v>26.07</v>
+        <v>24.93</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18012,7 +18014,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="2">
-        <v>26.06</v>
+        <v>24.93</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18044,7 +18046,7 @@
         <v>20</v>
       </c>
       <c r="L18" s="2">
-        <v>29.35</v>
+        <v>28.07</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18076,7 +18078,7 @@
         <v>20</v>
       </c>
       <c r="L19" s="2">
-        <v>27.4</v>
+        <v>26.21</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18108,7 +18110,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="2">
-        <v>24.13</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18140,7 +18142,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="2">
-        <v>27.97</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18151,16 +18153,16 @@
         <v>12000</v>
       </c>
       <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F22" s="2">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -18172,7 +18174,7 @@
         <v>20</v>
       </c>
       <c r="L22" s="2">
-        <v>27.95</v>
+        <v>28.77</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18204,7 +18206,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="2">
-        <v>29.37</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18236,7 +18238,7 @@
         <v>20</v>
       </c>
       <c r="L24" s="2">
-        <v>29.61</v>
+        <v>28.33</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18247,7 +18249,7 @@
         <v>12008</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -18256,7 +18258,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -18268,7 +18270,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="2">
-        <v>28.24</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18276,10 +18278,10 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>12010</v>
+        <v>12009</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -18288,19 +18290,19 @@
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>1.37</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="G26">
         <v>0.1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I26">
         <v>20</v>
       </c>
       <c r="L26" s="2">
-        <v>31.56</v>
+        <v>44.73</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18308,37 +18310,31 @@
         <v>20</v>
       </c>
       <c r="B27">
-        <v>15008</v>
+        <v>12010</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="G27">
+        <v>0.1</v>
+      </c>
+      <c r="H27">
         <v>1</v>
       </c>
-      <c r="E27" s="1">
-        <v>0.16669999999999999</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1.19</v>
-      </c>
-      <c r="G27">
-        <v>10</v>
-      </c>
-      <c r="H27">
-        <v>0.2</v>
-      </c>
       <c r="I27">
         <v>20</v>
       </c>
-      <c r="J27">
-        <v>0.2</v>
-      </c>
-      <c r="K27">
-        <v>20</v>
-      </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>29.42</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18346,19 +18342,19 @@
         <v>20</v>
       </c>
       <c r="B28">
-        <v>15016</v>
+        <v>15008</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F28" s="2">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="G28">
         <v>10</v>
@@ -18373,7 +18369,7 @@
         <v>0.2</v>
       </c>
       <c r="K28">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -18384,19 +18380,19 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>15017</v>
+        <v>15016</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1">
-        <v>0.625</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F29" s="2">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="G29">
         <v>10</v>
@@ -18411,7 +18407,7 @@
         <v>0.2</v>
       </c>
       <c r="K29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
@@ -18422,19 +18418,19 @@
         <v>20</v>
       </c>
       <c r="B30">
-        <v>15027</v>
+        <v>15017</v>
       </c>
       <c r="C30">
         <v>8</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="F30" s="2">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -18443,13 +18439,13 @@
         <v>0.2</v>
       </c>
       <c r="I30">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J30">
         <v>0.2</v>
       </c>
       <c r="K30">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -18460,19 +18456,19 @@
         <v>20</v>
       </c>
       <c r="B31">
-        <v>15028</v>
+        <v>15027</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
       <c r="E31" s="1">
-        <v>0.5</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="F31" s="2">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -18487,7 +18483,7 @@
         <v>0.2</v>
       </c>
       <c r="K31">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -18498,19 +18494,19 @@
         <v>20</v>
       </c>
       <c r="B32">
-        <v>15029</v>
+        <v>15028</v>
       </c>
       <c r="C32">
         <v>8</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E32" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F32" s="2">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -18525,7 +18521,7 @@
         <v>0.2</v>
       </c>
       <c r="K32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -18536,19 +18532,19 @@
         <v>20</v>
       </c>
       <c r="B33">
-        <v>15033</v>
+        <v>15029</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1">
-        <v>0.5</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F33" s="2">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -18557,13 +18553,13 @@
         <v>0.2</v>
       </c>
       <c r="I33">
+        <v>50</v>
+      </c>
+      <c r="J33">
+        <v>0.2</v>
+      </c>
+      <c r="K33">
         <v>100</v>
-      </c>
-      <c r="J33">
-        <v>0.2</v>
-      </c>
-      <c r="K33">
-        <v>20</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
@@ -18574,19 +18570,19 @@
         <v>20</v>
       </c>
       <c r="B34">
-        <v>15034</v>
+        <v>15033</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1">
-        <v>0.71430000000000005</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="F34" s="2">
-        <v>1.46</v>
+        <v>1.68</v>
       </c>
       <c r="G34">
         <v>10</v>
@@ -18601,7 +18597,7 @@
         <v>0.2</v>
       </c>
       <c r="K34">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L34" s="2">
         <v>0</v>
@@ -18612,19 +18608,19 @@
         <v>20</v>
       </c>
       <c r="B35">
-        <v>15035</v>
+        <v>15034</v>
       </c>
       <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
         <v>6</v>
       </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
       <c r="E35" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F35" s="2">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -18639,9 +18635,47 @@
         <v>0.2</v>
       </c>
       <c r="K35">
+        <v>50</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>15035</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>0.2</v>
+      </c>
+      <c r="I36">
         <v>100</v>
       </c>
-      <c r="L35" s="2">
+      <c r="J36">
+        <v>0.2</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+      <c r="L36" s="2">
         <v>0</v>
       </c>
     </row>
@@ -18655,8 +18689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH49" sqref="AH49"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH46" sqref="AH46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18757,7 +18791,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4000'!N1</f>
-        <v>7.71</v>
+        <v>8.3017307692307689</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -18901,7 +18935,7 @@
       </c>
       <c r="L3" s="47">
         <f>+THUNDER_3200!N1</f>
-        <v>0.78846153846153844</v>
+        <v>1.28125</v>
       </c>
       <c r="AC3" s="78"/>
       <c r="AD3" s="79" t="str">
@@ -19248,7 +19282,7 @@
       </c>
       <c r="AE5" s="61">
         <f ca="1">IFERROR(VLOOKUP(BA5, $B$1:$F1002, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AF5" s="40">
         <f ca="1">IFERROR(VLOOKUP(BB5, $B$1:$F1002, 5), "")</f>
@@ -19436,7 +19470,7 @@
       </c>
       <c r="AE6" s="61">
         <f ca="1">IFERROR(VLOOKUP(BA6, $B$1:$F1003, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AF6" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB6, $B$1:$F1003, 5), "")</f>
@@ -19456,7 +19490,7 @@
       </c>
       <c r="AJ6" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF6, $B$1:$F1003, 5), "")</f>
-        <v>0.53893595813605788</v>
+        <v>0.5</v>
       </c>
       <c r="AK6" s="97">
         <f ca="1">IFERROR(VLOOKUP(BG6, $B$1:$F1003, 5), "")</f>
@@ -19624,7 +19658,7 @@
       </c>
       <c r="AE7" s="61">
         <f ca="1">IFERROR(VLOOKUP(BA7, $B$1:$F1004, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AF7" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB7, $B$1:$F1004, 5), "")</f>
@@ -20146,7 +20180,7 @@
       </c>
       <c r="AE10" s="63">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$F1007, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AF10" s="55">
         <f ca="1">IFERROR(VLOOKUP(BB10, $B$1:$F1007, 5), "")</f>
@@ -20652,7 +20686,7 @@
       </c>
       <c r="AE15" s="61">
         <f ca="1">IFERROR(VLOOKUP(BA5, $B$1:$G1002, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AF15" s="53">
         <f ca="1">IFERROR(VLOOKUP(BB5, $B$1:$G1002, 6), "")</f>
@@ -20691,7 +20725,7 @@
       </c>
       <c r="AP15" s="90">
         <f ca="1">IFERROR(VLOOKUP(BA5, $B$1:$G1002, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ15" s="91">
         <f ca="1">IFERROR(VLOOKUP(BB5, $B$1:$G1002, 2), "")</f>
@@ -20760,7 +20794,7 @@
       </c>
       <c r="AE16" s="61">
         <f ca="1">IFERROR(VLOOKUP(BA6, $B$1:$G1003, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AF16" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB6, $B$1:$G1003, 6), "")</f>
@@ -20780,7 +20814,7 @@
       </c>
       <c r="AJ16" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF6, $B$1:$G1003, 6), "")</f>
-        <v>0.27228861239202817</v>
+        <v>0.26341040638451269</v>
       </c>
       <c r="AK16" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG6, $B$1:$G1003, 6), "")</f>
@@ -20799,7 +20833,7 @@
       </c>
       <c r="AP16" s="88">
         <f ca="1">IFERROR(VLOOKUP(BA6, $B$1:$G1003, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ16" s="90">
         <f ca="1">IFERROR(VLOOKUP(BB6, $B$1:$G1003, 2), "")</f>
@@ -20819,7 +20853,7 @@
       </c>
       <c r="AU16" s="88">
         <f ca="1">IFERROR(VLOOKUP(BF6, $B$1:$G1003, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV16" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG6, $B$1:$G1003, 2), "")</f>
@@ -20868,7 +20902,7 @@
       </c>
       <c r="AE17" s="61">
         <f ca="1">IFERROR(VLOOKUP(BA7, $B$1:$G1004, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AF17" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB7, $B$1:$G1004, 6), "")</f>
@@ -20907,7 +20941,7 @@
       </c>
       <c r="AP17" s="88">
         <f ca="1">IFERROR(VLOOKUP(BA7, $B$1:$G1004, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ17" s="88">
         <f ca="1">IFERROR(VLOOKUP(BB7, $B$1:$G1004, 2), "")</f>
@@ -21192,7 +21226,7 @@
       </c>
       <c r="AE20" s="63">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$G1007, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AF20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BB10, $B$1:$G1007, 6), "")</f>
@@ -21231,7 +21265,7 @@
       </c>
       <c r="AP20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$G1007, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BB10, $B$1:$G1007, 2), "")</f>
@@ -21953,7 +21987,7 @@
       </c>
       <c r="C29" s="37">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="37">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -21965,11 +21999,11 @@
       </c>
       <c r="F29" s="53">
         <f>IFERROR((E29 + Params!$B$3^2/(2 * C29))/(1 + Params!$B$3^2/C29), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G29" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C29))*SQRT(E29*(1-E29)/C29 + (Params!$B$3/(2*C29))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H29" s="39">
         <f t="shared" si="1"/>
@@ -21977,7 +22011,7 @@
       </c>
       <c r="I29" s="39">
         <f t="shared" si="2"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="Q29" t="s">
         <v>11</v>
@@ -22141,7 +22175,7 @@
       </c>
       <c r="C30" s="37">
         <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="37">
         <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -22153,11 +22187,11 @@
       </c>
       <c r="F30" s="53">
         <f>IFERROR((E30 + Params!$B$3^2/(2 * C30))/(1 + Params!$B$3^2/C30), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G30" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C30))*SQRT(E30*(1-E30)/C30 + (Params!$B$3/(2*C30))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H30" s="39">
         <f t="shared" si="1"/>
@@ -22165,7 +22199,7 @@
       </c>
       <c r="I30" s="39">
         <f t="shared" si="2"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -22230,11 +22264,11 @@
       </c>
       <c r="AI30" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE30, $B$1:$F1027, 5), "")</f>
-        <v>0.5</v>
+        <v>0.46106404186394218</v>
       </c>
       <c r="AJ30" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF30, $B$1:$F1027, 5), "")</f>
-        <v>0.5</v>
+        <v>0.46106404186394218</v>
       </c>
       <c r="AK30" s="39" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG30, $B$1:$F1027, 5), "")</f>
@@ -22334,7 +22368,7 @@
       </c>
       <c r="C31" s="37">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="37">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -22346,11 +22380,11 @@
       </c>
       <c r="F31" s="53">
         <f>IFERROR((E31 + Params!$B$3^2/(2 * C31))/(1 + Params!$B$3^2/C31), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G31" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C31))*SQRT(E31*(1-E31)/C31 + (Params!$B$3/(2*C31))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H31" s="39">
         <f t="shared" si="1"/>
@@ -22358,7 +22392,7 @@
       </c>
       <c r="I31" s="39">
         <f t="shared" si="2"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -22421,7 +22455,7 @@
       </c>
       <c r="AJ31" s="50">
         <f ca="1">IFERROR(VLOOKUP(BF31, $B$1:$F1028, 5), "")</f>
-        <v>0.63835596221959856</v>
+        <v>0.66889609512228076</v>
       </c>
       <c r="AK31" s="50" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG31, $B$1:$F1028, 5), "")</f>
@@ -22588,11 +22622,11 @@
       </c>
       <c r="AI32" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE32, $B$1:$F1029, 5), "")</f>
-        <v>0.66889609512228076</v>
+        <v>0.61680787440817342</v>
       </c>
       <c r="AJ32" s="40">
         <f ca="1">IFERROR(VLOOKUP(BF32, $B$1:$F1029, 5), "")</f>
-        <v>0.39839050560884404</v>
+        <v>0.36164403778040138</v>
       </c>
       <c r="AK32" s="39" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG32, $B$1:$F1029, 5), "")</f>
@@ -23360,7 +23394,7 @@
       </c>
       <c r="C42" s="37">
         <f>IFERROR(VLOOKUP($B42, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B42, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B42, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" s="37">
         <f>IFERROR(VLOOKUP($B42, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B42, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B42, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -23368,23 +23402,23 @@
       </c>
       <c r="E42" s="53">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.5</v>
       </c>
       <c r="F42" s="53">
         <f>IFERROR((E42 + Params!$B$3^2/(2 * C42))/(1 + Params!$B$3^2/C42), NA())</f>
-        <v>0.53893595813605788</v>
+        <v>0.5</v>
       </c>
       <c r="G42" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C42))*SQRT(E42*(1-E42)/C42 + (Params!$B$3/(2*C42))^2), NA())</f>
-        <v>0.27228861239202817</v>
+        <v>0.26341040638451269</v>
       </c>
       <c r="H42" s="39">
         <f t="shared" si="1"/>
-        <v>0.26664734574402971</v>
+        <v>0.23658959361548731</v>
       </c>
       <c r="I42" s="39">
         <f t="shared" si="2"/>
-        <v>0.81122457052808605</v>
+        <v>0.76341040638451263</v>
       </c>
       <c r="AA42" s="37">
         <v>20</v>
@@ -24014,7 +24048,7 @@
       </c>
       <c r="C53" s="37">
         <f>IFERROR(VLOOKUP($B53, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B53, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B53, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="37">
         <f>IFERROR(VLOOKUP($B53, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B53, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B53, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24026,11 +24060,11 @@
       </c>
       <c r="F53" s="53">
         <f>IFERROR((E53 + Params!$B$3^2/(2 * C53))/(1 + Params!$B$3^2/C53), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G53" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C53))*SQRT(E53*(1-E53)/C53 + (Params!$B$3/(2*C53))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H53" s="39">
         <f t="shared" si="1"/>
@@ -24038,7 +24072,7 @@
       </c>
       <c r="I53" s="39">
         <f t="shared" si="2"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="AA53" s="37" t="s">
         <v>10</v>
@@ -24132,15 +24166,15 @@
       </c>
       <c r="AI54" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$F1015, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.5</v>
       </c>
       <c r="AJ54" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.40547134519913386</v>
       </c>
       <c r="AK54" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -24691,15 +24725,15 @@
       </c>
       <c r="AI62" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$F1023, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AJ62" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$G1023, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AK62" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$G1023, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -24758,17 +24792,17 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG63-1, 0)</f>
         <v>12009</v>
       </c>
-      <c r="AI63" s="39" t="str">
+      <c r="AI63" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$F1024, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AJ63" s="39" t="str">
+        <v>0.32881402355519035</v>
+      </c>
+      <c r="AJ63" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$G1024, 6), "")</f>
-        <v/>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AK63" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$G1024, 2), "")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -24829,15 +24863,15 @@
       </c>
       <c r="AI64" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$F1025, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AJ64" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$G1025, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AK64" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$G1025, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -25565,31 +25599,31 @@
       </c>
       <c r="C78" s="37">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" s="37">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="53">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F78" s="53">
         <f>IFERROR((E78 + Params!$B$3^2/(2 * C78))/(1 + Params!$B$3^2/C78), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.5</v>
       </c>
       <c r="G78" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C78))*SQRT(E78*(1-E78)/C78 + (Params!$B$3/(2*C78))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.40547134519913386</v>
       </c>
       <c r="H78" s="39">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>9.4528654800866141E-2</v>
       </c>
       <c r="I78" s="39">
         <f t="shared" si="23"/>
-        <v>0.79345670852610706</v>
+        <v>0.90547134519913386</v>
       </c>
       <c r="AA78" s="37"/>
       <c r="AB78" s="44"/>
@@ -25974,7 +26008,7 @@
       </c>
       <c r="C86" s="37">
         <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="37">
         <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25986,11 +26020,11 @@
       </c>
       <c r="F86" s="53">
         <f>IFERROR((E86 + Params!$B$3^2/(2 * C86))/(1 + Params!$B$3^2/C86), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G86" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C86))*SQRT(E86*(1-E86)/C86 + (Params!$B$3/(2*C86))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H86" s="39">
         <f t="shared" si="22"/>
@@ -25998,7 +26032,7 @@
       </c>
       <c r="I86" s="39">
         <f t="shared" si="23"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="AA86" s="37"/>
       <c r="AB86" s="44"/>
@@ -26043,31 +26077,31 @@
       </c>
       <c r="C87" s="37">
         <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D87" s="37">
         <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E87" s="53" t="e">
+      <c r="E87" s="53">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F87" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F87" s="53">
         <f>IFERROR((E87 + Params!$B$3^2/(2 * C87))/(1 + Params!$B$3^2/C87), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G87" s="39" t="e">
+        <v>0.32881402355519035</v>
+      </c>
+      <c r="G87" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C87))*SQRT(E87*(1-E87)/C87 + (Params!$B$3/(2*C87))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H87" s="39" t="e">
+        <v>0.32881402355519035</v>
+      </c>
+      <c r="H87" s="39">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I87" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I87" s="39">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="AA87" s="37"/>
       <c r="AB87" s="44"/>
@@ -26112,7 +26146,7 @@
       </c>
       <c r="C88" s="37">
         <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" s="37">
         <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26124,11 +26158,11 @@
       </c>
       <c r="F88" s="53">
         <f>IFERROR((E88 + Params!$B$3^2/(2 * C88))/(1 + Params!$B$3^2/C88), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G88" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C88))*SQRT(E88*(1-E88)/C88 + (Params!$B$3/(2*C88))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H88" s="39">
         <f t="shared" si="22"/>
@@ -26136,7 +26170,7 @@
       </c>
       <c r="I88" s="39">
         <f t="shared" si="23"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="AA88" s="37"/>
       <c r="AB88" s="44"/>
@@ -28085,7 +28119,7 @@
       </c>
       <c r="C142" s="37">
         <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" s="37">
         <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -28093,23 +28127,23 @@
       </c>
       <c r="E142" s="53">
         <f t="shared" si="30"/>
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F142" s="53">
         <f>IFERROR((E142 + Params!$B$3^2/(2 * C142))/(1 + Params!$B$3^2/C142), NA())</f>
-        <v>0.5</v>
+        <v>0.46106404186394218</v>
       </c>
       <c r="G142" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C142))*SQRT(E142*(1-E142)/C142 + (Params!$B$3/(2*C142))^2), NA())</f>
-        <v>0.28478747317555814</v>
+        <v>0.27228861239202817</v>
       </c>
       <c r="H142" s="39">
         <f t="shared" si="31"/>
-        <v>0.21521252682444186</v>
+        <v>0.188775429471914</v>
       </c>
       <c r="I142" s="39">
         <f t="shared" si="32"/>
-        <v>0.78478747317555819</v>
+        <v>0.73335265425597029</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -28153,7 +28187,7 @@
       </c>
       <c r="C144" s="37">
         <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" s="37">
         <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -28161,23 +28195,23 @@
       </c>
       <c r="E144" s="53">
         <f t="shared" si="30"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F144" s="53">
         <f>IFERROR((E144 + Params!$B$3^2/(2 * C144))/(1 + Params!$B$3^2/C144), NA())</f>
-        <v>0.66889609512228076</v>
+        <v>0.61680787440817342</v>
       </c>
       <c r="G144" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C144))*SQRT(E144*(1-E144)/C144 + (Params!$B$3/(2*C144))^2), NA())</f>
-        <v>0.2596262160196916</v>
+        <v>0.26261052690908371</v>
       </c>
       <c r="H144" s="39">
         <f t="shared" si="31"/>
-        <v>0.40926987910258916</v>
+        <v>0.35419734749908971</v>
       </c>
       <c r="I144" s="39">
         <f t="shared" si="32"/>
-        <v>0.92852231114197237</v>
+        <v>0.87941840131725713</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -28289,7 +28323,7 @@
       </c>
       <c r="C148" s="37">
         <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" s="37">
         <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -28297,23 +28331,23 @@
       </c>
       <c r="E148" s="53">
         <f t="shared" si="30"/>
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F148" s="53">
         <f>IFERROR((E148 + Params!$B$3^2/(2 * C148))/(1 + Params!$B$3^2/C148), NA())</f>
-        <v>0.5</v>
+        <v>0.46106404186394218</v>
       </c>
       <c r="G148" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C148))*SQRT(E148*(1-E148)/C148 + (Params!$B$3/(2*C148))^2), NA())</f>
-        <v>0.28478747317555814</v>
+        <v>0.27228861239202817</v>
       </c>
       <c r="H148" s="39">
         <f t="shared" si="31"/>
-        <v>0.21521252682444186</v>
+        <v>0.188775429471914</v>
       </c>
       <c r="I148" s="39">
         <f t="shared" si="32"/>
-        <v>0.78478747317555819</v>
+        <v>0.73335265425597029</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -28323,31 +28357,31 @@
       </c>
       <c r="C149" s="37">
         <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D149" s="37">
         <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E149" s="53">
         <f t="shared" si="30"/>
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="F149" s="53">
         <f>IFERROR((E149 + Params!$B$3^2/(2 * C149))/(1 + Params!$B$3^2/C149), NA())</f>
-        <v>0.63835596221959856</v>
+        <v>0.66889609512228076</v>
       </c>
       <c r="G149" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C149))*SQRT(E149*(1-E149)/C149 + (Params!$B$3/(2*C149))^2), NA())</f>
-        <v>0.27942687207138589</v>
+        <v>0.2596262160196916</v>
       </c>
       <c r="H149" s="39">
         <f t="shared" si="31"/>
-        <v>0.35892909014821267</v>
+        <v>0.40926987910258916</v>
       </c>
       <c r="I149" s="39">
         <f t="shared" si="32"/>
-        <v>0.9177828342909844</v>
+        <v>0.92852231114197237</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -28357,7 +28391,7 @@
       </c>
       <c r="C150" s="37">
         <f>IFERROR(VLOOKUP($B150, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D150" s="37">
         <f>IFERROR(VLOOKUP($B150, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B150, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B150, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -28365,23 +28399,23 @@
       </c>
       <c r="E150" s="53">
         <f t="shared" si="30"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F150" s="53">
         <f>IFERROR((E150 + Params!$B$3^2/(2 * C150))/(1 + Params!$B$3^2/C150), NA())</f>
-        <v>0.39839050560884404</v>
+        <v>0.36164403778040138</v>
       </c>
       <c r="G150" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C150))*SQRT(E150*(1-E150)/C150 + (Params!$B$3/(2*C150))^2), NA())</f>
-        <v>0.30162117304962721</v>
+        <v>0.27942687207138589</v>
       </c>
       <c r="H150" s="39">
         <f t="shared" si="31"/>
-        <v>9.6769332559216825E-2</v>
+        <v>8.2217165709015494E-2</v>
       </c>
       <c r="I150" s="39">
         <f t="shared" si="32"/>
-        <v>0.70001167865847125</v>
+        <v>0.64107090985178727</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E46E43-CD8A-4B16-A5B0-CD36DB4A2421}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30989FFC-62A7-443C-B43F-1A86D73F74AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -1286,7 +1286,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.41555195243885962</c:v>
+                  <c:v>0.38319212559182658</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5</c:v>
@@ -1333,10 +1333,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.28326205062998494</c:v>
+                  <c:v>0.33155454937473045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38319212559182658</c:v>
+                  <c:v>0.35550803375332329</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5722459831233383</c:v>
@@ -2554,7 +2554,7 @@
                     <c:v>0.39672835426305358</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.39672835426305358</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -2593,7 +2593,7 @@
                     <c:v>0.39672835426305358</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.39672835426305358</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -2691,7 +2691,7 @@
                   <c:v>0.39672835426305353</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.39672835426305353</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.16338328226733051</c:v>
@@ -7901,8 +7901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBEDCEB-7B03-453F-8008-6E0132AF4D7D}">
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15592,8 +15592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16268,16 +16268,16 @@
         <v>9014</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>0.375</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F19" s="2">
-        <v>2.54</v>
+        <v>3.36</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -16990,16 +16990,16 @@
         <v>9044</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" s="1">
-        <v>0.2</v>
+        <v>0.2727</v>
       </c>
       <c r="F38" s="2">
-        <v>3.82</v>
+        <v>4.59</v>
       </c>
       <c r="G38">
         <v>0.1</v>
@@ -17028,16 +17028,16 @@
         <v>9045</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="F39" s="2">
-        <v>3.08</v>
+        <v>3.87</v>
       </c>
       <c r="G39">
         <v>0.1</v>
@@ -17371,7 +17371,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17423,14 +17423,14 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/52</f>
-        <v>8.3017307692307689</v>
+        <v>8.6769230769230763</v>
       </c>
       <c r="O1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43727.074194195156</v>
+        <v>43727.76560235933</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17462,7 +17462,7 @@
         <v>200</v>
       </c>
       <c r="L2" s="2">
-        <v>42.66</v>
+        <v>40.72</v>
       </c>
       <c r="O2" s="92" t="s">
         <v>59</v>
@@ -17479,7 +17479,7 @@
         <v>9009</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -17488,7 +17488,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -17517,16 +17517,16 @@
         <v>9012</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="2">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G4">
         <v>0.1</v>
@@ -17555,13 +17555,13 @@
         <v>9015</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="2">
         <v>1.78</v>
@@ -17783,7 +17783,7 @@
         <v>9024</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -17792,7 +17792,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="G11">
         <v>0.1</v>
@@ -17821,7 +17821,7 @@
         <v>9036</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -17830,7 +17830,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>2.2200000000000002</v>
+        <v>2.11</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -17918,7 +17918,7 @@
         <v>200</v>
       </c>
       <c r="L14" s="2">
-        <v>46.51</v>
+        <v>44.39</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17929,7 +17929,7 @@
         <v>10007</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -17938,7 +17938,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="G15">
         <v>0.1</v>
@@ -17982,7 +17982,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="2">
-        <v>24.93</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17990,10 +17990,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>11006</v>
+        <v>11001</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -18002,19 +18002,19 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.78</v>
       </c>
       <c r="G17">
         <v>0.1</v>
       </c>
       <c r="J17">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="K17">
         <v>20</v>
       </c>
       <c r="L17" s="2">
-        <v>24.93</v>
+        <v>39.130000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18022,7 +18022,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>11007</v>
+        <v>11006</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -18034,19 +18034,19 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>1.28</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G18">
         <v>0.1</v>
       </c>
       <c r="J18">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K18">
         <v>20</v>
       </c>
       <c r="L18" s="2">
-        <v>28.07</v>
+        <v>23.79</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18054,7 +18054,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>11008</v>
+        <v>11007</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -18066,19 +18066,19 @@
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="G19">
         <v>0.1</v>
       </c>
       <c r="J19">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K19">
         <v>20</v>
       </c>
       <c r="L19" s="2">
-        <v>26.21</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18086,7 +18086,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>11009</v>
+        <v>11008</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -18098,19 +18098,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
       <c r="G20">
         <v>0.1</v>
       </c>
       <c r="J20">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K20">
         <v>20</v>
       </c>
       <c r="L20" s="2">
-        <v>23.08</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18118,31 +18118,31 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>11010</v>
+        <v>11009</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="G21">
         <v>0.1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" s="2">
-        <v>26.75</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18150,31 +18150,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12000</v>
+        <v>11010</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="G22">
         <v>0.1</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
         <v>20</v>
       </c>
       <c r="L22" s="2">
-        <v>28.77</v>
+        <v>25.54</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18182,31 +18182,31 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>12006</v>
+        <v>12000</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F23" s="2">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="G23">
         <v>0.1</v>
       </c>
       <c r="H23">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>20</v>
       </c>
       <c r="L23" s="2">
-        <v>28.1</v>
+        <v>27.46</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18214,31 +18214,31 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>12007</v>
+        <v>12006</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G24">
         <v>0.1</v>
       </c>
       <c r="H24">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I24">
         <v>20</v>
       </c>
       <c r="L24" s="2">
-        <v>28.33</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18246,31 +18246,31 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>12008</v>
+        <v>12007</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="G25">
         <v>0.1</v>
       </c>
       <c r="H25">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I25">
         <v>20</v>
       </c>
       <c r="L25" s="2">
-        <v>29.2</v>
+        <v>27.04</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18278,7 +18278,7 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>12009</v>
+        <v>12008</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -18290,19 +18290,19 @@
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>2.0299999999999998</v>
+        <v>1.33</v>
       </c>
       <c r="G26">
         <v>0.1</v>
       </c>
       <c r="H26">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I26">
         <v>20</v>
       </c>
       <c r="L26" s="2">
-        <v>44.73</v>
+        <v>27.87</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18310,7 +18310,7 @@
         <v>20</v>
       </c>
       <c r="B27">
-        <v>12010</v>
+        <v>12009</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -18322,19 +18322,19 @@
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>1.34</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="G27">
         <v>0.1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I27">
         <v>20</v>
       </c>
       <c r="L27" s="2">
-        <v>29.42</v>
+        <v>42.69</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18342,37 +18342,31 @@
         <v>20</v>
       </c>
       <c r="B28">
-        <v>15008</v>
+        <v>12010</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="G28">
+        <v>0.1</v>
+      </c>
+      <c r="H28">
         <v>1</v>
       </c>
-      <c r="E28" s="1">
-        <v>0.16669999999999999</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1.19</v>
-      </c>
-      <c r="G28">
-        <v>10</v>
-      </c>
-      <c r="H28">
-        <v>0.2</v>
-      </c>
       <c r="I28">
         <v>20</v>
       </c>
-      <c r="J28">
-        <v>0.2</v>
-      </c>
-      <c r="K28">
-        <v>20</v>
-      </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>28.09</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18380,19 +18374,19 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>15016</v>
+        <v>15008</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F29" s="2">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="G29">
         <v>10</v>
@@ -18407,7 +18401,7 @@
         <v>0.2</v>
       </c>
       <c r="K29">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
@@ -18418,19 +18412,19 @@
         <v>20</v>
       </c>
       <c r="B30">
-        <v>15017</v>
+        <v>15016</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" s="1">
-        <v>0.625</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F30" s="2">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -18445,7 +18439,7 @@
         <v>0.2</v>
       </c>
       <c r="K30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -18456,19 +18450,19 @@
         <v>20</v>
       </c>
       <c r="B31">
-        <v>15027</v>
+        <v>15017</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" s="1">
-        <v>0.44440000000000002</v>
+        <v>0.625</v>
       </c>
       <c r="F31" s="2">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -18477,13 +18471,13 @@
         <v>0.2</v>
       </c>
       <c r="I31">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J31">
         <v>0.2</v>
       </c>
       <c r="K31">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -18494,19 +18488,19 @@
         <v>20</v>
       </c>
       <c r="B32">
-        <v>15028</v>
+        <v>15027</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" s="1">
-        <v>0.5</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="F32" s="2">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -18521,7 +18515,7 @@
         <v>0.2</v>
       </c>
       <c r="K32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -18532,19 +18526,19 @@
         <v>20</v>
       </c>
       <c r="B33">
-        <v>15029</v>
+        <v>15028</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E33" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="F33" s="2">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -18559,7 +18553,7 @@
         <v>0.2</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
@@ -18570,19 +18564,19 @@
         <v>20</v>
       </c>
       <c r="B34">
-        <v>15033</v>
+        <v>15029</v>
       </c>
       <c r="C34">
         <v>9</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E34" s="1">
-        <v>0.44440000000000002</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F34" s="2">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G34">
         <v>10</v>
@@ -18591,13 +18585,13 @@
         <v>0.2</v>
       </c>
       <c r="I34">
+        <v>50</v>
+      </c>
+      <c r="J34">
+        <v>0.2</v>
+      </c>
+      <c r="K34">
         <v>100</v>
-      </c>
-      <c r="J34">
-        <v>0.2</v>
-      </c>
-      <c r="K34">
-        <v>20</v>
       </c>
       <c r="L34" s="2">
         <v>0</v>
@@ -18608,19 +18602,19 @@
         <v>20</v>
       </c>
       <c r="B35">
-        <v>15034</v>
+        <v>15033</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>0.75</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="F35" s="2">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -18635,7 +18629,7 @@
         <v>0.2</v>
       </c>
       <c r="K35">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
@@ -18646,19 +18640,19 @@
         <v>20</v>
       </c>
       <c r="B36">
-        <v>15035</v>
+        <v>15034</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E36" s="1">
-        <v>0.28570000000000001</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F36" s="2">
-        <v>1.43</v>
+        <v>1.81</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -18673,9 +18667,47 @@
         <v>0.2</v>
       </c>
       <c r="K36">
+        <v>50</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>15035</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>0.2</v>
+      </c>
+      <c r="I37">
         <v>100</v>
       </c>
-      <c r="L36" s="2">
+      <c r="J37">
+        <v>0.2</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
+      </c>
+      <c r="L37" s="2">
         <v>0</v>
       </c>
     </row>
@@ -18689,8 +18721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH46" sqref="AH46"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM41" sqref="AM41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18791,7 +18823,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4000'!N1</f>
-        <v>8.3017307692307689</v>
+        <v>8.6769230769230763</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -19112,19 +19144,19 @@
       </c>
       <c r="AF4" s="58">
         <f ca="1">IFERROR(VLOOKUP(BB4, $B$1:$F1001, 5), "")</f>
-        <v>0.60327164573694647</v>
+        <v>0.5</v>
       </c>
       <c r="AG4" s="58">
         <f ca="1">IFERROR(VLOOKUP(BC4, $B$1:$F1001, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AH4" s="58">
         <f ca="1">IFERROR(VLOOKUP(BD4, $B$1:$F1001, 5), "")</f>
-        <v>0.60327164573694647</v>
+        <v>0.5</v>
       </c>
       <c r="AI4" s="59">
         <f ca="1">IFERROR(VLOOKUP(BE4, $B$1:$F1001, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AJ4" s="58">
         <f ca="1">IFERROR(VLOOKUP(BF4, $B$1:$F1001, 5), "")</f>
@@ -19132,7 +19164,7 @@
       </c>
       <c r="AK4" s="96">
         <f ca="1">IFERROR(VLOOKUP(BG4, $B$1:$F1001, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AL4" s="100">
         <f t="shared" ref="AL4:AL10" ca="1" si="3">OFFSET(AD4, 0, ROW(AD4)-ROW($AD$3))</f>
@@ -20014,7 +20046,7 @@
       </c>
       <c r="AF9" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$F1006, 5), "")</f>
-        <v>0.41555195243885962</v>
+        <v>0.38319212559182658</v>
       </c>
       <c r="AG9" s="39">
         <f ca="1">IFERROR(VLOOKUP(BC9, $B$1:$F1006, 5), "")</f>
@@ -20184,11 +20216,11 @@
       </c>
       <c r="AF10" s="55">
         <f ca="1">IFERROR(VLOOKUP(BB10, $B$1:$F1007, 5), "")</f>
-        <v>0.28326205062998494</v>
+        <v>0.33155454937473045</v>
       </c>
       <c r="AG10" s="55">
         <f ca="1">IFERROR(VLOOKUP(BC10, $B$1:$F1007, 5), "")</f>
-        <v>0.38319212559182658</v>
+        <v>0.35550803375332329</v>
       </c>
       <c r="AH10" s="55">
         <f ca="1">IFERROR(VLOOKUP(BD10, $B$1:$F1007, 5), "")</f>
@@ -20582,19 +20614,19 @@
       </c>
       <c r="AF14" s="58">
         <f ca="1">IFERROR(VLOOKUP(BB4, $B$1:$G1001, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.40547134519913386</v>
       </c>
       <c r="AG14" s="58">
         <f ca="1">IFERROR(VLOOKUP(BC4, $B$1:$G1001, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AH14" s="58">
         <f ca="1">IFERROR(VLOOKUP(BD4, $B$1:$G1001, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.40547134519913386</v>
       </c>
       <c r="AI14" s="58">
         <f ca="1">IFERROR(VLOOKUP(BE4, $B$1:$G1001, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AJ14" s="58">
         <f ca="1">IFERROR(VLOOKUP(BF4, $B$1:$G1001, 6), "")</f>
@@ -20602,7 +20634,7 @@
       </c>
       <c r="AK14" s="60">
         <f ca="1">IFERROR(VLOOKUP(BG4, $B$1:$G1001, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AL14" s="100">
         <f t="shared" ref="AL14:AL20" ca="1" si="7">OFFSET(AD14, 0, ROW(AD14)-ROW($AD$13))</f>
@@ -20621,19 +20653,19 @@
       </c>
       <c r="AQ14" s="88">
         <f ca="1">IFERROR(VLOOKUP(BB4, $B$1:$G1001, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR14" s="88">
         <f ca="1">IFERROR(VLOOKUP(BC4, $B$1:$G1001, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS14" s="88">
         <f ca="1">IFERROR(VLOOKUP(BD4, $B$1:$G1001, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT14" s="88">
         <f ca="1">IFERROR(VLOOKUP(BE4, $B$1:$G1001, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU14" s="88">
         <f ca="1">IFERROR(VLOOKUP(BF4, $B$1:$G1001, 2), "")</f>
@@ -20641,7 +20673,7 @@
       </c>
       <c r="AV14" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG4, $B$1:$G1001, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:69" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -21083,7 +21115,7 @@
       </c>
       <c r="C19" s="37">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="37">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -21095,11 +21127,11 @@
       </c>
       <c r="F19" s="53">
         <f>IFERROR((E19 + Params!$B$3^2/(2 * C19))/(1 + Params!$B$3^2/C19), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G19" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C19))*SQRT(E19*(1-E19)/C19 + (Params!$B$3/(2*C19))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H19" s="39">
         <f t="shared" si="1"/>
@@ -21107,7 +21139,7 @@
       </c>
       <c r="I19" s="39">
         <f t="shared" si="2"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="AC19" s="70">
         <v>100</v>
@@ -21122,7 +21154,7 @@
       </c>
       <c r="AF19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$G1006, 6), "")</f>
-        <v>0.27871019297733857</v>
+        <v>0.26261052690908371</v>
       </c>
       <c r="AG19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BC9, $B$1:$G1006, 6), "")</f>
@@ -21161,7 +21193,7 @@
       </c>
       <c r="AQ19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$G1006, 2), "")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BC9, $B$1:$G1006, 2), "")</f>
@@ -21230,11 +21262,11 @@
       </c>
       <c r="AF20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BB10, $B$1:$G1007, 6), "")</f>
-        <v>0.22658110264929165</v>
+        <v>0.23409574363551577</v>
       </c>
       <c r="AG20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BC10, $B$1:$G1007, 6), "")</f>
-        <v>0.26261052690908371</v>
+        <v>0.24771874626711146</v>
       </c>
       <c r="AH20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BD10, $B$1:$G1007, 6), "")</f>
@@ -21269,11 +21301,11 @@
       </c>
       <c r="AQ20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BB10, $B$1:$G1007, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BC10, $B$1:$G1007, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BD10, $B$1:$G1007, 2), "")</f>
@@ -21333,7 +21365,7 @@
       </c>
       <c r="C22" s="37">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="37">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -21341,23 +21373,23 @@
       </c>
       <c r="E22" s="53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F22" s="53">
         <f>IFERROR((E22 + Params!$B$3^2/(2 * C22))/(1 + Params!$B$3^2/C22), NA())</f>
-        <v>0.60327164573694647</v>
+        <v>0.5</v>
       </c>
       <c r="G22" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C22))*SQRT(E22*(1-E22)/C22 + (Params!$B$3/(2*C22))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.40547134519913386</v>
       </c>
       <c r="H22" s="39">
         <f t="shared" si="1"/>
-        <v>0.20654329147389289</v>
+        <v>9.4528654800866141E-2</v>
       </c>
       <c r="I22" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.90547134519913386</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -21401,7 +21433,7 @@
       </c>
       <c r="C24" s="37">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="37">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -21409,23 +21441,23 @@
       </c>
       <c r="E24" s="53">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F24" s="53">
         <f>IFERROR((E24 + Params!$B$3^2/(2 * C24))/(1 + Params!$B$3^2/C24), NA())</f>
-        <v>0.41555195243885962</v>
+        <v>0.38319212559182658</v>
       </c>
       <c r="G24" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C24))*SQRT(E24*(1-E24)/C24 + (Params!$B$3/(2*C24))^2), NA())</f>
-        <v>0.27871019297733857</v>
+        <v>0.26261052690908371</v>
       </c>
       <c r="H24" s="39">
         <f t="shared" si="1"/>
-        <v>0.13684175946152105</v>
+        <v>0.12058159868274287</v>
       </c>
       <c r="I24" s="39">
         <f t="shared" si="2"/>
-        <v>0.69426214541619813</v>
+        <v>0.64580265250091029</v>
       </c>
     </row>
     <row r="25" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21435,7 +21467,7 @@
       </c>
       <c r="C25" s="37">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="37">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -21443,23 +21475,23 @@
       </c>
       <c r="E25" s="53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F25" s="53">
         <f>IFERROR((E25 + Params!$B$3^2/(2 * C25))/(1 + Params!$B$3^2/C25), NA())</f>
-        <v>0.60327164573694647</v>
+        <v>0.5</v>
       </c>
       <c r="G25" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C25))*SQRT(E25*(1-E25)/C25 + (Params!$B$3/(2*C25))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.40547134519913386</v>
       </c>
       <c r="H25" s="39">
         <f t="shared" si="1"/>
-        <v>0.20654329147389289</v>
+        <v>9.4528654800866141E-2</v>
       </c>
       <c r="I25" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.90547134519913386</v>
       </c>
       <c r="AA25"/>
       <c r="AB25"/>
@@ -22455,7 +22487,7 @@
       </c>
       <c r="AJ31" s="50">
         <f ca="1">IFERROR(VLOOKUP(BF31, $B$1:$F1028, 5), "")</f>
-        <v>0.66889609512228076</v>
+        <v>0.61680787440817342</v>
       </c>
       <c r="AK31" s="50" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG31, $B$1:$F1028, 5), "")</f>
@@ -22881,7 +22913,7 @@
       </c>
       <c r="C34" s="37">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="37">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -22893,11 +22925,11 @@
       </c>
       <c r="F34" s="53">
         <f>IFERROR((E34 + Params!$B$3^2/(2 * C34))/(1 + Params!$B$3^2/C34), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G34" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C34))*SQRT(E34*(1-E34)/C34 + (Params!$B$3/(2*C34))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H34" s="39">
         <f t="shared" si="1"/>
@@ -22905,7 +22937,7 @@
       </c>
       <c r="I34" s="39">
         <f t="shared" si="2"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="Q34">
         <v>50</v>
@@ -23298,17 +23330,17 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG40-1, 0)</f>
         <v>11001</v>
       </c>
-      <c r="AI40" s="39" t="str">
+      <c r="AI40" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$F1001, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AJ40" s="39" t="str">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="AJ40" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 6), "")</f>
-        <v/>
+        <v>0.39672835426305358</v>
       </c>
       <c r="AK40" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 2), "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -23670,7 +23702,7 @@
       </c>
       <c r="C46" s="37">
         <f>IFERROR(VLOOKUP($B46, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B46, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B46, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="37">
         <f>IFERROR(VLOOKUP($B46, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B46, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B46, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -23682,11 +23714,11 @@
       </c>
       <c r="F46" s="53">
         <f>IFERROR((E46 + Params!$B$3^2/(2 * C46))/(1 + Params!$B$3^2/C46), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G46" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C46))*SQRT(E46*(1-E46)/C46 + (Params!$B$3/(2*C46))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H46" s="39">
         <f t="shared" si="1"/>
@@ -23694,7 +23726,7 @@
       </c>
       <c r="I46" s="39">
         <f t="shared" si="2"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="AA46" s="37">
         <v>20</v>
@@ -24115,31 +24147,31 @@
       </c>
       <c r="C54" s="37">
         <f>IFERROR(VLOOKUP($B54, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B54, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B54, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D54" s="37">
         <f>IFERROR(VLOOKUP($B54, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B54, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B54, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" s="53">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="F54" s="53">
         <f>IFERROR((E54 + Params!$B$3^2/(2 * C54))/(1 + Params!$B$3^2/C54), NA())</f>
-        <v>0.28326205062998494</v>
+        <v>0.33155454937473045</v>
       </c>
       <c r="G54" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C54))*SQRT(E54*(1-E54)/C54 + (Params!$B$3/(2*C54))^2), NA())</f>
-        <v>0.22658110264929165</v>
+        <v>0.23409574363551577</v>
       </c>
       <c r="H54" s="39">
         <f t="shared" si="1"/>
-        <v>5.6680947980693286E-2</v>
+        <v>9.7458805739214671E-2</v>
       </c>
       <c r="I54" s="39">
         <f t="shared" si="2"/>
-        <v>0.50984315327927665</v>
+        <v>0.56565029301024627</v>
       </c>
       <c r="AA54" s="37"/>
       <c r="AB54" s="44"/>
@@ -24184,7 +24216,7 @@
       </c>
       <c r="C55" s="37">
         <f>IFERROR(VLOOKUP($B55, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B55, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B55, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" s="37">
         <f>IFERROR(VLOOKUP($B55, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B55, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B55, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24192,23 +24224,23 @@
       </c>
       <c r="E55" s="53">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
       <c r="F55" s="53">
         <f>IFERROR((E55 + Params!$B$3^2/(2 * C55))/(1 + Params!$B$3^2/C55), NA())</f>
-        <v>0.38319212559182658</v>
+        <v>0.35550803375332329</v>
       </c>
       <c r="G55" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C55))*SQRT(E55*(1-E55)/C55 + (Params!$B$3/(2*C55))^2), NA())</f>
-        <v>0.26261052690908371</v>
+        <v>0.24771874626711146</v>
       </c>
       <c r="H55" s="39">
         <f t="shared" si="1"/>
-        <v>0.12058159868274287</v>
+        <v>0.10778928748621183</v>
       </c>
       <c r="I55" s="39">
         <f t="shared" si="2"/>
-        <v>0.64580265250091029</v>
+        <v>0.60322678002043473</v>
       </c>
       <c r="AA55" s="37"/>
       <c r="AB55" s="44"/>
@@ -24915,7 +24947,7 @@
       </c>
       <c r="C66" s="37">
         <f>IFERROR(VLOOKUP($B66, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B66, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B66, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="37">
         <f>IFERROR(VLOOKUP($B66, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B66, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B66, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24927,11 +24959,11 @@
       </c>
       <c r="F66" s="53">
         <f>IFERROR((E66 + Params!$B$3^2/(2 * C66))/(1 + Params!$B$3^2/C66), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G66" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C66))*SQRT(E66*(1-E66)/C66 + (Params!$B$3/(2*C66))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H66" s="39">
         <f t="shared" si="1"/>
@@ -24939,7 +24971,7 @@
       </c>
       <c r="I66" s="39">
         <f t="shared" si="2"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -24983,31 +25015,31 @@
       </c>
       <c r="C68" s="37">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="37">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E68" s="53" t="e">
+      <c r="E68" s="53">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F68" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F68" s="53">
         <f>IFERROR((E68 + Params!$B$3^2/(2 * C68))/(1 + Params!$B$3^2/C68), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G68" s="39" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G68" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C68))*SQRT(E68*(1-E68)/C68 + (Params!$B$3/(2*C68))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H68" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H68" s="39">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I68" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I68" s="39">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
       <c r="AA68" s="37" t="s">
         <v>10</v>
@@ -28357,7 +28389,7 @@
       </c>
       <c r="C149" s="37">
         <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" s="37">
         <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -28365,23 +28397,23 @@
       </c>
       <c r="E149" s="53">
         <f t="shared" si="30"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F149" s="53">
         <f>IFERROR((E149 + Params!$B$3^2/(2 * C149))/(1 + Params!$B$3^2/C149), NA())</f>
-        <v>0.66889609512228076</v>
+        <v>0.61680787440817342</v>
       </c>
       <c r="G149" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C149))*SQRT(E149*(1-E149)/C149 + (Params!$B$3/(2*C149))^2), NA())</f>
-        <v>0.2596262160196916</v>
+        <v>0.26261052690908371</v>
       </c>
       <c r="H149" s="39">
         <f t="shared" si="31"/>
-        <v>0.40926987910258916</v>
+        <v>0.35419734749908971</v>
       </c>
       <c r="I149" s="39">
         <f t="shared" si="32"/>
-        <v>0.92852231114197237</v>
+        <v>0.87941840131725713</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30989FFC-62A7-443C-B43F-1A86D73F74AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA11BA1-A37F-45CD-988F-45905B304A9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -26,6 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Defaults_4000!$A$1:$I$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'V4000'!$A$1:$L$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2551,7 +2552,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.39672835426305358</c:v>
@@ -2569,16 +2570,16 @@
                     <c:v>0.11372259376924314</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2590,7 +2591,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.39672835426305358</c:v>
@@ -2608,19 +2609,19 @@
                     <c:v>0.11372259376924314</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.40547134519913386</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2688,7 +2689,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.39672835426305353</c:v>
+                  <c:v>0.32881402355519035</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.39672835426305353</c:v>
@@ -2706,19 +2707,19 @@
                   <c:v>0.13594252746033506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32881402355519035</c:v>
+                  <c:v>0.28075304022450887</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32881402355519035</c:v>
+                  <c:v>0.28075304022450887</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.32881402355519035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32881402355519035</c:v>
+                  <c:v>0.28075304022450887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.60327164573694647</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3421,7 +3422,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.39672835426305358</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -3445,7 +3446,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.39672835426305358</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -3507,7 +3508,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.39672835426305353</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.16338328226733051</c:v>
@@ -3781,7 +3782,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.39672835426305358</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.12771091409769464</c:v>
@@ -3805,7 +3806,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.39672835426305358</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.12771091409769464</c:v>
@@ -3867,7 +3868,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.39672835426305353</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.19863611315209401</c:v>
@@ -17371,9 +17372,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -17423,14 +17426,14 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/52</f>
-        <v>8.6769230769230763</v>
+        <v>10.646153846153847</v>
       </c>
       <c r="O1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43727.76560235933</v>
+        <v>43729.854844471149</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17961,7 +17964,7 @@
         <v>11000</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -17970,7 +17973,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>1.1299999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -17982,7 +17985,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="2">
-        <v>23.8</v>
+        <v>19.510000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18025,7 +18028,7 @@
         <v>11006</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -18034,7 +18037,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -18046,7 +18049,7 @@
         <v>20</v>
       </c>
       <c r="L18" s="2">
-        <v>23.79</v>
+        <v>21.59</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18057,7 +18060,7 @@
         <v>11007</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -18066,7 +18069,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>1.28</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -18078,7 +18081,7 @@
         <v>20</v>
       </c>
       <c r="L19" s="2">
-        <v>26.8</v>
+        <v>23.24</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18121,7 +18124,7 @@
         <v>11009</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -18130,7 +18133,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -18142,7 +18145,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="2">
-        <v>22.04</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18153,16 +18156,16 @@
         <v>11010</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F22" s="2">
-        <v>1.22</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -18174,7 +18177,7 @@
         <v>20</v>
       </c>
       <c r="L22" s="2">
-        <v>25.54</v>
+        <v>47.52</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18374,28 +18377,22 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>15008</v>
+        <v>13010</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0.16669999999999999</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>1.19</v>
+        <v>2.1</v>
       </c>
       <c r="G29">
-        <v>10</v>
-      </c>
-      <c r="H29">
-        <v>0.2</v>
-      </c>
-      <c r="I29">
-        <v>20</v>
+        <v>0.01</v>
       </c>
       <c r="J29">
         <v>0.2</v>
@@ -18404,7 +18401,7 @@
         <v>20</v>
       </c>
       <c r="L29" s="2">
-        <v>0</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18412,22 +18409,22 @@
         <v>20</v>
       </c>
       <c r="B30">
-        <v>15016</v>
+        <v>14010</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>0.66669999999999996</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>1.29</v>
+        <v>2.09</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="H30">
         <v>0.2</v>
@@ -18435,14 +18432,8 @@
       <c r="I30">
         <v>20</v>
       </c>
-      <c r="J30">
-        <v>0.2</v>
-      </c>
-      <c r="K30">
-        <v>50</v>
-      </c>
       <c r="L30" s="2">
-        <v>0</v>
+        <v>45.88</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18450,19 +18441,19 @@
         <v>20</v>
       </c>
       <c r="B31">
-        <v>15017</v>
+        <v>15008</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>0.625</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F31" s="2">
-        <v>1.68</v>
+        <v>1.19</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -18477,7 +18468,7 @@
         <v>0.2</v>
       </c>
       <c r="K31">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -18488,19 +18479,19 @@
         <v>20</v>
       </c>
       <c r="B32">
-        <v>15027</v>
+        <v>15016</v>
       </c>
       <c r="C32">
         <v>9</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E32" s="1">
-        <v>0.44440000000000002</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F32" s="2">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -18509,13 +18500,13 @@
         <v>0.2</v>
       </c>
       <c r="I32">
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <v>0.2</v>
+      </c>
+      <c r="K32">
         <v>50</v>
-      </c>
-      <c r="J32">
-        <v>0.2</v>
-      </c>
-      <c r="K32">
-        <v>20</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -18526,19 +18517,19 @@
         <v>20</v>
       </c>
       <c r="B33">
-        <v>15028</v>
+        <v>15017</v>
       </c>
       <c r="C33">
         <v>8</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="F33" s="2">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -18547,13 +18538,13 @@
         <v>0.2</v>
       </c>
       <c r="I33">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J33">
         <v>0.2</v>
       </c>
       <c r="K33">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
@@ -18564,19 +18555,19 @@
         <v>20</v>
       </c>
       <c r="B34">
-        <v>15029</v>
+        <v>15027</v>
       </c>
       <c r="C34">
         <v>9</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="F34" s="2">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="G34">
         <v>10</v>
@@ -18591,7 +18582,7 @@
         <v>0.2</v>
       </c>
       <c r="K34">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L34" s="2">
         <v>0</v>
@@ -18602,19 +18593,19 @@
         <v>20</v>
       </c>
       <c r="B35">
-        <v>15033</v>
+        <v>15028</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>0.44440000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="F35" s="2">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -18623,13 +18614,13 @@
         <v>0.2</v>
       </c>
       <c r="I35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J35">
         <v>0.2</v>
       </c>
       <c r="K35">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
@@ -18640,7 +18631,7 @@
         <v>20</v>
       </c>
       <c r="B36">
-        <v>15034</v>
+        <v>15029</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -18652,7 +18643,7 @@
         <v>0.66669999999999996</v>
       </c>
       <c r="F36" s="2">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -18661,13 +18652,13 @@
         <v>0.2</v>
       </c>
       <c r="I36">
+        <v>50</v>
+      </c>
+      <c r="J36">
+        <v>0.2</v>
+      </c>
+      <c r="K36">
         <v>100</v>
-      </c>
-      <c r="J36">
-        <v>0.2</v>
-      </c>
-      <c r="K36">
-        <v>50</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
@@ -18678,19 +18669,19 @@
         <v>20</v>
       </c>
       <c r="B37">
-        <v>15035</v>
+        <v>15033</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37" s="1">
-        <v>0.28570000000000001</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="F37" s="2">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -18705,9 +18696,85 @@
         <v>0.2</v>
       </c>
       <c r="K37">
+        <v>20</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>15034</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>0.2</v>
+      </c>
+      <c r="I38">
         <v>100</v>
       </c>
-      <c r="L37" s="2">
+      <c r="J38">
+        <v>0.2</v>
+      </c>
+      <c r="K38">
+        <v>50</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>15035</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>0.2</v>
+      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="J39">
+        <v>0.2</v>
+      </c>
+      <c r="K39">
+        <v>100</v>
+      </c>
+      <c r="L39" s="2">
         <v>0</v>
       </c>
     </row>
@@ -18721,7 +18788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AM41" sqref="AM41"/>
     </sheetView>
   </sheetViews>
@@ -18823,7 +18890,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4000'!N1</f>
-        <v>8.6769230769230763</v>
+        <v>10.646153846153847</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -23263,15 +23330,15 @@
       </c>
       <c r="AI39" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$F1000, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AJ39" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AK39" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23684,15 +23751,15 @@
       </c>
       <c r="AI45" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$F1006, 5), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AJ45" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 6), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AK45" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 2), "")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23753,15 +23820,15 @@
       </c>
       <c r="AI46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$F1007, 5), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AJ46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 6), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AK46" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 2), "")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23891,15 +23958,15 @@
       </c>
       <c r="AI48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$F1009, 5), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AJ48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 6), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AK48" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 2), "")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23960,15 +24027,15 @@
       </c>
       <c r="AI49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$F1010, 5), "")</f>
-        <v>0.60327164573694647</v>
+        <v>0.5</v>
       </c>
       <c r="AJ49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.40547134519913386</v>
       </c>
       <c r="AK49" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24981,7 +25048,7 @@
       </c>
       <c r="C67" s="37">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" s="37">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24993,11 +25060,11 @@
       </c>
       <c r="F67" s="53">
         <f>IFERROR((E67 + Params!$B$3^2/(2 * C67))/(1 + Params!$B$3^2/C67), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G67" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C67))*SQRT(E67*(1-E67)/C67 + (Params!$B$3/(2*C67))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H67" s="39">
         <f t="shared" ref="H67:H130" si="22">F67-G67</f>
@@ -25005,7 +25072,7 @@
       </c>
       <c r="I67" s="39">
         <f t="shared" ref="I67:I130" si="23">F67+G67</f>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -25131,17 +25198,17 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG69-1, 0)</f>
         <v>13010</v>
       </c>
-      <c r="AI69" s="39" t="str">
+      <c r="AI69" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$F1030, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AJ69" s="39" t="str">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="AJ69" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$G1030, 6), "")</f>
-        <v/>
+        <v>0.39672835426305358</v>
       </c>
       <c r="AK69" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$G1030, 2), "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -25358,7 +25425,7 @@
       </c>
       <c r="C73" s="37">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" s="37">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25370,11 +25437,11 @@
       </c>
       <c r="F73" s="53">
         <f>IFERROR((E73 + Params!$B$3^2/(2 * C73))/(1 + Params!$B$3^2/C73), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="G73" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C73))*SQRT(E73*(1-E73)/C73 + (Params!$B$3/(2*C73))^2), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="H73" s="39">
         <f t="shared" si="22"/>
@@ -25382,7 +25449,7 @@
       </c>
       <c r="I73" s="39">
         <f t="shared" si="23"/>
-        <v>0.6576280471103807</v>
+        <v>0.56150608044901773</v>
       </c>
       <c r="AA73" s="37">
         <v>20</v>
@@ -25427,7 +25494,7 @@
       </c>
       <c r="C74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25439,11 +25506,11 @@
       </c>
       <c r="F74" s="53">
         <f>IFERROR((E74 + Params!$B$3^2/(2 * C74))/(1 + Params!$B$3^2/C74), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="G74" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C74))*SQRT(E74*(1-E74)/C74 + (Params!$B$3/(2*C74))^2), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="H74" s="39">
         <f t="shared" si="22"/>
@@ -25451,7 +25518,7 @@
       </c>
       <c r="I74" s="39">
         <f t="shared" si="23"/>
-        <v>0.6576280471103807</v>
+        <v>0.56150608044901773</v>
       </c>
       <c r="AA74" s="37"/>
       <c r="AB74" s="44"/>
@@ -25529,7 +25596,7 @@
       </c>
       <c r="C76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25541,11 +25608,11 @@
       </c>
       <c r="F76" s="53">
         <f>IFERROR((E76 + Params!$B$3^2/(2 * C76))/(1 + Params!$B$3^2/C76), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="G76" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C76))*SQRT(E76*(1-E76)/C76 + (Params!$B$3/(2*C76))^2), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="H76" s="39">
         <f t="shared" si="22"/>
@@ -25553,7 +25620,7 @@
       </c>
       <c r="I76" s="39">
         <f t="shared" si="23"/>
-        <v>0.6576280471103807</v>
+        <v>0.56150608044901773</v>
       </c>
       <c r="AA76" s="37"/>
       <c r="AB76" s="44"/>
@@ -25580,7 +25647,7 @@
       </c>
       <c r="C77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25588,23 +25655,23 @@
       </c>
       <c r="E77" s="53">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F77" s="53">
         <f>IFERROR((E77 + Params!$B$3^2/(2 * C77))/(1 + Params!$B$3^2/C77), NA())</f>
-        <v>0.60327164573694647</v>
+        <v>0.5</v>
       </c>
       <c r="G77" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C77))*SQRT(E77*(1-E77)/C77 + (Params!$B$3/(2*C77))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.40547134519913386</v>
       </c>
       <c r="H77" s="39">
         <f t="shared" si="22"/>
-        <v>0.20654329147389289</v>
+        <v>9.4528654800866141E-2</v>
       </c>
       <c r="I77" s="39">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.90547134519913386</v>
       </c>
       <c r="AA77" s="37"/>
       <c r="AB77" s="44"/>
@@ -25951,17 +26018,17 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG84-1, 0)</f>
         <v>14010</v>
       </c>
-      <c r="AI84" s="39" t="str">
+      <c r="AI84" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$F1045, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AJ84" s="39" t="str">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="AJ84" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$G1045, 6), "")</f>
-        <v/>
+        <v>0.39672835426305358</v>
       </c>
       <c r="AK84" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$G1045, 2), "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -26689,31 +26756,31 @@
       </c>
       <c r="C99" s="37">
         <f>IFERROR(VLOOKUP($B99, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" s="37">
         <f>IFERROR(VLOOKUP($B99, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B99, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B99, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E99" s="53" t="e">
+      <c r="E99" s="53">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F99" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F99" s="53">
         <f>IFERROR((E99 + Params!$B$3^2/(2 * C99))/(1 + Params!$B$3^2/C99), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G99" s="39" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G99" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C99))*SQRT(E99*(1-E99)/C99 + (Params!$B$3/(2*C99))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H99" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H99" s="39">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I99" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I99" s="39">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27131,31 +27198,31 @@
       </c>
       <c r="C112" s="37">
         <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" s="37">
         <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E112" s="53" t="e">
+      <c r="E112" s="53">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F112" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F112" s="53">
         <f>IFERROR((E112 + Params!$B$3^2/(2 * C112))/(1 + Params!$B$3^2/C112), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G112" s="39" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G112" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C112))*SQRT(E112*(1-E112)/C112 + (Params!$B$3/(2*C112))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H112" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H112" s="39">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I112" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I112" s="39">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA11BA1-A37F-45CD-988F-45905B304A9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F797568-7E0B-4168-8DE1-35200832C35B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Defaults_4000!$A$1:$I$142</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'V4000'!$A$1:$L$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'V4000'!$A$1:$L$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1878,7 +1878,7 @@
                     <c:v>7.8113748837375874E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1908,7 +1908,7 @@
                     <c:v>7.8113748837375874E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1979,7 +1979,7 @@
                   <c:v>8.3830822924320328E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39672835426305353</c:v>
+                  <c:v>0.32881402355519035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2267,7 +2267,7 @@
                         <c:v>0.25376561351947091</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.79345670852610706</c:v>
+                        <c:v>0.72554237781824393</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2547,10 +2547,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>TOTAL!$AJ$39:$AJ$48</c:f>
+                <c:f>TOTAL!$AJ$39:$AJ$49</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="11"/>
                   <c:pt idx="0">
                     <c:v>0.32881402355519035</c:v>
                   </c:pt>
@@ -2576,10 +2576,13 @@
                     <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>0.28075304022450887</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.36542736479867571</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2615,13 +2618,13 @@
                     <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.40547134519913386</c:v>
+                    <c:v>0.36542736479867571</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2713,13 +2716,13 @@
                   <c:v>0.28075304022450887</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.32881402355519035</c:v>
+                  <c:v>0.28075304022450887</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.28075304022450887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>0.57308231992516367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3010,7 +3013,7 @@
                     <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>0.32881402355519035</c:v>
@@ -3052,7 +3055,7 @@
                     <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>0.32881402355519035</c:v>
@@ -3150,7 +3153,7 @@
                   <c:v>0.32881402355519035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32881402355519035</c:v>
+                  <c:v>0.28075304022450887</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.32881402355519035</c:v>
@@ -3599,6 +3602,7 @@
         <c:axId val="1841343855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3959,6 +3963,7 @@
         <c:axId val="611883183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -17375,7 +17380,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -17426,14 +17431,14 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/52</f>
-        <v>10.646153846153847</v>
+        <v>10.285769230769231</v>
       </c>
       <c r="O1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43729.854844471149</v>
+        <v>43729.617394925212</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17900,7 +17905,7 @@
         <v>10006</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -17909,7 +17914,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -17921,7 +17926,7 @@
         <v>200</v>
       </c>
       <c r="L14" s="2">
-        <v>44.39</v>
+        <v>45.19</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -18092,7 +18097,7 @@
         <v>11008</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -18101,7 +18106,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>1.19</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -18113,7 +18118,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="2">
-        <v>25.02</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18156,16 +18161,16 @@
         <v>11010</v>
       </c>
       <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
       <c r="E22" s="1">
-        <v>0.5</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F22" s="2">
-        <v>2.2599999999999998</v>
+        <v>1.81</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -18177,7 +18182,7 @@
         <v>20</v>
       </c>
       <c r="L22" s="2">
-        <v>47.52</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18316,7 +18321,7 @@
         <v>12009</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -18325,7 +18330,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>2.0299999999999998</v>
+        <v>1.66</v>
       </c>
       <c r="G27">
         <v>0.1</v>
@@ -18337,7 +18342,7 @@
         <v>20</v>
       </c>
       <c r="L27" s="2">
-        <v>42.69</v>
+        <v>34.770000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18788,8 +18793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM41" sqref="AM41"/>
+    <sheetView tabSelected="1" topLeftCell="P61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z95" sqref="Z95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18890,7 +18895,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4000'!N1</f>
-        <v>10.646153846153847</v>
+        <v>10.285769230769231</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -19067,7 +19072,7 @@
       </c>
       <c r="AK3" s="94">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$F1000, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AL3" s="100" t="str">
         <f ca="1">OFFSET(AD3, 0, ROW(AD3)-ROW($AD$3))</f>
@@ -20595,7 +20600,7 @@
       </c>
       <c r="AK13" s="68">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$G1000, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AL13" s="100" t="str">
         <f ca="1">OFFSET(AD13, 0, ROW(AD13)-ROW($AD$13))</f>
@@ -20632,7 +20637,7 @@
       </c>
       <c r="AV13" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$G1000, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:69" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -23147,11 +23152,11 @@
       </c>
       <c r="S36" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="T36" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0.79345670852610706</v>
+        <v>0.72554237781824393</v>
       </c>
       <c r="U36" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -23163,7 +23168,7 @@
       </c>
       <c r="W36" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="X36"/>
       <c r="Y36" s="1">
@@ -23889,15 +23894,15 @@
       </c>
       <c r="AI47" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$F1008, 5), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AJ47" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$G1008, 6), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AK47" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$G1008, 2), "")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24027,15 +24032,15 @@
       </c>
       <c r="AI49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$F1010, 5), "")</f>
-        <v>0.5</v>
+        <v>0.57308231992516367</v>
       </c>
       <c r="AJ49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 6), "")</f>
-        <v>0.40547134519913386</v>
+        <v>0.36542736479867571</v>
       </c>
       <c r="AK49" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 2), "")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24893,15 +24898,15 @@
       </c>
       <c r="AI63" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$F1024, 5), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AJ63" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$G1024, 6), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AK63" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$G1024, 2), "")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -24980,7 +24985,7 @@
       </c>
       <c r="C65" s="37">
         <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" s="37">
         <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24992,11 +24997,11 @@
       </c>
       <c r="F65" s="53">
         <f>IFERROR((E65 + Params!$B$3^2/(2 * C65))/(1 + Params!$B$3^2/C65), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G65" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C65))*SQRT(E65*(1-E65)/C65 + (Params!$B$3/(2*C65))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H65" s="39">
         <f t="shared" si="1"/>
@@ -25004,7 +25009,7 @@
       </c>
       <c r="I65" s="39">
         <f t="shared" si="2"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -25545,7 +25550,7 @@
       </c>
       <c r="C75" s="37">
         <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" s="37">
         <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25557,11 +25562,11 @@
       </c>
       <c r="F75" s="53">
         <f>IFERROR((E75 + Params!$B$3^2/(2 * C75))/(1 + Params!$B$3^2/C75), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="G75" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C75))*SQRT(E75*(1-E75)/C75 + (Params!$B$3/(2*C75))^2), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="H75" s="39">
         <f t="shared" si="22"/>
@@ -25569,7 +25574,7 @@
       </c>
       <c r="I75" s="39">
         <f t="shared" si="23"/>
-        <v>0.6576280471103807</v>
+        <v>0.56150608044901773</v>
       </c>
       <c r="AA75" s="37"/>
       <c r="AB75" s="44"/>
@@ -25647,31 +25652,31 @@
       </c>
       <c r="C77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="53">
         <f t="shared" si="21"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F77" s="53">
         <f>IFERROR((E77 + Params!$B$3^2/(2 * C77))/(1 + Params!$B$3^2/C77), NA())</f>
-        <v>0.5</v>
+        <v>0.57308231992516367</v>
       </c>
       <c r="G77" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C77))*SQRT(E77*(1-E77)/C77 + (Params!$B$3/(2*C77))^2), NA())</f>
-        <v>0.40547134519913386</v>
+        <v>0.36542736479867571</v>
       </c>
       <c r="H77" s="39">
         <f t="shared" si="22"/>
-        <v>9.4528654800866141E-2</v>
+        <v>0.20765495512648796</v>
       </c>
       <c r="I77" s="39">
         <f t="shared" si="23"/>
-        <v>0.90547134519913386</v>
+        <v>0.93850968472383944</v>
       </c>
       <c r="AA77" s="37"/>
       <c r="AB77" s="44"/>
@@ -26176,7 +26181,7 @@
       </c>
       <c r="C87" s="37">
         <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" s="37">
         <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26188,11 +26193,11 @@
       </c>
       <c r="F87" s="53">
         <f>IFERROR((E87 + Params!$B$3^2/(2 * C87))/(1 + Params!$B$3^2/C87), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="G87" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C87))*SQRT(E87*(1-E87)/C87 + (Params!$B$3/(2*C87))^2), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="H87" s="39">
         <f t="shared" si="22"/>
@@ -26200,7 +26205,7 @@
       </c>
       <c r="I87" s="39">
         <f t="shared" si="23"/>
-        <v>0.6576280471103807</v>
+        <v>0.56150608044901773</v>
       </c>
       <c r="AA87" s="37"/>
       <c r="AB87" s="44"/>

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F797568-7E0B-4168-8DE1-35200832C35B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD7DD87-F5E7-4467-B0C1-570701FA80D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -26,6 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Defaults_4000!$A$1:$I$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">THUNDER_3200!$A$1:$L$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'V4000'!$A$1:$L$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1252,7 +1253,7 @@
                   <c:v>0.54439280785778066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66889609512228076</c:v>
+                  <c:v>0.69467979068028907</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.45388134592680052</c:v>
@@ -1287,7 +1288,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.38319212559182658</c:v>
+                  <c:v>0.35550803375332329</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5</c:v>
@@ -1343,10 +1344,10 @@
                   <c:v>0.5722459831233383</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.46631090987494611</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39839050560884404</c:v>
+                  <c:v>0.36164403778040138</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.24665585731657882</c:v>
@@ -1713,7 +1714,7 @@
                     <c:v>0.11859277894870295</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1743,7 +1744,7 @@
                     <c:v>0.11859277894870295</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1814,7 +1815,7 @@
                   <c:v>0.1699347905951506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39672835426305353</c:v>
+                  <c:v>0.32881402355519035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1878,7 +1879,7 @@
                     <c:v>7.8113748837375874E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1908,7 +1909,7 @@
                     <c:v>7.8113748837375874E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1979,7 +1980,7 @@
                   <c:v>8.3830822924320328E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32881402355519035</c:v>
+                  <c:v>0.28075304022450887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2267,7 +2268,7 @@
                         <c:v>0.25376561351947091</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.72554237781824393</c:v>
+                        <c:v>0.60956706377969927</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2555,7 +2556,7 @@
                     <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -2570,19 +2571,19 @@
                     <c:v>0.11372259376924314</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.36542736479867571</c:v>
+                    <c:v>0.34996429117982852</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2597,7 +2598,7 @@
                     <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -2612,19 +2613,19 @@
                     <c:v>0.11372259376924314</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.36542736479867571</c:v>
+                    <c:v>0.34996429117982852</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2695,7 +2696,7 @@
                   <c:v>0.32881402355519035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39672835426305353</c:v>
+                  <c:v>0.32881402355519035</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.16338328226733051</c:v>
@@ -2710,19 +2711,19 @@
                   <c:v>0.13594252746033506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28075304022450887</c:v>
+                  <c:v>0.24495001020199958</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.28075304022450887</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28075304022450887</c:v>
+                  <c:v>0.24495001020199958</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.28075304022450887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57308231992516367</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3004,10 +3005,10 @@
                     <c:v>0.12894725413152699</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.40547134519913386</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0.32881402355519035</c:v>
@@ -3016,7 +3017,7 @@
                     <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3046,10 +3047,10 @@
                     <c:v>0.12894725413152699</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.40547134519913386</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0.32881402355519035</c:v>
@@ -3058,7 +3059,7 @@
                     <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3144,10 +3145,10 @@
                   <c:v>0.17061466770220793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32881402355519035</c:v>
+                  <c:v>0.28075304022450887</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60327164573694647</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.32881402355519035</c:v>
@@ -3156,7 +3157,7 @@
                   <c:v>0.28075304022450887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32881402355519035</c:v>
+                  <c:v>0.28075304022450887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3425,7 +3426,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -3449,7 +3450,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -3511,7 +3512,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.39672835426305353</c:v>
+                  <c:v>0.32881402355519035</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.16338328226733051</c:v>
@@ -15598,7 +15599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
@@ -16274,16 +16275,16 @@
         <v>9014</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="F19" s="2">
-        <v>3.36</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -16730,16 +16731,16 @@
         <v>9034</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31" s="1">
-        <v>0.75</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="F31" s="2">
-        <v>4.2300000000000004</v>
+        <v>5.37</v>
       </c>
       <c r="G31">
         <v>0.1</v>
@@ -17110,16 +17111,16 @@
         <v>9047</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
       <c r="E41" s="1">
-        <v>0.5</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="F41" s="2">
-        <v>3.53</v>
+        <v>4.24</v>
       </c>
       <c r="G41">
         <v>0.1</v>
@@ -17148,16 +17149,16 @@
         <v>9048</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F42" s="2">
-        <v>5.86</v>
+        <v>6.86</v>
       </c>
       <c r="G42">
         <v>0.1</v>
@@ -17377,10 +17378,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -17431,14 +17433,14 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/52</f>
-        <v>10.285769230769231</v>
+        <v>9.0738461538461532</v>
       </c>
       <c r="O1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43729.617394925212</v>
+        <v>43728.873747195517</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17449,7 +17451,7 @@
         <v>7007</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -17458,7 +17460,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1.94</v>
+        <v>1.57</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -17470,7 +17472,7 @@
         <v>200</v>
       </c>
       <c r="L2" s="2">
-        <v>40.72</v>
+        <v>31.47</v>
       </c>
       <c r="O2" s="92" t="s">
         <v>59</v>
@@ -17479,7 +17481,7 @@
         <v>43723.118290286679</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>20</v>
       </c>
@@ -17517,7 +17519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>20</v>
       </c>
@@ -17555,7 +17557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>20</v>
       </c>
@@ -17593,7 +17595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>20</v>
       </c>
@@ -17631,7 +17633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>20</v>
       </c>
@@ -17669,7 +17671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>20</v>
       </c>
@@ -17707,7 +17709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>20</v>
       </c>
@@ -17745,7 +17747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>20</v>
       </c>
@@ -17783,7 +17785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>20</v>
       </c>
@@ -17821,7 +17823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>20</v>
       </c>
@@ -17859,7 +17861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>20</v>
       </c>
@@ -17905,7 +17907,7 @@
         <v>10006</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -17914,7 +17916,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -17926,10 +17928,10 @@
         <v>200</v>
       </c>
       <c r="L14" s="2">
-        <v>45.19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>38.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>20</v>
       </c>
@@ -17990,7 +17992,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="2">
-        <v>19.510000000000002</v>
+        <v>18.579999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18001,7 +18003,7 @@
         <v>11001</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -18010,7 +18012,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -18022,7 +18024,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="2">
-        <v>39.130000000000003</v>
+        <v>32.81</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18033,7 +18035,7 @@
         <v>11006</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -18042,7 +18044,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>1.03</v>
+        <v>0.96</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -18054,7 +18056,7 @@
         <v>20</v>
       </c>
       <c r="L18" s="2">
-        <v>21.59</v>
+        <v>19.11</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18086,7 +18088,7 @@
         <v>20</v>
       </c>
       <c r="L19" s="2">
-        <v>23.24</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18097,7 +18099,7 @@
         <v>11008</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -18106,7 +18108,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>1.0900000000000001</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -18118,7 +18120,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="2">
-        <v>22.82</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18150,7 +18152,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="2">
-        <v>20.399999999999999</v>
+        <v>19.43</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18161,16 +18163,16 @@
         <v>11010</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="F22" s="2">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -18182,7 +18184,7 @@
         <v>20</v>
       </c>
       <c r="L22" s="2">
-        <v>38.1</v>
+        <v>30.98</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18214,7 +18216,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="2">
-        <v>27.46</v>
+        <v>26.15</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18225,7 +18227,7 @@
         <v>12006</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -18234,7 +18236,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -18246,7 +18248,7 @@
         <v>20</v>
       </c>
       <c r="L24" s="2">
-        <v>26.82</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18257,16 +18259,16 @@
         <v>12007</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F25" s="2">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -18278,7 +18280,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="2">
-        <v>27.04</v>
+        <v>24.18</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18310,7 +18312,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="2">
-        <v>27.87</v>
+        <v>26.54</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18342,7 +18344,7 @@
         <v>20</v>
       </c>
       <c r="L27" s="2">
-        <v>34.770000000000003</v>
+        <v>33.119999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18353,7 +18355,7 @@
         <v>12010</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -18362,7 +18364,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="G28">
         <v>0.1</v>
@@ -18374,7 +18376,7 @@
         <v>20</v>
       </c>
       <c r="L28" s="2">
-        <v>28.09</v>
+        <v>25.19</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18385,7 +18387,7 @@
         <v>13010</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -18394,7 +18396,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="G29">
         <v>0.01</v>
@@ -18406,7 +18408,7 @@
         <v>20</v>
       </c>
       <c r="L29" s="2">
-        <v>46.23</v>
+        <v>36.909999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18438,10 +18440,10 @@
         <v>20</v>
       </c>
       <c r="L30" s="2">
-        <v>45.88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>43.79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>20</v>
       </c>
@@ -18479,7 +18481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>20</v>
       </c>
@@ -18517,7 +18519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>20</v>
       </c>
@@ -18555,7 +18557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>20</v>
       </c>
@@ -18593,7 +18595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>20</v>
       </c>
@@ -18631,7 +18633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>20</v>
       </c>
@@ -18669,7 +18671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>20</v>
       </c>
@@ -18707,7 +18709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>20</v>
       </c>
@@ -18745,7 +18747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>20</v>
       </c>
@@ -18784,6 +18786,29 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L39" xr:uid="{4BD76EA8-0ACF-4F49-B867-3BE2900E2422}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="18.58"/>
+        <filter val="19.11"/>
+        <filter val="19.43"/>
+        <filter val="19.95"/>
+        <filter val="22.13"/>
+        <filter val="23.46"/>
+        <filter val="24.18"/>
+        <filter val="25.19"/>
+        <filter val="26.15"/>
+        <filter val="26.54"/>
+        <filter val="30.98"/>
+        <filter val="31.47"/>
+        <filter val="32.81"/>
+        <filter val="33.12"/>
+        <filter val="36.91"/>
+        <filter val="38.04"/>
+        <filter val="43.79"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -18793,7 +18818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Z95" sqref="Z95"/>
     </sheetView>
   </sheetViews>
@@ -18895,7 +18920,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4000'!N1</f>
-        <v>10.285769230769231</v>
+        <v>9.0738461538461532</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -19072,7 +19097,7 @@
       </c>
       <c r="AK3" s="94">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$F1000, 5), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AL3" s="100" t="str">
         <f ca="1">OFFSET(AD3, 0, ROW(AD3)-ROW($AD$3))</f>
@@ -19964,7 +19989,7 @@
       </c>
       <c r="AJ8" s="50">
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$F1005, 5), "")</f>
-        <v>0.66889609512228076</v>
+        <v>0.69467979068028907</v>
       </c>
       <c r="AK8" s="98">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$F1005, 5), "")</f>
@@ -20079,7 +20104,7 @@
       </c>
       <c r="C9" s="37">
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="37">
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -20091,11 +20116,11 @@
       </c>
       <c r="F9" s="53">
         <f>IFERROR((E9 + Params!$B$3^2/(2 * C9))/(1 + Params!$B$3^2/C9), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G9" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C9))*SQRT(E9*(1-E9)/C9 + (Params!$B$3/(2*C9))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H9" s="39">
         <f t="shared" si="1"/>
@@ -20103,7 +20128,7 @@
       </c>
       <c r="I9" s="39">
         <f t="shared" si="2"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="AC9" s="70">
         <v>100</v>
@@ -20118,7 +20143,7 @@
       </c>
       <c r="AF9" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$F1006, 5), "")</f>
-        <v>0.38319212559182658</v>
+        <v>0.35550803375332329</v>
       </c>
       <c r="AG9" s="39">
         <f ca="1">IFERROR(VLOOKUP(BC9, $B$1:$F1006, 5), "")</f>
@@ -20280,7 +20305,7 @@
       </c>
       <c r="AD10" s="76">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$F1007, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AE10" s="63">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$F1007, 5), "")</f>
@@ -20300,11 +20325,11 @@
       </c>
       <c r="AI10" s="56">
         <f ca="1">IFERROR(VLOOKUP(BE10, $B$1:$F1007, 5), "")</f>
-        <v>0.5</v>
+        <v>0.46631090987494611</v>
       </c>
       <c r="AJ10" s="55">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$F1007, 5), "")</f>
-        <v>0.39839050560884404</v>
+        <v>0.36164403778040138</v>
       </c>
       <c r="AK10" s="99">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$F1007, 5), "")</f>
@@ -20600,7 +20625,7 @@
       </c>
       <c r="AK13" s="68">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$G1000, 6), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AL13" s="100" t="str">
         <f ca="1">OFFSET(AD13, 0, ROW(AD13)-ROW($AD$13))</f>
@@ -20637,7 +20662,7 @@
       </c>
       <c r="AV13" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$G1000, 2), "")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:69" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -21134,7 +21159,7 @@
       </c>
       <c r="AJ18" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$G1005, 6), "")</f>
-        <v>0.2596262160196916</v>
+        <v>0.24209644700748373</v>
       </c>
       <c r="AK18" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$G1005, 6), "")</f>
@@ -21173,7 +21198,7 @@
       </c>
       <c r="AU18" s="88">
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$G1005, 2), "")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV18" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$G1005, 2), "")</f>
@@ -21226,7 +21251,7 @@
       </c>
       <c r="AF19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$G1006, 6), "")</f>
-        <v>0.26261052690908371</v>
+        <v>0.24771874626711146</v>
       </c>
       <c r="AG19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BC9, $B$1:$G1006, 6), "")</f>
@@ -21265,7 +21290,7 @@
       </c>
       <c r="AQ19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$G1006, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BC9, $B$1:$G1006, 2), "")</f>
@@ -21326,7 +21351,7 @@
       </c>
       <c r="AD20" s="63">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$G1007, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AE20" s="63">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$G1007, 6), "")</f>
@@ -21346,11 +21371,11 @@
       </c>
       <c r="AI20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BE10, $B$1:$G1007, 6), "")</f>
-        <v>0.26341040638451269</v>
+        <v>0.25360133443506561</v>
       </c>
       <c r="AJ20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$G1007, 6), "")</f>
-        <v>0.30162117304962721</v>
+        <v>0.27942687207138589</v>
       </c>
       <c r="AK20" s="87">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 6), "")</f>
@@ -21365,7 +21390,7 @@
       </c>
       <c r="AO20" s="88">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$G1007, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$G1007, 2), "")</f>
@@ -21385,11 +21410,11 @@
       </c>
       <c r="AT20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BE10, $B$1:$G1007, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU20" s="90">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$G1007, 2), "")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV20" s="91">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 2), "")</f>
@@ -21505,7 +21530,7 @@
       </c>
       <c r="C24" s="37">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="37">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -21513,23 +21538,23 @@
       </c>
       <c r="E24" s="53">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
       <c r="F24" s="53">
         <f>IFERROR((E24 + Params!$B$3^2/(2 * C24))/(1 + Params!$B$3^2/C24), NA())</f>
-        <v>0.38319212559182658</v>
+        <v>0.35550803375332329</v>
       </c>
       <c r="G24" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C24))*SQRT(E24*(1-E24)/C24 + (Params!$B$3/(2*C24))^2), NA())</f>
-        <v>0.26261052690908371</v>
+        <v>0.24771874626711146</v>
       </c>
       <c r="H24" s="39">
         <f t="shared" si="1"/>
-        <v>0.12058159868274287</v>
+        <v>0.10778928748621183</v>
       </c>
       <c r="I24" s="39">
         <f t="shared" si="2"/>
-        <v>0.64580265250091029</v>
+        <v>0.60322678002043473</v>
       </c>
     </row>
     <row r="25" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23148,15 +23173,15 @@
       </c>
       <c r="R36" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="S36" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="T36" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0.72554237781824393</v>
+        <v>0.60956706377969927</v>
       </c>
       <c r="U36" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -23164,11 +23189,11 @@
       </c>
       <c r="V36" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="W36" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="X36"/>
       <c r="Y36" s="1">
@@ -23404,15 +23429,15 @@
       </c>
       <c r="AI40" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$F1001, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AJ40" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AK40" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -23636,31 +23661,31 @@
       </c>
       <c r="C44" s="37">
         <f>IFERROR(VLOOKUP($B44, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B44, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B44, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="37">
         <f>IFERROR(VLOOKUP($B44, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B44, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B44, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44" s="53">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F44" s="53">
         <f>IFERROR((E44 + Params!$B$3^2/(2 * C44))/(1 + Params!$B$3^2/C44), NA())</f>
-        <v>0.66889609512228076</v>
+        <v>0.69467979068028907</v>
       </c>
       <c r="G44" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C44))*SQRT(E44*(1-E44)/C44 + (Params!$B$3/(2*C44))^2), NA())</f>
-        <v>0.2596262160196916</v>
+        <v>0.24209644700748373</v>
       </c>
       <c r="H44" s="39">
         <f t="shared" si="1"/>
-        <v>0.40926987910258916</v>
+        <v>0.45258334367280534</v>
       </c>
       <c r="I44" s="39">
         <f t="shared" si="2"/>
-        <v>0.92852231114197237</v>
+        <v>0.93677623768777285</v>
       </c>
       <c r="AA44" s="37">
         <v>20</v>
@@ -23756,15 +23781,15 @@
       </c>
       <c r="AI45" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$F1006, 5), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="AJ45" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 6), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="AK45" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 2), "")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23894,15 +23919,15 @@
       </c>
       <c r="AI47" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$F1008, 5), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="AJ47" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$G1008, 6), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="AK47" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$G1008, 2), "")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24032,15 +24057,15 @@
       </c>
       <c r="AI49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$F1010, 5), "")</f>
-        <v>0.57308231992516367</v>
+        <v>0.5</v>
       </c>
       <c r="AJ49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 6), "")</f>
-        <v>0.36542736479867571</v>
+        <v>0.34996429117982852</v>
       </c>
       <c r="AK49" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 2), "")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24433,7 +24458,7 @@
       </c>
       <c r="C57" s="37">
         <f>IFERROR(VLOOKUP($B57, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B57, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B57, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D57" s="37">
         <f>IFERROR(VLOOKUP($B57, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B57, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B57, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24441,23 +24466,23 @@
       </c>
       <c r="E57" s="53">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="F57" s="53">
         <f>IFERROR((E57 + Params!$B$3^2/(2 * C57))/(1 + Params!$B$3^2/C57), NA())</f>
-        <v>0.5</v>
+        <v>0.46631090987494611</v>
       </c>
       <c r="G57" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C57))*SQRT(E57*(1-E57)/C57 + (Params!$B$3/(2*C57))^2), NA())</f>
-        <v>0.26341040638451269</v>
+        <v>0.25360133443506561</v>
       </c>
       <c r="H57" s="39">
         <f t="shared" si="1"/>
-        <v>0.23658959361548731</v>
+        <v>0.2127095754398805</v>
       </c>
       <c r="I57" s="39">
         <f t="shared" si="2"/>
-        <v>0.76341040638451263</v>
+        <v>0.71991224431001166</v>
       </c>
       <c r="AA57" s="37"/>
       <c r="AB57" s="44"/>
@@ -24502,7 +24527,7 @@
       </c>
       <c r="C58" s="37">
         <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58" s="37">
         <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24510,23 +24535,23 @@
       </c>
       <c r="E58" s="53">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F58" s="53">
         <f>IFERROR((E58 + Params!$B$3^2/(2 * C58))/(1 + Params!$B$3^2/C58), NA())</f>
-        <v>0.39839050560884404</v>
+        <v>0.36164403778040138</v>
       </c>
       <c r="G58" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C58))*SQRT(E58*(1-E58)/C58 + (Params!$B$3/(2*C58))^2), NA())</f>
-        <v>0.30162117304962721</v>
+        <v>0.27942687207138589</v>
       </c>
       <c r="H58" s="39">
         <f t="shared" si="1"/>
-        <v>9.6769332559216825E-2</v>
+        <v>8.2217165709015494E-2</v>
       </c>
       <c r="I58" s="39">
         <f t="shared" si="2"/>
-        <v>0.70001167865847125</v>
+        <v>0.64107090985178727</v>
       </c>
       <c r="AA58" s="37"/>
       <c r="AB58" s="44"/>
@@ -24691,15 +24716,15 @@
       </c>
       <c r="AI60" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$F1021, 5), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AJ60" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$G1021, 6), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AK60" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$G1021, 2), "")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -24760,15 +24785,15 @@
       </c>
       <c r="AI61" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$F1022, 5), "")</f>
-        <v>0.60327164573694647</v>
+        <v>0.5</v>
       </c>
       <c r="AJ61" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$G1022, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.40547134519913386</v>
       </c>
       <c r="AK61" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$G1022, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -24967,15 +24992,15 @@
       </c>
       <c r="AI64" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$F1025, 5), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AJ64" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$G1025, 6), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AK64" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$G1025, 2), "")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -24985,7 +25010,7 @@
       </c>
       <c r="C65" s="37">
         <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" s="37">
         <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24997,11 +25022,11 @@
       </c>
       <c r="F65" s="53">
         <f>IFERROR((E65 + Params!$B$3^2/(2 * C65))/(1 + Params!$B$3^2/C65), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="G65" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C65))*SQRT(E65*(1-E65)/C65 + (Params!$B$3/(2*C65))^2), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="H65" s="39">
         <f t="shared" si="1"/>
@@ -25009,7 +25034,7 @@
       </c>
       <c r="I65" s="39">
         <f t="shared" si="2"/>
-        <v>0.6576280471103807</v>
+        <v>0.56150608044901773</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -25087,7 +25112,7 @@
       </c>
       <c r="C68" s="37">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="37">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25099,11 +25124,11 @@
       </c>
       <c r="F68" s="53">
         <f>IFERROR((E68 + Params!$B$3^2/(2 * C68))/(1 + Params!$B$3^2/C68), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G68" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C68))*SQRT(E68*(1-E68)/C68 + (Params!$B$3/(2*C68))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H68" s="39">
         <f t="shared" si="22"/>
@@ -25111,7 +25136,7 @@
       </c>
       <c r="I68" s="39">
         <f t="shared" si="23"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="AA68" s="37" t="s">
         <v>10</v>
@@ -25205,15 +25230,15 @@
       </c>
       <c r="AI69" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$F1030, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AJ69" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$G1030, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AK69" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$G1030, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -25430,7 +25455,7 @@
       </c>
       <c r="C73" s="37">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" s="37">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25442,11 +25467,11 @@
       </c>
       <c r="F73" s="53">
         <f>IFERROR((E73 + Params!$B$3^2/(2 * C73))/(1 + Params!$B$3^2/C73), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="G73" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C73))*SQRT(E73*(1-E73)/C73 + (Params!$B$3/(2*C73))^2), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="H73" s="39">
         <f t="shared" si="22"/>
@@ -25454,7 +25479,7 @@
       </c>
       <c r="I73" s="39">
         <f t="shared" si="23"/>
-        <v>0.56150608044901773</v>
+        <v>0.48990002040399916</v>
       </c>
       <c r="AA73" s="37">
         <v>20</v>
@@ -25550,7 +25575,7 @@
       </c>
       <c r="C75" s="37">
         <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" s="37">
         <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25562,11 +25587,11 @@
       </c>
       <c r="F75" s="53">
         <f>IFERROR((E75 + Params!$B$3^2/(2 * C75))/(1 + Params!$B$3^2/C75), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="G75" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C75))*SQRT(E75*(1-E75)/C75 + (Params!$B$3/(2*C75))^2), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="H75" s="39">
         <f t="shared" si="22"/>
@@ -25574,7 +25599,7 @@
       </c>
       <c r="I75" s="39">
         <f t="shared" si="23"/>
-        <v>0.56150608044901773</v>
+        <v>0.48990002040399916</v>
       </c>
       <c r="AA75" s="37"/>
       <c r="AB75" s="44"/>
@@ -25652,7 +25677,7 @@
       </c>
       <c r="C77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25660,23 +25685,23 @@
       </c>
       <c r="E77" s="53">
         <f t="shared" si="21"/>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="F77" s="53">
         <f>IFERROR((E77 + Params!$B$3^2/(2 * C77))/(1 + Params!$B$3^2/C77), NA())</f>
-        <v>0.57308231992516367</v>
+        <v>0.5</v>
       </c>
       <c r="G77" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C77))*SQRT(E77*(1-E77)/C77 + (Params!$B$3/(2*C77))^2), NA())</f>
-        <v>0.36542736479867571</v>
+        <v>0.34996429117982852</v>
       </c>
       <c r="H77" s="39">
         <f t="shared" si="22"/>
-        <v>0.20765495512648796</v>
+        <v>0.15003570882017148</v>
       </c>
       <c r="I77" s="39">
         <f t="shared" si="23"/>
-        <v>0.93850968472383944</v>
+        <v>0.84996429117982852</v>
       </c>
       <c r="AA77" s="37"/>
       <c r="AB77" s="44"/>
@@ -25974,7 +25999,7 @@
       </c>
       <c r="C84" s="37">
         <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" s="37">
         <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25986,11 +26011,11 @@
       </c>
       <c r="F84" s="53">
         <f>IFERROR((E84 + Params!$B$3^2/(2 * C84))/(1 + Params!$B$3^2/C84), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="G84" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C84))*SQRT(E84*(1-E84)/C84 + (Params!$B$3/(2*C84))^2), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="H84" s="39">
         <f t="shared" si="22"/>
@@ -25998,7 +26023,7 @@
       </c>
       <c r="I84" s="39">
         <f t="shared" si="23"/>
-        <v>0.6576280471103807</v>
+        <v>0.56150608044901773</v>
       </c>
       <c r="AA84" s="37"/>
       <c r="AB84" s="44"/>
@@ -26043,7 +26068,7 @@
       </c>
       <c r="C85" s="37">
         <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="37">
         <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26051,23 +26076,23 @@
       </c>
       <c r="E85" s="53">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F85" s="53">
         <f>IFERROR((E85 + Params!$B$3^2/(2 * C85))/(1 + Params!$B$3^2/C85), NA())</f>
-        <v>0.60327164573694647</v>
+        <v>0.5</v>
       </c>
       <c r="G85" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C85))*SQRT(E85*(1-E85)/C85 + (Params!$B$3/(2*C85))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.40547134519913386</v>
       </c>
       <c r="H85" s="39">
         <f t="shared" si="22"/>
-        <v>0.20654329147389289</v>
+        <v>9.4528654800866141E-2</v>
       </c>
       <c r="I85" s="39">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.90547134519913386</v>
       </c>
       <c r="AA85" s="37"/>
       <c r="AB85" s="44"/>
@@ -26250,7 +26275,7 @@
       </c>
       <c r="C88" s="37">
         <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" s="37">
         <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26262,11 +26287,11 @@
       </c>
       <c r="F88" s="53">
         <f>IFERROR((E88 + Params!$B$3^2/(2 * C88))/(1 + Params!$B$3^2/C88), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="G88" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C88))*SQRT(E88*(1-E88)/C88 + (Params!$B$3/(2*C88))^2), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="H88" s="39">
         <f t="shared" si="22"/>
@@ -26274,7 +26299,7 @@
       </c>
       <c r="I88" s="39">
         <f t="shared" si="23"/>
-        <v>0.6576280471103807</v>
+        <v>0.56150608044901773</v>
       </c>
       <c r="AA88" s="37"/>
       <c r="AB88" s="44"/>
@@ -26761,7 +26786,7 @@
       </c>
       <c r="C99" s="37">
         <f>IFERROR(VLOOKUP($B99, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" s="37">
         <f>IFERROR(VLOOKUP($B99, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B99, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B99, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26773,11 +26798,11 @@
       </c>
       <c r="F99" s="53">
         <f>IFERROR((E99 + Params!$B$3^2/(2 * C99))/(1 + Params!$B$3^2/C99), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G99" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C99))*SQRT(E99*(1-E99)/C99 + (Params!$B$3/(2*C99))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H99" s="39">
         <f t="shared" si="22"/>
@@ -26785,7 +26810,7 @@
       </c>
       <c r="I99" s="39">
         <f t="shared" si="23"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD7DD87-F5E7-4467-B0C1-570701FA80D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCCEE52-3851-44B3-BBC6-B0C2DF720515}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -1253,7 +1253,7 @@
                   <c:v>0.54439280785778066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69467979068028907</c:v>
+                  <c:v>0.716737949370015</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.45388134592680052</c:v>
@@ -1297,7 +1297,7 @@
                   <c:v>0.35550803375332329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61680787440817342</c:v>
+                  <c:v>0.6444919662466766</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.40713500341743192</c:v>
@@ -1338,7 +1338,7 @@
                   <c:v>0.33155454937473045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35550803375332329</c:v>
+                  <c:v>0.33155454937473045</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5722459831233383</c:v>
@@ -2553,7 +2553,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.32881402355519035</c:v>
@@ -2574,13 +2574,13 @@
                     <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>0.34996429117982852</c:v>
@@ -2595,7 +2595,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.32881402355519035</c:v>
@@ -2616,13 +2616,13 @@
                     <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>0.34996429117982852</c:v>
@@ -2693,7 +2693,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.32881402355519035</c:v>
+                  <c:v>0.24495001020199958</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.32881402355519035</c:v>
@@ -2714,13 +2714,13 @@
                   <c:v>0.24495001020199958</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28075304022450887</c:v>
+                  <c:v>0.24495001020199958</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.24495001020199958</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28075304022450887</c:v>
+                  <c:v>0.24495001020199958</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.5</c:v>
@@ -3005,13 +3005,13 @@
                     <c:v>0.12894725413152699</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.40547134519913386</c:v>
+                    <c:v>0.36542736479867571</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>0.28075304022450887</c:v>
@@ -3047,13 +3047,13 @@
                     <c:v>0.12894725413152699</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.40547134519913386</c:v>
+                    <c:v>0.36542736479867571</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>0.28075304022450887</c:v>
@@ -3145,13 +3145,13 @@
                   <c:v>0.17061466770220793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28075304022450887</c:v>
+                  <c:v>0.24495001020199958</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0.42691768007483627</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.32881402355519035</c:v>
+                  <c:v>0.28075304022450887</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.28075304022450887</c:v>
@@ -15597,11 +15597,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -15648,10 +15647,10 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/32</f>
-        <v>1.28125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>1.006875</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>20</v>
       </c>
@@ -15683,7 +15682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>20</v>
       </c>
@@ -15715,7 +15714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>20</v>
       </c>
@@ -15747,7 +15746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>20</v>
       </c>
@@ -15779,7 +15778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>20</v>
       </c>
@@ -15811,7 +15810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>20</v>
       </c>
@@ -15849,7 +15848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>20</v>
       </c>
@@ -15887,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>20</v>
       </c>
@@ -15925,7 +15924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>20</v>
       </c>
@@ -15963,7 +15962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>20</v>
       </c>
@@ -16001,7 +16000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>20</v>
       </c>
@@ -16039,7 +16038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>20</v>
       </c>
@@ -16077,7 +16076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>20</v>
       </c>
@@ -16115,7 +16114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>20</v>
       </c>
@@ -16153,7 +16152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>20</v>
       </c>
@@ -16191,7 +16190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>20</v>
       </c>
@@ -16229,7 +16228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>20</v>
       </c>
@@ -16267,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>20</v>
       </c>
@@ -16305,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>20</v>
       </c>
@@ -16343,7 +16342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -16381,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>20</v>
       </c>
@@ -16419,7 +16418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>20</v>
       </c>
@@ -16457,7 +16456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>20</v>
       </c>
@@ -16495,7 +16494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>20</v>
       </c>
@@ -16533,7 +16532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>20</v>
       </c>
@@ -16541,16 +16540,16 @@
         <v>9029</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="F26" s="2">
-        <v>2.6</v>
+        <v>3.53</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -16571,7 +16570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>20</v>
       </c>
@@ -16609,7 +16608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>20</v>
       </c>
@@ -16647,7 +16646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>20</v>
       </c>
@@ -16685,7 +16684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>20</v>
       </c>
@@ -16723,7 +16722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>20</v>
       </c>
@@ -16731,16 +16730,16 @@
         <v>9034</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1">
-        <v>0.77780000000000005</v>
+        <v>0.8</v>
       </c>
       <c r="F31" s="2">
-        <v>5.37</v>
+        <v>6.02</v>
       </c>
       <c r="G31">
         <v>0.1</v>
@@ -16761,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>20</v>
       </c>
@@ -16799,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>20</v>
       </c>
@@ -16837,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>20</v>
       </c>
@@ -16875,7 +16874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>20</v>
       </c>
@@ -16913,7 +16912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>20</v>
       </c>
@@ -16986,10 +16985,10 @@
         <v>200</v>
       </c>
       <c r="L37">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>32.22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>20</v>
       </c>
@@ -17027,7 +17026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>20</v>
       </c>
@@ -17035,16 +17034,16 @@
         <v>9045</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" s="1">
-        <v>0.3</v>
+        <v>0.2727</v>
       </c>
       <c r="F39" s="2">
-        <v>3.87</v>
+        <v>4.67</v>
       </c>
       <c r="G39">
         <v>0.1</v>
@@ -17065,7 +17064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>20</v>
       </c>
@@ -17103,7 +17102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>20</v>
       </c>
@@ -17141,7 +17140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>20</v>
       </c>
@@ -17179,7 +17178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>20</v>
       </c>
@@ -17211,7 +17210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>20</v>
       </c>
@@ -17243,7 +17242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>20</v>
       </c>
@@ -17275,7 +17274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>20</v>
       </c>
@@ -17307,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>20</v>
       </c>
@@ -17339,7 +17338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>20</v>
       </c>
@@ -17372,18 +17371,22 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L48" xr:uid="{0E8CA252-294F-4B1D-A546-A4BFF23657AA}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="32.22"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -17433,14 +17436,14 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/52</f>
-        <v>9.0738461538461532</v>
+        <v>9.1580769230769228</v>
       </c>
       <c r="O1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43728.873747195517</v>
+        <v>43729.384604700856</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17481,7 +17484,7 @@
         <v>43723.118290286679</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>20</v>
       </c>
@@ -17519,7 +17522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>20</v>
       </c>
@@ -17557,7 +17560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>20</v>
       </c>
@@ -17595,7 +17598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>20</v>
       </c>
@@ -17633,7 +17636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>20</v>
       </c>
@@ -17671,7 +17674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>20</v>
       </c>
@@ -17709,7 +17712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>20</v>
       </c>
@@ -17747,7 +17750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>20</v>
       </c>
@@ -17755,16 +17758,16 @@
         <v>9023</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="2">
-        <v>1.78</v>
+        <v>2.37</v>
       </c>
       <c r="G10">
         <v>0.1</v>
@@ -17785,7 +17788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>20</v>
       </c>
@@ -17823,7 +17826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>20</v>
       </c>
@@ -17861,7 +17864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>20</v>
       </c>
@@ -17931,7 +17934,7 @@
         <v>38.04</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>20</v>
       </c>
@@ -17971,7 +17974,7 @@
         <v>11000</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -17980,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>0.93</v>
+        <v>1.43</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -17992,7 +17995,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="2">
-        <v>18.579999999999998</v>
+        <v>28.52</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18067,7 +18070,7 @@
         <v>11007</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -18076,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>1.1100000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -18088,7 +18091,7 @@
         <v>20</v>
       </c>
       <c r="L19" s="2">
-        <v>22.13</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18131,7 +18134,7 @@
         <v>11009</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -18140,7 +18143,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -18152,7 +18155,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="2">
-        <v>19.43</v>
+        <v>18.989999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18227,7 +18230,7 @@
         <v>12006</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -18236,7 +18239,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>1.17</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -18248,7 +18251,7 @@
         <v>20</v>
       </c>
       <c r="L24" s="2">
-        <v>23.46</v>
+        <v>22.18</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18259,16 +18262,16 @@
         <v>12007</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>0.5</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F25" s="2">
-        <v>1.21</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -18280,7 +18283,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="2">
-        <v>24.18</v>
+        <v>22.55</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18291,7 +18294,7 @@
         <v>12008</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -18300,7 +18303,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -18312,7 +18315,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="2">
-        <v>26.54</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18443,7 +18446,7 @@
         <v>43.79</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>20</v>
       </c>
@@ -18451,16 +18454,16 @@
         <v>15008</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F31" s="2">
-        <v>1.19</v>
+        <v>1.85</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -18481,7 +18484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>20</v>
       </c>
@@ -18519,7 +18522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>20</v>
       </c>
@@ -18557,7 +18560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>20</v>
       </c>
@@ -18595,7 +18598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>20</v>
       </c>
@@ -18633,7 +18636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>20</v>
       </c>
@@ -18671,7 +18674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>20</v>
       </c>
@@ -18679,16 +18682,16 @@
         <v>15033</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
       <c r="E37" s="1">
-        <v>0.44440000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="F37" s="2">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -18709,7 +18712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>20</v>
       </c>
@@ -18747,7 +18750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>20</v>
       </c>
@@ -18786,29 +18789,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L39" xr:uid="{4BD76EA8-0ACF-4F49-B867-3BE2900E2422}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="18.58"/>
-        <filter val="19.11"/>
-        <filter val="19.43"/>
-        <filter val="19.95"/>
-        <filter val="22.13"/>
-        <filter val="23.46"/>
-        <filter val="24.18"/>
-        <filter val="25.19"/>
-        <filter val="26.15"/>
-        <filter val="26.54"/>
-        <filter val="30.98"/>
-        <filter val="31.47"/>
-        <filter val="32.81"/>
-        <filter val="33.12"/>
-        <filter val="36.91"/>
-        <filter val="38.04"/>
-        <filter val="43.79"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -18818,7 +18798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Z95" sqref="Z95"/>
     </sheetView>
   </sheetViews>
@@ -18920,7 +18900,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4000'!N1</f>
-        <v>9.0738461538461532</v>
+        <v>9.1580769230769228</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -19064,7 +19044,7 @@
       </c>
       <c r="L3" s="47">
         <f>+THUNDER_3200!N1</f>
-        <v>1.28125</v>
+        <v>1.006875</v>
       </c>
       <c r="AC3" s="78"/>
       <c r="AD3" s="79" t="str">
@@ -19989,7 +19969,7 @@
       </c>
       <c r="AJ8" s="50">
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$F1005, 5), "")</f>
-        <v>0.69467979068028907</v>
+        <v>0.716737949370015</v>
       </c>
       <c r="AK8" s="98">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$F1005, 5), "")</f>
@@ -20139,7 +20119,7 @@
       </c>
       <c r="AE9" s="61">
         <f ca="1">IFERROR(VLOOKUP(BA9, $B$1:$F1006, 5), "")</f>
-        <v>0.60327164573694647</v>
+        <v>0.5</v>
       </c>
       <c r="AF9" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$F1006, 5), "")</f>
@@ -20155,7 +20135,7 @@
       </c>
       <c r="AI9" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE9, $B$1:$F1006, 5), "")</f>
-        <v>0.61680787440817342</v>
+        <v>0.6444919662466766</v>
       </c>
       <c r="AJ9" s="40">
         <f ca="1">IFERROR(VLOOKUP(BF9, $B$1:$F1006, 5), "")</f>
@@ -20317,7 +20297,7 @@
       </c>
       <c r="AG10" s="55">
         <f ca="1">IFERROR(VLOOKUP(BC10, $B$1:$F1007, 5), "")</f>
-        <v>0.35550803375332329</v>
+        <v>0.33155454937473045</v>
       </c>
       <c r="AH10" s="55">
         <f ca="1">IFERROR(VLOOKUP(BD10, $B$1:$F1007, 5), "")</f>
@@ -21159,7 +21139,7 @@
       </c>
       <c r="AJ18" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$G1005, 6), "")</f>
-        <v>0.24209644700748373</v>
+        <v>0.22658110264929163</v>
       </c>
       <c r="AK18" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$G1005, 6), "")</f>
@@ -21198,7 +21178,7 @@
       </c>
       <c r="AU18" s="88">
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$G1005, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV18" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$G1005, 2), "")</f>
@@ -21247,7 +21227,7 @@
       </c>
       <c r="AE19" s="61">
         <f ca="1">IFERROR(VLOOKUP(BA9, $B$1:$G1006, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.40547134519913386</v>
       </c>
       <c r="AF19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$G1006, 6), "")</f>
@@ -21263,7 +21243,7 @@
       </c>
       <c r="AI19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BE9, $B$1:$G1006, 6), "")</f>
-        <v>0.26261052690908371</v>
+        <v>0.24771874626711152</v>
       </c>
       <c r="AJ19" s="53">
         <f ca="1">IFERROR(VLOOKUP(BF9, $B$1:$G1006, 6), "")</f>
@@ -21286,7 +21266,7 @@
       </c>
       <c r="AP19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BA9, $B$1:$G1006, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$G1006, 2), "")</f>
@@ -21302,7 +21282,7 @@
       </c>
       <c r="AT19" s="90">
         <f ca="1">IFERROR(VLOOKUP(BE9, $B$1:$G1006, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU19" s="91">
         <f ca="1">IFERROR(VLOOKUP(BF9, $B$1:$G1006, 2), "")</f>
@@ -21363,7 +21343,7 @@
       </c>
       <c r="AG20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BC10, $B$1:$G1007, 6), "")</f>
-        <v>0.24771874626711146</v>
+        <v>0.23409574363551577</v>
       </c>
       <c r="AH20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BD10, $B$1:$G1007, 6), "")</f>
@@ -21402,7 +21382,7 @@
       </c>
       <c r="AR20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BC10, $B$1:$G1007, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BD10, $B$1:$G1007, 2), "")</f>
@@ -22389,7 +22369,7 @@
       </c>
       <c r="AH30" s="40">
         <f ca="1">IFERROR(VLOOKUP(BD30, $B$1:$F1027, 5), "")</f>
-        <v>0.29678101121768818</v>
+        <v>0.26940672963400236</v>
       </c>
       <c r="AI30" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE30, $B$1:$F1027, 5), "")</f>
@@ -22397,7 +22377,7 @@
       </c>
       <c r="AJ30" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF30, $B$1:$F1027, 5), "")</f>
-        <v>0.46106404186394218</v>
+        <v>0.42775401687666159</v>
       </c>
       <c r="AK30" s="39" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG30, $B$1:$F1027, 5), "")</f>
@@ -22839,7 +22819,7 @@
       </c>
       <c r="C33" s="37">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="37">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -22847,23 +22827,23 @@
       </c>
       <c r="E33" s="53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F33" s="53">
         <f>IFERROR((E33 + Params!$B$3^2/(2 * C33))/(1 + Params!$B$3^2/C33), NA())</f>
-        <v>0.60327164573694647</v>
+        <v>0.5</v>
       </c>
       <c r="G33" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C33))*SQRT(E33*(1-E33)/C33 + (Params!$B$3/(2*C33))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.40547134519913386</v>
       </c>
       <c r="H33" s="39">
         <f t="shared" si="1"/>
-        <v>0.20654329147389289</v>
+        <v>9.4528654800866141E-2</v>
       </c>
       <c r="I33" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.90547134519913386</v>
       </c>
       <c r="Q33">
         <v>20</v>
@@ -23309,31 +23289,31 @@
       </c>
       <c r="C39" s="37">
         <f>IFERROR(VLOOKUP($B39, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B39, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B39, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" s="37">
         <f>IFERROR(VLOOKUP($B39, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B39, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B39, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E39" s="53">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.7</v>
       </c>
       <c r="F39" s="53">
         <f>IFERROR((E39 + Params!$B$3^2/(2 * C39))/(1 + Params!$B$3^2/C39), NA())</f>
-        <v>0.61680787440817342</v>
+        <v>0.6444919662466766</v>
       </c>
       <c r="G39" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C39))*SQRT(E39*(1-E39)/C39 + (Params!$B$3/(2*C39))^2), NA())</f>
-        <v>0.26261052690908371</v>
+        <v>0.24771874626711152</v>
       </c>
       <c r="H39" s="39">
         <f t="shared" si="1"/>
-        <v>0.35419734749908971</v>
+        <v>0.39677321997956505</v>
       </c>
       <c r="I39" s="39">
         <f t="shared" si="2"/>
-        <v>0.87941840131725713</v>
+        <v>0.89221071251378814</v>
       </c>
       <c r="AA39" s="37">
         <v>20</v>
@@ -23360,15 +23340,15 @@
       </c>
       <c r="AI39" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$F1000, 5), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="AJ39" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 6), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="AK39" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 2), "")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23661,31 +23641,31 @@
       </c>
       <c r="C44" s="37">
         <f>IFERROR(VLOOKUP($B44, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B44, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B44, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="37">
         <f>IFERROR(VLOOKUP($B44, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B44, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B44, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44" s="53">
         <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
+        <v>0.8</v>
       </c>
       <c r="F44" s="53">
         <f>IFERROR((E44 + Params!$B$3^2/(2 * C44))/(1 + Params!$B$3^2/C44), NA())</f>
-        <v>0.69467979068028907</v>
+        <v>0.716737949370015</v>
       </c>
       <c r="G44" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C44))*SQRT(E44*(1-E44)/C44 + (Params!$B$3/(2*C44))^2), NA())</f>
-        <v>0.24209644700748373</v>
+        <v>0.22658110264929163</v>
       </c>
       <c r="H44" s="39">
         <f t="shared" si="1"/>
-        <v>0.45258334367280534</v>
+        <v>0.49015684672072335</v>
       </c>
       <c r="I44" s="39">
         <f t="shared" si="2"/>
-        <v>0.93677623768777285</v>
+        <v>0.94331905201930666</v>
       </c>
       <c r="AA44" s="37">
         <v>20</v>
@@ -23850,15 +23830,15 @@
       </c>
       <c r="AI46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$F1007, 5), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="AJ46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 6), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="AK46" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 2), "")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23988,15 +23968,15 @@
       </c>
       <c r="AI48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$F1009, 5), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="AJ48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 6), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="AK48" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 2), "")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24313,7 +24293,7 @@
       </c>
       <c r="C55" s="37">
         <f>IFERROR(VLOOKUP($B55, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B55, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B55, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D55" s="37">
         <f>IFERROR(VLOOKUP($B55, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B55, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B55, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24321,23 +24301,23 @@
       </c>
       <c r="E55" s="53">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="F55" s="53">
         <f>IFERROR((E55 + Params!$B$3^2/(2 * C55))/(1 + Params!$B$3^2/C55), NA())</f>
-        <v>0.35550803375332329</v>
+        <v>0.33155454937473045</v>
       </c>
       <c r="G55" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C55))*SQRT(E55*(1-E55)/C55 + (Params!$B$3/(2*C55))^2), NA())</f>
-        <v>0.24771874626711146</v>
+        <v>0.23409574363551577</v>
       </c>
       <c r="H55" s="39">
         <f t="shared" si="1"/>
-        <v>0.10778928748621183</v>
+        <v>9.7458805739214671E-2</v>
       </c>
       <c r="I55" s="39">
         <f t="shared" si="2"/>
-        <v>0.60322678002043473</v>
+        <v>0.56565029301024627</v>
       </c>
       <c r="AA55" s="37"/>
       <c r="AB55" s="44"/>
@@ -24716,15 +24696,15 @@
       </c>
       <c r="AI60" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$F1021, 5), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="AJ60" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$G1021, 6), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="AK60" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$G1021, 2), "")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -24785,15 +24765,15 @@
       </c>
       <c r="AI61" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$F1022, 5), "")</f>
-        <v>0.5</v>
+        <v>0.42691768007483627</v>
       </c>
       <c r="AJ61" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$G1022, 6), "")</f>
-        <v>0.40547134519913386</v>
+        <v>0.36542736479867571</v>
       </c>
       <c r="AK61" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$G1022, 2), "")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -24854,15 +24834,15 @@
       </c>
       <c r="AI62" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$F1023, 5), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AJ62" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$G1023, 6), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AK62" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$G1023, 2), "")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -25078,7 +25058,7 @@
       </c>
       <c r="C67" s="37">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" s="37">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25090,11 +25070,11 @@
       </c>
       <c r="F67" s="53">
         <f>IFERROR((E67 + Params!$B$3^2/(2 * C67))/(1 + Params!$B$3^2/C67), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="G67" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C67))*SQRT(E67*(1-E67)/C67 + (Params!$B$3/(2*C67))^2), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="H67" s="39">
         <f t="shared" ref="H67:H130" si="22">F67-G67</f>
@@ -25102,7 +25082,7 @@
       </c>
       <c r="I67" s="39">
         <f t="shared" ref="I67:I130" si="23">F67+G67</f>
-        <v>0.6576280471103807</v>
+        <v>0.48990002040399916</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -25524,7 +25504,7 @@
       </c>
       <c r="C74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25536,11 +25516,11 @@
       </c>
       <c r="F74" s="53">
         <f>IFERROR((E74 + Params!$B$3^2/(2 * C74))/(1 + Params!$B$3^2/C74), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="G74" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C74))*SQRT(E74*(1-E74)/C74 + (Params!$B$3/(2*C74))^2), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="H74" s="39">
         <f t="shared" si="22"/>
@@ -25548,7 +25528,7 @@
       </c>
       <c r="I74" s="39">
         <f t="shared" si="23"/>
-        <v>0.56150608044901773</v>
+        <v>0.48990002040399916</v>
       </c>
       <c r="AA74" s="37"/>
       <c r="AB74" s="44"/>
@@ -25626,7 +25606,7 @@
       </c>
       <c r="C76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25638,11 +25618,11 @@
       </c>
       <c r="F76" s="53">
         <f>IFERROR((E76 + Params!$B$3^2/(2 * C76))/(1 + Params!$B$3^2/C76), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="G76" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C76))*SQRT(E76*(1-E76)/C76 + (Params!$B$3/(2*C76))^2), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="H76" s="39">
         <f t="shared" si="22"/>
@@ -25650,7 +25630,7 @@
       </c>
       <c r="I76" s="39">
         <f t="shared" si="23"/>
-        <v>0.56150608044901773</v>
+        <v>0.48990002040399916</v>
       </c>
       <c r="AA76" s="37"/>
       <c r="AB76" s="44"/>
@@ -25999,7 +25979,7 @@
       </c>
       <c r="C84" s="37">
         <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" s="37">
         <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26011,11 +25991,11 @@
       </c>
       <c r="F84" s="53">
         <f>IFERROR((E84 + Params!$B$3^2/(2 * C84))/(1 + Params!$B$3^2/C84), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="G84" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C84))*SQRT(E84*(1-E84)/C84 + (Params!$B$3/(2*C84))^2), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="H84" s="39">
         <f t="shared" si="22"/>
@@ -26023,7 +26003,7 @@
       </c>
       <c r="I84" s="39">
         <f t="shared" si="23"/>
-        <v>0.56150608044901773</v>
+        <v>0.48990002040399916</v>
       </c>
       <c r="AA84" s="37"/>
       <c r="AB84" s="44"/>
@@ -26068,7 +26048,7 @@
       </c>
       <c r="C85" s="37">
         <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" s="37">
         <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26076,23 +26056,23 @@
       </c>
       <c r="E85" s="53">
         <f t="shared" si="21"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F85" s="53">
         <f>IFERROR((E85 + Params!$B$3^2/(2 * C85))/(1 + Params!$B$3^2/C85), NA())</f>
-        <v>0.5</v>
+        <v>0.42691768007483627</v>
       </c>
       <c r="G85" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C85))*SQRT(E85*(1-E85)/C85 + (Params!$B$3/(2*C85))^2), NA())</f>
-        <v>0.40547134519913386</v>
+        <v>0.36542736479867571</v>
       </c>
       <c r="H85" s="39">
         <f t="shared" si="22"/>
-        <v>9.4528654800866141E-2</v>
+        <v>6.1490315276160556E-2</v>
       </c>
       <c r="I85" s="39">
         <f t="shared" si="23"/>
-        <v>0.90547134519913386</v>
+        <v>0.79234504487351198</v>
       </c>
       <c r="AA85" s="37"/>
       <c r="AB85" s="44"/>
@@ -26137,7 +26117,7 @@
       </c>
       <c r="C86" s="37">
         <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" s="37">
         <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26149,11 +26129,11 @@
       </c>
       <c r="F86" s="53">
         <f>IFERROR((E86 + Params!$B$3^2/(2 * C86))/(1 + Params!$B$3^2/C86), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="G86" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C86))*SQRT(E86*(1-E86)/C86 + (Params!$B$3/(2*C86))^2), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="H86" s="39">
         <f t="shared" si="22"/>
@@ -26161,7 +26141,7 @@
       </c>
       <c r="I86" s="39">
         <f t="shared" si="23"/>
-        <v>0.6576280471103807</v>
+        <v>0.56150608044901773</v>
       </c>
       <c r="AA86" s="37"/>
       <c r="AB86" s="44"/>
@@ -27602,7 +27582,7 @@
       </c>
       <c r="C123" s="37">
         <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D123" s="37">
         <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -27610,23 +27590,23 @@
       </c>
       <c r="E123" s="53">
         <f t="shared" si="21"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F123" s="53">
         <f>IFERROR((E123 + Params!$B$3^2/(2 * C123))/(1 + Params!$B$3^2/C123), NA())</f>
-        <v>0.29678101121768818</v>
+        <v>0.26940672963400236</v>
       </c>
       <c r="G123" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C123))*SQRT(E123*(1-E123)/C123 + (Params!$B$3/(2*C123))^2), NA())</f>
-        <v>0.26672842534595786</v>
+        <v>0.24372777368502754</v>
       </c>
       <c r="H123" s="39">
         <f t="shared" si="22"/>
-        <v>3.005258587173032E-2</v>
+        <v>2.5678955948974819E-2</v>
       </c>
       <c r="I123" s="39">
         <f t="shared" si="23"/>
-        <v>0.56350943656364605</v>
+        <v>0.51313450331902988</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -28452,7 +28432,7 @@
       </c>
       <c r="C148" s="37">
         <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" s="37">
         <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -28460,23 +28440,23 @@
       </c>
       <c r="E148" s="53">
         <f t="shared" si="30"/>
-        <v>0.44444444444444442</v>
+        <v>0.4</v>
       </c>
       <c r="F148" s="53">
         <f>IFERROR((E148 + Params!$B$3^2/(2 * C148))/(1 + Params!$B$3^2/C148), NA())</f>
-        <v>0.46106404186394218</v>
+        <v>0.42775401687666159</v>
       </c>
       <c r="G148" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C148))*SQRT(E148*(1-E148)/C148 + (Params!$B$3/(2*C148))^2), NA())</f>
-        <v>0.27228861239202817</v>
+        <v>0.25957643567315197</v>
       </c>
       <c r="H148" s="39">
         <f t="shared" si="31"/>
-        <v>0.188775429471914</v>
+        <v>0.16817758120350962</v>
       </c>
       <c r="I148" s="39">
         <f t="shared" si="32"/>
-        <v>0.73335265425597029</v>
+        <v>0.68733045254981362</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCCEE52-3851-44B3-BBC6-B0C2DF720515}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E309BB51-5625-498F-A7CE-D769DC836078}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -17443,7 +17443,7 @@
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43729.384604700856</v>
+        <v>43729.415442316596</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -18644,16 +18644,16 @@
         <v>15029</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>6</v>
       </c>
       <c r="E36" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="F36" s="2">
-        <v>1.69</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -18798,8 +18798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z95" sqref="Z95"/>
+    <sheetView tabSelected="1" topLeftCell="S29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN41" sqref="AN41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -22731,7 +22731,7 @@
       </c>
       <c r="AI32" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE32, $B$1:$F1029, 5), "")</f>
-        <v>0.61680787440817342</v>
+        <v>0.5722459831233383</v>
       </c>
       <c r="AJ32" s="40">
         <f ca="1">IFERROR(VLOOKUP(BF32, $B$1:$F1029, 5), "")</f>
@@ -23495,6 +23495,14 @@
         <f>IFERROR(VLOOKUP(AL41, $B$1:$F1002, 5), "")</f>
         <v/>
       </c>
+      <c r="AN41" s="39" t="str">
+        <f>IFERROR(VLOOKUP(AL41, $B$1:$G1002, 6), "")</f>
+        <v/>
+      </c>
+      <c r="AO41" s="41">
+        <f>IFERROR(VLOOKUP(AL41, $B$1:$G1002, 2), "")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="37"/>
@@ -23979,7 +23987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="37"/>
       <c r="B49" s="31">
         <v>9039</v>
@@ -24048,7 +24056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="37"/>
       <c r="B50" s="31">
         <v>9040</v>
@@ -24082,7 +24090,7 @@
         <v>0.74954576959097419</v>
       </c>
     </row>
-    <row r="51" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="37"/>
       <c r="B51" s="31">
         <v>9041</v>
@@ -24116,7 +24124,7 @@
         <v>0.69426214541619813</v>
       </c>
     </row>
-    <row r="52" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="37"/>
       <c r="B52" s="31">
         <v>9042</v>
@@ -24150,7 +24158,7 @@
         <v>0.47089480576986154</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="37"/>
       <c r="B53" s="31">
         <v>9043</v>
@@ -24217,7 +24225,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="37"/>
       <c r="B54" s="31">
         <v>9044</v>
@@ -24286,7 +24294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="37"/>
       <c r="B55" s="31">
         <v>9045</v>
@@ -24355,7 +24363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="37"/>
       <c r="B56" s="31">
         <v>9046</v>
@@ -24430,8 +24438,16 @@
         <f>IFERROR(VLOOKUP(AL56, $B$1:$F1017, 5), "")</f>
         <v>0.17061466770220793</v>
       </c>
-    </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="AN56" s="39">
+        <f>IFERROR(VLOOKUP(AL56, $B$1:$G1017, 6), "")</f>
+        <v>0.12894725413152699</v>
+      </c>
+      <c r="AO56" s="41">
+        <f>IFERROR(VLOOKUP(AL56, $B$1:$G1017, 2), "")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="37"/>
       <c r="B57" s="31">
         <v>9047</v>
@@ -24500,7 +24516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="37"/>
       <c r="B58" s="31">
         <v>9048</v>
@@ -24569,7 +24585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="37"/>
       <c r="B59" s="31">
         <v>10000</v>
@@ -24638,7 +24654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="37"/>
       <c r="B60" s="31">
         <v>10001</v>
@@ -24707,7 +24723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="37"/>
       <c r="B61" s="31">
         <v>10002</v>
@@ -24776,7 +24792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="37"/>
       <c r="B62" s="31">
         <v>10003</v>
@@ -24845,7 +24861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="37"/>
       <c r="B63" s="31">
         <v>10004</v>
@@ -24914,7 +24930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="37"/>
       <c r="B64" s="31">
         <v>10005</v>
@@ -28296,7 +28312,7 @@
       </c>
       <c r="C144" s="37">
         <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" s="37">
         <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -28304,23 +28320,23 @@
       </c>
       <c r="E144" s="53">
         <f t="shared" si="30"/>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="F144" s="53">
         <f>IFERROR((E144 + Params!$B$3^2/(2 * C144))/(1 + Params!$B$3^2/C144), NA())</f>
-        <v>0.61680787440817342</v>
+        <v>0.5722459831233383</v>
       </c>
       <c r="G144" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C144))*SQRT(E144*(1-E144)/C144 + (Params!$B$3/(2*C144))^2), NA())</f>
-        <v>0.26261052690908371</v>
+        <v>0.25957643567315197</v>
       </c>
       <c r="H144" s="39">
         <f t="shared" si="31"/>
-        <v>0.35419734749908971</v>
+        <v>0.31266954745018632</v>
       </c>
       <c r="I144" s="39">
         <f t="shared" si="32"/>
-        <v>0.87941840131725713</v>
+        <v>0.83182241879649021</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E309BB51-5625-498F-A7CE-D769DC836078}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF00FF8-2DA0-4035-BBE6-BA804D335AFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -1112,7 +1112,7 @@
                   <c:v>0.17883496742101909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22744829304759534</c:v>
+                  <c:v>0.21101606750664662</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.13877008438330826</c:v>
@@ -1159,7 +1159,7 @@
                   <c:v>0.44292353275428198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.53368909012505383</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.21101606750664662</c:v>
@@ -1209,7 +1209,7 @@
                   <c:v>0.53368909012505383</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53893595813605788</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,10 +1253,10 @@
                   <c:v>0.54439280785778066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.716737949370015</c:v>
+                  <c:v>0.6684454506252695</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45388134592680052</c:v>
+                  <c:v>0.41555195243885962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,16 +1288,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.35550803375332329</c:v>
+                  <c:v>0.33155454937473045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.47031160934828048</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.35550803375332329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6444919662466766</c:v>
+                  <c:v>0.6684454506252695</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.40713500341743192</c:v>
@@ -1714,7 +1714,7 @@
                     <c:v>0.11859277894870295</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1744,7 +1744,7 @@
                     <c:v>0.11859277894870295</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1815,7 +1815,7 @@
                   <c:v>0.1699347905951506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32881402355519035</c:v>
+                  <c:v>0.21724574737604052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1879,7 +1879,7 @@
                     <c:v>7.8113748837375874E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1909,7 +1909,7 @@
                     <c:v>7.8113748837375874E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1980,7 +1980,7 @@
                   <c:v>8.3830822924320328E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28075304022450887</c:v>
+                  <c:v>0.21724574737604052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2268,7 +2268,7 @@
                         <c:v>0.25376561351947091</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.60956706377969927</c:v>
+                        <c:v>0.43449149475208104</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2339,6 +2339,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2553,10 +2554,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.24495001020199958</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -2571,19 +2572,19 @@
                     <c:v>0.11372259376924314</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.24495001020199958</c:v>
+                    <c:v>0.29412428745583691</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.24495001020199958</c:v>
+                    <c:v>0.29412428745583691</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.24495001020199958</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.34996429117982852</c:v>
+                    <c:v>0.30162117304962721</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2595,10 +2596,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.24495001020199958</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -2613,19 +2614,19 @@
                     <c:v>0.11372259376924314</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.24495001020199958</c:v>
+                    <c:v>0.29412428745583691</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.24495001020199958</c:v>
+                    <c:v>0.29412428745583691</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.24495001020199958</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.34996429117982852</c:v>
+                    <c:v>0.30162117304962721</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2693,10 +2694,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.24495001020199958</c:v>
+                  <c:v>0.21724574737604052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32881402355519035</c:v>
+                  <c:v>0.28075304022450887</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.16338328226733051</c:v>
@@ -2711,19 +2712,19 @@
                   <c:v>0.13594252746033506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24495001020199958</c:v>
+                  <c:v>0.33034744842562436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24495001020199958</c:v>
+                  <c:v>0.33034744842562436</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.24495001020199958</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24495001020199958</c:v>
+                  <c:v>0.21724574737604052</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>0.39839050560884404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2987,7 +2988,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.40547134519913386</c:v>
+                    <c:v>0.32688894245636357</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.14125333185830088</c:v>
@@ -3008,16 +3009,16 @@
                     <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.36542736479867571</c:v>
+                    <c:v>0.29412428745583691</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.29412428745583691</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3029,7 +3030,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.40547134519913386</c:v>
+                    <c:v>0.32688894245636357</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.14125333185830088</c:v>
@@ -3050,16 +3051,16 @@
                     <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.36542736479867571</c:v>
+                    <c:v>0.29412428745583691</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.29412428745583691</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3127,7 +3128,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.37247500510099979</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.20528680794408075</c:v>
@@ -3148,16 +3149,16 @@
                   <c:v>0.24495001020199958</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42691768007483627</c:v>
+                  <c:v>0.33034744842562436</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28075304022450887</c:v>
+                  <c:v>0.21724574737604052</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28075304022450887</c:v>
+                  <c:v>0.33034744842562436</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28075304022450887</c:v>
+                  <c:v>0.21724574737604052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3426,7 +3427,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.32688894245636357</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -3450,7 +3451,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.32688894245636357</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -3512,7 +3513,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.32881402355519035</c:v>
+                  <c:v>0.37247500510099979</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.16338328226733051</c:v>
@@ -3787,7 +3788,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.12771091409769464</c:v>
@@ -3811,7 +3812,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.39672835426305358</c:v>
+                    <c:v>0.32881402355519035</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.12771091409769464</c:v>
@@ -3873,7 +3874,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.39672835426305353</c:v>
+                  <c:v>0.32881402355519035</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.19863611315209401</c:v>
@@ -15600,7 +15601,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -15647,7 +15650,7 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/32</f>
-        <v>1.006875</v>
+        <v>0.18312500000000001</v>
       </c>
     </row>
     <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -16198,16 +16201,16 @@
         <v>9011</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17" s="1">
-        <v>0.5</v>
+        <v>0.46150000000000002</v>
       </c>
       <c r="F17" s="2">
-        <v>3.21</v>
+        <v>3.96</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -16274,16 +16277,16 @@
         <v>9014</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>0.3</v>
+        <v>0.2727</v>
       </c>
       <c r="F19" s="2">
-        <v>4.3099999999999996</v>
+        <v>5.09</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -16540,16 +16543,16 @@
         <v>9029</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1">
-        <v>0.7</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="F26" s="2">
-        <v>3.53</v>
+        <v>4.93</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -16578,16 +16581,16 @@
         <v>9030</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>0.1</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="F27" s="2">
-        <v>3.5</v>
+        <v>4.28</v>
       </c>
       <c r="G27">
         <v>0.1</v>
@@ -16616,16 +16619,16 @@
         <v>9031</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>0.1111</v>
+        <v>0.1</v>
       </c>
       <c r="F28" s="2">
-        <v>3.07</v>
+        <v>4.12</v>
       </c>
       <c r="G28">
         <v>0.1</v>
@@ -16654,16 +16657,16 @@
         <v>9032</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1">
-        <v>0.5</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="F29" s="2">
-        <v>4.3600000000000003</v>
+        <v>5.27</v>
       </c>
       <c r="G29">
         <v>0.1</v>
@@ -16730,16 +16733,16 @@
         <v>9034</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31">
         <v>8</v>
       </c>
       <c r="E31" s="1">
-        <v>0.8</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="F31" s="2">
-        <v>6.02</v>
+        <v>6.89</v>
       </c>
       <c r="G31">
         <v>0.1</v>
@@ -16844,16 +16847,16 @@
         <v>9039</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
       <c r="E34" s="1">
-        <v>0.55559999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="F34" s="2">
-        <v>3.79</v>
+        <v>4.74</v>
       </c>
       <c r="G34">
         <v>0.1</v>
@@ -16882,16 +16885,16 @@
         <v>9040</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" s="1">
-        <v>0.42859999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="F35" s="2">
-        <v>2.66</v>
+        <v>3.9</v>
       </c>
       <c r="G35">
         <v>0.1</v>
@@ -16985,7 +16988,7 @@
         <v>200</v>
       </c>
       <c r="L37">
-        <v>32.22</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -17371,10 +17374,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L48" xr:uid="{0E8CA252-294F-4B1D-A546-A4BFF23657AA}">
+  <autoFilter ref="A1:L48" xr:uid="{D0D8AD8E-ECE6-4894-A762-61B89BB60499}">
     <filterColumn colId="11">
       <filters>
-        <filter val="32.22"/>
+        <filter val="5.86"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -17436,14 +17439,14 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/52</f>
-        <v>9.1580769230769228</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="O1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43729.415442316596</v>
+        <v>43730.033880092589</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17454,7 +17457,7 @@
         <v>7007</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -17463,7 +17466,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -17475,7 +17478,7 @@
         <v>200</v>
       </c>
       <c r="L2" s="2">
-        <v>31.47</v>
+        <v>33.83</v>
       </c>
       <c r="O2" s="92" t="s">
         <v>59</v>
@@ -17720,7 +17723,7 @@
         <v>9022</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -17729,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>1.49</v>
+        <v>2.58</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -17910,7 +17913,7 @@
         <v>10006</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -17919,7 +17922,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -17931,7 +17934,7 @@
         <v>200</v>
       </c>
       <c r="L14" s="2">
-        <v>38.04</v>
+        <v>30.98</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17974,7 +17977,7 @@
         <v>11000</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -17983,7 +17986,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -17995,7 +17998,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="2">
-        <v>28.52</v>
+        <v>23.35</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18006,7 +18009,7 @@
         <v>11001</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -18015,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -18027,7 +18030,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="2">
-        <v>32.81</v>
+        <v>28.94</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18038,16 +18041,16 @@
         <v>11006</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F18" s="2">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -18059,7 +18062,7 @@
         <v>20</v>
       </c>
       <c r="L18" s="2">
-        <v>19.11</v>
+        <v>16.329999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18070,16 +18073,16 @@
         <v>11007</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F19" s="2">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -18091,7 +18094,7 @@
         <v>20</v>
       </c>
       <c r="L19" s="2">
-        <v>20.83</v>
+        <v>17.809999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18123,7 +18126,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="2">
-        <v>19.95</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18134,7 +18137,7 @@
         <v>11009</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -18155,7 +18158,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="2">
-        <v>18.989999999999998</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18166,16 +18169,16 @@
         <v>11010</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>0.5</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F22" s="2">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -18187,7 +18190,7 @@
         <v>20</v>
       </c>
       <c r="L22" s="2">
-        <v>30.98</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18198,16 +18201,16 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F23" s="2">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -18219,7 +18222,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="2">
-        <v>26.15</v>
+        <v>29.29</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18251,7 +18254,7 @@
         <v>20</v>
       </c>
       <c r="L24" s="2">
-        <v>22.18</v>
+        <v>19.97</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18262,16 +18265,16 @@
         <v>12007</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="F25" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.63</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -18283,7 +18286,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="2">
-        <v>22.55</v>
+        <v>29.33</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18294,7 +18297,7 @@
         <v>12008</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -18303,7 +18306,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -18315,7 +18318,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="2">
-        <v>25.63</v>
+        <v>26.53</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18326,16 +18329,16 @@
         <v>12009</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F27" s="2">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="G27">
         <v>0.1</v>
@@ -18347,7 +18350,7 @@
         <v>20</v>
       </c>
       <c r="L27" s="2">
-        <v>33.119999999999997</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18358,7 +18361,7 @@
         <v>12010</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -18367,7 +18370,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="G28">
         <v>0.1</v>
@@ -18379,7 +18382,7 @@
         <v>20</v>
       </c>
       <c r="L28" s="2">
-        <v>25.19</v>
+        <v>23.14</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18390,16 +18393,16 @@
         <v>13010</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F29" s="2">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="G29">
         <v>0.01</v>
@@ -18411,7 +18414,7 @@
         <v>20</v>
       </c>
       <c r="L29" s="2">
-        <v>36.909999999999997</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18422,7 +18425,7 @@
         <v>14010</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -18431,7 +18434,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>2.09</v>
+        <v>1.75</v>
       </c>
       <c r="G30">
         <v>0.01</v>
@@ -18443,7 +18446,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="2">
-        <v>43.79</v>
+        <v>33.159999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18454,16 +18457,16 @@
         <v>15008</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>0.1429</v>
+        <v>0.125</v>
       </c>
       <c r="F31" s="2">
-        <v>1.85</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -18530,16 +18533,16 @@
         <v>15017</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>5</v>
       </c>
       <c r="E33" s="1">
-        <v>0.625</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="F33" s="2">
-        <v>1.68</v>
+        <v>2.29</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -18568,16 +18571,16 @@
         <v>15027</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34" s="1">
-        <v>0.44440000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="F34" s="2">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="G34">
         <v>10</v>
@@ -18606,16 +18609,16 @@
         <v>15028</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E35" s="1">
         <v>0.5</v>
       </c>
       <c r="F35" s="2">
-        <v>1.71</v>
+        <v>2.61</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -18682,16 +18685,16 @@
         <v>15033</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
       <c r="E37" s="1">
-        <v>0.4</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="F37" s="2">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -18720,16 +18723,16 @@
         <v>15034</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E38" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="F38" s="2">
-        <v>1.81</v>
+        <v>2.17</v>
       </c>
       <c r="G38">
         <v>10</v>
@@ -18758,16 +18761,16 @@
         <v>15035</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" s="1">
-        <v>0.28570000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="F39" s="2">
-        <v>1.43</v>
+        <v>2.81</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -18798,8 +18801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN41" sqref="AN41"/>
+    <sheetView tabSelected="1" topLeftCell="P7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18900,7 +18903,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4000'!N1</f>
-        <v>9.1580769230769228</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -19044,7 +19047,7 @@
       </c>
       <c r="L3" s="47">
         <f>+THUNDER_3200!N1</f>
-        <v>1.006875</v>
+        <v>0.18312500000000001</v>
       </c>
       <c r="AC3" s="78"/>
       <c r="AD3" s="79" t="str">
@@ -19077,7 +19080,7 @@
       </c>
       <c r="AK3" s="94">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$F1000, 5), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="AL3" s="100" t="str">
         <f ca="1">OFFSET(AD3, 0, ROW(AD3)-ROW($AD$3))</f>
@@ -19237,7 +19240,7 @@
       </c>
       <c r="AJ4" s="58">
         <f ca="1">IFERROR(VLOOKUP(BF4, $B$1:$F1001, 5), "")</f>
-        <v>0.21101606750664662</v>
+        <v>0.19679818887451489</v>
       </c>
       <c r="AK4" s="96">
         <f ca="1">IFERROR(VLOOKUP(BG4, $B$1:$F1001, 5), "")</f>
@@ -19411,7 +19414,7 @@
       </c>
       <c r="AJ5" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF5, $B$1:$F1002, 5), "")</f>
-        <v>0.22744829304759534</v>
+        <v>0.21101606750664662</v>
       </c>
       <c r="AK5" s="97">
         <f ca="1">IFERROR(VLOOKUP(BG5, $B$1:$F1002, 5), "")</f>
@@ -19599,7 +19602,7 @@
       </c>
       <c r="AJ6" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF6, $B$1:$F1003, 5), "")</f>
-        <v>0.5</v>
+        <v>0.53368909012505383</v>
       </c>
       <c r="AK6" s="97">
         <f ca="1">IFERROR(VLOOKUP(BG6, $B$1:$F1003, 5), "")</f>
@@ -19791,7 +19794,7 @@
       </c>
       <c r="AK7" s="97">
         <f ca="1">IFERROR(VLOOKUP(BG7, $B$1:$F1004, 5), "")</f>
-        <v>0.53893595813605788</v>
+        <v>0.5</v>
       </c>
       <c r="AL7" s="100">
         <f t="shared" ca="1" si="3"/>
@@ -19949,7 +19952,7 @@
       </c>
       <c r="AE8" s="62">
         <f ca="1">IFERROR(VLOOKUP(BA8, $B$1:$F1005, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AF8" s="50">
         <f ca="1">IFERROR(VLOOKUP(BB8, $B$1:$F1005, 5), "")</f>
@@ -19969,11 +19972,11 @@
       </c>
       <c r="AJ8" s="50">
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$F1005, 5), "")</f>
-        <v>0.716737949370015</v>
+        <v>0.6684454506252695</v>
       </c>
       <c r="AK8" s="98">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$F1005, 5), "")</f>
-        <v>0.45388134592680052</v>
+        <v>0.41555195243885962</v>
       </c>
       <c r="AL8" s="100">
         <f t="shared" ca="1" si="3"/>
@@ -20084,7 +20087,7 @@
       </c>
       <c r="C9" s="37">
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" s="37">
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -20096,11 +20099,11 @@
       </c>
       <c r="F9" s="53">
         <f>IFERROR((E9 + Params!$B$3^2/(2 * C9))/(1 + Params!$B$3^2/C9), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="G9" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C9))*SQRT(E9*(1-E9)/C9 + (Params!$B$3/(2*C9))^2), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="H9" s="39">
         <f t="shared" si="1"/>
@@ -20108,7 +20111,7 @@
       </c>
       <c r="I9" s="39">
         <f t="shared" si="2"/>
-        <v>0.6576280471103807</v>
+        <v>0.43449149475208104</v>
       </c>
       <c r="AC9" s="70">
         <v>100</v>
@@ -20123,11 +20126,11 @@
       </c>
       <c r="AF9" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$F1006, 5), "")</f>
-        <v>0.35550803375332329</v>
+        <v>0.33155454937473045</v>
       </c>
       <c r="AG9" s="39">
         <f ca="1">IFERROR(VLOOKUP(BC9, $B$1:$F1006, 5), "")</f>
-        <v>0.5</v>
+        <v>0.47031160934828048</v>
       </c>
       <c r="AH9" s="39">
         <f ca="1">IFERROR(VLOOKUP(BD9, $B$1:$F1006, 5), "")</f>
@@ -20135,7 +20138,7 @@
       </c>
       <c r="AI9" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE9, $B$1:$F1006, 5), "")</f>
-        <v>0.6444919662466766</v>
+        <v>0.6684454506252695</v>
       </c>
       <c r="AJ9" s="40">
         <f ca="1">IFERROR(VLOOKUP(BF9, $B$1:$F1006, 5), "")</f>
@@ -20285,7 +20288,7 @@
       </c>
       <c r="AD10" s="76">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$F1007, 5), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="AE10" s="63">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$F1007, 5), "")</f>
@@ -20605,7 +20608,7 @@
       </c>
       <c r="AK13" s="68">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$G1000, 6), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="AL13" s="100" t="str">
         <f ca="1">OFFSET(AD13, 0, ROW(AD13)-ROW($AD$13))</f>
@@ -20642,7 +20645,7 @@
       </c>
       <c r="AV13" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$G1000, 2), "")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:69" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -20707,7 +20710,7 @@
       </c>
       <c r="AJ14" s="58">
         <f ca="1">IFERROR(VLOOKUP(BF4, $B$1:$G1001, 6), "")</f>
-        <v>0.19314031799092549</v>
+        <v>0.18056643661168892</v>
       </c>
       <c r="AK14" s="60">
         <f ca="1">IFERROR(VLOOKUP(BG4, $B$1:$G1001, 6), "")</f>
@@ -20746,7 +20749,7 @@
       </c>
       <c r="AU14" s="88">
         <f ca="1">IFERROR(VLOOKUP(BF4, $B$1:$G1001, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV14" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG4, $B$1:$G1001, 2), "")</f>
@@ -20815,7 +20818,7 @@
       </c>
       <c r="AJ15" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF5, $B$1:$G1002, 6), "")</f>
-        <v>0.20755792172046483</v>
+        <v>0.19314031799092549</v>
       </c>
       <c r="AK15" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG5, $B$1:$G1002, 6), "")</f>
@@ -20854,7 +20857,7 @@
       </c>
       <c r="AU15" s="88">
         <f ca="1">IFERROR(VLOOKUP(BF5, $B$1:$G1002, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV15" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG5, $B$1:$G1002, 2), "")</f>
@@ -20923,7 +20926,7 @@
       </c>
       <c r="AJ16" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF6, $B$1:$G1003, 6), "")</f>
-        <v>0.26341040638451269</v>
+        <v>0.25360133443506561</v>
       </c>
       <c r="AK16" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG6, $B$1:$G1003, 6), "")</f>
@@ -20962,7 +20965,7 @@
       </c>
       <c r="AU16" s="88">
         <f ca="1">IFERROR(VLOOKUP(BF6, $B$1:$G1003, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV16" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG6, $B$1:$G1003, 2), "")</f>
@@ -21035,7 +21038,7 @@
       </c>
       <c r="AK17" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG7, $B$1:$G1004, 6), "")</f>
-        <v>0.27228861239202817</v>
+        <v>0.26341040638451269</v>
       </c>
       <c r="AL17" s="100">
         <f t="shared" ca="1" si="7"/>
@@ -21074,7 +21077,7 @@
       </c>
       <c r="AV17" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG7, $B$1:$G1004, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:59" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -21119,7 +21122,7 @@
       </c>
       <c r="AE18" s="61">
         <f ca="1">IFERROR(VLOOKUP(BA8, $B$1:$G1005, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AF18" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB8, $B$1:$G1005, 6), "")</f>
@@ -21139,11 +21142,11 @@
       </c>
       <c r="AJ18" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$G1005, 6), "")</f>
-        <v>0.22658110264929163</v>
+        <v>0.23409574363551577</v>
       </c>
       <c r="AK18" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$G1005, 6), "")</f>
-        <v>0.29566442366417367</v>
+        <v>0.27871019297733857</v>
       </c>
       <c r="AL18" s="100">
         <f t="shared" ca="1" si="7"/>
@@ -21158,7 +21161,7 @@
       </c>
       <c r="AP18" s="88">
         <f ca="1">IFERROR(VLOOKUP(BA8, $B$1:$G1005, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ18" s="88">
         <f ca="1">IFERROR(VLOOKUP(BB8, $B$1:$G1005, 2), "")</f>
@@ -21178,11 +21181,11 @@
       </c>
       <c r="AU18" s="88">
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$G1005, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV18" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$G1005, 2), "")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:59" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -21231,11 +21234,11 @@
       </c>
       <c r="AF19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$G1006, 6), "")</f>
-        <v>0.24771874626711146</v>
+        <v>0.23409574363551577</v>
       </c>
       <c r="AG19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BC9, $B$1:$G1006, 6), "")</f>
-        <v>0.24622182960657779</v>
+        <v>0.23825406633339907</v>
       </c>
       <c r="AH19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BD9, $B$1:$G1006, 6), "")</f>
@@ -21243,7 +21246,7 @@
       </c>
       <c r="AI19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BE9, $B$1:$G1006, 6), "")</f>
-        <v>0.24771874626711152</v>
+        <v>0.23409574363551577</v>
       </c>
       <c r="AJ19" s="53">
         <f ca="1">IFERROR(VLOOKUP(BF9, $B$1:$G1006, 6), "")</f>
@@ -21270,11 +21273,11 @@
       </c>
       <c r="AQ19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$G1006, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BC9, $B$1:$G1006, 2), "")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BD9, $B$1:$G1006, 2), "")</f>
@@ -21282,7 +21285,7 @@
       </c>
       <c r="AT19" s="90">
         <f ca="1">IFERROR(VLOOKUP(BE9, $B$1:$G1006, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU19" s="91">
         <f ca="1">IFERROR(VLOOKUP(BF9, $B$1:$G1006, 2), "")</f>
@@ -21331,7 +21334,7 @@
       </c>
       <c r="AD20" s="63">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$G1007, 6), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="AE20" s="63">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$G1007, 6), "")</f>
@@ -21370,7 +21373,7 @@
       </c>
       <c r="AO20" s="88">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$G1007, 2), "")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$G1007, 2), "")</f>
@@ -21408,7 +21411,7 @@
       </c>
       <c r="C21" s="37">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="37">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -21416,23 +21419,23 @@
       </c>
       <c r="E21" s="53">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="F21" s="53">
         <f>IFERROR((E21 + Params!$B$3^2/(2 * C21))/(1 + Params!$B$3^2/C21), NA())</f>
-        <v>0.5</v>
+        <v>0.47031160934828048</v>
       </c>
       <c r="G21" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C21))*SQRT(E21*(1-E21)/C21 + (Params!$B$3/(2*C21))^2), NA())</f>
-        <v>0.24622182960657779</v>
+        <v>0.23825406633339907</v>
       </c>
       <c r="H21" s="39">
         <f t="shared" si="1"/>
-        <v>0.25377817039342221</v>
+        <v>0.23205754301488141</v>
       </c>
       <c r="I21" s="39">
         <f t="shared" si="2"/>
-        <v>0.74622182960657779</v>
+        <v>0.70856567568167961</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -21510,7 +21513,7 @@
       </c>
       <c r="C24" s="37">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="37">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -21518,23 +21521,23 @@
       </c>
       <c r="E24" s="53">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="F24" s="53">
         <f>IFERROR((E24 + Params!$B$3^2/(2 * C24))/(1 + Params!$B$3^2/C24), NA())</f>
-        <v>0.35550803375332329</v>
+        <v>0.33155454937473045</v>
       </c>
       <c r="G24" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C24))*SQRT(E24*(1-E24)/C24 + (Params!$B$3/(2*C24))^2), NA())</f>
-        <v>0.24771874626711146</v>
+        <v>0.23409574363551577</v>
       </c>
       <c r="H24" s="39">
         <f t="shared" si="1"/>
-        <v>0.10778928748621183</v>
+        <v>9.7458805739214671E-2</v>
       </c>
       <c r="I24" s="39">
         <f t="shared" si="2"/>
-        <v>0.60322678002043473</v>
+        <v>0.56565029301024627</v>
       </c>
     </row>
     <row r="25" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -22369,15 +22372,15 @@
       </c>
       <c r="AH30" s="40">
         <f ca="1">IFERROR(VLOOKUP(BD30, $B$1:$F1027, 5), "")</f>
-        <v>0.26940672963400236</v>
+        <v>0.24665585731657882</v>
       </c>
       <c r="AI30" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE30, $B$1:$F1027, 5), "")</f>
-        <v>0.46106404186394218</v>
+        <v>0.5</v>
       </c>
       <c r="AJ30" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF30, $B$1:$F1027, 5), "")</f>
-        <v>0.42775401687666159</v>
+        <v>0.39893272962483828</v>
       </c>
       <c r="AK30" s="39" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG30, $B$1:$F1027, 5), "")</f>
@@ -22560,11 +22563,11 @@
       </c>
       <c r="AI31" s="40">
         <f ca="1">IFERROR(VLOOKUP(BE31, $B$1:$F1028, 5), "")</f>
-        <v>0.56684313253656315</v>
+        <v>0.56468137952446251</v>
       </c>
       <c r="AJ31" s="50">
         <f ca="1">IFERROR(VLOOKUP(BF31, $B$1:$F1028, 5), "")</f>
-        <v>0.61680787440817342</v>
+        <v>0.6444919662466766</v>
       </c>
       <c r="AK31" s="50" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG31, $B$1:$F1028, 5), "")</f>
@@ -22648,7 +22651,7 @@
       </c>
       <c r="C32" s="37">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="37">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -22660,11 +22663,11 @@
       </c>
       <c r="F32" s="53">
         <f>IFERROR((E32 + Params!$B$3^2/(2 * C32))/(1 + Params!$B$3^2/C32), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G32" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C32))*SQRT(E32*(1-E32)/C32 + (Params!$B$3/(2*C32))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H32" s="39">
         <f t="shared" si="1"/>
@@ -22672,7 +22675,7 @@
       </c>
       <c r="I32" s="39">
         <f t="shared" si="2"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
       <c r="Q32">
         <v>10</v>
@@ -22727,7 +22730,7 @@
       </c>
       <c r="AH32" s="39">
         <f ca="1">IFERROR(VLOOKUP(BD32, $B$1:$F1029, 5), "")</f>
-        <v>0.58444804756114044</v>
+        <v>0.53893595813605788</v>
       </c>
       <c r="AI32" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE32, $B$1:$F1029, 5), "")</f>
@@ -22735,7 +22738,7 @@
       </c>
       <c r="AJ32" s="40">
         <f ca="1">IFERROR(VLOOKUP(BF32, $B$1:$F1029, 5), "")</f>
-        <v>0.36164403778040138</v>
+        <v>0.35550803375332329</v>
       </c>
       <c r="AK32" s="39" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG32, $B$1:$F1029, 5), "")</f>
@@ -23153,15 +23156,15 @@
       </c>
       <c r="R36" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.32881402355519035</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="S36" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="T36" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0.60956706377969927</v>
+        <v>0.43449149475208104</v>
       </c>
       <c r="U36" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -23169,11 +23172,11 @@
       </c>
       <c r="V36" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0.32881402355519035</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="W36" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="X36"/>
       <c r="Y36" s="1">
@@ -23289,31 +23292,31 @@
       </c>
       <c r="C39" s="37">
         <f>IFERROR(VLOOKUP($B39, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B39, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B39, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39" s="37">
         <f>IFERROR(VLOOKUP($B39, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B39, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B39, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" s="53">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="F39" s="53">
         <f>IFERROR((E39 + Params!$B$3^2/(2 * C39))/(1 + Params!$B$3^2/C39), NA())</f>
-        <v>0.6444919662466766</v>
+        <v>0.6684454506252695</v>
       </c>
       <c r="G39" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C39))*SQRT(E39*(1-E39)/C39 + (Params!$B$3/(2*C39))^2), NA())</f>
-        <v>0.24771874626711152</v>
+        <v>0.23409574363551577</v>
       </c>
       <c r="H39" s="39">
         <f t="shared" si="1"/>
-        <v>0.39677321997956505</v>
+        <v>0.43434970698975373</v>
       </c>
       <c r="I39" s="39">
         <f t="shared" si="2"/>
-        <v>0.89221071251378814</v>
+        <v>0.90254119426078527</v>
       </c>
       <c r="AA39" s="37">
         <v>20</v>
@@ -23340,15 +23343,15 @@
       </c>
       <c r="AI39" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$F1000, 5), "")</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="AJ39" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 6), "")</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="AK39" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 2), "")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23358,7 +23361,7 @@
       </c>
       <c r="C40" s="37">
         <f>IFERROR(VLOOKUP($B40, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B40, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B40, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D40" s="37">
         <f>IFERROR(VLOOKUP($B40, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B40, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B40, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -23366,23 +23369,23 @@
       </c>
       <c r="E40" s="53">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="F40" s="53">
         <f>IFERROR((E40 + Params!$B$3^2/(2 * C40))/(1 + Params!$B$3^2/C40), NA())</f>
-        <v>0.21101606750664662</v>
+        <v>0.19679818887451489</v>
       </c>
       <c r="G40" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C40))*SQRT(E40*(1-E40)/C40 + (Params!$B$3/(2*C40))^2), NA())</f>
-        <v>0.19314031799092549</v>
+        <v>0.18056643661168892</v>
       </c>
       <c r="H40" s="39">
         <f t="shared" si="1"/>
-        <v>1.7875749515721129E-2</v>
+        <v>1.6231752262825971E-2</v>
       </c>
       <c r="I40" s="39">
         <f t="shared" si="2"/>
-        <v>0.4041563854975721</v>
+        <v>0.37736462548620381</v>
       </c>
       <c r="AA40" s="37">
         <v>20</v>
@@ -23409,15 +23412,15 @@
       </c>
       <c r="AI40" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$F1001, 5), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AJ40" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 6), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AK40" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 2), "")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -23427,7 +23430,7 @@
       </c>
       <c r="C41" s="37">
         <f>IFERROR(VLOOKUP($B41, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B41, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B41, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" s="37">
         <f>IFERROR(VLOOKUP($B41, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B41, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B41, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -23435,23 +23438,23 @@
       </c>
       <c r="E41" s="53">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="F41" s="53">
         <f>IFERROR((E41 + Params!$B$3^2/(2 * C41))/(1 + Params!$B$3^2/C41), NA())</f>
-        <v>0.22744829304759534</v>
+        <v>0.21101606750664662</v>
       </c>
       <c r="G41" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C41))*SQRT(E41*(1-E41)/C41 + (Params!$B$3/(2*C41))^2), NA())</f>
-        <v>0.20755792172046483</v>
+        <v>0.19314031799092549</v>
       </c>
       <c r="H41" s="39">
         <f t="shared" si="1"/>
-        <v>1.9890371327130507E-2</v>
+        <v>1.7875749515721129E-2</v>
       </c>
       <c r="I41" s="39">
         <f t="shared" si="2"/>
-        <v>0.43500621476806017</v>
+        <v>0.4041563854975721</v>
       </c>
       <c r="AA41" s="37">
         <v>20</v>
@@ -23511,31 +23514,31 @@
       </c>
       <c r="C42" s="37">
         <f>IFERROR(VLOOKUP($B42, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B42, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B42, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42" s="37">
         <f>IFERROR(VLOOKUP($B42, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B42, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B42, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="53">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="F42" s="53">
         <f>IFERROR((E42 + Params!$B$3^2/(2 * C42))/(1 + Params!$B$3^2/C42), NA())</f>
-        <v>0.5</v>
+        <v>0.53368909012505383</v>
       </c>
       <c r="G42" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C42))*SQRT(E42*(1-E42)/C42 + (Params!$B$3/(2*C42))^2), NA())</f>
-        <v>0.26341040638451269</v>
+        <v>0.25360133443506561</v>
       </c>
       <c r="H42" s="39">
         <f t="shared" si="1"/>
-        <v>0.23658959361548731</v>
+        <v>0.28008775568998823</v>
       </c>
       <c r="I42" s="39">
         <f t="shared" si="2"/>
-        <v>0.76341040638451263</v>
+        <v>0.78729042456011944</v>
       </c>
       <c r="AA42" s="37">
         <v>20</v>
@@ -23649,7 +23652,7 @@
       </c>
       <c r="C44" s="37">
         <f>IFERROR(VLOOKUP($B44, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B44, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B44, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D44" s="37">
         <f>IFERROR(VLOOKUP($B44, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B44, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B44, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -23657,23 +23660,23 @@
       </c>
       <c r="E44" s="53">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="F44" s="53">
         <f>IFERROR((E44 + Params!$B$3^2/(2 * C44))/(1 + Params!$B$3^2/C44), NA())</f>
-        <v>0.716737949370015</v>
+        <v>0.6684454506252695</v>
       </c>
       <c r="G44" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C44))*SQRT(E44*(1-E44)/C44 + (Params!$B$3/(2*C44))^2), NA())</f>
-        <v>0.22658110264929163</v>
+        <v>0.23409574363551577</v>
       </c>
       <c r="H44" s="39">
         <f t="shared" si="1"/>
-        <v>0.49015684672072335</v>
+        <v>0.43434970698975373</v>
       </c>
       <c r="I44" s="39">
         <f t="shared" si="2"/>
-        <v>0.94331905201930666</v>
+        <v>0.90254119426078527</v>
       </c>
       <c r="AA44" s="37">
         <v>20</v>
@@ -23769,15 +23772,15 @@
       </c>
       <c r="AI45" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$F1006, 5), "")</f>
-        <v>0.24495001020199958</v>
+        <v>0.33034744842562436</v>
       </c>
       <c r="AJ45" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 6), "")</f>
-        <v>0.24495001020199958</v>
+        <v>0.29412428745583691</v>
       </c>
       <c r="AK45" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 2), "")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23838,15 +23841,15 @@
       </c>
       <c r="AI46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$F1007, 5), "")</f>
-        <v>0.24495001020199958</v>
+        <v>0.33034744842562436</v>
       </c>
       <c r="AJ46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 6), "")</f>
-        <v>0.24495001020199958</v>
+        <v>0.29412428745583691</v>
       </c>
       <c r="AK46" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 2), "")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23976,15 +23979,15 @@
       </c>
       <c r="AI48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$F1009, 5), "")</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="AJ48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 6), "")</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="AK48" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 2), "")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23994,7 +23997,7 @@
       </c>
       <c r="C49" s="37">
         <f>IFERROR(VLOOKUP($B49, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B49, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B49, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" s="37">
         <f>IFERROR(VLOOKUP($B49, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B49, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B49, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24002,23 +24005,23 @@
       </c>
       <c r="E49" s="53">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.5</v>
       </c>
       <c r="F49" s="53">
         <f>IFERROR((E49 + Params!$B$3^2/(2 * C49))/(1 + Params!$B$3^2/C49), NA())</f>
-        <v>0.53893595813605788</v>
+        <v>0.5</v>
       </c>
       <c r="G49" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C49))*SQRT(E49*(1-E49)/C49 + (Params!$B$3/(2*C49))^2), NA())</f>
-        <v>0.27228861239202817</v>
+        <v>0.26341040638451269</v>
       </c>
       <c r="H49" s="39">
         <f t="shared" si="1"/>
-        <v>0.26664734574402971</v>
+        <v>0.23658959361548731</v>
       </c>
       <c r="I49" s="39">
         <f t="shared" si="2"/>
-        <v>0.81122457052808605</v>
+        <v>0.76341040638451263</v>
       </c>
       <c r="AA49" s="37">
         <v>20</v>
@@ -24045,15 +24048,15 @@
       </c>
       <c r="AI49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$F1010, 5), "")</f>
-        <v>0.5</v>
+        <v>0.39839050560884404</v>
       </c>
       <c r="AJ49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 6), "")</f>
-        <v>0.34996429117982852</v>
+        <v>0.30162117304962721</v>
       </c>
       <c r="AK49" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 2), "")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24063,7 +24066,7 @@
       </c>
       <c r="C50" s="37">
         <f>IFERROR(VLOOKUP($B50, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B50, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B50, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" s="37">
         <f>IFERROR(VLOOKUP($B50, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B50, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B50, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24071,23 +24074,23 @@
       </c>
       <c r="E50" s="53">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.375</v>
       </c>
       <c r="F50" s="53">
         <f>IFERROR((E50 + Params!$B$3^2/(2 * C50))/(1 + Params!$B$3^2/C50), NA())</f>
-        <v>0.45388134592680052</v>
+        <v>0.41555195243885962</v>
       </c>
       <c r="G50" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C50))*SQRT(E50*(1-E50)/C50 + (Params!$B$3/(2*C50))^2), NA())</f>
-        <v>0.29566442366417367</v>
+        <v>0.27871019297733857</v>
       </c>
       <c r="H50" s="39">
         <f t="shared" si="1"/>
-        <v>0.15821692226262685</v>
+        <v>0.13684175946152105</v>
       </c>
       <c r="I50" s="39">
         <f t="shared" si="2"/>
-        <v>0.74954576959097419</v>
+        <v>0.69426214541619813</v>
       </c>
     </row>
     <row r="51" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24283,15 +24286,15 @@
       </c>
       <c r="AI54" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$F1015, 5), "")</f>
-        <v>0.5</v>
+        <v>0.37247500510099979</v>
       </c>
       <c r="AJ54" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 6), "")</f>
-        <v>0.40547134519913386</v>
+        <v>0.32688894245636357</v>
       </c>
       <c r="AK54" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 2), "")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -24781,15 +24784,15 @@
       </c>
       <c r="AI61" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$F1022, 5), "")</f>
-        <v>0.42691768007483627</v>
+        <v>0.33034744842562436</v>
       </c>
       <c r="AJ61" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$G1022, 6), "")</f>
-        <v>0.36542736479867571</v>
+        <v>0.29412428745583691</v>
       </c>
       <c r="AK61" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$G1022, 2), "")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -24850,15 +24853,15 @@
       </c>
       <c r="AI62" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$F1023, 5), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="AJ62" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$G1023, 6), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="AK62" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$G1023, 2), "")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -24919,15 +24922,15 @@
       </c>
       <c r="AI63" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$F1024, 5), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.33034744842562436</v>
       </c>
       <c r="AJ63" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$G1024, 6), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.29412428745583691</v>
       </c>
       <c r="AK63" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$G1024, 2), "")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -24988,15 +24991,15 @@
       </c>
       <c r="AI64" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$F1025, 5), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="AJ64" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$G1025, 6), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="AK64" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$G1025, 2), "")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -25006,7 +25009,7 @@
       </c>
       <c r="C65" s="37">
         <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" s="37">
         <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25018,11 +25021,11 @@
       </c>
       <c r="F65" s="53">
         <f>IFERROR((E65 + Params!$B$3^2/(2 * C65))/(1 + Params!$B$3^2/C65), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="G65" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C65))*SQRT(E65*(1-E65)/C65 + (Params!$B$3/(2*C65))^2), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="H65" s="39">
         <f t="shared" si="1"/>
@@ -25030,7 +25033,7 @@
       </c>
       <c r="I65" s="39">
         <f t="shared" si="2"/>
-        <v>0.56150608044901773</v>
+        <v>0.43449149475208104</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -25074,7 +25077,7 @@
       </c>
       <c r="C67" s="37">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" s="37">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25086,11 +25089,11 @@
       </c>
       <c r="F67" s="53">
         <f>IFERROR((E67 + Params!$B$3^2/(2 * C67))/(1 + Params!$B$3^2/C67), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="G67" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C67))*SQRT(E67*(1-E67)/C67 + (Params!$B$3/(2*C67))^2), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="H67" s="39">
         <f t="shared" ref="H67:H130" si="22">F67-G67</f>
@@ -25098,7 +25101,7 @@
       </c>
       <c r="I67" s="39">
         <f t="shared" ref="I67:I130" si="23">F67+G67</f>
-        <v>0.48990002040399916</v>
+        <v>0.43449149475208104</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -25108,7 +25111,7 @@
       </c>
       <c r="C68" s="37">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" s="37">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25120,11 +25123,11 @@
       </c>
       <c r="F68" s="53">
         <f>IFERROR((E68 + Params!$B$3^2/(2 * C68))/(1 + Params!$B$3^2/C68), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="G68" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C68))*SQRT(E68*(1-E68)/C68 + (Params!$B$3/(2*C68))^2), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="H68" s="39">
         <f t="shared" si="22"/>
@@ -25132,7 +25135,7 @@
       </c>
       <c r="I68" s="39">
         <f t="shared" si="23"/>
-        <v>0.6576280471103807</v>
+        <v>0.56150608044901773</v>
       </c>
       <c r="AA68" s="37" t="s">
         <v>10</v>
@@ -25226,15 +25229,15 @@
       </c>
       <c r="AI69" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$F1030, 5), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.37247500510099979</v>
       </c>
       <c r="AJ69" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$G1030, 6), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.32688894245636357</v>
       </c>
       <c r="AK69" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$G1030, 2), "")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -25451,31 +25454,31 @@
       </c>
       <c r="C73" s="37">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" s="37">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="53">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F73" s="53">
         <f>IFERROR((E73 + Params!$B$3^2/(2 * C73))/(1 + Params!$B$3^2/C73), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>0.33034744842562436</v>
       </c>
       <c r="G73" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C73))*SQRT(E73*(1-E73)/C73 + (Params!$B$3/(2*C73))^2), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>0.29412428745583691</v>
       </c>
       <c r="H73" s="39">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3.6223160969787449E-2</v>
       </c>
       <c r="I73" s="39">
         <f t="shared" si="23"/>
-        <v>0.48990002040399916</v>
+        <v>0.62447173588146132</v>
       </c>
       <c r="AA73" s="37">
         <v>20</v>
@@ -25520,31 +25523,31 @@
       </c>
       <c r="C74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="53">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F74" s="53">
         <f>IFERROR((E74 + Params!$B$3^2/(2 * C74))/(1 + Params!$B$3^2/C74), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>0.33034744842562436</v>
       </c>
       <c r="G74" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C74))*SQRT(E74*(1-E74)/C74 + (Params!$B$3/(2*C74))^2), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>0.29412428745583691</v>
       </c>
       <c r="H74" s="39">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3.6223160969787449E-2</v>
       </c>
       <c r="I74" s="39">
         <f t="shared" si="23"/>
-        <v>0.48990002040399916</v>
+        <v>0.62447173588146132</v>
       </c>
       <c r="AA74" s="37"/>
       <c r="AB74" s="44"/>
@@ -25622,7 +25625,7 @@
       </c>
       <c r="C76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25634,11 +25637,11 @@
       </c>
       <c r="F76" s="53">
         <f>IFERROR((E76 + Params!$B$3^2/(2 * C76))/(1 + Params!$B$3^2/C76), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="G76" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C76))*SQRT(E76*(1-E76)/C76 + (Params!$B$3/(2*C76))^2), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="H76" s="39">
         <f t="shared" si="22"/>
@@ -25646,7 +25649,7 @@
       </c>
       <c r="I76" s="39">
         <f t="shared" si="23"/>
-        <v>0.48990002040399916</v>
+        <v>0.43449149475208104</v>
       </c>
       <c r="AA76" s="37"/>
       <c r="AB76" s="44"/>
@@ -25673,7 +25676,7 @@
       </c>
       <c r="C77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25681,23 +25684,23 @@
       </c>
       <c r="E77" s="53">
         <f t="shared" si="21"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F77" s="53">
         <f>IFERROR((E77 + Params!$B$3^2/(2 * C77))/(1 + Params!$B$3^2/C77), NA())</f>
-        <v>0.5</v>
+        <v>0.39839050560884404</v>
       </c>
       <c r="G77" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C77))*SQRT(E77*(1-E77)/C77 + (Params!$B$3/(2*C77))^2), NA())</f>
-        <v>0.34996429117982852</v>
+        <v>0.30162117304962721</v>
       </c>
       <c r="H77" s="39">
         <f t="shared" si="22"/>
-        <v>0.15003570882017148</v>
+        <v>9.6769332559216825E-2</v>
       </c>
       <c r="I77" s="39">
         <f t="shared" si="23"/>
-        <v>0.84996429117982852</v>
+        <v>0.70001167865847125</v>
       </c>
       <c r="AA77" s="37"/>
       <c r="AB77" s="44"/>
@@ -25724,7 +25727,7 @@
       </c>
       <c r="C78" s="37">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" s="37">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25732,23 +25735,23 @@
       </c>
       <c r="E78" s="53">
         <f t="shared" si="21"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F78" s="53">
         <f>IFERROR((E78 + Params!$B$3^2/(2 * C78))/(1 + Params!$B$3^2/C78), NA())</f>
-        <v>0.5</v>
+        <v>0.37247500510099979</v>
       </c>
       <c r="G78" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C78))*SQRT(E78*(1-E78)/C78 + (Params!$B$3/(2*C78))^2), NA())</f>
-        <v>0.40547134519913386</v>
+        <v>0.32688894245636357</v>
       </c>
       <c r="H78" s="39">
         <f t="shared" si="22"/>
-        <v>9.4528654800866141E-2</v>
+        <v>4.5586062644636216E-2</v>
       </c>
       <c r="I78" s="39">
         <f t="shared" si="23"/>
-        <v>0.90547134519913386</v>
+        <v>0.69936394755736342</v>
       </c>
       <c r="AA78" s="37"/>
       <c r="AB78" s="44"/>
@@ -26046,15 +26049,15 @@
       </c>
       <c r="AI84" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$F1045, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AJ84" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$G1045, 6), "")</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AK84" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$G1045, 2), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -26064,7 +26067,7 @@
       </c>
       <c r="C85" s="37">
         <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" s="37">
         <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26072,23 +26075,23 @@
       </c>
       <c r="E85" s="53">
         <f t="shared" si="21"/>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="F85" s="53">
         <f>IFERROR((E85 + Params!$B$3^2/(2 * C85))/(1 + Params!$B$3^2/C85), NA())</f>
-        <v>0.42691768007483627</v>
+        <v>0.33034744842562436</v>
       </c>
       <c r="G85" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C85))*SQRT(E85*(1-E85)/C85 + (Params!$B$3/(2*C85))^2), NA())</f>
-        <v>0.36542736479867571</v>
+        <v>0.29412428745583691</v>
       </c>
       <c r="H85" s="39">
         <f t="shared" si="22"/>
-        <v>6.1490315276160556E-2</v>
+        <v>3.6223160969787449E-2</v>
       </c>
       <c r="I85" s="39">
         <f t="shared" si="23"/>
-        <v>0.79234504487351198</v>
+        <v>0.62447173588146132</v>
       </c>
       <c r="AA85" s="37"/>
       <c r="AB85" s="44"/>
@@ -26133,7 +26136,7 @@
       </c>
       <c r="C86" s="37">
         <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" s="37">
         <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26145,11 +26148,11 @@
       </c>
       <c r="F86" s="53">
         <f>IFERROR((E86 + Params!$B$3^2/(2 * C86))/(1 + Params!$B$3^2/C86), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="G86" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C86))*SQRT(E86*(1-E86)/C86 + (Params!$B$3/(2*C86))^2), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="H86" s="39">
         <f t="shared" si="22"/>
@@ -26157,7 +26160,7 @@
       </c>
       <c r="I86" s="39">
         <f t="shared" si="23"/>
-        <v>0.56150608044901773</v>
+        <v>0.43449149475208104</v>
       </c>
       <c r="AA86" s="37"/>
       <c r="AB86" s="44"/>
@@ -26202,31 +26205,31 @@
       </c>
       <c r="C87" s="37">
         <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" s="37">
         <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="53">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F87" s="53">
         <f>IFERROR((E87 + Params!$B$3^2/(2 * C87))/(1 + Params!$B$3^2/C87), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.33034744842562436</v>
       </c>
       <c r="G87" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C87))*SQRT(E87*(1-E87)/C87 + (Params!$B$3/(2*C87))^2), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.29412428745583691</v>
       </c>
       <c r="H87" s="39">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3.6223160969787449E-2</v>
       </c>
       <c r="I87" s="39">
         <f t="shared" si="23"/>
-        <v>0.56150608044901773</v>
+        <v>0.62447173588146132</v>
       </c>
       <c r="AA87" s="37"/>
       <c r="AB87" s="44"/>
@@ -26271,7 +26274,7 @@
       </c>
       <c r="C88" s="37">
         <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" s="37">
         <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26283,11 +26286,11 @@
       </c>
       <c r="F88" s="53">
         <f>IFERROR((E88 + Params!$B$3^2/(2 * C88))/(1 + Params!$B$3^2/C88), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="G88" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C88))*SQRT(E88*(1-E88)/C88 + (Params!$B$3/(2*C88))^2), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="H88" s="39">
         <f t="shared" si="22"/>
@@ -26295,7 +26298,7 @@
       </c>
       <c r="I88" s="39">
         <f t="shared" si="23"/>
-        <v>0.56150608044901773</v>
+        <v>0.43449149475208104</v>
       </c>
       <c r="AA88" s="37"/>
       <c r="AB88" s="44"/>
@@ -26782,31 +26785,31 @@
       </c>
       <c r="C99" s="37">
         <f>IFERROR(VLOOKUP($B99, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" s="37">
         <f>IFERROR(VLOOKUP($B99, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B99, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B99, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="53">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F99" s="53">
         <f>IFERROR((E99 + Params!$B$3^2/(2 * C99))/(1 + Params!$B$3^2/C99), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.37247500510099979</v>
       </c>
       <c r="G99" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C99))*SQRT(E99*(1-E99)/C99 + (Params!$B$3/(2*C99))^2), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.32688894245636357</v>
       </c>
       <c r="H99" s="39">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4.5586062644636216E-2</v>
       </c>
       <c r="I99" s="39">
         <f t="shared" si="23"/>
-        <v>0.6576280471103807</v>
+        <v>0.69936394755736342</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27224,7 +27227,7 @@
       </c>
       <c r="C112" s="37">
         <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" s="37">
         <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -27236,11 +27239,11 @@
       </c>
       <c r="F112" s="53">
         <f>IFERROR((E112 + Params!$B$3^2/(2 * C112))/(1 + Params!$B$3^2/C112), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G112" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C112))*SQRT(E112*(1-E112)/C112 + (Params!$B$3/(2*C112))^2), NA())</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H112" s="39">
         <f t="shared" si="22"/>
@@ -27248,7 +27251,7 @@
       </c>
       <c r="I112" s="39">
         <f t="shared" si="23"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27598,7 +27601,7 @@
       </c>
       <c r="C123" s="37">
         <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D123" s="37">
         <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -27606,23 +27609,23 @@
       </c>
       <c r="E123" s="53">
         <f t="shared" si="21"/>
-        <v>0.14285714285714285</v>
+        <v>0.125</v>
       </c>
       <c r="F123" s="53">
         <f>IFERROR((E123 + Params!$B$3^2/(2 * C123))/(1 + Params!$B$3^2/C123), NA())</f>
-        <v>0.26940672963400236</v>
+        <v>0.24665585731657882</v>
       </c>
       <c r="G123" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C123))*SQRT(E123*(1-E123)/C123 + (Params!$B$3/(2*C123))^2), NA())</f>
-        <v>0.24372777368502754</v>
+        <v>0.22423894845328268</v>
       </c>
       <c r="H123" s="39">
         <f t="shared" si="22"/>
-        <v>2.5678955948974819E-2</v>
+        <v>2.2416908863296142E-2</v>
       </c>
       <c r="I123" s="39">
         <f t="shared" si="23"/>
-        <v>0.51313450331902988</v>
+        <v>0.47089480576986154</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27904,7 +27907,7 @@
       </c>
       <c r="C132" s="37">
         <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" s="37">
         <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -27912,23 +27915,23 @@
       </c>
       <c r="E132" s="53">
         <f t="shared" si="27"/>
-        <v>0.625</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F132" s="53">
         <f>IFERROR((E132 + Params!$B$3^2/(2 * C132))/(1 + Params!$B$3^2/C132), NA())</f>
-        <v>0.58444804756114044</v>
+        <v>0.53893595813605788</v>
       </c>
       <c r="G132" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C132))*SQRT(E132*(1-E132)/C132 + (Params!$B$3/(2*C132))^2), NA())</f>
-        <v>0.27871019297733857</v>
+        <v>0.27228861239202817</v>
       </c>
       <c r="H132" s="39">
         <f t="shared" si="28"/>
-        <v>0.30573785458380187</v>
+        <v>0.26664734574402971</v>
       </c>
       <c r="I132" s="39">
         <f t="shared" si="29"/>
-        <v>0.863158240538479</v>
+        <v>0.81122457052808605</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -28244,31 +28247,31 @@
       </c>
       <c r="C142" s="37">
         <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" s="37">
         <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E142" s="53">
         <f t="shared" si="30"/>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="F142" s="53">
         <f>IFERROR((E142 + Params!$B$3^2/(2 * C142))/(1 + Params!$B$3^2/C142), NA())</f>
-        <v>0.46106404186394218</v>
+        <v>0.5</v>
       </c>
       <c r="G142" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C142))*SQRT(E142*(1-E142)/C142 + (Params!$B$3/(2*C142))^2), NA())</f>
-        <v>0.27228861239202817</v>
+        <v>0.26341040638451269</v>
       </c>
       <c r="H142" s="39">
         <f t="shared" si="31"/>
-        <v>0.188775429471914</v>
+        <v>0.23658959361548731</v>
       </c>
       <c r="I142" s="39">
         <f t="shared" si="32"/>
-        <v>0.73335265425597029</v>
+        <v>0.76341040638451263</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -28278,31 +28281,31 @@
       </c>
       <c r="C143" s="37">
         <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D143" s="37">
         <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E143" s="53">
         <f t="shared" si="30"/>
-        <v>0.5714285714285714</v>
+        <v>0.56896551724137934</v>
       </c>
       <c r="F143" s="53">
         <f>IFERROR((E143 + Params!$B$3^2/(2 * C143))/(1 + Params!$B$3^2/C143), NA())</f>
-        <v>0.56684313253656315</v>
+        <v>0.56468137952446251</v>
       </c>
       <c r="G143" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C143))*SQRT(E143*(1-E143)/C143 + (Params!$B$3/(2*C143))^2), NA())</f>
-        <v>0.12546924333250761</v>
+        <v>0.12350261246718826</v>
       </c>
       <c r="H143" s="39">
         <f t="shared" si="31"/>
-        <v>0.44137388920405551</v>
+        <v>0.44117876705727427</v>
       </c>
       <c r="I143" s="39">
         <f t="shared" si="32"/>
-        <v>0.6923123758690708</v>
+        <v>0.68818399199165081</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -28448,7 +28451,7 @@
       </c>
       <c r="C148" s="37">
         <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D148" s="37">
         <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -28456,23 +28459,23 @@
       </c>
       <c r="E148" s="53">
         <f t="shared" si="30"/>
-        <v>0.4</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="F148" s="53">
         <f>IFERROR((E148 + Params!$B$3^2/(2 * C148))/(1 + Params!$B$3^2/C148), NA())</f>
-        <v>0.42775401687666159</v>
+        <v>0.39893272962483828</v>
       </c>
       <c r="G148" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C148))*SQRT(E148*(1-E148)/C148 + (Params!$B$3/(2*C148))^2), NA())</f>
-        <v>0.25957643567315197</v>
+        <v>0.24727049348352442</v>
       </c>
       <c r="H148" s="39">
         <f t="shared" si="31"/>
-        <v>0.16817758120350962</v>
+        <v>0.15166223614131386</v>
       </c>
       <c r="I148" s="39">
         <f t="shared" si="32"/>
-        <v>0.68733045254981362</v>
+        <v>0.64620322310836276</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -28482,31 +28485,31 @@
       </c>
       <c r="C149" s="37">
         <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" s="37">
         <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E149" s="53">
         <f t="shared" si="30"/>
-        <v>0.66666666666666663</v>
+        <v>0.7</v>
       </c>
       <c r="F149" s="53">
         <f>IFERROR((E149 + Params!$B$3^2/(2 * C149))/(1 + Params!$B$3^2/C149), NA())</f>
-        <v>0.61680787440817342</v>
+        <v>0.6444919662466766</v>
       </c>
       <c r="G149" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C149))*SQRT(E149*(1-E149)/C149 + (Params!$B$3/(2*C149))^2), NA())</f>
-        <v>0.26261052690908371</v>
+        <v>0.24771874626711152</v>
       </c>
       <c r="H149" s="39">
         <f t="shared" si="31"/>
-        <v>0.35419734749908971</v>
+        <v>0.39677321997956505</v>
       </c>
       <c r="I149" s="39">
         <f t="shared" si="32"/>
-        <v>0.87941840131725713</v>
+        <v>0.89221071251378814</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -28516,31 +28519,31 @@
       </c>
       <c r="C150" s="37">
         <f>IFERROR(VLOOKUP($B150, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D150" s="37">
         <f>IFERROR(VLOOKUP($B150, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B150, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B150, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E150" s="53">
         <f t="shared" si="30"/>
-        <v>0.2857142857142857</v>
+        <v>0.3</v>
       </c>
       <c r="F150" s="53">
         <f>IFERROR((E150 + Params!$B$3^2/(2 * C150))/(1 + Params!$B$3^2/C150), NA())</f>
-        <v>0.36164403778040138</v>
+        <v>0.35550803375332329</v>
       </c>
       <c r="G150" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C150))*SQRT(E150*(1-E150)/C150 + (Params!$B$3/(2*C150))^2), NA())</f>
-        <v>0.27942687207138589</v>
+        <v>0.24771874626711146</v>
       </c>
       <c r="H150" s="39">
         <f t="shared" si="31"/>
-        <v>8.2217165709015494E-2</v>
+        <v>0.10778928748621183</v>
       </c>
       <c r="I150" s="39">
         <f t="shared" si="32"/>
-        <v>0.64107090985178727</v>
+        <v>0.60322678002043473</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF00FF8-2DA0-4035-BBE6-BA804D335AFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC63266-1594-4038-AB50-649E83E3595D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -1112,7 +1112,7 @@
                   <c:v>0.17883496742101909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21101606750664662</c:v>
+                  <c:v>0.19679818887451489</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.13877008438330826</c:v>
@@ -1256,7 +1256,7 @@
                   <c:v>0.6684454506252695</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41555195243885962</c:v>
+                  <c:v>0.46106404186394218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,16 +1294,16 @@
                   <c:v>0.47031160934828048</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35550803375332329</c:v>
+                  <c:v>0.39893272962483828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6684454506252695</c:v>
+                  <c:v>0.68937481062518935</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.40713500341743192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41555195243885962</c:v>
+                  <c:v>0.38319212559182658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1350,7 +1350,7 @@
                   <c:v>0.36164403778040138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24665585731657882</c:v>
+                  <c:v>0.22744829304759534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2044,7 +2044,7 @@
                     <c:v>0.13105310555497438</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.22423894845328268</c:v>
+                    <c:v>0.20755792172046483</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2074,7 +2074,7 @@
                     <c:v>0.13105310555497438</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.22423894845328268</c:v>
+                    <c:v>0.20755792172046483</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2145,7 +2145,7 @@
                   <c:v>0.40713500341743192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24665585731657882</c:v>
+                  <c:v>0.22744829304759534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2554,10 +2554,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.19517151682653225</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -2575,10 +2575,10 @@
                     <c:v>0.29412428745583691</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.29412428745583691</c:v>
+                    <c:v>0.26672842534595786</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.24495001020199958</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>0.21724574737604055</c:v>
@@ -2596,10 +2596,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.19517151682653225</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -2617,10 +2617,10 @@
                     <c:v>0.29412428745583691</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.29412428745583691</c:v>
+                    <c:v>0.26672842534595786</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.24495001020199958</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>0.21724574737604055</c:v>
@@ -2694,10 +2694,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.21724574737604052</c:v>
+                  <c:v>0.19517151682653225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28075304022450887</c:v>
+                  <c:v>0.24495001020199958</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.16338328226733051</c:v>
@@ -2715,10 +2715,10 @@
                   <c:v>0.33034744842562436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33034744842562436</c:v>
+                  <c:v>0.29678101121768818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24495001020199958</c:v>
+                  <c:v>0.21724574737604052</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.21724574737604052</c:v>
@@ -2988,7 +2988,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.32688894245636357</c:v>
+                    <c:v>0.26672842534595786</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.14125333185830088</c:v>
@@ -3009,16 +3009,16 @@
                     <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.29412428745583691</c:v>
+                    <c:v>0.26672842534595786</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.19517151682653225</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.29412428745583691</c:v>
+                    <c:v>0.26672842534595786</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.19517151682653225</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3030,7 +3030,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.32688894245636357</c:v>
+                    <c:v>0.26672842534595786</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.14125333185830088</c:v>
@@ -3051,16 +3051,16 @@
                     <c:v>0.24495001020199958</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.29412428745583691</c:v>
+                    <c:v>0.26672842534595786</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.19517151682653225</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.29412428745583691</c:v>
+                    <c:v>0.26672842534595786</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.19517151682653225</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3128,7 +3128,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.37247500510099979</c:v>
+                  <c:v>0.29678101121768818</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.20528680794408075</c:v>
@@ -3149,16 +3149,16 @@
                   <c:v>0.24495001020199958</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33034744842562436</c:v>
+                  <c:v>0.29678101121768818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21724574737604052</c:v>
+                  <c:v>0.19517151682653225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33034744842562436</c:v>
+                  <c:v>0.29678101121768818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.21724574737604052</c:v>
+                  <c:v>0.19517151682653225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3788,7 +3788,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.12771091409769464</c:v>
@@ -3812,7 +3812,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.32881402355519035</c:v>
+                    <c:v>0.28075304022450887</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.12771091409769464</c:v>
@@ -3874,7 +3874,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.32881402355519035</c:v>
+                  <c:v>0.28075304022450887</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.19863611315209401</c:v>
@@ -15598,12 +15598,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -15650,10 +15647,10 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/32</f>
-        <v>0.18312500000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>20</v>
       </c>
@@ -15685,7 +15682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>20</v>
       </c>
@@ -15717,7 +15714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>20</v>
       </c>
@@ -15749,7 +15746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>20</v>
       </c>
@@ -15781,7 +15778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>20</v>
       </c>
@@ -15813,7 +15810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>20</v>
       </c>
@@ -15851,7 +15848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>20</v>
       </c>
@@ -15889,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>20</v>
       </c>
@@ -15927,7 +15924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>20</v>
       </c>
@@ -15965,7 +15962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>20</v>
       </c>
@@ -16003,7 +16000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>20</v>
       </c>
@@ -16041,7 +16038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>20</v>
       </c>
@@ -16079,7 +16076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>20</v>
       </c>
@@ -16117,7 +16114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>20</v>
       </c>
@@ -16155,7 +16152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>20</v>
       </c>
@@ -16193,7 +16190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>20</v>
       </c>
@@ -16231,7 +16228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>20</v>
       </c>
@@ -16269,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>20</v>
       </c>
@@ -16307,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>20</v>
       </c>
@@ -16345,7 +16342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -16353,16 +16350,16 @@
         <v>9017</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>0.3</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="F21" s="2">
-        <v>2.78</v>
+        <v>3.73</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -16383,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>20</v>
       </c>
@@ -16421,7 +16418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>20</v>
       </c>
@@ -16459,7 +16456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>20</v>
       </c>
@@ -16497,7 +16494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>20</v>
       </c>
@@ -16535,7 +16532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>20</v>
       </c>
@@ -16543,16 +16540,16 @@
         <v>9029</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" s="1">
-        <v>0.72729999999999995</v>
+        <v>0.75</v>
       </c>
       <c r="F26" s="2">
-        <v>4.93</v>
+        <v>5.79</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -16573,7 +16570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>20</v>
       </c>
@@ -16611,7 +16608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>20</v>
       </c>
@@ -16619,16 +16616,16 @@
         <v>9031</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>0.1</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="F28" s="2">
-        <v>4.12</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="G28">
         <v>0.1</v>
@@ -16649,7 +16646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>20</v>
       </c>
@@ -16687,7 +16684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>20</v>
       </c>
@@ -16725,7 +16722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>20</v>
       </c>
@@ -16763,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>20</v>
       </c>
@@ -16801,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>20</v>
       </c>
@@ -16839,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>20</v>
       </c>
@@ -16877,7 +16874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>20</v>
       </c>
@@ -16885,16 +16882,16 @@
         <v>9040</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>0.375</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="F35" s="2">
-        <v>3.9</v>
+        <v>5.21</v>
       </c>
       <c r="G35">
         <v>0.1</v>
@@ -16915,7 +16912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>20</v>
       </c>
@@ -16923,16 +16920,16 @@
         <v>9041</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" s="1">
-        <v>0.375</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F36" s="2">
-        <v>4.8</v>
+        <v>5.96</v>
       </c>
       <c r="G36">
         <v>0.1</v>
@@ -16961,16 +16958,16 @@
         <v>9042</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>0.125</v>
+        <v>0.1111</v>
       </c>
       <c r="F37" s="2">
-        <v>2.93</v>
+        <v>4.03</v>
       </c>
       <c r="G37">
         <v>0.1</v>
@@ -16988,10 +16985,10 @@
         <v>200</v>
       </c>
       <c r="L37">
-        <v>5.86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>20</v>
       </c>
@@ -17029,7 +17026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>20</v>
       </c>
@@ -17067,7 +17064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>20</v>
       </c>
@@ -17105,7 +17102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>20</v>
       </c>
@@ -17143,7 +17140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>20</v>
       </c>
@@ -17181,7 +17178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>20</v>
       </c>
@@ -17213,7 +17210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>20</v>
       </c>
@@ -17245,7 +17242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>20</v>
       </c>
@@ -17277,7 +17274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>20</v>
       </c>
@@ -17309,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>20</v>
       </c>
@@ -17341,7 +17338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>20</v>
       </c>
@@ -17374,13 +17371,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L48" xr:uid="{D0D8AD8E-ECE6-4894-A762-61B89BB60499}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="5.86"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L48" xr:uid="{2611AD79-66C1-4054-9E14-83E12993482D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17389,7 +17380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -17438,15 +17431,15 @@
         <v>53</v>
       </c>
       <c r="N1" s="45">
-        <f>SUM(L2:L1000)/52</f>
-        <v>8.2799999999999994</v>
+        <f>SUM(L2:L1000)/48</f>
+        <v>8.5124999999999993</v>
       </c>
       <c r="O1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43730.033880092589</v>
+        <v>43730.724372337958</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17478,7 +17471,7 @@
         <v>200</v>
       </c>
       <c r="L2" s="2">
-        <v>33.83</v>
+        <v>31.95</v>
       </c>
       <c r="O2" s="92" t="s">
         <v>59</v>
@@ -17934,7 +17927,7 @@
         <v>200</v>
       </c>
       <c r="L14" s="2">
-        <v>30.98</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -17977,7 +17970,7 @@
         <v>11000</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -17986,7 +17979,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -17998,7 +17991,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="2">
-        <v>23.35</v>
+        <v>21.17</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18009,7 +18002,7 @@
         <v>11001</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -18018,7 +18011,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -18030,7 +18023,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="2">
-        <v>28.94</v>
+        <v>29.58</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18062,7 +18055,7 @@
         <v>20</v>
       </c>
       <c r="L18" s="2">
-        <v>16.329999999999998</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18073,13 +18066,13 @@
         <v>11007</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0.2</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F19" s="2">
         <v>0.99</v>
@@ -18094,7 +18087,7 @@
         <v>20</v>
       </c>
       <c r="L19" s="2">
-        <v>17.809999999999999</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18105,7 +18098,7 @@
         <v>11008</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -18114,7 +18107,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -18126,7 +18119,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="2">
-        <v>17.96</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18158,7 +18151,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="2">
-        <v>17.100000000000001</v>
+        <v>16.149999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18190,7 +18183,7 @@
         <v>20</v>
       </c>
       <c r="L22" s="2">
-        <v>25.7</v>
+        <v>24.27</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18201,16 +18194,16 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>0.25</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F23" s="2">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -18222,7 +18215,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="2">
-        <v>29.29</v>
+        <v>29.47</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18254,7 +18247,7 @@
         <v>20</v>
       </c>
       <c r="L24" s="2">
-        <v>19.97</v>
+        <v>18.86</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18265,16 +18258,16 @@
         <v>12007</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>0.2</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F25" s="2">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -18286,7 +18279,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="2">
-        <v>29.33</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18297,7 +18290,7 @@
         <v>12008</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -18306,7 +18299,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -18318,7 +18311,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="2">
-        <v>26.53</v>
+        <v>24.02</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18329,16 +18322,16 @@
         <v>12009</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>0.2</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F27" s="2">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="G27">
         <v>0.1</v>
@@ -18350,7 +18343,7 @@
         <v>20</v>
       </c>
       <c r="L27" s="2">
-        <v>26.89</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18361,7 +18354,7 @@
         <v>12010</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -18370,7 +18363,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="G28">
         <v>0.1</v>
@@ -18382,7 +18375,7 @@
         <v>20</v>
       </c>
       <c r="L28" s="2">
-        <v>23.14</v>
+        <v>21.44</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18414,7 +18407,7 @@
         <v>20</v>
       </c>
       <c r="L29" s="2">
-        <v>30.25</v>
+        <v>28.66</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18425,7 +18418,7 @@
         <v>14010</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -18434,7 +18427,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="G30">
         <v>0.01</v>
@@ -18446,7 +18439,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="2">
-        <v>33.159999999999997</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18495,16 +18488,16 @@
         <v>15016</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>6</v>
       </c>
       <c r="E32" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="F32" s="2">
-        <v>1.29</v>
+        <v>1.92</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -18801,8 +18794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AJ19" sqref="AJ19"/>
+    <sheetView tabSelected="1" topLeftCell="Q22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18903,7 +18896,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4000'!N1</f>
-        <v>8.2799999999999994</v>
+        <v>8.5124999999999993</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -19047,7 +19040,7 @@
       </c>
       <c r="L3" s="47">
         <f>+THUNDER_3200!N1</f>
-        <v>0.18312500000000001</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="78"/>
       <c r="AD3" s="79" t="str">
@@ -19414,7 +19407,7 @@
       </c>
       <c r="AJ5" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF5, $B$1:$F1002, 5), "")</f>
-        <v>0.21101606750664662</v>
+        <v>0.19679818887451489</v>
       </c>
       <c r="AK5" s="97">
         <f ca="1">IFERROR(VLOOKUP(BG5, $B$1:$F1002, 5), "")</f>
@@ -19976,7 +19969,7 @@
       </c>
       <c r="AK8" s="98">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$F1005, 5), "")</f>
-        <v>0.41555195243885962</v>
+        <v>0.46106404186394218</v>
       </c>
       <c r="AL8" s="100">
         <f t="shared" ca="1" si="3"/>
@@ -20134,11 +20127,11 @@
       </c>
       <c r="AH9" s="39">
         <f ca="1">IFERROR(VLOOKUP(BD9, $B$1:$F1006, 5), "")</f>
-        <v>0.35550803375332329</v>
+        <v>0.39893272962483828</v>
       </c>
       <c r="AI9" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE9, $B$1:$F1006, 5), "")</f>
-        <v>0.6684454506252695</v>
+        <v>0.68937481062518935</v>
       </c>
       <c r="AJ9" s="40">
         <f ca="1">IFERROR(VLOOKUP(BF9, $B$1:$F1006, 5), "")</f>
@@ -20146,7 +20139,7 @@
       </c>
       <c r="AK9" s="97">
         <f ca="1">IFERROR(VLOOKUP(BG9, $B$1:$F1006, 5), "")</f>
-        <v>0.41555195243885962</v>
+        <v>0.38319212559182658</v>
       </c>
       <c r="AL9" s="100">
         <f t="shared" ca="1" si="3"/>
@@ -20316,11 +20309,11 @@
       </c>
       <c r="AK10" s="99">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$F1007, 5), "")</f>
-        <v>0.24665585731657882</v>
+        <v>0.22744829304759534</v>
       </c>
       <c r="AL10" s="100">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24665585731657882</v>
+        <v>0.22744829304759534</v>
       </c>
       <c r="AN10" s="37">
         <v>200</v>
@@ -20818,7 +20811,7 @@
       </c>
       <c r="AJ15" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF5, $B$1:$G1002, 6), "")</f>
-        <v>0.19314031799092549</v>
+        <v>0.18056643661168892</v>
       </c>
       <c r="AK15" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG5, $B$1:$G1002, 6), "")</f>
@@ -20857,7 +20850,7 @@
       </c>
       <c r="AU15" s="88">
         <f ca="1">IFERROR(VLOOKUP(BF5, $B$1:$G1002, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV15" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG5, $B$1:$G1002, 2), "")</f>
@@ -21146,7 +21139,7 @@
       </c>
       <c r="AK18" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$G1005, 6), "")</f>
-        <v>0.27871019297733857</v>
+        <v>0.27228861239202817</v>
       </c>
       <c r="AL18" s="100">
         <f t="shared" ca="1" si="7"/>
@@ -21185,7 +21178,7 @@
       </c>
       <c r="AV18" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$G1005, 2), "")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:59" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -21242,11 +21235,11 @@
       </c>
       <c r="AH19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BD9, $B$1:$G1006, 6), "")</f>
-        <v>0.24771874626711146</v>
+        <v>0.24727049348352442</v>
       </c>
       <c r="AI19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BE9, $B$1:$G1006, 6), "")</f>
-        <v>0.23409574363551577</v>
+        <v>0.22168514974584927</v>
       </c>
       <c r="AJ19" s="53">
         <f ca="1">IFERROR(VLOOKUP(BF9, $B$1:$G1006, 6), "")</f>
@@ -21254,7 +21247,7 @@
       </c>
       <c r="AK19" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG9, $B$1:$G1006, 6), "")</f>
-        <v>0.27871019297733857</v>
+        <v>0.26261052690908371</v>
       </c>
       <c r="AL19" s="100">
         <f t="shared" ca="1" si="7"/>
@@ -21281,11 +21274,11 @@
       </c>
       <c r="AS19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BD9, $B$1:$G1006, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT19" s="90">
         <f ca="1">IFERROR(VLOOKUP(BE9, $B$1:$G1006, 2), "")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU19" s="91">
         <f ca="1">IFERROR(VLOOKUP(BF9, $B$1:$G1006, 2), "")</f>
@@ -21293,7 +21286,7 @@
       </c>
       <c r="AV19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG9, $B$1:$G1006, 2), "")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:59" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -21362,11 +21355,11 @@
       </c>
       <c r="AK20" s="87">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 6), "")</f>
-        <v>0.22423894845328268</v>
+        <v>0.20755792172046483</v>
       </c>
       <c r="AL20" s="100">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22423894845328268</v>
+        <v>0.20755792172046483</v>
       </c>
       <c r="AN20" s="72">
         <v>200</v>
@@ -21401,7 +21394,7 @@
       </c>
       <c r="AV20" s="91">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 2), "")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -21795,31 +21788,31 @@
       </c>
       <c r="C27" s="37">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" s="37">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="53">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="F27" s="53">
         <f>IFERROR((E27 + Params!$B$3^2/(2 * C27))/(1 + Params!$B$3^2/C27), NA())</f>
-        <v>0.35550803375332329</v>
+        <v>0.39893272962483828</v>
       </c>
       <c r="G27" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C27))*SQRT(E27*(1-E27)/C27 + (Params!$B$3/(2*C27))^2), NA())</f>
-        <v>0.24771874626711146</v>
+        <v>0.24727049348352442</v>
       </c>
       <c r="H27" s="39">
         <f t="shared" si="1"/>
-        <v>0.10778928748621183</v>
+        <v>0.15166223614131386</v>
       </c>
       <c r="I27" s="39">
         <f t="shared" si="2"/>
-        <v>0.60322678002043473</v>
+        <v>0.64620322310836276</v>
       </c>
       <c r="AA27"/>
       <c r="AB27"/>
@@ -22559,7 +22552,7 @@
       </c>
       <c r="AH31" s="50">
         <f ca="1">IFERROR(VLOOKUP(BD31, $B$1:$F1028, 5), "")</f>
-        <v>0.61680787440817342</v>
+        <v>0.5722459831233383</v>
       </c>
       <c r="AI31" s="40">
         <f ca="1">IFERROR(VLOOKUP(BE31, $B$1:$F1028, 5), "")</f>
@@ -23168,7 +23161,7 @@
       </c>
       <c r="U36" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>0.24665585731657882</v>
+        <v>0.22744829304759534</v>
       </c>
       <c r="V36" s="1">
         <f t="shared" ca="1" si="16"/>
@@ -23181,7 +23174,7 @@
       <c r="X36"/>
       <c r="Y36" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>0.22423894845328268</v>
+        <v>0.20755792172046483</v>
       </c>
     </row>
     <row r="37" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23292,31 +23285,31 @@
       </c>
       <c r="C39" s="37">
         <f>IFERROR(VLOOKUP($B39, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B39, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B39, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="37">
         <f>IFERROR(VLOOKUP($B39, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B39, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B39, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39" s="53">
         <f t="shared" si="0"/>
-        <v>0.72727272727272729</v>
+        <v>0.75</v>
       </c>
       <c r="F39" s="53">
         <f>IFERROR((E39 + Params!$B$3^2/(2 * C39))/(1 + Params!$B$3^2/C39), NA())</f>
-        <v>0.6684454506252695</v>
+        <v>0.68937481062518935</v>
       </c>
       <c r="G39" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C39))*SQRT(E39*(1-E39)/C39 + (Params!$B$3/(2*C39))^2), NA())</f>
-        <v>0.23409574363551577</v>
+        <v>0.22168514974584927</v>
       </c>
       <c r="H39" s="39">
         <f t="shared" si="1"/>
-        <v>0.43434970698975373</v>
+        <v>0.46768966087934005</v>
       </c>
       <c r="I39" s="39">
         <f t="shared" si="2"/>
-        <v>0.90254119426078527</v>
+        <v>0.91105996037103865</v>
       </c>
       <c r="AA39" s="37">
         <v>20</v>
@@ -23343,15 +23336,15 @@
       </c>
       <c r="AI39" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$F1000, 5), "")</f>
-        <v>0.21724574737604052</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="AJ39" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 6), "")</f>
-        <v>0.21724574737604055</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="AK39" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 2), "")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23412,15 +23405,15 @@
       </c>
       <c r="AI40" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$F1001, 5), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="AJ40" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 6), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="AK40" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 2), "")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -23430,7 +23423,7 @@
       </c>
       <c r="C41" s="37">
         <f>IFERROR(VLOOKUP($B41, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B41, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B41, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41" s="37">
         <f>IFERROR(VLOOKUP($B41, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B41, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B41, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -23438,23 +23431,23 @@
       </c>
       <c r="E41" s="53">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="F41" s="53">
         <f>IFERROR((E41 + Params!$B$3^2/(2 * C41))/(1 + Params!$B$3^2/C41), NA())</f>
-        <v>0.21101606750664662</v>
+        <v>0.19679818887451489</v>
       </c>
       <c r="G41" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C41))*SQRT(E41*(1-E41)/C41 + (Params!$B$3/(2*C41))^2), NA())</f>
-        <v>0.19314031799092549</v>
+        <v>0.18056643661168892</v>
       </c>
       <c r="H41" s="39">
         <f t="shared" si="1"/>
-        <v>1.7875749515721129E-2</v>
+        <v>1.6231752262825971E-2</v>
       </c>
       <c r="I41" s="39">
         <f t="shared" si="2"/>
-        <v>0.4041563854975721</v>
+        <v>0.37736462548620381</v>
       </c>
       <c r="AA41" s="37">
         <v>20</v>
@@ -23841,15 +23834,15 @@
       </c>
       <c r="AI46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$F1007, 5), "")</f>
-        <v>0.33034744842562436</v>
+        <v>0.29678101121768818</v>
       </c>
       <c r="AJ46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 6), "")</f>
-        <v>0.29412428745583691</v>
+        <v>0.26672842534595786</v>
       </c>
       <c r="AK46" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 2), "")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23910,15 +23903,15 @@
       </c>
       <c r="AI47" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$F1008, 5), "")</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="AJ47" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$G1008, 6), "")</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="AK47" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$G1008, 2), "")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24066,31 +24059,31 @@
       </c>
       <c r="C50" s="37">
         <f>IFERROR(VLOOKUP($B50, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B50, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B50, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="37">
         <f>IFERROR(VLOOKUP($B50, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B50, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B50, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50" s="53">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F50" s="53">
         <f>IFERROR((E50 + Params!$B$3^2/(2 * C50))/(1 + Params!$B$3^2/C50), NA())</f>
-        <v>0.41555195243885962</v>
+        <v>0.46106404186394218</v>
       </c>
       <c r="G50" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C50))*SQRT(E50*(1-E50)/C50 + (Params!$B$3/(2*C50))^2), NA())</f>
-        <v>0.27871019297733857</v>
+        <v>0.27228861239202817</v>
       </c>
       <c r="H50" s="39">
         <f t="shared" si="1"/>
-        <v>0.13684175946152105</v>
+        <v>0.188775429471914</v>
       </c>
       <c r="I50" s="39">
         <f t="shared" si="2"/>
-        <v>0.69426214541619813</v>
+        <v>0.73335265425597029</v>
       </c>
     </row>
     <row r="51" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24100,7 +24093,7 @@
       </c>
       <c r="C51" s="37">
         <f>IFERROR(VLOOKUP($B51, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B51, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B51, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="37">
         <f>IFERROR(VLOOKUP($B51, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B51, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B51, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24108,23 +24101,23 @@
       </c>
       <c r="E51" s="53">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F51" s="53">
         <f>IFERROR((E51 + Params!$B$3^2/(2 * C51))/(1 + Params!$B$3^2/C51), NA())</f>
-        <v>0.41555195243885962</v>
+        <v>0.38319212559182658</v>
       </c>
       <c r="G51" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C51))*SQRT(E51*(1-E51)/C51 + (Params!$B$3/(2*C51))^2), NA())</f>
-        <v>0.27871019297733857</v>
+        <v>0.26261052690908371</v>
       </c>
       <c r="H51" s="39">
         <f t="shared" si="1"/>
-        <v>0.13684175946152105</v>
+        <v>0.12058159868274287</v>
       </c>
       <c r="I51" s="39">
         <f t="shared" si="2"/>
-        <v>0.69426214541619813</v>
+        <v>0.64580265250091029</v>
       </c>
     </row>
     <row r="52" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24134,7 +24127,7 @@
       </c>
       <c r="C52" s="37">
         <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="37">
         <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B52, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24142,23 +24135,23 @@
       </c>
       <c r="E52" s="53">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F52" s="53">
         <f>IFERROR((E52 + Params!$B$3^2/(2 * C52))/(1 + Params!$B$3^2/C52), NA())</f>
-        <v>0.24665585731657882</v>
+        <v>0.22744829304759534</v>
       </c>
       <c r="G52" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C52))*SQRT(E52*(1-E52)/C52 + (Params!$B$3/(2*C52))^2), NA())</f>
-        <v>0.22423894845328268</v>
+        <v>0.20755792172046483</v>
       </c>
       <c r="H52" s="39">
         <f t="shared" si="1"/>
-        <v>2.2416908863296142E-2</v>
+        <v>1.9890371327130507E-2</v>
       </c>
       <c r="I52" s="39">
         <f t="shared" si="2"/>
-        <v>0.47089480576986154</v>
+        <v>0.43500621476806017</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -24286,15 +24279,15 @@
       </c>
       <c r="AI54" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$F1015, 5), "")</f>
-        <v>0.37247500510099979</v>
+        <v>0.29678101121768818</v>
       </c>
       <c r="AJ54" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 6), "")</f>
-        <v>0.32688894245636357</v>
+        <v>0.26672842534595786</v>
       </c>
       <c r="AK54" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 2), "")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -24784,15 +24777,15 @@
       </c>
       <c r="AI61" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$F1022, 5), "")</f>
-        <v>0.33034744842562436</v>
+        <v>0.29678101121768818</v>
       </c>
       <c r="AJ61" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$G1022, 6), "")</f>
-        <v>0.29412428745583691</v>
+        <v>0.26672842534595786</v>
       </c>
       <c r="AK61" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$G1022, 2), "")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -24853,15 +24846,15 @@
       </c>
       <c r="AI62" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$F1023, 5), "")</f>
-        <v>0.21724574737604052</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="AJ62" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$G1023, 6), "")</f>
-        <v>0.21724574737604055</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="AK62" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$G1023, 2), "")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -24922,15 +24915,15 @@
       </c>
       <c r="AI63" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$F1024, 5), "")</f>
-        <v>0.33034744842562436</v>
+        <v>0.29678101121768818</v>
       </c>
       <c r="AJ63" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$G1024, 6), "")</f>
-        <v>0.29412428745583691</v>
+        <v>0.26672842534595786</v>
       </c>
       <c r="AK63" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$G1024, 2), "")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -24991,15 +24984,15 @@
       </c>
       <c r="AI64" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$F1025, 5), "")</f>
-        <v>0.21724574737604052</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="AJ64" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$G1025, 6), "")</f>
-        <v>0.21724574737604055</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="AK64" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$G1025, 2), "")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -25077,7 +25070,7 @@
       </c>
       <c r="C67" s="37">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D67" s="37">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25089,11 +25082,11 @@
       </c>
       <c r="F67" s="53">
         <f>IFERROR((E67 + Params!$B$3^2/(2 * C67))/(1 + Params!$B$3^2/C67), NA())</f>
-        <v>0.21724574737604052</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="G67" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C67))*SQRT(E67*(1-E67)/C67 + (Params!$B$3/(2*C67))^2), NA())</f>
-        <v>0.21724574737604055</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="H67" s="39">
         <f t="shared" ref="H67:H130" si="22">F67-G67</f>
@@ -25101,7 +25094,7 @@
       </c>
       <c r="I67" s="39">
         <f t="shared" ref="I67:I130" si="23">F67+G67</f>
-        <v>0.43449149475208104</v>
+        <v>0.3903430336530645</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -25111,7 +25104,7 @@
       </c>
       <c r="C68" s="37">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" s="37">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25123,11 +25116,11 @@
       </c>
       <c r="F68" s="53">
         <f>IFERROR((E68 + Params!$B$3^2/(2 * C68))/(1 + Params!$B$3^2/C68), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="G68" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C68))*SQRT(E68*(1-E68)/C68 + (Params!$B$3/(2*C68))^2), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="H68" s="39">
         <f t="shared" si="22"/>
@@ -25135,7 +25128,7 @@
       </c>
       <c r="I68" s="39">
         <f t="shared" si="23"/>
-        <v>0.56150608044901773</v>
+        <v>0.48990002040399916</v>
       </c>
       <c r="AA68" s="37" t="s">
         <v>10</v>
@@ -25523,7 +25516,7 @@
       </c>
       <c r="C74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25531,23 +25524,23 @@
       </c>
       <c r="E74" s="53">
         <f t="shared" si="21"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F74" s="53">
         <f>IFERROR((E74 + Params!$B$3^2/(2 * C74))/(1 + Params!$B$3^2/C74), NA())</f>
-        <v>0.33034744842562436</v>
+        <v>0.29678101121768818</v>
       </c>
       <c r="G74" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C74))*SQRT(E74*(1-E74)/C74 + (Params!$B$3/(2*C74))^2), NA())</f>
-        <v>0.29412428745583691</v>
+        <v>0.26672842534595786</v>
       </c>
       <c r="H74" s="39">
         <f t="shared" si="22"/>
-        <v>3.6223160969787449E-2</v>
+        <v>3.005258587173032E-2</v>
       </c>
       <c r="I74" s="39">
         <f t="shared" si="23"/>
-        <v>0.62447173588146132</v>
+        <v>0.56350943656364605</v>
       </c>
       <c r="AA74" s="37"/>
       <c r="AB74" s="44"/>
@@ -25574,7 +25567,7 @@
       </c>
       <c r="C75" s="37">
         <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" s="37">
         <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25586,11 +25579,11 @@
       </c>
       <c r="F75" s="53">
         <f>IFERROR((E75 + Params!$B$3^2/(2 * C75))/(1 + Params!$B$3^2/C75), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="G75" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C75))*SQRT(E75*(1-E75)/C75 + (Params!$B$3/(2*C75))^2), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="H75" s="39">
         <f t="shared" si="22"/>
@@ -25598,7 +25591,7 @@
       </c>
       <c r="I75" s="39">
         <f t="shared" si="23"/>
-        <v>0.48990002040399916</v>
+        <v>0.43449149475208104</v>
       </c>
       <c r="AA75" s="37"/>
       <c r="AB75" s="44"/>
@@ -25727,7 +25720,7 @@
       </c>
       <c r="C78" s="37">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D78" s="37">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25735,23 +25728,23 @@
       </c>
       <c r="E78" s="53">
         <f t="shared" si="21"/>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F78" s="53">
         <f>IFERROR((E78 + Params!$B$3^2/(2 * C78))/(1 + Params!$B$3^2/C78), NA())</f>
-        <v>0.37247500510099979</v>
+        <v>0.29678101121768818</v>
       </c>
       <c r="G78" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C78))*SQRT(E78*(1-E78)/C78 + (Params!$B$3/(2*C78))^2), NA())</f>
-        <v>0.32688894245636357</v>
+        <v>0.26672842534595786</v>
       </c>
       <c r="H78" s="39">
         <f t="shared" si="22"/>
-        <v>4.5586062644636216E-2</v>
+        <v>3.005258587173032E-2</v>
       </c>
       <c r="I78" s="39">
         <f t="shared" si="23"/>
-        <v>0.69936394755736342</v>
+        <v>0.56350943656364605</v>
       </c>
       <c r="AA78" s="37"/>
       <c r="AB78" s="44"/>
@@ -26049,15 +26042,15 @@
       </c>
       <c r="AI84" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$F1045, 5), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AJ84" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$G1045, 6), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="AK84" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$G1045, 2), "")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -26067,7 +26060,7 @@
       </c>
       <c r="C85" s="37">
         <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D85" s="37">
         <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26075,23 +26068,23 @@
       </c>
       <c r="E85" s="53">
         <f t="shared" si="21"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F85" s="53">
         <f>IFERROR((E85 + Params!$B$3^2/(2 * C85))/(1 + Params!$B$3^2/C85), NA())</f>
-        <v>0.33034744842562436</v>
+        <v>0.29678101121768818</v>
       </c>
       <c r="G85" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C85))*SQRT(E85*(1-E85)/C85 + (Params!$B$3/(2*C85))^2), NA())</f>
-        <v>0.29412428745583691</v>
+        <v>0.26672842534595786</v>
       </c>
       <c r="H85" s="39">
         <f t="shared" si="22"/>
-        <v>3.6223160969787449E-2</v>
+        <v>3.005258587173032E-2</v>
       </c>
       <c r="I85" s="39">
         <f t="shared" si="23"/>
-        <v>0.62447173588146132</v>
+        <v>0.56350943656364605</v>
       </c>
       <c r="AA85" s="37"/>
       <c r="AB85" s="44"/>
@@ -26136,7 +26129,7 @@
       </c>
       <c r="C86" s="37">
         <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D86" s="37">
         <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26148,11 +26141,11 @@
       </c>
       <c r="F86" s="53">
         <f>IFERROR((E86 + Params!$B$3^2/(2 * C86))/(1 + Params!$B$3^2/C86), NA())</f>
-        <v>0.21724574737604052</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="G86" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C86))*SQRT(E86*(1-E86)/C86 + (Params!$B$3/(2*C86))^2), NA())</f>
-        <v>0.21724574737604055</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="H86" s="39">
         <f t="shared" si="22"/>
@@ -26160,7 +26153,7 @@
       </c>
       <c r="I86" s="39">
         <f t="shared" si="23"/>
-        <v>0.43449149475208104</v>
+        <v>0.3903430336530645</v>
       </c>
       <c r="AA86" s="37"/>
       <c r="AB86" s="44"/>
@@ -26205,7 +26198,7 @@
       </c>
       <c r="C87" s="37">
         <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D87" s="37">
         <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26213,23 +26206,23 @@
       </c>
       <c r="E87" s="53">
         <f t="shared" si="21"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F87" s="53">
         <f>IFERROR((E87 + Params!$B$3^2/(2 * C87))/(1 + Params!$B$3^2/C87), NA())</f>
-        <v>0.33034744842562436</v>
+        <v>0.29678101121768818</v>
       </c>
       <c r="G87" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C87))*SQRT(E87*(1-E87)/C87 + (Params!$B$3/(2*C87))^2), NA())</f>
-        <v>0.29412428745583691</v>
+        <v>0.26672842534595786</v>
       </c>
       <c r="H87" s="39">
         <f t="shared" si="22"/>
-        <v>3.6223160969787449E-2</v>
+        <v>3.005258587173032E-2</v>
       </c>
       <c r="I87" s="39">
         <f t="shared" si="23"/>
-        <v>0.62447173588146132</v>
+        <v>0.56350943656364605</v>
       </c>
       <c r="AA87" s="37"/>
       <c r="AB87" s="44"/>
@@ -26274,7 +26267,7 @@
       </c>
       <c r="C88" s="37">
         <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D88" s="37">
         <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26286,11 +26279,11 @@
       </c>
       <c r="F88" s="53">
         <f>IFERROR((E88 + Params!$B$3^2/(2 * C88))/(1 + Params!$B$3^2/C88), NA())</f>
-        <v>0.21724574737604052</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="G88" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C88))*SQRT(E88*(1-E88)/C88 + (Params!$B$3/(2*C88))^2), NA())</f>
-        <v>0.21724574737604055</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="H88" s="39">
         <f t="shared" si="22"/>
@@ -26298,7 +26291,7 @@
       </c>
       <c r="I88" s="39">
         <f t="shared" si="23"/>
-        <v>0.43449149475208104</v>
+        <v>0.3903430336530645</v>
       </c>
       <c r="AA88" s="37"/>
       <c r="AB88" s="44"/>
@@ -27227,7 +27220,7 @@
       </c>
       <c r="C112" s="37">
         <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D112" s="37">
         <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -27239,11 +27232,11 @@
       </c>
       <c r="F112" s="53">
         <f>IFERROR((E112 + Params!$B$3^2/(2 * C112))/(1 + Params!$B$3^2/C112), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="G112" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C112))*SQRT(E112*(1-E112)/C112 + (Params!$B$3/(2*C112))^2), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="H112" s="39">
         <f t="shared" si="22"/>
@@ -27251,7 +27244,7 @@
       </c>
       <c r="I112" s="39">
         <f t="shared" si="23"/>
-        <v>0.6576280471103807</v>
+        <v>0.56150608044901773</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27873,7 +27866,7 @@
       </c>
       <c r="C131" s="37">
         <f>IFERROR(VLOOKUP($B131, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" s="37">
         <f>IFERROR(VLOOKUP($B131, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B131, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B131, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -27881,23 +27874,23 @@
       </c>
       <c r="E131" s="53">
         <f t="shared" ref="E131:E140" si="27">IFERROR(D131/C131, NA())</f>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="F131" s="53">
         <f>IFERROR((E131 + Params!$B$3^2/(2 * C131))/(1 + Params!$B$3^2/C131), NA())</f>
-        <v>0.61680787440817342</v>
+        <v>0.5722459831233383</v>
       </c>
       <c r="G131" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C131))*SQRT(E131*(1-E131)/C131 + (Params!$B$3/(2*C131))^2), NA())</f>
-        <v>0.26261052690908371</v>
+        <v>0.25957643567315197</v>
       </c>
       <c r="H131" s="39">
         <f t="shared" ref="H131:H140" si="28">F131-G131</f>
-        <v>0.35419734749908971</v>
+        <v>0.31266954745018632</v>
       </c>
       <c r="I131" s="39">
         <f t="shared" ref="I131:I140" si="29">F131+G131</f>
-        <v>0.87941840131725713</v>
+        <v>0.83182241879649021</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC63266-1594-4038-AB50-649E83E3595D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F4D6EF-2634-4FBB-A04F-72601611D8DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -1256,7 +1256,7 @@
                   <c:v>0.6684454506252695</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46106404186394218</c:v>
+                  <c:v>0.42775401687666159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,7 +1288,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.33155454937473045</c:v>
+                  <c:v>0.31062518937481065</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.47031160934828048</c:v>
@@ -1303,7 +1303,7 @@
                   <c:v>0.40713500341743192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38319212559182658</c:v>
+                  <c:v>0.42775401687666159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,7 +1347,7 @@
                   <c:v>0.46631090987494611</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36164403778040138</c:v>
+                  <c:v>0.33110390487771924</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.22744829304759534</c:v>
@@ -2581,10 +2581,10 @@
                     <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.17716942148760328</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.30162117304962721</c:v>
+                    <c:v>0.27942687207138589</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2623,10 +2623,10 @@
                     <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.17716942148760328</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.30162117304962721</c:v>
+                    <c:v>0.27942687207138589</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2721,10 +2721,10 @@
                   <c:v>0.21724574737604052</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21724574737604052</c:v>
+                  <c:v>0.17716942148760328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39839050560884404</c:v>
+                  <c:v>0.36164403778040138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2988,7 +2988,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.26672842534595786</c:v>
+                    <c:v>0.24372777368502754</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.14125333185830088</c:v>
@@ -3006,10 +3006,10 @@
                     <c:v>0.12894725413152699</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.24495001020199958</c:v>
+                    <c:v>0.19517151682653225</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.26672842534595786</c:v>
+                    <c:v>0.24372777368502754</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0.19517151682653225</c:v>
@@ -3030,7 +3030,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.26672842534595786</c:v>
+                    <c:v>0.24372777368502754</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.14125333185830088</c:v>
@@ -3048,10 +3048,10 @@
                     <c:v>0.12894725413152699</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.24495001020199958</c:v>
+                    <c:v>0.19517151682653225</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.26672842534595786</c:v>
+                    <c:v>0.24372777368502754</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0.19517151682653225</c:v>
@@ -3128,7 +3128,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.29678101121768818</c:v>
+                  <c:v>0.26940672963400236</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.20528680794408075</c:v>
@@ -3146,10 +3146,10 @@
                   <c:v>0.17061466770220793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24495001020199958</c:v>
+                  <c:v>0.19517151682653225</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29678101121768818</c:v>
+                  <c:v>0.26940672963400236</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.19517151682653225</c:v>
@@ -15600,7 +15600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -16274,16 +16276,16 @@
         <v>9014</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>0.2727</v>
+        <v>0.25</v>
       </c>
       <c r="F19" s="2">
-        <v>5.09</v>
+        <v>5.92</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -16882,16 +16884,16 @@
         <v>9040</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>0.44440000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="F35" s="2">
-        <v>5.21</v>
+        <v>6.53</v>
       </c>
       <c r="G35">
         <v>0.1</v>
@@ -16920,16 +16922,16 @@
         <v>9041</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="F36" s="2">
-        <v>5.96</v>
+        <v>6.71</v>
       </c>
       <c r="G36">
         <v>0.1</v>
@@ -17148,16 +17150,16 @@
         <v>9048</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" s="1">
-        <v>0.28570000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F42" s="2">
-        <v>6.86</v>
+        <v>8.08</v>
       </c>
       <c r="G42">
         <v>0.1</v>
@@ -17371,7 +17373,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L48" xr:uid="{2611AD79-66C1-4054-9E14-83E12993482D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17380,9 +17381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -17432,14 +17431,14 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/48</f>
-        <v>8.5124999999999993</v>
+        <v>8.5741666666666667</v>
       </c>
       <c r="O1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43730.724372337958</v>
+        <v>43731.131703819447</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -18130,7 +18129,7 @@
         <v>11009</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -18139,7 +18138,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -18151,7 +18150,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="2">
-        <v>16.149999999999999</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18162,16 +18161,16 @@
         <v>11010</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F22" s="2">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -18183,7 +18182,7 @@
         <v>20</v>
       </c>
       <c r="L22" s="2">
-        <v>24.27</v>
+        <v>23.45</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18194,16 +18193,16 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F23" s="2">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -18215,7 +18214,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="2">
-        <v>29.47</v>
+        <v>28.21</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18226,7 +18225,7 @@
         <v>12006</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -18235,7 +18234,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>1.1100000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -18247,7 +18246,7 @@
         <v>20</v>
       </c>
       <c r="L24" s="2">
-        <v>18.86</v>
+        <v>20.54</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18258,16 +18257,16 @@
         <v>12007</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F25" s="2">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -18279,7 +18278,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="2">
-        <v>26.22</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18794,7 +18793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
@@ -18896,7 +18895,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4000'!N1</f>
-        <v>8.5124999999999993</v>
+        <v>8.5741666666666667</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -19969,7 +19968,7 @@
       </c>
       <c r="AK8" s="98">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$F1005, 5), "")</f>
-        <v>0.46106404186394218</v>
+        <v>0.42775401687666159</v>
       </c>
       <c r="AL8" s="100">
         <f t="shared" ca="1" si="3"/>
@@ -20119,7 +20118,7 @@
       </c>
       <c r="AF9" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$F1006, 5), "")</f>
-        <v>0.33155454937473045</v>
+        <v>0.31062518937481065</v>
       </c>
       <c r="AG9" s="39">
         <f ca="1">IFERROR(VLOOKUP(BC9, $B$1:$F1006, 5), "")</f>
@@ -20139,7 +20138,7 @@
       </c>
       <c r="AK9" s="97">
         <f ca="1">IFERROR(VLOOKUP(BG9, $B$1:$F1006, 5), "")</f>
-        <v>0.38319212559182658</v>
+        <v>0.42775401687666159</v>
       </c>
       <c r="AL9" s="100">
         <f t="shared" ca="1" si="3"/>
@@ -20305,7 +20304,7 @@
       </c>
       <c r="AJ10" s="55">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$F1007, 5), "")</f>
-        <v>0.36164403778040138</v>
+        <v>0.33110390487771924</v>
       </c>
       <c r="AK10" s="99">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$F1007, 5), "")</f>
@@ -21139,7 +21138,7 @@
       </c>
       <c r="AK18" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$G1005, 6), "")</f>
-        <v>0.27228861239202817</v>
+        <v>0.25957643567315197</v>
       </c>
       <c r="AL18" s="100">
         <f t="shared" ca="1" si="7"/>
@@ -21178,7 +21177,7 @@
       </c>
       <c r="AV18" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$G1005, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:59" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -21227,7 +21226,7 @@
       </c>
       <c r="AF19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$G1006, 6), "")</f>
-        <v>0.23409574363551577</v>
+        <v>0.22168514974584927</v>
       </c>
       <c r="AG19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BC9, $B$1:$G1006, 6), "")</f>
@@ -21247,7 +21246,7 @@
       </c>
       <c r="AK19" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG9, $B$1:$G1006, 6), "")</f>
-        <v>0.26261052690908371</v>
+        <v>0.25957643567315197</v>
       </c>
       <c r="AL19" s="100">
         <f t="shared" ca="1" si="7"/>
@@ -21266,7 +21265,7 @@
       </c>
       <c r="AQ19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$G1006, 2), "")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BC9, $B$1:$G1006, 2), "")</f>
@@ -21286,7 +21285,7 @@
       </c>
       <c r="AV19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG9, $B$1:$G1006, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:59" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -21351,7 +21350,7 @@
       </c>
       <c r="AJ20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$G1007, 6), "")</f>
-        <v>0.27942687207138589</v>
+        <v>0.2596262160196916</v>
       </c>
       <c r="AK20" s="87">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 6), "")</f>
@@ -21390,7 +21389,7 @@
       </c>
       <c r="AU20" s="90">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$G1007, 2), "")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV20" s="91">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 2), "")</f>
@@ -21506,7 +21505,7 @@
       </c>
       <c r="C24" s="37">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="37">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -21514,23 +21513,23 @@
       </c>
       <c r="E24" s="53">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.25</v>
       </c>
       <c r="F24" s="53">
         <f>IFERROR((E24 + Params!$B$3^2/(2 * C24))/(1 + Params!$B$3^2/C24), NA())</f>
-        <v>0.33155454937473045</v>
+        <v>0.31062518937481065</v>
       </c>
       <c r="G24" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C24))*SQRT(E24*(1-E24)/C24 + (Params!$B$3/(2*C24))^2), NA())</f>
-        <v>0.23409574363551577</v>
+        <v>0.22168514974584927</v>
       </c>
       <c r="H24" s="39">
         <f t="shared" si="1"/>
-        <v>9.7458805739214671E-2</v>
+        <v>8.8940039628961381E-2</v>
       </c>
       <c r="I24" s="39">
         <f t="shared" si="2"/>
-        <v>0.56565029301024627</v>
+        <v>0.53231033912065995</v>
       </c>
     </row>
     <row r="25" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23972,15 +23971,15 @@
       </c>
       <c r="AI48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$F1009, 5), "")</f>
-        <v>0.21724574737604052</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="AJ48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 6), "")</f>
-        <v>0.21724574737604055</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="AK48" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 2), "")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24041,15 +24040,15 @@
       </c>
       <c r="AI49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$F1010, 5), "")</f>
-        <v>0.39839050560884404</v>
+        <v>0.36164403778040138</v>
       </c>
       <c r="AJ49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 6), "")</f>
-        <v>0.30162117304962721</v>
+        <v>0.27942687207138589</v>
       </c>
       <c r="AK49" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 2), "")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24059,7 +24058,7 @@
       </c>
       <c r="C50" s="37">
         <f>IFERROR(VLOOKUP($B50, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B50, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B50, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" s="37">
         <f>IFERROR(VLOOKUP($B50, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B50, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B50, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24067,23 +24066,23 @@
       </c>
       <c r="E50" s="53">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.4</v>
       </c>
       <c r="F50" s="53">
         <f>IFERROR((E50 + Params!$B$3^2/(2 * C50))/(1 + Params!$B$3^2/C50), NA())</f>
-        <v>0.46106404186394218</v>
+        <v>0.42775401687666159</v>
       </c>
       <c r="G50" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C50))*SQRT(E50*(1-E50)/C50 + (Params!$B$3/(2*C50))^2), NA())</f>
-        <v>0.27228861239202817</v>
+        <v>0.25957643567315197</v>
       </c>
       <c r="H50" s="39">
         <f t="shared" si="1"/>
-        <v>0.188775429471914</v>
+        <v>0.16817758120350962</v>
       </c>
       <c r="I50" s="39">
         <f t="shared" si="2"/>
-        <v>0.73335265425597029</v>
+        <v>0.68733045254981362</v>
       </c>
     </row>
     <row r="51" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24093,31 +24092,31 @@
       </c>
       <c r="C51" s="37">
         <f>IFERROR(VLOOKUP($B51, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B51, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B51, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" s="37">
         <f>IFERROR(VLOOKUP($B51, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B51, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B51, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51" s="53">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="F51" s="53">
         <f>IFERROR((E51 + Params!$B$3^2/(2 * C51))/(1 + Params!$B$3^2/C51), NA())</f>
-        <v>0.38319212559182658</v>
+        <v>0.42775401687666159</v>
       </c>
       <c r="G51" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C51))*SQRT(E51*(1-E51)/C51 + (Params!$B$3/(2*C51))^2), NA())</f>
-        <v>0.26261052690908371</v>
+        <v>0.25957643567315197</v>
       </c>
       <c r="H51" s="39">
         <f t="shared" si="1"/>
-        <v>0.12058159868274287</v>
+        <v>0.16817758120350962</v>
       </c>
       <c r="I51" s="39">
         <f t="shared" si="2"/>
-        <v>0.64580265250091029</v>
+        <v>0.68733045254981362</v>
       </c>
     </row>
     <row r="52" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -24279,15 +24278,15 @@
       </c>
       <c r="AI54" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$F1015, 5), "")</f>
-        <v>0.29678101121768818</v>
+        <v>0.26940672963400236</v>
       </c>
       <c r="AJ54" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 6), "")</f>
-        <v>0.26672842534595786</v>
+        <v>0.24372777368502754</v>
       </c>
       <c r="AK54" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 2), "")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -24519,7 +24518,7 @@
       </c>
       <c r="C58" s="37">
         <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" s="37">
         <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24527,23 +24526,23 @@
       </c>
       <c r="E58" s="53">
         <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="F58" s="53">
         <f>IFERROR((E58 + Params!$B$3^2/(2 * C58))/(1 + Params!$B$3^2/C58), NA())</f>
-        <v>0.36164403778040138</v>
+        <v>0.33110390487771924</v>
       </c>
       <c r="G58" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C58))*SQRT(E58*(1-E58)/C58 + (Params!$B$3/(2*C58))^2), NA())</f>
-        <v>0.27942687207138589</v>
+        <v>0.2596262160196916</v>
       </c>
       <c r="H58" s="39">
         <f t="shared" si="1"/>
-        <v>8.2217165709015494E-2</v>
+        <v>7.1477688858027633E-2</v>
       </c>
       <c r="I58" s="39">
         <f t="shared" si="2"/>
-        <v>0.64107090985178727</v>
+        <v>0.59073012089741084</v>
       </c>
       <c r="AA58" s="37"/>
       <c r="AB58" s="44"/>
@@ -24708,15 +24707,15 @@
       </c>
       <c r="AI60" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$F1021, 5), "")</f>
-        <v>0.24495001020199958</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="AJ60" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$G1021, 6), "")</f>
-        <v>0.24495001020199958</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="AK60" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$G1021, 2), "")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -24777,15 +24776,15 @@
       </c>
       <c r="AI61" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$F1022, 5), "")</f>
-        <v>0.29678101121768818</v>
+        <v>0.26940672963400236</v>
       </c>
       <c r="AJ61" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$G1022, 6), "")</f>
-        <v>0.26672842534595786</v>
+        <v>0.24372777368502754</v>
       </c>
       <c r="AK61" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$G1022, 2), "")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -25618,7 +25617,7 @@
       </c>
       <c r="C76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25630,11 +25629,11 @@
       </c>
       <c r="F76" s="53">
         <f>IFERROR((E76 + Params!$B$3^2/(2 * C76))/(1 + Params!$B$3^2/C76), NA())</f>
-        <v>0.21724574737604052</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="G76" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C76))*SQRT(E76*(1-E76)/C76 + (Params!$B$3/(2*C76))^2), NA())</f>
-        <v>0.21724574737604055</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="H76" s="39">
         <f t="shared" si="22"/>
@@ -25642,7 +25641,7 @@
       </c>
       <c r="I76" s="39">
         <f t="shared" si="23"/>
-        <v>0.43449149475208104</v>
+        <v>0.35433884297520657</v>
       </c>
       <c r="AA76" s="37"/>
       <c r="AB76" s="44"/>
@@ -25669,7 +25668,7 @@
       </c>
       <c r="C77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25677,23 +25676,23 @@
       </c>
       <c r="E77" s="53">
         <f t="shared" si="21"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F77" s="53">
         <f>IFERROR((E77 + Params!$B$3^2/(2 * C77))/(1 + Params!$B$3^2/C77), NA())</f>
-        <v>0.39839050560884404</v>
+        <v>0.36164403778040138</v>
       </c>
       <c r="G77" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C77))*SQRT(E77*(1-E77)/C77 + (Params!$B$3/(2*C77))^2), NA())</f>
-        <v>0.30162117304962721</v>
+        <v>0.27942687207138589</v>
       </c>
       <c r="H77" s="39">
         <f t="shared" si="22"/>
-        <v>9.6769332559216825E-2</v>
+        <v>8.2217165709015494E-2</v>
       </c>
       <c r="I77" s="39">
         <f t="shared" si="23"/>
-        <v>0.70001167865847125</v>
+        <v>0.64107090985178727</v>
       </c>
       <c r="AA77" s="37"/>
       <c r="AB77" s="44"/>
@@ -25720,7 +25719,7 @@
       </c>
       <c r="C78" s="37">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D78" s="37">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -25728,23 +25727,23 @@
       </c>
       <c r="E78" s="53">
         <f t="shared" si="21"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F78" s="53">
         <f>IFERROR((E78 + Params!$B$3^2/(2 * C78))/(1 + Params!$B$3^2/C78), NA())</f>
-        <v>0.29678101121768818</v>
+        <v>0.26940672963400236</v>
       </c>
       <c r="G78" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C78))*SQRT(E78*(1-E78)/C78 + (Params!$B$3/(2*C78))^2), NA())</f>
-        <v>0.26672842534595786</v>
+        <v>0.24372777368502754</v>
       </c>
       <c r="H78" s="39">
         <f t="shared" si="22"/>
-        <v>3.005258587173032E-2</v>
+        <v>2.5678955948974819E-2</v>
       </c>
       <c r="I78" s="39">
         <f t="shared" si="23"/>
-        <v>0.56350943656364605</v>
+        <v>0.51313450331902988</v>
       </c>
       <c r="AA78" s="37"/>
       <c r="AB78" s="44"/>
@@ -25991,7 +25990,7 @@
       </c>
       <c r="C84" s="37">
         <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D84" s="37">
         <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26003,11 +26002,11 @@
       </c>
       <c r="F84" s="53">
         <f>IFERROR((E84 + Params!$B$3^2/(2 * C84))/(1 + Params!$B$3^2/C84), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="G84" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C84))*SQRT(E84*(1-E84)/C84 + (Params!$B$3/(2*C84))^2), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="H84" s="39">
         <f t="shared" si="22"/>
@@ -26015,7 +26014,7 @@
       </c>
       <c r="I84" s="39">
         <f t="shared" si="23"/>
-        <v>0.48990002040399916</v>
+        <v>0.3903430336530645</v>
       </c>
       <c r="AA84" s="37"/>
       <c r="AB84" s="44"/>
@@ -26060,7 +26059,7 @@
       </c>
       <c r="C85" s="37">
         <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D85" s="37">
         <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26068,23 +26067,23 @@
       </c>
       <c r="E85" s="53">
         <f t="shared" si="21"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F85" s="53">
         <f>IFERROR((E85 + Params!$B$3^2/(2 * C85))/(1 + Params!$B$3^2/C85), NA())</f>
-        <v>0.29678101121768818</v>
+        <v>0.26940672963400236</v>
       </c>
       <c r="G85" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C85))*SQRT(E85*(1-E85)/C85 + (Params!$B$3/(2*C85))^2), NA())</f>
-        <v>0.26672842534595786</v>
+        <v>0.24372777368502754</v>
       </c>
       <c r="H85" s="39">
         <f t="shared" si="22"/>
-        <v>3.005258587173032E-2</v>
+        <v>2.5678955948974819E-2</v>
       </c>
       <c r="I85" s="39">
         <f t="shared" si="23"/>
-        <v>0.56350943656364605</v>
+        <v>0.51313450331902988</v>
       </c>
       <c r="AA85" s="37"/>
       <c r="AB85" s="44"/>

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F4D6EF-2634-4FBB-A04F-72601611D8DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EC9394-AE9E-4637-9BB2-F69F291E1DAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -861,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -965,6 +965,7 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1162,7 +1163,7 @@
                   <c:v>0.53368909012505383</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21101606750664662</c:v>
+                  <c:v>0.26417636912462272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1341,7 +1342,7 @@
                   <c:v>0.33155454937473045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5722459831233383</c:v>
+                  <c:v>0.53368909012505383</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.46631090987494611</c:v>
@@ -1350,7 +1351,7 @@
                   <c:v>0.33110390487771924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22744829304759534</c:v>
+                  <c:v>0.19679818887451489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2044,7 +2045,7 @@
                     <c:v>0.13105310555497438</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.20755792172046483</c:v>
+                    <c:v>0.18056643661168892</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2074,7 +2075,7 @@
                     <c:v>0.13105310555497438</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.20755792172046483</c:v>
+                    <c:v>0.18056643661168892</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2145,7 +2146,7 @@
                   <c:v>0.40713500341743192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22744829304759534</c:v>
+                  <c:v>0.19679818887451489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15600,8 +15601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16808,16 +16809,16 @@
         <v>9038</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1">
-        <v>0.1</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="F33" s="2">
-        <v>4.1500000000000004</v>
+        <v>5.18</v>
       </c>
       <c r="G33">
         <v>0.1</v>
@@ -16956,20 +16957,20 @@
       <c r="A37">
         <v>20</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="101">
         <v>9042</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>0.1111</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="F37" s="2">
-        <v>4.03</v>
+        <v>3.77</v>
       </c>
       <c r="G37">
         <v>0.1</v>
@@ -17074,16 +17075,16 @@
         <v>9046</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D40">
         <v>6</v>
       </c>
       <c r="E40" s="1">
-        <v>0.6</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="F40" s="2">
-        <v>3.79</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="G40">
         <v>0.1</v>
@@ -17438,7 +17439,7 @@
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43731.131703819447</v>
+        <v>43732.044857175926</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -18793,7 +18794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
@@ -19598,7 +19599,7 @@
       </c>
       <c r="AK6" s="97">
         <f ca="1">IFERROR(VLOOKUP(BG6, $B$1:$F1003, 5), "")</f>
-        <v>0.21101606750664662</v>
+        <v>0.26417636912462272</v>
       </c>
       <c r="AL6" s="100">
         <f t="shared" ca="1" si="3"/>
@@ -20296,7 +20297,7 @@
       </c>
       <c r="AH10" s="55">
         <f ca="1">IFERROR(VLOOKUP(BD10, $B$1:$F1007, 5), "")</f>
-        <v>0.5722459831233383</v>
+        <v>0.53368909012505383</v>
       </c>
       <c r="AI10" s="56">
         <f ca="1">IFERROR(VLOOKUP(BE10, $B$1:$F1007, 5), "")</f>
@@ -20308,11 +20309,11 @@
       </c>
       <c r="AK10" s="99">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$F1007, 5), "")</f>
-        <v>0.22744829304759534</v>
+        <v>0.19679818887451489</v>
       </c>
       <c r="AL10" s="100">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22744829304759534</v>
+        <v>0.19679818887451489</v>
       </c>
       <c r="AN10" s="37">
         <v>200</v>
@@ -20922,7 +20923,7 @@
       </c>
       <c r="AK16" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG6, $B$1:$G1003, 6), "")</f>
-        <v>0.19314031799092549</v>
+        <v>0.21280976845362207</v>
       </c>
       <c r="AL16" s="100">
         <f t="shared" ca="1" si="7"/>
@@ -20961,7 +20962,7 @@
       </c>
       <c r="AV16" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG6, $B$1:$G1003, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:59" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -21342,7 +21343,7 @@
       </c>
       <c r="AH20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BD10, $B$1:$G1007, 6), "")</f>
-        <v>0.25957643567315197</v>
+        <v>0.25360133443506561</v>
       </c>
       <c r="AI20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BE10, $B$1:$G1007, 6), "")</f>
@@ -21354,11 +21355,11 @@
       </c>
       <c r="AK20" s="87">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 6), "")</f>
-        <v>0.20755792172046483</v>
+        <v>0.18056643661168892</v>
       </c>
       <c r="AL20" s="100">
         <f t="shared" ca="1" si="7"/>
-        <v>0.20755792172046483</v>
+        <v>0.18056643661168892</v>
       </c>
       <c r="AN20" s="72">
         <v>200</v>
@@ -21381,7 +21382,7 @@
       </c>
       <c r="AS20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BD10, $B$1:$G1007, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BE10, $B$1:$G1007, 2), "")</f>
@@ -21393,7 +21394,7 @@
       </c>
       <c r="AV20" s="91">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 2), "")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -23160,7 +23161,7 @@
       </c>
       <c r="U36" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>0.22744829304759534</v>
+        <v>0.19679818887451489</v>
       </c>
       <c r="V36" s="1">
         <f t="shared" ca="1" si="16"/>
@@ -23173,7 +23174,7 @@
       <c r="X36"/>
       <c r="Y36" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>0.20755792172046483</v>
+        <v>0.18056643661168892</v>
       </c>
     </row>
     <row r="37" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -23920,31 +23921,31 @@
       </c>
       <c r="C48" s="37">
         <f>IFERROR(VLOOKUP($B48, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B48, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B48, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D48" s="37">
         <f>IFERROR(VLOOKUP($B48, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B48, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B48, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="53">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F48" s="53">
         <f>IFERROR((E48 + Params!$B$3^2/(2 * C48))/(1 + Params!$B$3^2/C48), NA())</f>
-        <v>0.21101606750664662</v>
+        <v>0.26417636912462272</v>
       </c>
       <c r="G48" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C48))*SQRT(E48*(1-E48)/C48 + (Params!$B$3/(2*C48))^2), NA())</f>
-        <v>0.19314031799092549</v>
+        <v>0.21280976845362207</v>
       </c>
       <c r="H48" s="39">
         <f t="shared" si="1"/>
-        <v>1.7875749515721129E-2</v>
+        <v>5.1366600671000656E-2</v>
       </c>
       <c r="I48" s="39">
         <f t="shared" si="2"/>
-        <v>0.4041563854975721</v>
+        <v>0.47698613757824482</v>
       </c>
       <c r="AA48" s="37">
         <v>20</v>
@@ -24126,7 +24127,7 @@
       </c>
       <c r="C52" s="37">
         <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D52" s="37">
         <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B52, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24134,23 +24135,23 @@
       </c>
       <c r="E52" s="53">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="F52" s="53">
         <f>IFERROR((E52 + Params!$B$3^2/(2 * C52))/(1 + Params!$B$3^2/C52), NA())</f>
-        <v>0.22744829304759534</v>
+        <v>0.19679818887451489</v>
       </c>
       <c r="G52" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C52))*SQRT(E52*(1-E52)/C52 + (Params!$B$3/(2*C52))^2), NA())</f>
-        <v>0.20755792172046483</v>
+        <v>0.18056643661168892</v>
       </c>
       <c r="H52" s="39">
         <f t="shared" si="1"/>
-        <v>1.9890371327130507E-2</v>
+        <v>1.6231752262825971E-2</v>
       </c>
       <c r="I52" s="39">
         <f t="shared" si="2"/>
-        <v>0.43500621476806017</v>
+        <v>0.37736462548620381</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -24365,7 +24366,7 @@
       </c>
       <c r="C56" s="37">
         <f>IFERROR(VLOOKUP($B56, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B56, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B56, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D56" s="37">
         <f>IFERROR(VLOOKUP($B56, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B56, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B56, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24373,23 +24374,23 @@
       </c>
       <c r="E56" s="53">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="F56" s="53">
         <f>IFERROR((E56 + Params!$B$3^2/(2 * C56))/(1 + Params!$B$3^2/C56), NA())</f>
-        <v>0.5722459831233383</v>
+        <v>0.53368909012505383</v>
       </c>
       <c r="G56" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C56))*SQRT(E56*(1-E56)/C56 + (Params!$B$3/(2*C56))^2), NA())</f>
-        <v>0.25957643567315197</v>
+        <v>0.25360133443506561</v>
       </c>
       <c r="H56" s="39">
         <f t="shared" si="1"/>
-        <v>0.31266954745018632</v>
+        <v>0.28008775568998823</v>
       </c>
       <c r="I56" s="39">
         <f t="shared" si="2"/>
-        <v>0.83182241879649021</v>
+        <v>0.78729042456011944</v>
       </c>
       <c r="AA56" s="37"/>
       <c r="AB56" s="44"/>

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC172B4-30F1-4A00-976E-7FEAC1EDF491}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B327AD-1B27-45A5-8F91-2090259CD6DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="9" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -1296,7 +1296,7 @@
                   <c:v>0.47031160934828048</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39893272962483828</c:v>
+                  <c:v>0.43687506312493685</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.68937481062518935</c:v>
@@ -1352,7 +1352,7 @@
                   <c:v>0.33110390487771924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18437531562468437</c:v>
+                  <c:v>0.16370729082593488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2046,7 +2046,7 @@
                     <c:v>0.13105310555497438</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.16951060617391089</c:v>
+                    <c:v>0.15098540471364325</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2076,7 +2076,7 @@
                     <c:v>0.13105310555497438</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.16951060617391089</c:v>
+                    <c:v>0.15098540471364325</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2147,7 +2147,7 @@
                   <c:v>0.40713500341743192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18437531562468437</c:v>
+                  <c:v>0.16370729082593488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7909,8 +7909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R47" sqref="R47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7979,11 +7979,11 @@
         <v>7000</v>
       </c>
       <c r="C2" s="37">
-        <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B2, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B2, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B2, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B2, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B2, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>67</v>
       </c>
       <c r="D2" s="37">
-        <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B2, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B2, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B2, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>8</v>
       </c>
       <c r="E2" s="53">
@@ -8123,11 +8123,11 @@
         <v>7001</v>
       </c>
       <c r="C3" s="37">
-        <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B3, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B3, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B3, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B3, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B3, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>63</v>
       </c>
       <c r="D3" s="37">
-        <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B3, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B3, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B3, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>9</v>
       </c>
       <c r="E3" s="53">
@@ -8292,11 +8292,11 @@
         <v>7002</v>
       </c>
       <c r="C4" s="37">
-        <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>39</v>
       </c>
       <c r="D4" s="37">
-        <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E4" s="53">
@@ -8460,11 +8460,11 @@
         <v>7003</v>
       </c>
       <c r="C5" s="37">
-        <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>39</v>
       </c>
       <c r="D5" s="37">
-        <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>10</v>
       </c>
       <c r="E5" s="53">
@@ -8648,11 +8648,11 @@
         <v>7004</v>
       </c>
       <c r="C6" s="37">
-        <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>31</v>
       </c>
       <c r="D6" s="37">
-        <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E6" s="53">
@@ -8836,11 +8836,11 @@
         <v>7005</v>
       </c>
       <c r="C7" s="37">
-        <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>31</v>
       </c>
       <c r="D7" s="37">
-        <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
       <c r="E7" s="53">
@@ -9024,11 +9024,11 @@
         <v>7006</v>
       </c>
       <c r="C8" s="37">
-        <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>31</v>
       </c>
       <c r="D8" s="37">
-        <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="E8" s="53">
@@ -9194,11 +9194,11 @@
         <v>7007</v>
       </c>
       <c r="C9" s="37">
-        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>5</v>
       </c>
       <c r="D9" s="37">
-        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E9" s="53">
@@ -9242,7 +9242,7 @@
       </c>
       <c r="AH9" s="39">
         <f ca="1">IFERROR(VLOOKUP(BD9, $B$1:$F1006, 5), "")</f>
-        <v>0.39893272962483828</v>
+        <v>0.43687506312493685</v>
       </c>
       <c r="AI9" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE9, $B$1:$F1006, 5), "")</f>
@@ -9364,11 +9364,11 @@
         <v>9000</v>
       </c>
       <c r="C10" s="37">
-        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>39</v>
       </c>
       <c r="D10" s="37">
-        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>8</v>
       </c>
       <c r="E10" s="53">
@@ -9424,11 +9424,11 @@
       </c>
       <c r="AK10" s="99">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$F1007, 5), "")</f>
-        <v>0.18437531562468437</v>
+        <v>0.16370729082593488</v>
       </c>
       <c r="AL10" s="100">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18437531562468437</v>
+        <v>0.16370729082593488</v>
       </c>
       <c r="AN10" s="37">
         <v>200</v>
@@ -9534,11 +9534,11 @@
         <v>9001</v>
       </c>
       <c r="C11" s="37">
-        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B11, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B11, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B11, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>38</v>
       </c>
       <c r="D11" s="37">
-        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B11, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="E11" s="53">
@@ -9571,11 +9571,11 @@
         <v>9002</v>
       </c>
       <c r="C12" s="37">
-        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>39</v>
       </c>
       <c r="D12" s="37">
-        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>14</v>
       </c>
       <c r="E12" s="53">
@@ -9658,11 +9658,11 @@
         <v>9003</v>
       </c>
       <c r="C13" s="37">
-        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>38</v>
       </c>
       <c r="D13" s="37">
-        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>8</v>
       </c>
       <c r="E13" s="53">
@@ -9762,11 +9762,11 @@
         <v>9004</v>
       </c>
       <c r="C14" s="37">
-        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>39</v>
       </c>
       <c r="D14" s="37">
-        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="E14" s="53">
@@ -9870,11 +9870,11 @@
         <v>9005</v>
       </c>
       <c r="C15" s="37">
-        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>39</v>
       </c>
       <c r="D15" s="37">
-        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="E15" s="53">
@@ -9978,11 +9978,11 @@
         <v>9006</v>
       </c>
       <c r="C16" s="37">
-        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>38</v>
       </c>
       <c r="D16" s="37">
-        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>19</v>
       </c>
       <c r="E16" s="53">
@@ -10086,11 +10086,11 @@
         <v>9007</v>
       </c>
       <c r="C17" s="37">
-        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>38</v>
       </c>
       <c r="D17" s="37">
-        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>11</v>
       </c>
       <c r="E17" s="53">
@@ -10194,11 +10194,11 @@
         <v>9008</v>
       </c>
       <c r="C18" s="37">
-        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>79</v>
       </c>
       <c r="D18" s="37">
-        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>33</v>
       </c>
       <c r="E18" s="53">
@@ -10302,11 +10302,11 @@
         <v>9009</v>
       </c>
       <c r="C19" s="37">
-        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="D19" s="37">
-        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E19" s="53">
@@ -10350,7 +10350,7 @@
       </c>
       <c r="AH19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BD9, $B$1:$G1006, 6), "")</f>
-        <v>0.24727049348352442</v>
+        <v>0.24361760121969031</v>
       </c>
       <c r="AI19" s="39">
         <f ca="1">IFERROR(VLOOKUP(BE9, $B$1:$G1006, 6), "")</f>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="AS19" s="88">
         <f ca="1">IFERROR(VLOOKUP(BD9, $B$1:$G1006, 2), "")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT19" s="90">
         <f ca="1">IFERROR(VLOOKUP(BE9, $B$1:$G1006, 2), "")</f>
@@ -10410,11 +10410,11 @@
         <v>9010</v>
       </c>
       <c r="C20" s="37">
-        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>75</v>
       </c>
       <c r="D20" s="37">
-        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>29</v>
       </c>
       <c r="E20" s="53">
@@ -10470,11 +10470,11 @@
       </c>
       <c r="AK20" s="87">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 6), "")</f>
-        <v>0.16951060617391089</v>
+        <v>0.15098540471364325</v>
       </c>
       <c r="AL20" s="100">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16951060617391089</v>
+        <v>0.15098540471364325</v>
       </c>
       <c r="AN20" s="72">
         <v>200</v>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="AV20" s="91">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 2), "")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -10518,11 +10518,11 @@
         <v>9011</v>
       </c>
       <c r="C21" s="37">
-        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>13</v>
       </c>
       <c r="D21" s="37">
-        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="E21" s="53">
@@ -10552,11 +10552,11 @@
         <v>9012</v>
       </c>
       <c r="C22" s="37">
-        <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="D22" s="37">
-        <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E22" s="53">
@@ -10586,11 +10586,11 @@
         <v>9013</v>
       </c>
       <c r="C23" s="37">
-        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>75</v>
       </c>
       <c r="D23" s="37">
-        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>28</v>
       </c>
       <c r="E23" s="53">
@@ -10620,11 +10620,11 @@
         <v>9014</v>
       </c>
       <c r="C24" s="37">
-        <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>12</v>
       </c>
       <c r="D24" s="37">
-        <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
       <c r="E24" s="53">
@@ -10654,11 +10654,11 @@
         <v>9015</v>
       </c>
       <c r="C25" s="37">
-        <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="D25" s="37">
-        <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E25" s="53">
@@ -10769,11 +10769,11 @@
         <v>9016</v>
       </c>
       <c r="C26" s="37">
-        <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>75</v>
       </c>
       <c r="D26" s="37">
-        <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>46</v>
       </c>
       <c r="E26" s="53">
@@ -10902,32 +10902,32 @@
         <v>9017</v>
       </c>
       <c r="C27" s="37">
-        <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>11</v>
+        <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>12</v>
       </c>
       <c r="D27" s="37">
-        <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>4</v>
+        <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>5</v>
       </c>
       <c r="E27" s="53">
         <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F27" s="53">
         <f>IFERROR((E27 + Params!$B$3^2/(2 * C27))/(1 + Params!$B$3^2/C27), NA())</f>
-        <v>0.39893272962483828</v>
+        <v>0.43687506312493685</v>
       </c>
       <c r="G27" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C27))*SQRT(E27*(1-E27)/C27 + (Params!$B$3/(2*C27))^2), NA())</f>
-        <v>0.24727049348352442</v>
+        <v>0.24361760121969031</v>
       </c>
       <c r="H27" s="39">
         <f t="shared" si="1"/>
-        <v>0.15166223614131386</v>
+        <v>0.19325746190524654</v>
       </c>
       <c r="I27" s="39">
         <f t="shared" si="2"/>
-        <v>0.64620322310836276</v>
+        <v>0.68049266434462719</v>
       </c>
       <c r="AA27"/>
       <c r="AB27"/>
@@ -11045,11 +11045,11 @@
         <v>9018</v>
       </c>
       <c r="C28" s="37">
-        <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B28, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B28, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B28, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>50</v>
       </c>
       <c r="D28" s="37">
-        <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B28, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="E28" s="53">
@@ -11206,11 +11206,11 @@
         <v>9019</v>
       </c>
       <c r="C29" s="37">
-        <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="D29" s="37">
-        <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E29" s="53">
@@ -11394,11 +11394,11 @@
         <v>9020</v>
       </c>
       <c r="C30" s="37">
-        <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="D30" s="37">
-        <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E30" s="53">
@@ -11587,11 +11587,11 @@
         <v>9021</v>
       </c>
       <c r="C31" s="37">
-        <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="D31" s="37">
-        <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E31" s="53">
@@ -11758,11 +11758,11 @@
         <v>9022</v>
       </c>
       <c r="C32" s="37">
-        <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="D32" s="37">
-        <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E32" s="53">
@@ -11929,11 +11929,11 @@
         <v>9023</v>
       </c>
       <c r="C33" s="37">
-        <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="D33" s="37">
-        <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E33" s="53">
@@ -12100,11 +12100,11 @@
         <v>9024</v>
       </c>
       <c r="C34" s="37">
-        <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="D34" s="37">
-        <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E34" s="53">
@@ -12166,11 +12166,11 @@
         <v>9025</v>
       </c>
       <c r="C35" s="37">
-        <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B35, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B35, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B35, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>74</v>
       </c>
       <c r="D35" s="37">
-        <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>12</v>
       </c>
       <c r="E35" s="53">
@@ -12232,11 +12232,11 @@
         <v>9026</v>
       </c>
       <c r="C36" s="37">
-        <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B36, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B36, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B36, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>75</v>
       </c>
       <c r="D36" s="37">
-        <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>33</v>
       </c>
       <c r="E36" s="53">
@@ -12276,7 +12276,7 @@
       </c>
       <c r="U36" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>0.18437531562468437</v>
+        <v>0.16370729082593488</v>
       </c>
       <c r="V36" s="1">
         <f t="shared" ca="1" si="16"/>
@@ -12289,7 +12289,7 @@
       <c r="X36"/>
       <c r="Y36" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>0.16951060617391089</v>
+        <v>0.15098540471364325</v>
       </c>
     </row>
     <row r="37" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12298,11 +12298,11 @@
         <v>9027</v>
       </c>
       <c r="C37" s="37">
-        <f>IFERROR(VLOOKUP($B37, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B37, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B37, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B37, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B37, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B37, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B37, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B37, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B37, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B37, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B37, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>75</v>
       </c>
       <c r="D37" s="37">
-        <f>IFERROR(VLOOKUP($B37, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B37, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B37, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B37, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B37, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>34</v>
       </c>
       <c r="E37" s="53">
@@ -12332,11 +12332,11 @@
         <v>9028</v>
       </c>
       <c r="C38" s="37">
-        <f>IFERROR(VLOOKUP($B38, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B38, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B38, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B38, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B38, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B38, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B38, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B38, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B38, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B38, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B38, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>75</v>
       </c>
       <c r="D38" s="37">
-        <f>IFERROR(VLOOKUP($B38, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B38, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B38, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B38, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B38, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>41</v>
       </c>
       <c r="E38" s="53">
@@ -12399,11 +12399,11 @@
         <v>9029</v>
       </c>
       <c r="C39" s="37">
-        <f>IFERROR(VLOOKUP($B39, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B39, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B39, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B39, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B39, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B39, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B39, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>12</v>
       </c>
       <c r="D39" s="37">
-        <f>IFERROR(VLOOKUP($B39, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B39, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B39, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B39, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B39, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>9</v>
       </c>
       <c r="E39" s="53">
@@ -12468,11 +12468,11 @@
         <v>9030</v>
       </c>
       <c r="C40" s="37">
-        <f>IFERROR(VLOOKUP($B40, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B40, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B40, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B40, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B40, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B40, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B40, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>11</v>
       </c>
       <c r="D40" s="37">
-        <f>IFERROR(VLOOKUP($B40, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B40, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B40, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B40, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B40, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E40" s="53">
@@ -12537,11 +12537,11 @@
         <v>9031</v>
       </c>
       <c r="C41" s="37">
-        <f>IFERROR(VLOOKUP($B41, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B41, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B41, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B41, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B41, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B41, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B41, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>11</v>
       </c>
       <c r="D41" s="37">
-        <f>IFERROR(VLOOKUP($B41, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B41, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B41, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B41, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B41, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E41" s="53">
@@ -12621,11 +12621,11 @@
         <v>9032</v>
       </c>
       <c r="C42" s="37">
-        <f>IFERROR(VLOOKUP($B42, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B42, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B42, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B42, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B42, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B42, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B42, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>11</v>
       </c>
       <c r="D42" s="37">
-        <f>IFERROR(VLOOKUP($B42, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B42, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B42, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B42, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B42, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="E42" s="53">
@@ -12690,11 +12690,11 @@
         <v>9033</v>
       </c>
       <c r="C43" s="37">
-        <f>IFERROR(VLOOKUP($B43, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B43, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B43, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B43, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B43, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B43, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B43, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B43, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B43, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B43, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B43, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B43, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B43, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B43, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B43, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>11</v>
       </c>
       <c r="D43" s="37">
-        <f>IFERROR(VLOOKUP($B43, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B43, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B43, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B43, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B43, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="E43" s="53">
@@ -12759,11 +12759,11 @@
         <v>9034</v>
       </c>
       <c r="C44" s="37">
-        <f>IFERROR(VLOOKUP($B44, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B44, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B44, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B44, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B44, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B44, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B44, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>11</v>
       </c>
       <c r="D44" s="37">
-        <f>IFERROR(VLOOKUP($B44, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B44, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B44, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B44, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B44, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>8</v>
       </c>
       <c r="E44" s="53">
@@ -12828,11 +12828,11 @@
         <v>9035</v>
       </c>
       <c r="C45" s="37">
-        <f>IFERROR(VLOOKUP($B45, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B45, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B45, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B45, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B45, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B45, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B45, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B45, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B45, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B45, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B45, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B45, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B45, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B45, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B45, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>50</v>
       </c>
       <c r="D45" s="37">
-        <f>IFERROR(VLOOKUP($B45, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B45, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B45, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B45, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B45, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>20</v>
       </c>
       <c r="E45" s="53">
@@ -12897,11 +12897,11 @@
         <v>9036</v>
       </c>
       <c r="C46" s="37">
-        <f>IFERROR(VLOOKUP($B46, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B46, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B46, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B46, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B46, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B46, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B46, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="D46" s="37">
-        <f>IFERROR(VLOOKUP($B46, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B46, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B46, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B46, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B46, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E46" s="53">
@@ -12966,11 +12966,11 @@
         <v>9037</v>
       </c>
       <c r="C47" s="37">
-        <f>IFERROR(VLOOKUP($B47, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B47, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B47, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B47, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B47, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B47, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B47, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>10</v>
       </c>
       <c r="D47" s="37">
-        <f>IFERROR(VLOOKUP($B47, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B47, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B47, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B47, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B47, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E47" s="53">
@@ -13035,11 +13035,11 @@
         <v>9038</v>
       </c>
       <c r="C48" s="37">
-        <f>IFERROR(VLOOKUP($B48, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B48, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B48, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B48, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B48, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B48, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B48, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>11</v>
       </c>
       <c r="D48" s="37">
-        <f>IFERROR(VLOOKUP($B48, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B48, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B48, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B48, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B48, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="E48" s="53">
@@ -13104,11 +13104,11 @@
         <v>9039</v>
       </c>
       <c r="C49" s="37">
-        <f>IFERROR(VLOOKUP($B49, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B49, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B49, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B49, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B49, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B49, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B49, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>11</v>
       </c>
       <c r="D49" s="37">
-        <f>IFERROR(VLOOKUP($B49, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B49, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B49, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B49, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B49, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="E49" s="53">
@@ -13173,11 +13173,11 @@
         <v>9040</v>
       </c>
       <c r="C50" s="37">
-        <f>IFERROR(VLOOKUP($B50, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B50, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B50, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B50, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B50, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B50, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B50, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>10</v>
       </c>
       <c r="D50" s="37">
-        <f>IFERROR(VLOOKUP($B50, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B50, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B50, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B50, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B50, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
       <c r="E50" s="53">
@@ -13207,11 +13207,11 @@
         <v>9041</v>
       </c>
       <c r="C51" s="37">
-        <f>IFERROR(VLOOKUP($B51, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B51, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B51, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B51, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B51, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B51, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B51, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>11</v>
       </c>
       <c r="D51" s="37">
-        <f>IFERROR(VLOOKUP($B51, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B51, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B51, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B51, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B51, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
       <c r="E51" s="53">
@@ -13241,32 +13241,32 @@
         <v>9042</v>
       </c>
       <c r="C52" s="37">
-        <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>12</v>
+        <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>14</v>
       </c>
       <c r="D52" s="37">
-        <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B52, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E52" s="53">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="F52" s="53">
         <f>IFERROR((E52 + Params!$B$3^2/(2 * C52))/(1 + Params!$B$3^2/C52), NA())</f>
-        <v>0.18437531562468437</v>
+        <v>0.16370729082593488</v>
       </c>
       <c r="G52" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C52))*SQRT(E52*(1-E52)/C52 + (Params!$B$3/(2*C52))^2), NA())</f>
-        <v>0.16951060617391089</v>
+        <v>0.15098540471364325</v>
       </c>
       <c r="H52" s="39">
         <f t="shared" si="1"/>
-        <v>1.4864709450773478E-2</v>
+        <v>1.2721886112291636E-2</v>
       </c>
       <c r="I52" s="39">
         <f t="shared" si="2"/>
-        <v>0.35388592179859524</v>
+        <v>0.31469269553957813</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13275,11 +13275,11 @@
         <v>9043</v>
       </c>
       <c r="C53" s="37">
-        <f>IFERROR(VLOOKUP($B53, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B53, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B53, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B53, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B53, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B53, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B53, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="D53" s="37">
-        <f>IFERROR(VLOOKUP($B53, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B53, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B53, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B53, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B53, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E53" s="53">
@@ -13342,11 +13342,11 @@
         <v>9044</v>
       </c>
       <c r="C54" s="37">
-        <f>IFERROR(VLOOKUP($B54, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B54, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B54, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B54, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B54, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B54, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B54, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>11</v>
       </c>
       <c r="D54" s="37">
-        <f>IFERROR(VLOOKUP($B54, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B54, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B54, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B54, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B54, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
       <c r="E54" s="53">
@@ -13411,11 +13411,11 @@
         <v>9045</v>
       </c>
       <c r="C55" s="37">
-        <f>IFERROR(VLOOKUP($B55, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B55, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B55, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B55, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B55, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B55, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B55, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>11</v>
       </c>
       <c r="D55" s="37">
-        <f>IFERROR(VLOOKUP($B55, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B55, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B55, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B55, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B55, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
       <c r="E55" s="53">
@@ -13480,11 +13480,11 @@
         <v>9046</v>
       </c>
       <c r="C56" s="37">
-        <f>IFERROR(VLOOKUP($B56, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B56, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B56, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B56, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B56, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B56, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B56, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>11</v>
       </c>
       <c r="D56" s="37">
-        <f>IFERROR(VLOOKUP($B56, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B56, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B56, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B56, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B56, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="E56" s="53">
@@ -13564,11 +13564,11 @@
         <v>9047</v>
       </c>
       <c r="C57" s="37">
-        <f>IFERROR(VLOOKUP($B57, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B57, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B57, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B57, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B57, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B57, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B57, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>11</v>
       </c>
       <c r="D57" s="37">
-        <f>IFERROR(VLOOKUP($B57, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B57, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B57, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B57, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B57, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
       <c r="E57" s="53">
@@ -13633,11 +13633,11 @@
         <v>9048</v>
       </c>
       <c r="C58" s="37">
-        <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>8</v>
       </c>
       <c r="D58" s="37">
-        <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="E58" s="53">
@@ -13702,11 +13702,11 @@
         <v>10000</v>
       </c>
       <c r="C59" s="37">
-        <f>IFERROR(VLOOKUP($B59, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B59, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B59, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B59, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B59, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B59, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B59, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B59, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B59, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B59, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B59, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>39</v>
       </c>
       <c r="D59" s="37">
-        <f>IFERROR(VLOOKUP($B59, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B59, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B59, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B59, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B59, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>8</v>
       </c>
       <c r="E59" s="53">
@@ -13771,11 +13771,11 @@
         <v>10001</v>
       </c>
       <c r="C60" s="37">
-        <f>IFERROR(VLOOKUP($B60, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B60, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B60, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B60, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B60, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B60, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B60, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B60, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B60, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B60, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B60, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>39</v>
       </c>
       <c r="D60" s="37">
-        <f>IFERROR(VLOOKUP($B60, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B60, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B60, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B60, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B60, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E60" s="53">
@@ -13840,11 +13840,11 @@
         <v>10002</v>
       </c>
       <c r="C61" s="37">
-        <f>IFERROR(VLOOKUP($B61, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B61, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B61, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B61, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B61, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B61, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B61, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>31</v>
       </c>
       <c r="D61" s="37">
-        <f>IFERROR(VLOOKUP($B61, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B61, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B61, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B61, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B61, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
       <c r="E61" s="53">
@@ -13909,11 +13909,11 @@
         <v>10003</v>
       </c>
       <c r="C62" s="37">
-        <f>IFERROR(VLOOKUP($B62, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B62, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B62, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B62, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B62, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B62, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B62, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B62, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B62, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B62, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B62, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>31</v>
       </c>
       <c r="D62" s="37">
-        <f>IFERROR(VLOOKUP($B62, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B62, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B62, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B62, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B62, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
       <c r="E62" s="53">
@@ -13978,11 +13978,11 @@
         <v>10004</v>
       </c>
       <c r="C63" s="37">
-        <f>IFERROR(VLOOKUP($B63, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B63, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B63, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B63, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B63, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B63, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B63, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B63, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B63, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B63, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B63, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B63, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B63, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B63, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B63, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>31</v>
       </c>
       <c r="D63" s="37">
-        <f>IFERROR(VLOOKUP($B63, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B63, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B63, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B63, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B63, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E63" s="53">
@@ -14047,11 +14047,11 @@
         <v>10005</v>
       </c>
       <c r="C64" s="37">
-        <f>IFERROR(VLOOKUP($B64, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B64, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B64, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B64, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B64, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B64, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B64, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B64, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B64, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B64, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B64, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B64, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B64, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B64, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B64, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>31</v>
       </c>
       <c r="D64" s="37">
-        <f>IFERROR(VLOOKUP($B64, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B64, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B64, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B64, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B64, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E64" s="53">
@@ -14116,11 +14116,11 @@
         <v>10006</v>
       </c>
       <c r="C65" s="37">
-        <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>5</v>
       </c>
       <c r="D65" s="37">
-        <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E65" s="53">
@@ -14150,11 +14150,11 @@
         <v>10007</v>
       </c>
       <c r="C66" s="37">
-        <f>IFERROR(VLOOKUP($B66, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B66, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B66, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B66, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B66, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B66, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B66, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="D66" s="37">
-        <f>IFERROR(VLOOKUP($B66, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B66, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B66, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B66, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B66, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E66" s="53">
@@ -14184,11 +14184,11 @@
         <v>11000</v>
       </c>
       <c r="C67" s="37">
-        <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="D67" s="37">
-        <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E67" s="53">
@@ -14218,11 +14218,11 @@
         <v>11001</v>
       </c>
       <c r="C68" s="37">
-        <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>4</v>
       </c>
       <c r="D68" s="37">
-        <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E68" s="53">
@@ -14285,11 +14285,11 @@
         <v>11002</v>
       </c>
       <c r="C69" s="37">
-        <f>IFERROR(VLOOKUP($B69, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B69, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B69, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B69, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B69, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B69, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B69, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B69, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B69, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B69, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B69, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D69" s="37">
-        <f>IFERROR(VLOOKUP($B69, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B69, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B69, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B69, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B69, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E69" s="53" t="e">
@@ -14354,11 +14354,11 @@
         <v>11003</v>
       </c>
       <c r="C70" s="37">
-        <f>IFERROR(VLOOKUP($B70, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B70, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B70, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B70, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B70, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B70, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B70, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
       <c r="D70" s="37">
-        <f>IFERROR(VLOOKUP($B70, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B70, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B70, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B70, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B70, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="E70" s="53">
@@ -14423,11 +14423,11 @@
         <v>11004</v>
       </c>
       <c r="C71" s="37">
-        <f>IFERROR(VLOOKUP($B71, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B71, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
       <c r="D71" s="37">
-        <f>IFERROR(VLOOKUP($B71, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B71, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B71, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B71, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B71, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
       <c r="E71" s="53">
@@ -14492,11 +14492,11 @@
         <v>11005</v>
       </c>
       <c r="C72" s="37">
-        <f>IFERROR(VLOOKUP($B72, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B72, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B72, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B72, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B72, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B72, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B72, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
       <c r="D72" s="37">
-        <f>IFERROR(VLOOKUP($B72, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B72, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B72, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B72, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B72, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="E72" s="53">
@@ -14561,11 +14561,11 @@
         <v>11006</v>
       </c>
       <c r="C73" s="37">
-        <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>5</v>
       </c>
       <c r="D73" s="37">
-        <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E73" s="53">
@@ -14630,11 +14630,11 @@
         <v>11007</v>
       </c>
       <c r="C74" s="37">
-        <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="D74" s="37">
-        <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E74" s="53">
@@ -14681,11 +14681,11 @@
         <v>11008</v>
       </c>
       <c r="C75" s="37">
-        <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>5</v>
       </c>
       <c r="D75" s="37">
-        <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E75" s="53">
@@ -14732,11 +14732,11 @@
         <v>11009</v>
       </c>
       <c r="C76" s="37">
-        <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>7</v>
       </c>
       <c r="D76" s="37">
-        <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E76" s="53">
@@ -14783,11 +14783,11 @@
         <v>11010</v>
       </c>
       <c r="C77" s="37">
-        <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>7</v>
       </c>
       <c r="D77" s="37">
-        <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="E77" s="53">
@@ -14834,11 +14834,11 @@
         <v>12000</v>
       </c>
       <c r="C78" s="37">
-        <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>7</v>
       </c>
       <c r="D78" s="37">
-        <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E78" s="53">
@@ -14885,11 +14885,11 @@
         <v>12001</v>
       </c>
       <c r="C79" s="37">
-        <f>IFERROR(VLOOKUP($B79, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B79, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B79, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B79, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B79, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B79, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B79, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
       <c r="D79" s="37">
-        <f>IFERROR(VLOOKUP($B79, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B79, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B79, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B79, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B79, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
       <c r="E79" s="53">
@@ -14936,11 +14936,11 @@
         <v>12002</v>
       </c>
       <c r="C80" s="37">
-        <f>IFERROR(VLOOKUP($B80, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B80, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B80, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B80, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B80, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B80, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B80, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B80, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B80, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B80, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B80, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B80, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B80, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B80, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B80, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
       <c r="D80" s="37">
-        <f>IFERROR(VLOOKUP($B80, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B80, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B80, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B80, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B80, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B80, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B80, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B80, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B80, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B80, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B80, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B80, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B80, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B80, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B80, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
       <c r="E80" s="53">
@@ -14970,11 +14970,11 @@
         <v>12003</v>
       </c>
       <c r="C81" s="37">
-        <f>IFERROR(VLOOKUP($B81, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B81, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B81, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B81, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B81, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B81, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B81, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B81, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B81, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B81, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B81, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
       <c r="D81" s="37">
-        <f>IFERROR(VLOOKUP($B81, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B81, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B81, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B81, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B81, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="E81" s="53">
@@ -15004,11 +15004,11 @@
         <v>12004</v>
       </c>
       <c r="C82" s="37">
-        <f>IFERROR(VLOOKUP($B82, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B82, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B82, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B82, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B82, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B82, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B82, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B82, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B82, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B82, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B82, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
       <c r="D82" s="37">
-        <f>IFERROR(VLOOKUP($B82, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B82, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B82, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B82, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B82, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="E82" s="53">
@@ -15038,11 +15038,11 @@
         <v>12005</v>
       </c>
       <c r="C83" s="37">
-        <f>IFERROR(VLOOKUP($B83, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B83, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B83, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B83, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B83, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B83, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B83, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
       <c r="D83" s="37">
-        <f>IFERROR(VLOOKUP($B83, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B83, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B83, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B83, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B83, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
       <c r="E83" s="53">
@@ -15105,11 +15105,11 @@
         <v>12006</v>
       </c>
       <c r="C84" s="37">
-        <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="D84" s="37">
-        <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E84" s="53">
@@ -15174,11 +15174,11 @@
         <v>12007</v>
       </c>
       <c r="C85" s="37">
-        <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>7</v>
       </c>
       <c r="D85" s="37">
-        <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E85" s="53">
@@ -15243,11 +15243,11 @@
         <v>12008</v>
       </c>
       <c r="C86" s="37">
-        <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="D86" s="37">
-        <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E86" s="53">
@@ -15312,11 +15312,11 @@
         <v>12009</v>
       </c>
       <c r="C87" s="37">
-        <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="D87" s="37">
-        <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E87" s="53">
@@ -15381,11 +15381,11 @@
         <v>12010</v>
       </c>
       <c r="C88" s="37">
-        <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="D88" s="37">
-        <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E88" s="53">
@@ -15450,11 +15450,11 @@
         <v>13000</v>
       </c>
       <c r="C89" s="37">
-        <f>IFERROR(VLOOKUP($B89, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B89, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B89, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B89, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B89, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B89, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B89, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B89, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B89, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B89, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B89, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B89, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B89, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B89, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B89, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
       <c r="D89" s="37">
-        <f>IFERROR(VLOOKUP($B89, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B89, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B89, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B89, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B89, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="E89" s="53">
@@ -15501,11 +15501,11 @@
         <v>13001</v>
       </c>
       <c r="C90" s="37">
-        <f>IFERROR(VLOOKUP($B90, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B90, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B90, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B90, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B90, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B90, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B90, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B90, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B90, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B90, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B90, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B90, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B90, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B90, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B90, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
       <c r="D90" s="37">
-        <f>IFERROR(VLOOKUP($B90, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B90, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B90, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B90, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B90, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
       <c r="E90" s="53">
@@ -15552,11 +15552,11 @@
         <v>13002</v>
       </c>
       <c r="C91" s="37">
-        <f>IFERROR(VLOOKUP($B91, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B91, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B91, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B91, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B91, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B91, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B91, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B91, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B91, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B91, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B91, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B91, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B91, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B91, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B91, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
       <c r="D91" s="37">
-        <f>IFERROR(VLOOKUP($B91, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B91, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B91, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B91, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B91, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>7</v>
       </c>
       <c r="E91" s="53">
@@ -15603,11 +15603,11 @@
         <v>13003</v>
       </c>
       <c r="C92" s="37">
-        <f>IFERROR(VLOOKUP($B92, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B92, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B92, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B92, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B92, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B92, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B92, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B92, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B92, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B92, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B92, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B92, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B92, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B92, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B92, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D92" s="37">
-        <f>IFERROR(VLOOKUP($B92, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B92, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B92, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B92, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B92, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E92" s="53" t="e">
@@ -15654,11 +15654,11 @@
         <v>13004</v>
       </c>
       <c r="C93" s="37">
-        <f>IFERROR(VLOOKUP($B93, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B93, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B93, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B93, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B93, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B93, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B93, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B93, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B93, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B93, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B93, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B93, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B93, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B93, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B93, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D93" s="37">
-        <f>IFERROR(VLOOKUP($B93, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B93, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B93, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B93, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B93, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B93, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B93, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B93, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B93, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B93, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B93, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B93, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B93, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B93, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B93, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E93" s="53" t="e">
@@ -15705,11 +15705,11 @@
         <v>13005</v>
       </c>
       <c r="C94" s="37">
-        <f>IFERROR(VLOOKUP($B94, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B94, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B94, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B94, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B94, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B94, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B94, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B94, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B94, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B94, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B94, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B94, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B94, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B94, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B94, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D94" s="37">
-        <f>IFERROR(VLOOKUP($B94, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B94, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B94, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B94, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B94, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B94, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B94, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B94, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B94, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B94, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B94, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B94, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B94, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B94, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B94, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E94" s="53" t="e">
@@ -15756,11 +15756,11 @@
         <v>13006</v>
       </c>
       <c r="C95" s="37">
-        <f>IFERROR(VLOOKUP($B95, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B95, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B95, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B95, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B95, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B95, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B95, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B95, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B95, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B95, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B95, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B95, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B95, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B95, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B95, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D95" s="37">
-        <f>IFERROR(VLOOKUP($B95, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B95, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B95, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B95, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B95, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B95, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B95, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B95, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B95, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B95, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B95, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B95, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B95, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B95, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B95, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E95" s="53" t="e">
@@ -15790,11 +15790,11 @@
         <v>13007</v>
       </c>
       <c r="C96" s="37">
-        <f>IFERROR(VLOOKUP($B96, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B96, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B96, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B96, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B96, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B96, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B96, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B96, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B96, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B96, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B96, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B96, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B96, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B96, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B96, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D96" s="37">
-        <f>IFERROR(VLOOKUP($B96, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B96, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B96, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B96, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B96, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B96, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B96, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B96, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B96, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B96, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B96, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B96, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B96, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B96, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B96, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E96" s="53" t="e">
@@ -15824,11 +15824,11 @@
         <v>13008</v>
       </c>
       <c r="C97" s="37">
-        <f>IFERROR(VLOOKUP($B97, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B97, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B97, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B97, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B97, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B97, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B97, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B97, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B97, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B97, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B97, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B97, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B97, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B97, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B97, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D97" s="37">
-        <f>IFERROR(VLOOKUP($B97, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B97, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B97, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B97, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B97, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B97, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B97, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B97, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B97, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B97, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B97, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B97, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B97, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B97, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B97, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E97" s="53" t="e">
@@ -15858,11 +15858,11 @@
         <v>13009</v>
       </c>
       <c r="C98" s="37">
-        <f>IFERROR(VLOOKUP($B98, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B98, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B98, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B98, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B98, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B98, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B98, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B98, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B98, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B98, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B98, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B98, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B98, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B98, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B98, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D98" s="37">
-        <f>IFERROR(VLOOKUP($B98, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B98, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B98, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B98, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B98, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B98, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B98, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B98, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B98, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B98, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B98, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B98, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B98, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B98, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B98, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E98" s="53" t="e">
@@ -15892,11 +15892,11 @@
         <v>13010</v>
       </c>
       <c r="C99" s="37">
-        <f>IFERROR(VLOOKUP($B99, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B99, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>4</v>
       </c>
       <c r="D99" s="37">
-        <f>IFERROR(VLOOKUP($B99, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B99, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B99, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B99, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B99, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E99" s="53">
@@ -15926,11 +15926,11 @@
         <v>13011</v>
       </c>
       <c r="C100" s="37">
-        <f>IFERROR(VLOOKUP($B100, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B100, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B100, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B100, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B100, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B100, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B100, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D100" s="37">
-        <f>IFERROR(VLOOKUP($B100, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B100, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B100, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B100, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B100, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E100" s="53" t="e">
@@ -15960,11 +15960,11 @@
         <v>13012</v>
       </c>
       <c r="C101" s="37">
-        <f>IFERROR(VLOOKUP($B101, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B101, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B101, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B101, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B101, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B101, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B101, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D101" s="37">
-        <f>IFERROR(VLOOKUP($B101, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B101, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B101, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B101, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B101, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E101" s="53" t="e">
@@ -15994,11 +15994,11 @@
         <v>14000</v>
       </c>
       <c r="C102" s="37">
-        <f>IFERROR(VLOOKUP($B102, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B102, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B102, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B102, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B102, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B102, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B102, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
       <c r="D102" s="37">
-        <f>IFERROR(VLOOKUP($B102, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B102, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B102, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B102, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B102, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
       <c r="E102" s="53">
@@ -16028,11 +16028,11 @@
         <v>14001</v>
       </c>
       <c r="C103" s="37">
-        <f>IFERROR(VLOOKUP($B103, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B103, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B103, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B103, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B103, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B103, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B103, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
       <c r="D103" s="37">
-        <f>IFERROR(VLOOKUP($B103, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B103, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B103, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B103, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B103, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
       <c r="E103" s="53">
@@ -16062,11 +16062,11 @@
         <v>14002</v>
       </c>
       <c r="C104" s="37">
-        <f>IFERROR(VLOOKUP($B104, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B104, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B104, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B104, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B104, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B104, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B104, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
       <c r="D104" s="37">
-        <f>IFERROR(VLOOKUP($B104, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B104, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B104, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B104, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B104, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>8</v>
       </c>
       <c r="E104" s="53">
@@ -16096,11 +16096,11 @@
         <v>14003</v>
       </c>
       <c r="C105" s="37">
-        <f>IFERROR(VLOOKUP($B105, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B105, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B105, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B105, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B105, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B105, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B105, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B105, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B105, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B105, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B105, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B105, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B105, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B105, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B105, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D105" s="37">
-        <f>IFERROR(VLOOKUP($B105, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B105, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B105, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B105, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B105, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B105, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B105, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B105, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B105, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B105, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B105, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B105, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B105, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B105, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B105, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E105" s="53" t="e">
@@ -16130,11 +16130,11 @@
         <v>14004</v>
       </c>
       <c r="C106" s="37">
-        <f>IFERROR(VLOOKUP($B106, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B106, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B106, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B106, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B106, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B106, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B106, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B106, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B106, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B106, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B106, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B106, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B106, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B106, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B106, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D106" s="37">
-        <f>IFERROR(VLOOKUP($B106, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B106, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B106, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B106, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B106, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B106, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B106, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B106, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B106, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B106, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B106, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B106, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B106, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B106, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B106, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E106" s="53" t="e">
@@ -16164,11 +16164,11 @@
         <v>14005</v>
       </c>
       <c r="C107" s="37">
-        <f>IFERROR(VLOOKUP($B107, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B107, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B107, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B107, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B107, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B107, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B107, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B107, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B107, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B107, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B107, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B107, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B107, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B107, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B107, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D107" s="37">
-        <f>IFERROR(VLOOKUP($B107, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B107, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B107, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B107, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B107, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B107, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B107, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B107, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B107, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B107, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B107, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B107, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B107, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B107, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B107, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E107" s="53" t="e">
@@ -16198,11 +16198,11 @@
         <v>14006</v>
       </c>
       <c r="C108" s="37">
-        <f>IFERROR(VLOOKUP($B108, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B108, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B108, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B108, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B108, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B108, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B108, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D108" s="37">
-        <f>IFERROR(VLOOKUP($B108, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B108, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B108, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B108, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B108, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E108" s="53" t="e">
@@ -16232,11 +16232,11 @@
         <v>14007</v>
       </c>
       <c r="C109" s="37">
-        <f>IFERROR(VLOOKUP($B109, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B109, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B109, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B109, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B109, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B109, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B109, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D109" s="37">
-        <f>IFERROR(VLOOKUP($B109, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B109, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B109, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B109, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B109, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E109" s="53" t="e">
@@ -16266,11 +16266,11 @@
         <v>14008</v>
       </c>
       <c r="C110" s="37">
-        <f>IFERROR(VLOOKUP($B110, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B110, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B110, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B110, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B110, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B110, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B110, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D110" s="37">
-        <f>IFERROR(VLOOKUP($B110, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B110, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B110, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B110, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B110, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E110" s="53" t="e">
@@ -16300,11 +16300,11 @@
         <v>14009</v>
       </c>
       <c r="C111" s="37">
-        <f>IFERROR(VLOOKUP($B111, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B111, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B111, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B111, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B111, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B111, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B111, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D111" s="37">
-        <f>IFERROR(VLOOKUP($B111, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B111, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B111, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B111, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B111, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E111" s="53" t="e">
@@ -16334,11 +16334,11 @@
         <v>14010</v>
       </c>
       <c r="C112" s="37">
-        <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>3</v>
       </c>
       <c r="D112" s="37">
-        <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E112" s="53">
@@ -16368,11 +16368,11 @@
         <v>14011</v>
       </c>
       <c r="C113" s="37">
-        <f>IFERROR(VLOOKUP($B113, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B113, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B113, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B113, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B113, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B113, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B113, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D113" s="37">
-        <f>IFERROR(VLOOKUP($B113, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B113, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B113, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B113, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B113, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E113" s="53" t="e">
@@ -16402,11 +16402,11 @@
         <v>14012</v>
       </c>
       <c r="C114" s="37">
-        <f>IFERROR(VLOOKUP($B114, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B114, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B114, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B114, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B114, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B114, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B114, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D114" s="37">
-        <f>IFERROR(VLOOKUP($B114, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B114, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B114, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B114, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B114, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E114" s="53" t="e">
@@ -16436,11 +16436,11 @@
         <v>15000</v>
       </c>
       <c r="C115" s="37">
-        <f>IFERROR(VLOOKUP($B115, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B115, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B115, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B115, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B115, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B115, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B115, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D115" s="37">
-        <f>IFERROR(VLOOKUP($B115, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B115, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B115, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B115, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B115, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E115" s="53" t="e">
@@ -16470,11 +16470,11 @@
         <v>15001</v>
       </c>
       <c r="C116" s="37">
-        <f>IFERROR(VLOOKUP($B116, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B116, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B116, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B116, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B116, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B116, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B116, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D116" s="37">
-        <f>IFERROR(VLOOKUP($B116, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B116, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B116, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B116, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B116, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E116" s="53" t="e">
@@ -16504,11 +16504,11 @@
         <v>15002</v>
       </c>
       <c r="C117" s="37">
-        <f>IFERROR(VLOOKUP($B117, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B117, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B117, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B117, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B117, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B117, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B117, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D117" s="37">
-        <f>IFERROR(VLOOKUP($B117, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B117, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B117, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B117, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B117, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E117" s="53" t="e">
@@ -16538,11 +16538,11 @@
         <v>15003</v>
       </c>
       <c r="C118" s="37">
-        <f>IFERROR(VLOOKUP($B118, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B118, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B118, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B118, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B118, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B118, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B118, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D118" s="37">
-        <f>IFERROR(VLOOKUP($B118, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B118, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B118, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B118, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B118, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E118" s="53" t="e">
@@ -16572,11 +16572,11 @@
         <v>15004</v>
       </c>
       <c r="C119" s="37">
-        <f>IFERROR(VLOOKUP($B119, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B119, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B119, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B119, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B119, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B119, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B119, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D119" s="37">
-        <f>IFERROR(VLOOKUP($B119, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B119, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B119, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B119, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B119, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E119" s="53" t="e">
@@ -16606,11 +16606,11 @@
         <v>15005</v>
       </c>
       <c r="C120" s="37">
-        <f>IFERROR(VLOOKUP($B120, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B120, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B120, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B120, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B120, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B120, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B120, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D120" s="37">
-        <f>IFERROR(VLOOKUP($B120, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B120, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B120, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B120, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B120, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E120" s="53" t="e">
@@ -16640,11 +16640,11 @@
         <v>15006</v>
       </c>
       <c r="C121" s="37">
-        <f>IFERROR(VLOOKUP($B121, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B121, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B121, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B121, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B121, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B121, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B121, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D121" s="37">
-        <f>IFERROR(VLOOKUP($B121, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B121, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B121, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B121, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B121, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E121" s="53" t="e">
@@ -16674,11 +16674,11 @@
         <v>15007</v>
       </c>
       <c r="C122" s="37">
-        <f>IFERROR(VLOOKUP($B122, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B122, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B122, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B122, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B122, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B122, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B122, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D122" s="37">
-        <f>IFERROR(VLOOKUP($B122, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B122, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B122, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B122, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B122, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E122" s="53" t="e">
@@ -16708,11 +16708,11 @@
         <v>15008</v>
       </c>
       <c r="C123" s="37">
-        <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>8</v>
       </c>
       <c r="D123" s="37">
-        <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E123" s="53">
@@ -16742,11 +16742,11 @@
         <v>15009</v>
       </c>
       <c r="C124" s="37">
-        <f>IFERROR(VLOOKUP($B124, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B124, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B124, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B124, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B124, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B124, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B124, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D124" s="37">
-        <f>IFERROR(VLOOKUP($B124, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B124, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B124, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B124, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B124, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E124" s="53" t="e">
@@ -16776,11 +16776,11 @@
         <v>15010</v>
       </c>
       <c r="C125" s="37">
-        <f>IFERROR(VLOOKUP($B125, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B125, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B125, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B125, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B125, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B125, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B125, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D125" s="37">
-        <f>IFERROR(VLOOKUP($B125, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B125, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B125, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B125, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B125, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E125" s="53" t="e">
@@ -16810,11 +16810,11 @@
         <v>15011</v>
       </c>
       <c r="C126" s="37">
-        <f>IFERROR(VLOOKUP($B126, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B126, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B126, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B126, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B126, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B126, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B126, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D126" s="37">
-        <f>IFERROR(VLOOKUP($B126, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B126, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B126, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B126, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B126, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E126" s="53" t="e">
@@ -16844,11 +16844,11 @@
         <v>15012</v>
       </c>
       <c r="C127" s="37">
-        <f>IFERROR(VLOOKUP($B127, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B127, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B127, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B127, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B127, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B127, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B127, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D127" s="37">
-        <f>IFERROR(VLOOKUP($B127, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B127, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B127, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B127, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B127, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E127" s="53" t="e">
@@ -16878,11 +16878,11 @@
         <v>15013</v>
       </c>
       <c r="C128" s="37">
-        <f>IFERROR(VLOOKUP($B128, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B128, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B128, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B128, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B128, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B128, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B128, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B128, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B128, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B128, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B128, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B128, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B128, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B128, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B128, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D128" s="37">
-        <f>IFERROR(VLOOKUP($B128, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B128, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B128, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B128, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B128, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B128, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B128, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B128, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B128, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B128, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B128, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B128, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B128, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B128, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B128, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E128" s="53" t="e">
@@ -16912,11 +16912,11 @@
         <v>15014</v>
       </c>
       <c r="C129" s="37">
-        <f>IFERROR(VLOOKUP($B129, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B129, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B129, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B129, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B129, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B129, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B129, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B129, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B129, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B129, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B129, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B129, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B129, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B129, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B129, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D129" s="37">
-        <f>IFERROR(VLOOKUP($B129, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B129, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B129, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B129, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B129, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B129, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B129, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B129, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B129, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B129, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B129, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B129, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B129, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B129, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B129, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E129" s="53" t="e">
@@ -16946,11 +16946,11 @@
         <v>15015</v>
       </c>
       <c r="C130" s="37">
-        <f>IFERROR(VLOOKUP($B130, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B130, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B130, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B130, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B130, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B130, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B130, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B130, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B130, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B130, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B130, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B130, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B130, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B130, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B130, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D130" s="37">
-        <f>IFERROR(VLOOKUP($B130, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B130, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B130, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B130, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B130, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B130, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B130, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B130, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B130, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B130, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B130, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B130, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B130, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B130, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B130, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E130" s="53" t="e">
@@ -16980,11 +16980,11 @@
         <v>15016</v>
       </c>
       <c r="C131" s="37">
-        <f>IFERROR(VLOOKUP($B131, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B131, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>10</v>
       </c>
       <c r="D131" s="37">
-        <f>IFERROR(VLOOKUP($B131, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B131, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B131, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B131, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B131, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="E131" s="53">
@@ -17014,11 +17014,11 @@
         <v>15017</v>
       </c>
       <c r="C132" s="37">
-        <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>9</v>
       </c>
       <c r="D132" s="37">
-        <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
       <c r="E132" s="53">
@@ -17048,11 +17048,11 @@
         <v>15018</v>
       </c>
       <c r="C133" s="37">
-        <f>IFERROR(VLOOKUP($B133, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B133, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B133, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B133, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B133, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B133, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B133, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B133, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B133, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B133, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B133, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B133, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B133, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B133, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B133, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D133" s="37">
-        <f>IFERROR(VLOOKUP($B133, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B133, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B133, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B133, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B133, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B133, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B133, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B133, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B133, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B133, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B133, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B133, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B133, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B133, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B133, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E133" s="53" t="e">
@@ -17082,11 +17082,11 @@
         <v>15019</v>
       </c>
       <c r="C134" s="37">
-        <f>IFERROR(VLOOKUP($B134, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B134, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B134, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B134, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B134, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B134, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B134, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B134, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B134, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B134, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B134, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B134, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B134, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B134, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B134, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D134" s="37">
-        <f>IFERROR(VLOOKUP($B134, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B134, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B134, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B134, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B134, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B134, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B134, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B134, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B134, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B134, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B134, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B134, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B134, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B134, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B134, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E134" s="53" t="e">
@@ -17116,11 +17116,11 @@
         <v>15020</v>
       </c>
       <c r="C135" s="37">
-        <f>IFERROR(VLOOKUP($B135, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B135, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B135, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B135, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B135, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B135, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B135, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B135, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B135, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B135, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B135, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B135, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B135, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B135, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B135, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D135" s="37">
-        <f>IFERROR(VLOOKUP($B135, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B135, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B135, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B135, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B135, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B135, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B135, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B135, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B135, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B135, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B135, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B135, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B135, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B135, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B135, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E135" s="53" t="e">
@@ -17150,11 +17150,11 @@
         <v>15021</v>
       </c>
       <c r="C136" s="37">
-        <f>IFERROR(VLOOKUP($B136, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B136, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B136, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B136, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B136, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B136, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B136, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B136, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B136, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B136, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B136, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D136" s="37">
-        <f>IFERROR(VLOOKUP($B136, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B136, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B136, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B136, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B136, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E136" s="53" t="e">
@@ -17184,11 +17184,11 @@
         <v>15022</v>
       </c>
       <c r="C137" s="37">
-        <f>IFERROR(VLOOKUP($B137, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B137, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B137, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B137, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B137, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B137, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B137, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B137, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B137, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B137, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B137, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D137" s="37">
-        <f>IFERROR(VLOOKUP($B137, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B137, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B137, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B137, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B137, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E137" s="53" t="e">
@@ -17218,11 +17218,11 @@
         <v>15023</v>
       </c>
       <c r="C138" s="37">
-        <f>IFERROR(VLOOKUP($B138, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B138, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B138, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B138, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B138, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B138, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B138, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B138, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B138, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B138, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B138, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D138" s="37">
-        <f>IFERROR(VLOOKUP($B138, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B138, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B138, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B138, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B138, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E138" s="53" t="e">
@@ -17252,11 +17252,11 @@
         <v>15024</v>
       </c>
       <c r="C139" s="37">
-        <f>IFERROR(VLOOKUP($B139, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B139, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B139, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B139, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B139, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B139, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B139, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B139, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B139, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B139, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B139, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B139, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B139, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B139, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B139, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D139" s="37">
-        <f>IFERROR(VLOOKUP($B139, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B139, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B139, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B139, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B139, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B139, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B139, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B139, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B139, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B139, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B139, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B139, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B139, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B139, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B139, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E139" s="53" t="e">
@@ -17286,11 +17286,11 @@
         <v>15025</v>
       </c>
       <c r="C140" s="37">
-        <f>IFERROR(VLOOKUP($B140, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B140, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B140, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B140, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B140, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B140, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B140, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B140, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B140, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B140, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B140, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B140, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B140, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B140, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B140, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D140" s="37">
-        <f>IFERROR(VLOOKUP($B140, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B140, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B140, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B140, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B140, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B140, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B140, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B140, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B140, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B140, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B140, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B140, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B140, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B140, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B140, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E140" s="53" t="e">
@@ -17320,11 +17320,11 @@
         <v>15026</v>
       </c>
       <c r="C141" s="37">
-        <f>IFERROR(VLOOKUP($B141, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B141, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B141, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B141, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B141, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B141, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B141, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B141, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B141, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B141, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B141, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B141, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B141, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B141, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B141, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D141" s="37">
-        <f>IFERROR(VLOOKUP($B141, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B141, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B141, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B141, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B141, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E141" s="53" t="e">
@@ -17354,11 +17354,11 @@
         <v>15027</v>
       </c>
       <c r="C142" s="37">
-        <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>10</v>
       </c>
       <c r="D142" s="37">
-        <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
       <c r="E142" s="53">
@@ -17388,11 +17388,11 @@
         <v>15028</v>
       </c>
       <c r="C143" s="37">
-        <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>58</v>
       </c>
       <c r="D143" s="37">
-        <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>33</v>
       </c>
       <c r="E143" s="53">
@@ -17422,11 +17422,11 @@
         <v>15029</v>
       </c>
       <c r="C144" s="37">
-        <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>10</v>
       </c>
       <c r="D144" s="37">
-        <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="E144" s="53">
@@ -17456,11 +17456,11 @@
         <v>15030</v>
       </c>
       <c r="C145" s="37">
-        <f>IFERROR(VLOOKUP($B145, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B145, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B145, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B145, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B145, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B145, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B145, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B145, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B145, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B145, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B145, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B145, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B145, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B145, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B145, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D145" s="37">
-        <f>IFERROR(VLOOKUP($B145, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B145, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B145, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B145, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B145, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E145" s="53" t="e">
@@ -17490,11 +17490,11 @@
         <v>15031</v>
       </c>
       <c r="C146" s="37">
-        <f>IFERROR(VLOOKUP($B146, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B146, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B146, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B146, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B146, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B146, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B146, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B146, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B146, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B146, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B146, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B146, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B146, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B146, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B146, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D146" s="37">
-        <f>IFERROR(VLOOKUP($B146, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B146, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B146, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B146, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B146, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E146" s="53" t="e">
@@ -17524,11 +17524,11 @@
         <v>15032</v>
       </c>
       <c r="C147" s="37">
-        <f>IFERROR(VLOOKUP($B147, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B147, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B147, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B147, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B147, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B147, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B147, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B147, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B147, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B147, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B147, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B147, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B147, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B147, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B147, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D147" s="37">
-        <f>IFERROR(VLOOKUP($B147, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B147, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B147, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B147, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B147, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E147" s="53" t="e">
@@ -17558,11 +17558,11 @@
         <v>15033</v>
       </c>
       <c r="C148" s="37">
-        <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>11</v>
       </c>
       <c r="D148" s="37">
-        <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
       <c r="E148" s="53">
@@ -17592,11 +17592,11 @@
         <v>15034</v>
       </c>
       <c r="C149" s="37">
-        <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>10</v>
       </c>
       <c r="D149" s="37">
-        <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>7</v>
       </c>
       <c r="E149" s="53">
@@ -17626,11 +17626,11 @@
         <v>15035</v>
       </c>
       <c r="C150" s="37">
-        <f>IFERROR(VLOOKUP($B150, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B150, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>10</v>
       </c>
       <c r="D150" s="37">
-        <f>IFERROR(VLOOKUP($B150, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B150, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B150, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B150, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B150, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
       <c r="E150" s="53">
@@ -17660,11 +17660,11 @@
         <v>15036</v>
       </c>
       <c r="C151" s="37">
-        <f>IFERROR(VLOOKUP($B151, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B151, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B151, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B151, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B151, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B151, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B151, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B151, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B151, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B151, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B151, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B151, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B151, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B151, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B151, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D151" s="37">
-        <f>IFERROR(VLOOKUP($B151, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B151, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B151, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B151, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B151, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E151" s="53" t="e">
@@ -17694,11 +17694,11 @@
         <v>15037</v>
       </c>
       <c r="C152" s="37">
-        <f>IFERROR(VLOOKUP($B152, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B152, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B152, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B152, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B152, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B152, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B152, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B152, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B152, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B152, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B152, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B152, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B152, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B152, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B152, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D152" s="37">
-        <f>IFERROR(VLOOKUP($B152, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B152, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B152, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B152, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B152, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E152" s="53" t="e">
@@ -17728,11 +17728,11 @@
         <v>15038</v>
       </c>
       <c r="C153" s="37">
-        <f>IFERROR(VLOOKUP($B153, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B153, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B153, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B153, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B153, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B153, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B153, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B153, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B153, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B153, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B153, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B153, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B153, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B153, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B153, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D153" s="37">
-        <f>IFERROR(VLOOKUP($B153, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B153, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B153, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B153, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B153, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E153" s="53" t="e">
@@ -17762,11 +17762,11 @@
         <v>15039</v>
       </c>
       <c r="C154" s="37">
-        <f>IFERROR(VLOOKUP($B154, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B154, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B154, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B154, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B154, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B154, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B154, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B154, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B154, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B154, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B154, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B154, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B154, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B154, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B154, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D154" s="37">
-        <f>IFERROR(VLOOKUP($B154, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B154, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B154, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B154, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B154, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E154" s="53" t="e">
@@ -17796,11 +17796,11 @@
         <v>15040</v>
       </c>
       <c r="C155" s="37">
-        <f>IFERROR(VLOOKUP($B155, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B155, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B155, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B155, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B155, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B155, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B155, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B155, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B155, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B155, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B155, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B155, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B155, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B155, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B155, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D155" s="37">
-        <f>IFERROR(VLOOKUP($B155, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B155, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B155, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B155, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B155, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E155" s="53" t="e">
@@ -17830,11 +17830,11 @@
         <v>15041</v>
       </c>
       <c r="C156" s="37">
-        <f>IFERROR(VLOOKUP($B156, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B156, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B156, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B156, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B156, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B156, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B156, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B156, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B156, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B156, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B156, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B156, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B156, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B156, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B156, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D156" s="37">
-        <f>IFERROR(VLOOKUP($B156, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B156, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B156, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B156, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B156, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E156" s="53" t="e">
@@ -17864,11 +17864,11 @@
         <v>15042</v>
       </c>
       <c r="C157" s="37">
-        <f>IFERROR(VLOOKUP($B157, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B157, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B157, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B157, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B157, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B157, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B157, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B157, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B157, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B157, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B157, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B157, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B157, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B157, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B157, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D157" s="37">
-        <f>IFERROR(VLOOKUP($B157, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B157, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B157, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B157, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B157, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E157" s="53" t="e">
@@ -17898,11 +17898,11 @@
         <v>15043</v>
       </c>
       <c r="C158" s="37">
-        <f>IFERROR(VLOOKUP($B158, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B158, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B158, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B158, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B158, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B158, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B158, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B158, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B158, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B158, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B158, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B158, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B158, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B158, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B158, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D158" s="37">
-        <f>IFERROR(VLOOKUP($B158, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B158, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B158, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B158, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B158, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E158" s="53" t="e">
@@ -17932,11 +17932,11 @@
         <v>15044</v>
       </c>
       <c r="C159" s="37">
-        <f>IFERROR(VLOOKUP($B159, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B159, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B159, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B159, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B159, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B159, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B159, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B159, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B159, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B159, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B159, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B159, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B159, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B159, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B159, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D159" s="37">
-        <f>IFERROR(VLOOKUP($B159, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B159, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B159, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B159, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B159, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E159" s="53" t="e">
@@ -17966,11 +17966,11 @@
         <v>15045</v>
       </c>
       <c r="C160" s="37">
-        <f>IFERROR(VLOOKUP($B160, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B160, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B160, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B160, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B160, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B160, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B160, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B160, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B160, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B160, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B160, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B160, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B160, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B160, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B160, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D160" s="37">
-        <f>IFERROR(VLOOKUP($B160, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B160, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B160, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B160, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B160, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E160" s="53" t="e">
@@ -18000,11 +18000,11 @@
         <v>15046</v>
       </c>
       <c r="C161" s="37">
-        <f>IFERROR(VLOOKUP($B161, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B161, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B161, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B161, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B161, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B161, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B161, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B161, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B161, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B161, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B161, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B161, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B161, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B161, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B161, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D161" s="37">
-        <f>IFERROR(VLOOKUP($B161, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B161, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B161, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B161, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B161, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E161" s="53" t="e">
@@ -18034,11 +18034,11 @@
         <v>15047</v>
       </c>
       <c r="C162" s="37">
-        <f>IFERROR(VLOOKUP($B162, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B162, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B162, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B162, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B162, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B162, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B162, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B162, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B162, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B162, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B162, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B162, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B162, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B162, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B162, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D162" s="37">
-        <f>IFERROR(VLOOKUP($B162, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B162, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B162, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B162, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B162, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E162" s="53" t="e">
@@ -18068,11 +18068,11 @@
         <v>15048</v>
       </c>
       <c r="C163" s="37">
-        <f>IFERROR(VLOOKUP($B163, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B163, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B163, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B163, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B163, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B163, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B163, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B163, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B163, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B163, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B163, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B163, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B163, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B163, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B163, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D163" s="37">
-        <f>IFERROR(VLOOKUP($B163, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B163, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B163, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B163, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B163, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E163" s="53" t="e">
@@ -26608,16 +26608,16 @@
         <v>9017</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1">
-        <v>0.36359999999999998</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="F21" s="2">
-        <v>3.73</v>
+        <v>4.76</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -27216,16 +27216,16 @@
         <v>9042</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>8.3299999999999999E-2</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="F37" s="2">
-        <v>3.76</v>
+        <v>3.59</v>
       </c>
       <c r="G37">
         <v>0.1</v>
@@ -27696,7 +27696,7 @@
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43732.118747916662</v>
+        <v>43732.784628935187</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B327AD-1B27-45A5-8F91-2090259CD6DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8EA87D-2147-4053-8C0D-8E677E1B2EB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="9" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -1349,10 +1349,10 @@
                   <c:v>0.46631090987494611</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33110390487771924</c:v>
+                  <c:v>0.38319212559182658</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16370729082593488</c:v>
+                  <c:v>0.13372646692549997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2046,7 +2046,7 @@
                     <c:v>0.13105310555497438</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.15098540471364325</c:v>
+                    <c:v>0.12385153109457545</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2076,7 +2076,7 @@
                     <c:v>0.13105310555497438</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.15098540471364325</c:v>
+                    <c:v>0.12385153109457545</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2147,7 +2147,7 @@
                   <c:v>0.40713500341743192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16370729082593488</c:v>
+                  <c:v>0.13372646692549997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7909,7 +7909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -9420,15 +9420,15 @@
       </c>
       <c r="AJ10" s="55">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$F1007, 5), "")</f>
-        <v>0.33110390487771924</v>
+        <v>0.38319212559182658</v>
       </c>
       <c r="AK10" s="99">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$F1007, 5), "")</f>
-        <v>0.16370729082593488</v>
+        <v>0.13372646692549997</v>
       </c>
       <c r="AL10" s="100">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16370729082593488</v>
+        <v>0.13372646692549997</v>
       </c>
       <c r="AN10" s="37">
         <v>200</v>
@@ -10466,15 +10466,15 @@
       </c>
       <c r="AJ20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$G1007, 6), "")</f>
-        <v>0.2596262160196916</v>
+        <v>0.26261052690908371</v>
       </c>
       <c r="AK20" s="87">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 6), "")</f>
-        <v>0.15098540471364325</v>
+        <v>0.12385153109457545</v>
       </c>
       <c r="AL20" s="100">
         <f t="shared" ca="1" si="7"/>
-        <v>0.15098540471364325</v>
+        <v>0.12385153109457545</v>
       </c>
       <c r="AN20" s="72">
         <v>200</v>
@@ -10505,11 +10505,11 @@
       </c>
       <c r="AU20" s="90">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$G1007, 2), "")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV20" s="91">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 2), "")</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -12276,7 +12276,7 @@
       </c>
       <c r="U36" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>0.16370729082593488</v>
+        <v>0.13372646692549997</v>
       </c>
       <c r="V36" s="1">
         <f t="shared" ca="1" si="16"/>
@@ -12289,7 +12289,7 @@
       <c r="X36"/>
       <c r="Y36" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>0.15098540471364325</v>
+        <v>0.12385153109457545</v>
       </c>
     </row>
     <row r="37" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13242,7 +13242,7 @@
       </c>
       <c r="C52" s="37">
         <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D52" s="37">
         <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -13250,23 +13250,23 @@
       </c>
       <c r="E52" s="53">
         <f t="shared" si="0"/>
-        <v>7.1428571428571425E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="F52" s="53">
         <f>IFERROR((E52 + Params!$B$3^2/(2 * C52))/(1 + Params!$B$3^2/C52), NA())</f>
-        <v>0.16370729082593488</v>
+        <v>0.13372646692549997</v>
       </c>
       <c r="G52" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C52))*SQRT(E52*(1-E52)/C52 + (Params!$B$3/(2*C52))^2), NA())</f>
-        <v>0.15098540471364325</v>
+        <v>0.12385153109457545</v>
       </c>
       <c r="H52" s="39">
         <f t="shared" si="1"/>
-        <v>1.2721886112291636E-2</v>
+        <v>9.874935830924525E-3</v>
       </c>
       <c r="I52" s="39">
         <f t="shared" si="2"/>
-        <v>0.31469269553957813</v>
+        <v>0.25757799802007542</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13634,31 +13634,31 @@
       </c>
       <c r="C58" s="37">
         <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="37">
         <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58" s="53">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F58" s="53">
         <f>IFERROR((E58 + Params!$B$3^2/(2 * C58))/(1 + Params!$B$3^2/C58), NA())</f>
-        <v>0.33110390487771924</v>
+        <v>0.38319212559182658</v>
       </c>
       <c r="G58" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C58))*SQRT(E58*(1-E58)/C58 + (Params!$B$3/(2*C58))^2), NA())</f>
-        <v>0.2596262160196916</v>
+        <v>0.26261052690908371</v>
       </c>
       <c r="H58" s="39">
         <f t="shared" si="1"/>
-        <v>7.1477688858027633E-2</v>
+        <v>0.12058159868274287</v>
       </c>
       <c r="I58" s="39">
         <f t="shared" si="2"/>
-        <v>0.59073012089741084</v>
+        <v>0.64580265250091029</v>
       </c>
       <c r="AA58" s="37"/>
       <c r="AB58" s="44"/>
@@ -25858,7 +25858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -26997,7 +26999,7 @@
         <v>0.72729999999999995</v>
       </c>
       <c r="F31" s="2">
-        <v>6.89</v>
+        <v>7.58</v>
       </c>
       <c r="G31">
         <v>0.1</v>
@@ -27216,16 +27218,16 @@
         <v>9042</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>7.1400000000000005E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="F37" s="2">
-        <v>3.59</v>
+        <v>3.5</v>
       </c>
       <c r="G37">
         <v>0.1</v>
@@ -27406,16 +27408,16 @@
         <v>9048</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1">
-        <v>0.25</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F42" s="2">
-        <v>8.08</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="G42">
         <v>0.1</v>
@@ -27696,7 +27698,7 @@
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43732.784628935187</v>
+        <v>43733.273970023147</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8EA87D-2147-4053-8C0D-8E677E1B2EB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E67A158-FAA7-4E44-824C-A6E8B6F5C87C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="9" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -1716,7 +1716,7 @@
                     <c:v>0.11859277894870295</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.19517151682653225</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1746,7 +1746,7 @@
                     <c:v>0.11859277894870295</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.19517151682653225</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1817,7 +1817,7 @@
                   <c:v>0.1699347905951506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21724574737604052</c:v>
+                  <c:v>0.19517151682653225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1881,7 +1881,7 @@
                     <c:v>7.8113748837375874E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.19517151682653225</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1911,7 +1911,7 @@
                     <c:v>7.8113748837375874E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.19517151682653225</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1982,7 +1982,7 @@
                   <c:v>8.3830822924320328E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21724574737604052</c:v>
+                  <c:v>0.19517151682653225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2270,7 +2270,7 @@
                         <c:v>0.25376561351947091</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.43449149475208104</c:v>
+                        <c:v>0.3903430336530645</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2556,10 +2556,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.19517151682653225</c:v>
+                    <c:v>0.16220780975543847</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.24495001020199958</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -2574,19 +2574,19 @@
                     <c:v>0.11372259376924314</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.29412428745583691</c:v>
+                    <c:v>0.26672842534595786</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.26672842534595786</c:v>
+                    <c:v>0.2596262160196916</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.17716942148760328</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.17716942148760328</c:v>
+                    <c:v>0.16220780975543847</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.27942687207138589</c:v>
+                    <c:v>0.2596262160196916</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2598,10 +2598,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.19517151682653225</c:v>
+                    <c:v>0.16220780975543847</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.24495001020199958</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -2616,19 +2616,19 @@
                     <c:v>0.11372259376924314</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.29412428745583691</c:v>
+                    <c:v>0.26672842534595786</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.26672842534595786</c:v>
+                    <c:v>0.2596262160196916</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.17716942148760328</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.17716942148760328</c:v>
+                    <c:v>0.16220780975543847</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.27942687207138589</c:v>
+                    <c:v>0.2596262160196916</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2696,10 +2696,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.19517151682653225</c:v>
+                  <c:v>0.16220780975543844</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24495001020199958</c:v>
+                  <c:v>0.21724574737604052</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.16338328226733051</c:v>
@@ -2714,19 +2714,19 @@
                   <c:v>0.13594252746033506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33034744842562436</c:v>
+                  <c:v>0.29678101121768818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29678101121768818</c:v>
+                  <c:v>0.33110390487771924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21724574737604052</c:v>
+                  <c:v>0.17716942148760328</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17716942148760328</c:v>
+                  <c:v>0.16220780975543844</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.36164403778040138</c:v>
+                  <c:v>0.33110390487771924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2989,7 +2989,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.24372777368502754</c:v>
+                    <c:v>0.2596262160196916</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.14125333185830088</c:v>
@@ -3007,16 +3007,16 @@
                     <c:v>0.12894725413152699</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.19517151682653225</c:v>
+                    <c:v>0.17716942148760328</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.24372777368502754</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.19517151682653225</c:v>
+                    <c:v>0.17716942148760328</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.26672842534595786</c:v>
+                    <c:v>0.24372777368502754</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>0.19517151682653225</c:v>
@@ -3031,7 +3031,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.24372777368502754</c:v>
+                    <c:v>0.2596262160196916</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.14125333185830088</c:v>
@@ -3049,16 +3049,16 @@
                     <c:v>0.12894725413152699</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.19517151682653225</c:v>
+                    <c:v>0.17716942148760328</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.24372777368502754</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.19517151682653225</c:v>
+                    <c:v>0.17716942148760328</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.26672842534595786</c:v>
+                    <c:v>0.24372777368502754</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>0.19517151682653225</c:v>
@@ -3129,7 +3129,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.26940672963400236</c:v>
+                  <c:v>0.33110390487771924</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.20528680794408075</c:v>
@@ -3147,16 +3147,16 @@
                   <c:v>0.17061466770220793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19517151682653225</c:v>
+                  <c:v>0.17716942148760328</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.26940672963400236</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19517151682653225</c:v>
+                  <c:v>0.17716942148760328</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29678101121768818</c:v>
+                  <c:v>0.26940672963400236</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.19517151682653225</c:v>
@@ -3427,7 +3427,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.32688894245636357</c:v>
+                    <c:v>0.31238719310059126</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -3451,7 +3451,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.32688894245636357</c:v>
+                    <c:v>0.31238719310059126</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -3513,7 +3513,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.37247500510099979</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.16338328226733051</c:v>
@@ -3788,7 +3788,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.12771091409769464</c:v>
@@ -3812,7 +3812,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.28075304022450887</c:v>
+                    <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.12771091409769464</c:v>
@@ -3874,7 +3874,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.28075304022450887</c:v>
+                  <c:v>0.21724574737604052</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.19863611315209401</c:v>
@@ -7909,7 +7909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4000'!N1</f>
-        <v>8.5741666666666667</v>
+        <v>10.036041666666669</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="AK3" s="94">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$F1000, 5), "")</f>
-        <v>0.21724574737604052</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="AL3" s="100" t="str">
         <f ca="1">OFFSET(AD3, 0, ROW(AD3)-ROW($AD$3))</f>
@@ -9195,7 +9195,7 @@
       </c>
       <c r="C9" s="37">
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="37">
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -9207,11 +9207,11 @@
       </c>
       <c r="F9" s="53">
         <f>IFERROR((E9 + Params!$B$3^2/(2 * C9))/(1 + Params!$B$3^2/C9), NA())</f>
-        <v>0.21724574737604052</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="G9" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C9))*SQRT(E9*(1-E9)/C9 + (Params!$B$3/(2*C9))^2), NA())</f>
-        <v>0.21724574737604055</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="H9" s="39">
         <f t="shared" si="1"/>
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I9" s="39">
         <f t="shared" si="2"/>
-        <v>0.43449149475208104</v>
+        <v>0.3903430336530645</v>
       </c>
       <c r="AC9" s="70">
         <v>100</v>
@@ -9396,7 +9396,7 @@
       </c>
       <c r="AD10" s="76">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$F1007, 5), "")</f>
-        <v>0.21724574737604052</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="AE10" s="63">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$F1007, 5), "")</f>
@@ -9716,7 +9716,7 @@
       </c>
       <c r="AK13" s="68">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$G1000, 6), "")</f>
-        <v>0.21724574737604055</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="AL13" s="100" t="str">
         <f ca="1">OFFSET(AD13, 0, ROW(AD13)-ROW($AD$13))</f>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="AV13" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$G1000, 2), "")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:69" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -10442,7 +10442,7 @@
       </c>
       <c r="AD20" s="63">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$G1007, 6), "")</f>
-        <v>0.21724574737604055</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="AE20" s="63">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$G1007, 6), "")</f>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="AO20" s="88">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$G1007, 2), "")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$G1007, 2), "")</f>
@@ -11480,11 +11480,11 @@
       </c>
       <c r="AH30" s="40">
         <f ca="1">IFERROR(VLOOKUP(BD30, $B$1:$F1027, 5), "")</f>
-        <v>0.24665585731657882</v>
+        <v>0.30532020931971093</v>
       </c>
       <c r="AI30" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE30, $B$1:$F1027, 5), "")</f>
-        <v>0.5</v>
+        <v>0.46631090987494611</v>
       </c>
       <c r="AJ30" s="39">
         <f ca="1">IFERROR(VLOOKUP(BF30, $B$1:$F1027, 5), "")</f>
@@ -11667,7 +11667,7 @@
       </c>
       <c r="AH31" s="50">
         <f ca="1">IFERROR(VLOOKUP(BD31, $B$1:$F1028, 5), "")</f>
-        <v>0.5722459831233383</v>
+        <v>0.53368909012505383</v>
       </c>
       <c r="AI31" s="40">
         <f ca="1">IFERROR(VLOOKUP(BE31, $B$1:$F1028, 5), "")</f>
@@ -11838,11 +11838,11 @@
       </c>
       <c r="AH32" s="39">
         <f ca="1">IFERROR(VLOOKUP(BD32, $B$1:$F1029, 5), "")</f>
-        <v>0.53893595813605788</v>
+        <v>0.5722459831233383</v>
       </c>
       <c r="AI32" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE32, $B$1:$F1029, 5), "")</f>
-        <v>0.5722459831233383</v>
+        <v>0.53368909012505383</v>
       </c>
       <c r="AJ32" s="40">
         <f ca="1">IFERROR(VLOOKUP(BF32, $B$1:$F1029, 5), "")</f>
@@ -12264,15 +12264,15 @@
       </c>
       <c r="R36" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.21724574737604052</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="S36" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.21724574737604052</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="T36" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43449149475208104</v>
+        <v>0.3903430336530645</v>
       </c>
       <c r="U36" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -12280,11 +12280,11 @@
       </c>
       <c r="V36" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0.21724574737604055</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="W36" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>0.21724574737604055</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="X36"/>
       <c r="Y36" s="1">
@@ -12451,15 +12451,15 @@
       </c>
       <c r="AI39" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$F1000, 5), "")</f>
-        <v>0.19517151682653225</v>
+        <v>0.16220780975543844</v>
       </c>
       <c r="AJ39" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 6), "")</f>
-        <v>0.19517151682653225</v>
+        <v>0.16220780975543847</v>
       </c>
       <c r="AK39" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 2), "")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12520,15 +12520,15 @@
       </c>
       <c r="AI40" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$F1001, 5), "")</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="AJ40" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 6), "")</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="AK40" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 2), "")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -12880,15 +12880,15 @@
       </c>
       <c r="AI45" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$F1006, 5), "")</f>
-        <v>0.33034744842562436</v>
+        <v>0.29678101121768818</v>
       </c>
       <c r="AJ45" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 6), "")</f>
-        <v>0.29412428745583691</v>
+        <v>0.26672842534595786</v>
       </c>
       <c r="AK45" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 2), "")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12949,15 +12949,15 @@
       </c>
       <c r="AI46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$F1007, 5), "")</f>
-        <v>0.29678101121768818</v>
+        <v>0.33110390487771924</v>
       </c>
       <c r="AJ46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 6), "")</f>
-        <v>0.26672842534595786</v>
+        <v>0.2596262160196916</v>
       </c>
       <c r="AK46" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 2), "")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13018,15 +13018,15 @@
       </c>
       <c r="AI47" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$F1008, 5), "")</f>
-        <v>0.21724574737604052</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="AJ47" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$G1008, 6), "")</f>
-        <v>0.21724574737604055</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="AK47" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$G1008, 2), "")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13087,15 +13087,15 @@
       </c>
       <c r="AI48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$F1009, 5), "")</f>
-        <v>0.17716942148760328</v>
+        <v>0.16220780975543844</v>
       </c>
       <c r="AJ48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 6), "")</f>
-        <v>0.17716942148760328</v>
+        <v>0.16220780975543847</v>
       </c>
       <c r="AK48" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 2), "")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13156,15 +13156,15 @@
       </c>
       <c r="AI49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$F1010, 5), "")</f>
-        <v>0.36164403778040138</v>
+        <v>0.33110390487771924</v>
       </c>
       <c r="AJ49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 6), "")</f>
-        <v>0.27942687207138589</v>
+        <v>0.2596262160196916</v>
       </c>
       <c r="AK49" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 2), "")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13394,15 +13394,15 @@
       </c>
       <c r="AI54" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$F1015, 5), "")</f>
-        <v>0.26940672963400236</v>
+        <v>0.33110390487771924</v>
       </c>
       <c r="AJ54" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 6), "")</f>
-        <v>0.24372777368502754</v>
+        <v>0.2596262160196916</v>
       </c>
       <c r="AK54" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 2), "")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13823,15 +13823,15 @@
       </c>
       <c r="AI60" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$F1021, 5), "")</f>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="AJ60" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$G1021, 6), "")</f>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="AK60" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$G1021, 2), "")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13961,15 +13961,15 @@
       </c>
       <c r="AI62" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$F1023, 5), "")</f>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="AJ62" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$G1023, 6), "")</f>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="AK62" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$G1023, 2), "")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -14030,15 +14030,15 @@
       </c>
       <c r="AI63" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$F1024, 5), "")</f>
-        <v>0.29678101121768818</v>
+        <v>0.26940672963400236</v>
       </c>
       <c r="AJ63" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$G1024, 6), "")</f>
-        <v>0.26672842534595786</v>
+        <v>0.24372777368502754</v>
       </c>
       <c r="AK63" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$G1024, 2), "")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -14117,7 +14117,7 @@
       </c>
       <c r="C65" s="37">
         <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D65" s="37">
         <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14129,11 +14129,11 @@
       </c>
       <c r="F65" s="53">
         <f>IFERROR((E65 + Params!$B$3^2/(2 * C65))/(1 + Params!$B$3^2/C65), NA())</f>
-        <v>0.21724574737604052</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="G65" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C65))*SQRT(E65*(1-E65)/C65 + (Params!$B$3/(2*C65))^2), NA())</f>
-        <v>0.21724574737604055</v>
+        <v>0.19517151682653225</v>
       </c>
       <c r="H65" s="39">
         <f t="shared" si="1"/>
@@ -14141,7 +14141,7 @@
       </c>
       <c r="I65" s="39">
         <f t="shared" si="2"/>
-        <v>0.43449149475208104</v>
+        <v>0.3903430336530645</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -14185,7 +14185,7 @@
       </c>
       <c r="C67" s="37">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D67" s="37">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14197,11 +14197,11 @@
       </c>
       <c r="F67" s="53">
         <f>IFERROR((E67 + Params!$B$3^2/(2 * C67))/(1 + Params!$B$3^2/C67), NA())</f>
-        <v>0.19517151682653225</v>
+        <v>0.16220780975543844</v>
       </c>
       <c r="G67" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C67))*SQRT(E67*(1-E67)/C67 + (Params!$B$3/(2*C67))^2), NA())</f>
-        <v>0.19517151682653225</v>
+        <v>0.16220780975543847</v>
       </c>
       <c r="H67" s="39">
         <f t="shared" ref="H67:H130" si="22">F67-G67</f>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="I67" s="39">
         <f t="shared" ref="I67:I130" si="23">F67+G67</f>
-        <v>0.3903430336530645</v>
+        <v>0.32441561951087694</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="C68" s="37">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" s="37">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14231,11 +14231,11 @@
       </c>
       <c r="F68" s="53">
         <f>IFERROR((E68 + Params!$B$3^2/(2 * C68))/(1 + Params!$B$3^2/C68), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="G68" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C68))*SQRT(E68*(1-E68)/C68 + (Params!$B$3/(2*C68))^2), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="H68" s="39">
         <f t="shared" si="22"/>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="I68" s="39">
         <f t="shared" si="23"/>
-        <v>0.48990002040399916</v>
+        <v>0.43449149475208104</v>
       </c>
       <c r="AA68" s="37" t="s">
         <v>10</v>
@@ -14337,15 +14337,15 @@
       </c>
       <c r="AI69" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$F1030, 5), "")</f>
-        <v>0.37247500510099979</v>
+        <v>0.5</v>
       </c>
       <c r="AJ69" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$G1030, 6), "")</f>
-        <v>0.32688894245636357</v>
+        <v>0.31238719310059126</v>
       </c>
       <c r="AK69" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$G1030, 2), "")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -14562,7 +14562,7 @@
       </c>
       <c r="C73" s="37">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D73" s="37">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14570,23 +14570,23 @@
       </c>
       <c r="E73" s="53">
         <f t="shared" si="21"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F73" s="53">
         <f>IFERROR((E73 + Params!$B$3^2/(2 * C73))/(1 + Params!$B$3^2/C73), NA())</f>
-        <v>0.33034744842562436</v>
+        <v>0.29678101121768818</v>
       </c>
       <c r="G73" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C73))*SQRT(E73*(1-E73)/C73 + (Params!$B$3/(2*C73))^2), NA())</f>
-        <v>0.29412428745583691</v>
+        <v>0.26672842534595786</v>
       </c>
       <c r="H73" s="39">
         <f t="shared" si="22"/>
-        <v>3.6223160969787449E-2</v>
+        <v>3.005258587173032E-2</v>
       </c>
       <c r="I73" s="39">
         <f t="shared" si="23"/>
-        <v>0.62447173588146132</v>
+        <v>0.56350943656364605</v>
       </c>
       <c r="AA73" s="37">
         <v>20</v>
@@ -14631,31 +14631,31 @@
       </c>
       <c r="C74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" s="53">
         <f t="shared" si="21"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F74" s="53">
         <f>IFERROR((E74 + Params!$B$3^2/(2 * C74))/(1 + Params!$B$3^2/C74), NA())</f>
-        <v>0.29678101121768818</v>
+        <v>0.33110390487771924</v>
       </c>
       <c r="G74" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C74))*SQRT(E74*(1-E74)/C74 + (Params!$B$3/(2*C74))^2), NA())</f>
-        <v>0.26672842534595786</v>
+        <v>0.2596262160196916</v>
       </c>
       <c r="H74" s="39">
         <f t="shared" si="22"/>
-        <v>3.005258587173032E-2</v>
+        <v>7.1477688858027633E-2</v>
       </c>
       <c r="I74" s="39">
         <f t="shared" si="23"/>
-        <v>0.56350943656364605</v>
+        <v>0.59073012089741084</v>
       </c>
       <c r="AA74" s="37"/>
       <c r="AB74" s="44"/>
@@ -14682,7 +14682,7 @@
       </c>
       <c r="C75" s="37">
         <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D75" s="37">
         <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14694,11 +14694,11 @@
       </c>
       <c r="F75" s="53">
         <f>IFERROR((E75 + Params!$B$3^2/(2 * C75))/(1 + Params!$B$3^2/C75), NA())</f>
-        <v>0.21724574737604052</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="G75" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C75))*SQRT(E75*(1-E75)/C75 + (Params!$B$3/(2*C75))^2), NA())</f>
-        <v>0.21724574737604055</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="H75" s="39">
         <f t="shared" si="22"/>
@@ -14706,7 +14706,7 @@
       </c>
       <c r="I75" s="39">
         <f t="shared" si="23"/>
-        <v>0.43449149475208104</v>
+        <v>0.35433884297520657</v>
       </c>
       <c r="AA75" s="37"/>
       <c r="AB75" s="44"/>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="C76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14745,11 +14745,11 @@
       </c>
       <c r="F76" s="53">
         <f>IFERROR((E76 + Params!$B$3^2/(2 * C76))/(1 + Params!$B$3^2/C76), NA())</f>
-        <v>0.17716942148760328</v>
+        <v>0.16220780975543844</v>
       </c>
       <c r="G76" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C76))*SQRT(E76*(1-E76)/C76 + (Params!$B$3/(2*C76))^2), NA())</f>
-        <v>0.17716942148760328</v>
+        <v>0.16220780975543847</v>
       </c>
       <c r="H76" s="39">
         <f t="shared" si="22"/>
@@ -14757,7 +14757,7 @@
       </c>
       <c r="I76" s="39">
         <f t="shared" si="23"/>
-        <v>0.35433884297520657</v>
+        <v>0.32441561951087694</v>
       </c>
       <c r="AA76" s="37"/>
       <c r="AB76" s="44"/>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="C77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14792,23 +14792,23 @@
       </c>
       <c r="E77" s="53">
         <f t="shared" si="21"/>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="F77" s="53">
         <f>IFERROR((E77 + Params!$B$3^2/(2 * C77))/(1 + Params!$B$3^2/C77), NA())</f>
-        <v>0.36164403778040138</v>
+        <v>0.33110390487771924</v>
       </c>
       <c r="G77" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C77))*SQRT(E77*(1-E77)/C77 + (Params!$B$3/(2*C77))^2), NA())</f>
-        <v>0.27942687207138589</v>
+        <v>0.2596262160196916</v>
       </c>
       <c r="H77" s="39">
         <f t="shared" si="22"/>
-        <v>8.2217165709015494E-2</v>
+        <v>7.1477688858027633E-2</v>
       </c>
       <c r="I77" s="39">
         <f t="shared" si="23"/>
-        <v>0.64107090985178727</v>
+        <v>0.59073012089741084</v>
       </c>
       <c r="AA77" s="37"/>
       <c r="AB77" s="44"/>
@@ -14835,31 +14835,31 @@
       </c>
       <c r="C78" s="37">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" s="37">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" s="53">
         <f t="shared" si="21"/>
-        <v>0.14285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="F78" s="53">
         <f>IFERROR((E78 + Params!$B$3^2/(2 * C78))/(1 + Params!$B$3^2/C78), NA())</f>
-        <v>0.26940672963400236</v>
+        <v>0.33110390487771924</v>
       </c>
       <c r="G78" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C78))*SQRT(E78*(1-E78)/C78 + (Params!$B$3/(2*C78))^2), NA())</f>
-        <v>0.24372777368502754</v>
+        <v>0.2596262160196916</v>
       </c>
       <c r="H78" s="39">
         <f t="shared" si="22"/>
-        <v>2.5678955948974819E-2</v>
+        <v>7.1477688858027633E-2</v>
       </c>
       <c r="I78" s="39">
         <f t="shared" si="23"/>
-        <v>0.51313450331902988</v>
+        <v>0.59073012089741084</v>
       </c>
       <c r="AA78" s="37"/>
       <c r="AB78" s="44"/>
@@ -15106,7 +15106,7 @@
       </c>
       <c r="C84" s="37">
         <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D84" s="37">
         <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -15118,11 +15118,11 @@
       </c>
       <c r="F84" s="53">
         <f>IFERROR((E84 + Params!$B$3^2/(2 * C84))/(1 + Params!$B$3^2/C84), NA())</f>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="G84" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C84))*SQRT(E84*(1-E84)/C84 + (Params!$B$3/(2*C84))^2), NA())</f>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="H84" s="39">
         <f t="shared" si="22"/>
@@ -15130,7 +15130,7 @@
       </c>
       <c r="I84" s="39">
         <f t="shared" si="23"/>
-        <v>0.3903430336530645</v>
+        <v>0.35433884297520657</v>
       </c>
       <c r="AA84" s="37"/>
       <c r="AB84" s="44"/>
@@ -15157,15 +15157,15 @@
       </c>
       <c r="AI84" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$F1045, 5), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="AJ84" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$G1045, 6), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="AK84" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$G1045, 2), "")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -15244,7 +15244,7 @@
       </c>
       <c r="C86" s="37">
         <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D86" s="37">
         <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -15256,11 +15256,11 @@
       </c>
       <c r="F86" s="53">
         <f>IFERROR((E86 + Params!$B$3^2/(2 * C86))/(1 + Params!$B$3^2/C86), NA())</f>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="G86" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C86))*SQRT(E86*(1-E86)/C86 + (Params!$B$3/(2*C86))^2), NA())</f>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="H86" s="39">
         <f t="shared" si="22"/>
@@ -15268,7 +15268,7 @@
       </c>
       <c r="I86" s="39">
         <f t="shared" si="23"/>
-        <v>0.3903430336530645</v>
+        <v>0.35433884297520657</v>
       </c>
       <c r="AA86" s="37"/>
       <c r="AB86" s="44"/>
@@ -15313,7 +15313,7 @@
       </c>
       <c r="C87" s="37">
         <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D87" s="37">
         <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -15321,23 +15321,23 @@
       </c>
       <c r="E87" s="53">
         <f t="shared" si="21"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F87" s="53">
         <f>IFERROR((E87 + Params!$B$3^2/(2 * C87))/(1 + Params!$B$3^2/C87), NA())</f>
-        <v>0.29678101121768818</v>
+        <v>0.26940672963400236</v>
       </c>
       <c r="G87" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C87))*SQRT(E87*(1-E87)/C87 + (Params!$B$3/(2*C87))^2), NA())</f>
-        <v>0.26672842534595786</v>
+        <v>0.24372777368502754</v>
       </c>
       <c r="H87" s="39">
         <f t="shared" si="22"/>
-        <v>3.005258587173032E-2</v>
+        <v>2.5678955948974819E-2</v>
       </c>
       <c r="I87" s="39">
         <f t="shared" si="23"/>
-        <v>0.56350943656364605</v>
+        <v>0.51313450331902988</v>
       </c>
       <c r="AA87" s="37"/>
       <c r="AB87" s="44"/>
@@ -15893,31 +15893,31 @@
       </c>
       <c r="C99" s="37">
         <f>IFERROR(VLOOKUP($B99, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D99" s="37">
         <f>IFERROR(VLOOKUP($B99, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B99, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E99" s="53">
         <f t="shared" si="21"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F99" s="53">
         <f>IFERROR((E99 + Params!$B$3^2/(2 * C99))/(1 + Params!$B$3^2/C99), NA())</f>
-        <v>0.37247500510099979</v>
+        <v>0.5</v>
       </c>
       <c r="G99" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C99))*SQRT(E99*(1-E99)/C99 + (Params!$B$3/(2*C99))^2), NA())</f>
-        <v>0.32688894245636357</v>
+        <v>0.31238719310059126</v>
       </c>
       <c r="H99" s="39">
         <f t="shared" si="22"/>
-        <v>4.5586062644636216E-2</v>
+        <v>0.18761280689940874</v>
       </c>
       <c r="I99" s="39">
         <f t="shared" si="23"/>
-        <v>0.69936394755736342</v>
+        <v>0.81238719310059126</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -16335,7 +16335,7 @@
       </c>
       <c r="C112" s="37">
         <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D112" s="37">
         <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -16347,11 +16347,11 @@
       </c>
       <c r="F112" s="53">
         <f>IFERROR((E112 + Params!$B$3^2/(2 * C112))/(1 + Params!$B$3^2/C112), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="G112" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C112))*SQRT(E112*(1-E112)/C112 + (Params!$B$3/(2*C112))^2), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="H112" s="39">
         <f t="shared" si="22"/>
@@ -16359,7 +16359,7 @@
       </c>
       <c r="I112" s="39">
         <f t="shared" si="23"/>
-        <v>0.56150608044901773</v>
+        <v>0.43449149475208104</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -16709,31 +16709,31 @@
       </c>
       <c r="C123" s="37">
         <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="37">
         <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E123" s="53">
         <f t="shared" si="21"/>
-        <v>0.125</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="F123" s="53">
         <f>IFERROR((E123 + Params!$B$3^2/(2 * C123))/(1 + Params!$B$3^2/C123), NA())</f>
-        <v>0.24665585731657882</v>
+        <v>0.30532020931971093</v>
       </c>
       <c r="G123" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C123))*SQRT(E123*(1-E123)/C123 + (Params!$B$3/(2*C123))^2), NA())</f>
-        <v>0.22423894845328268</v>
+        <v>0.24209644700748373</v>
       </c>
       <c r="H123" s="39">
         <f t="shared" si="22"/>
-        <v>2.2416908863296142E-2</v>
+        <v>6.3223762312227205E-2</v>
       </c>
       <c r="I123" s="39">
         <f t="shared" si="23"/>
-        <v>0.47089480576986154</v>
+        <v>0.54741665632719472</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -16981,7 +16981,7 @@
       </c>
       <c r="C131" s="37">
         <f>IFERROR(VLOOKUP($B131, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D131" s="37">
         <f>IFERROR(VLOOKUP($B131, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B131, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -16989,23 +16989,23 @@
       </c>
       <c r="E131" s="53">
         <f t="shared" ref="E131:E140" si="27">IFERROR(D131/C131, NA())</f>
-        <v>0.6</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="F131" s="53">
         <f>IFERROR((E131 + Params!$B$3^2/(2 * C131))/(1 + Params!$B$3^2/C131), NA())</f>
-        <v>0.5722459831233383</v>
+        <v>0.53368909012505383</v>
       </c>
       <c r="G131" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C131))*SQRT(E131*(1-E131)/C131 + (Params!$B$3/(2*C131))^2), NA())</f>
-        <v>0.25957643567315197</v>
+        <v>0.25360133443506561</v>
       </c>
       <c r="H131" s="39">
         <f t="shared" ref="H131:H140" si="28">F131-G131</f>
-        <v>0.31266954745018632</v>
+        <v>0.28008775568998823</v>
       </c>
       <c r="I131" s="39">
         <f t="shared" ref="I131:I140" si="29">F131+G131</f>
-        <v>0.83182241879649021</v>
+        <v>0.78729042456011944</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -17015,31 +17015,31 @@
       </c>
       <c r="C132" s="37">
         <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" s="37">
         <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E132" s="53">
         <f t="shared" si="27"/>
-        <v>0.55555555555555558</v>
+        <v>0.6</v>
       </c>
       <c r="F132" s="53">
         <f>IFERROR((E132 + Params!$B$3^2/(2 * C132))/(1 + Params!$B$3^2/C132), NA())</f>
-        <v>0.53893595813605788</v>
+        <v>0.5722459831233383</v>
       </c>
       <c r="G132" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C132))*SQRT(E132*(1-E132)/C132 + (Params!$B$3/(2*C132))^2), NA())</f>
-        <v>0.27228861239202817</v>
+        <v>0.25957643567315197</v>
       </c>
       <c r="H132" s="39">
         <f t="shared" si="28"/>
-        <v>0.26664734574402971</v>
+        <v>0.31266954745018632</v>
       </c>
       <c r="I132" s="39">
         <f t="shared" si="29"/>
-        <v>0.81122457052808605</v>
+        <v>0.83182241879649021</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -17355,7 +17355,7 @@
       </c>
       <c r="C142" s="37">
         <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D142" s="37">
         <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -17363,23 +17363,23 @@
       </c>
       <c r="E142" s="53">
         <f t="shared" si="30"/>
-        <v>0.5</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="F142" s="53">
         <f>IFERROR((E142 + Params!$B$3^2/(2 * C142))/(1 + Params!$B$3^2/C142), NA())</f>
-        <v>0.5</v>
+        <v>0.46631090987494611</v>
       </c>
       <c r="G142" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C142))*SQRT(E142*(1-E142)/C142 + (Params!$B$3/(2*C142))^2), NA())</f>
-        <v>0.26341040638451269</v>
+        <v>0.25360133443506561</v>
       </c>
       <c r="H142" s="39">
         <f t="shared" si="31"/>
-        <v>0.23658959361548731</v>
+        <v>0.2127095754398805</v>
       </c>
       <c r="I142" s="39">
         <f t="shared" si="32"/>
-        <v>0.76341040638451263</v>
+        <v>0.71991224431001166</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="C144" s="37">
         <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D144" s="37">
         <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -17431,23 +17431,23 @@
       </c>
       <c r="E144" s="53">
         <f t="shared" si="30"/>
-        <v>0.6</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="F144" s="53">
         <f>IFERROR((E144 + Params!$B$3^2/(2 * C144))/(1 + Params!$B$3^2/C144), NA())</f>
-        <v>0.5722459831233383</v>
+        <v>0.53368909012505383</v>
       </c>
       <c r="G144" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C144))*SQRT(E144*(1-E144)/C144 + (Params!$B$3/(2*C144))^2), NA())</f>
-        <v>0.25957643567315197</v>
+        <v>0.25360133443506561</v>
       </c>
       <c r="H144" s="39">
         <f t="shared" si="31"/>
-        <v>0.31266954745018632</v>
+        <v>0.28008775568998823</v>
       </c>
       <c r="I144" s="39">
         <f t="shared" si="32"/>
-        <v>0.83182241879649021</v>
+        <v>0.78729042456011944</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27639,9 +27639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -27691,14 +27689,14 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/48</f>
-        <v>8.5741666666666667</v>
+        <v>10.036041666666669</v>
       </c>
       <c r="O1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43733.273970023147</v>
+        <v>43734.77981782407</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -27709,7 +27707,7 @@
         <v>7007</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -27718,7 +27716,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -27730,7 +27728,7 @@
         <v>200</v>
       </c>
       <c r="L2" s="2">
-        <v>31.95</v>
+        <v>34.65</v>
       </c>
       <c r="O2" s="92" t="s">
         <v>59</v>
@@ -28165,7 +28163,7 @@
         <v>10006</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -28174,7 +28172,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1.72</v>
+        <v>2.13</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -28186,7 +28184,7 @@
         <v>200</v>
       </c>
       <c r="L14" s="2">
-        <v>29.26</v>
+        <v>34.06</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -28229,7 +28227,7 @@
         <v>11000</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -28238,7 +28236,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -28250,7 +28248,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="2">
-        <v>21.17</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28261,7 +28259,7 @@
         <v>11001</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -28270,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>1.64</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -28282,7 +28280,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="2">
-        <v>29.58</v>
+        <v>34.58</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28293,16 +28291,16 @@
         <v>11006</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0.2</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F18" s="2">
-        <v>0.91</v>
+        <v>1.19</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -28314,7 +28312,7 @@
         <v>20</v>
       </c>
       <c r="L18" s="2">
-        <v>15.42</v>
+        <v>16.690000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28325,16 +28323,16 @@
         <v>11007</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="F19" s="2">
-        <v>0.99</v>
+        <v>1.59</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -28346,7 +28344,7 @@
         <v>20</v>
       </c>
       <c r="L19" s="2">
-        <v>16.79</v>
+        <v>23.84</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28357,7 +28355,7 @@
         <v>11008</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -28366,7 +28364,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>1.05</v>
+        <v>1.64</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -28378,7 +28376,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="2">
-        <v>17.91</v>
+        <v>24.61</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28389,7 +28387,7 @@
         <v>11009</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -28398,7 +28396,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -28410,7 +28408,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="2">
-        <v>20.32</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28421,16 +28419,16 @@
         <v>11010</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>0.28570000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F22" s="2">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -28442,7 +28440,7 @@
         <v>20</v>
       </c>
       <c r="L22" s="2">
-        <v>23.45</v>
+        <v>24.55</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28453,16 +28451,16 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1">
-        <v>0.1429</v>
+        <v>0.25</v>
       </c>
       <c r="F23" s="2">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -28474,7 +28472,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="2">
-        <v>28.21</v>
+        <v>28.47</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28485,7 +28483,7 @@
         <v>12006</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -28494,7 +28492,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -28506,7 +28504,7 @@
         <v>20</v>
       </c>
       <c r="L24" s="2">
-        <v>20.54</v>
+        <v>22.55</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28538,7 +28536,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="2">
-        <v>25.41</v>
+        <v>23.91</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28549,7 +28547,7 @@
         <v>12008</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -28558,7 +28556,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>1.41</v>
+        <v>1.73</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -28570,7 +28568,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="2">
-        <v>24.02</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28581,16 +28579,16 @@
         <v>12009</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F27" s="2">
-        <v>1.43</v>
+        <v>1.74</v>
       </c>
       <c r="G27">
         <v>0.1</v>
@@ -28602,7 +28600,7 @@
         <v>20</v>
       </c>
       <c r="L27" s="2">
-        <v>24.33</v>
+        <v>27.85</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28634,7 +28632,7 @@
         <v>20</v>
       </c>
       <c r="L28" s="2">
-        <v>21.44</v>
+        <v>20.18</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28645,16 +28643,16 @@
         <v>13010</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F29" s="2">
-        <v>1.59</v>
+        <v>2.36</v>
       </c>
       <c r="G29">
         <v>0.01</v>
@@ -28666,7 +28664,7 @@
         <v>20</v>
       </c>
       <c r="L29" s="2">
-        <v>28.66</v>
+        <v>40.04</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28677,7 +28675,7 @@
         <v>14010</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -28686,7 +28684,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>1.84</v>
+        <v>3.09</v>
       </c>
       <c r="G30">
         <v>0.01</v>
@@ -28698,7 +28696,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="2">
-        <v>33.1</v>
+        <v>52.59</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28709,16 +28707,16 @@
         <v>15008</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1">
-        <v>0.125</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="F31" s="2">
-        <v>2.4700000000000002</v>
+        <v>3.37</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -28747,16 +28745,16 @@
         <v>15016</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32">
         <v>6</v>
       </c>
       <c r="E32" s="1">
-        <v>0.6</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="F32" s="2">
-        <v>1.92</v>
+        <v>2.71</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -28785,16 +28783,16 @@
         <v>15017</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1">
-        <v>0.55559999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="F33" s="2">
-        <v>2.29</v>
+        <v>3.12</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -28823,16 +28821,16 @@
         <v>15027</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
       <c r="E34" s="1">
-        <v>0.5</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="F34" s="2">
-        <v>2.16</v>
+        <v>2.92</v>
       </c>
       <c r="G34">
         <v>10</v>
@@ -28899,16 +28897,16 @@
         <v>15029</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36">
         <v>6</v>
       </c>
       <c r="E36" s="1">
-        <v>0.6</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="F36" s="2">
-        <v>2.0099999999999998</v>
+        <v>2.79</v>
       </c>
       <c r="G36">
         <v>10</v>

--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E67A158-FAA7-4E44-824C-A6E8B6F5C87C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB10E9C-96DF-435F-B7A0-B7ABC0D19BA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="9" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="67">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -1352,7 +1352,7 @@
                   <c:v>0.38319212559182658</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13372646692549997</c:v>
+                  <c:v>0.10490776392161372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1872,7 +1872,7 @@
                     <c:v>0.12377341382608752</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.12771091409769464</c:v>
+                    <c:v>0.12445086723469655</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.11859277894870295</c:v>
@@ -1902,7 +1902,7 @@
                     <c:v>0.12377341382608752</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.12771091409769464</c:v>
+                    <c:v>0.12445086723469655</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.11859277894870295</c:v>
@@ -1973,7 +1973,7 @@
                   <c:v>0.23156931580519868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19863611315209401</c:v>
+                  <c:v>0.19309405830096871</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1699347905951506</c:v>
@@ -2046,7 +2046,7 @@
                     <c:v>0.13105310555497438</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.12385153109457545</c:v>
+                    <c:v>9.7514498566808591E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2076,7 +2076,7 @@
                     <c:v>0.13105310555497438</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.12385153109457545</c:v>
+                    <c:v>9.7514498566808591E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2147,7 +2147,7 @@
                   <c:v>0.40713500341743192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13372646692549997</c:v>
+                  <c:v>0.10490776392161372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,7 +2261,7 @@
                         <c:v>0.37161132502012323</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.36201939541942452</c:v>
+                        <c:v>0.35647734056829922</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>0.39727222630418801</c:v>
@@ -2556,37 +2556,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.16220780975543847</c:v>
+                    <c:v>0.13877008438330829</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.17716942148760328</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.6364668187580054E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.15966951112455921</c:v>
+                    <c:v>0.15075099986830925</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.1513544071794288</c:v>
+                    <c:v>0.1425923496545321</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.11372259376924314</c:v>
+                    <c:v>0.10657277560496134</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.26672842534595786</c:v>
+                    <c:v>0.22423894845328268</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.2596262160196916</c:v>
+                    <c:v>0.22658110264929165</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.17716942148760328</c:v>
+                    <c:v>0.16220780975543847</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.16220780975543847</c:v>
+                    <c:v>0.14957637677547969</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.2596262160196916</c:v>
+                    <c:v>0.24209644700748373</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2598,37 +2598,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.16220780975543847</c:v>
+                    <c:v>0.13877008438330829</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.17716942148760328</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.6364668187580054E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.15966951112455921</c:v>
+                    <c:v>0.15075099986830925</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.1513544071794288</c:v>
+                    <c:v>0.1425923496545321</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.11372259376924314</c:v>
+                    <c:v>0.10657277560496134</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.26672842534595786</c:v>
+                    <c:v>0.22423894845328268</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.2596262160196916</c:v>
+                    <c:v>0.22658110264929165</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.17716942148760328</c:v>
+                    <c:v>0.16220780975543847</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.16220780975543847</c:v>
+                    <c:v>0.14957637677547969</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.2596262160196916</c:v>
+                    <c:v>0.24209644700748373</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2696,37 +2696,37 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.16220780975543844</c:v>
+                  <c:v>0.13877008438330826</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21724574737604052</c:v>
+                  <c:v>0.17716942148760328</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.16338328226733051</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27463108842782646</c:v>
+                  <c:v>0.25682195476239883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23995894818595365</c:v>
+                  <c:v>0.22439821539738533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13594252746033506</c:v>
+                  <c:v>0.12712699730234486</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29678101121768818</c:v>
+                  <c:v>0.24665585731657882</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33110390487771924</c:v>
+                  <c:v>0.28326205062998494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17716942148760328</c:v>
+                  <c:v>0.16220780975543844</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16220780975543844</c:v>
+                  <c:v>0.14957637677547969</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33110390487771924</c:v>
+                  <c:v>0.30532020931971093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2989,13 +2989,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.2596262160196916</c:v>
+                    <c:v>0.24209644700748373</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.14125333185830088</c:v>
+                    <c:v>0.13690825209692045</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.12771091409769464</c:v>
+                    <c:v>0.12445086723469655</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.11372259376924314</c:v>
@@ -3031,13 +3031,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.2596262160196916</c:v>
+                    <c:v>0.24209644700748373</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.14125333185830088</c:v>
+                    <c:v>0.13690825209692045</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.12771091409769464</c:v>
+                    <c:v>0.12445086723469655</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.11372259376924314</c:v>
@@ -3129,13 +3129,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.33110390487771924</c:v>
+                  <c:v>0.30532020931971093</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20528680794408075</c:v>
+                  <c:v>0.19840759208621522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19863611315209401</c:v>
+                  <c:v>0.19309405830096871</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.13594252746033506</c:v>
@@ -3791,7 +3791,7 @@
                     <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.12771091409769464</c:v>
+                    <c:v>0.12445086723469655</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0.14125333185830088</c:v>
@@ -3815,7 +3815,7 @@
                     <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.12771091409769464</c:v>
+                    <c:v>0.12445086723469655</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0.14125333185830088</c:v>
@@ -3877,7 +3877,7 @@
                   <c:v>0.21724574737604052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19863611315209401</c:v>
+                  <c:v>0.19309405830096871</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.20528680794408075</c:v>
@@ -7909,8 +7909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="O7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8010,8 +8010,8 @@
         <v>55</v>
       </c>
       <c r="L2" s="47">
-        <f>+'V4000'!N1</f>
-        <v>10.036041666666669</v>
+        <f>+'V4001'!N1</f>
+        <v>10.034444444444444</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="AH3" s="80">
         <f ca="1">IFERROR(VLOOKUP(BD3, $B$1:$F1000, 5), "")</f>
-        <v>0.19863611315209401</v>
+        <v>0.19309405830096871</v>
       </c>
       <c r="AI3" s="81">
         <f ca="1">IFERROR(VLOOKUP(BE3, $B$1:$F1000, 5), "")</f>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="AJ4" s="58">
         <f ca="1">IFERROR(VLOOKUP(BF4, $B$1:$F1001, 5), "")</f>
-        <v>0.19679818887451489</v>
+        <v>0.18437531562468437</v>
       </c>
       <c r="AK4" s="96">
         <f ca="1">IFERROR(VLOOKUP(BG4, $B$1:$F1001, 5), "")</f>
@@ -9424,11 +9424,11 @@
       </c>
       <c r="AK10" s="99">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$F1007, 5), "")</f>
-        <v>0.13372646692549997</v>
+        <v>0.10490776392161372</v>
       </c>
       <c r="AL10" s="100">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13372646692549997</v>
+        <v>0.10490776392161372</v>
       </c>
       <c r="AN10" s="37">
         <v>200</v>
@@ -9704,7 +9704,7 @@
       </c>
       <c r="AH13" s="67">
         <f ca="1">IFERROR(VLOOKUP(BD3, $B$1:$G1000, 6), "")</f>
-        <v>0.12771091409769464</v>
+        <v>0.12445086723469655</v>
       </c>
       <c r="AI13" s="67">
         <f ca="1">IFERROR(VLOOKUP(BE3, $B$1:$G1000, 6), "")</f>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="AS13" s="88">
         <f ca="1">IFERROR(VLOOKUP(BD3, $B$1:$G1000, 2), "")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AT13" s="88">
         <f ca="1">IFERROR(VLOOKUP(BE3, $B$1:$G1000, 2), "")</f>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="AJ14" s="58">
         <f ca="1">IFERROR(VLOOKUP(BF4, $B$1:$G1001, 6), "")</f>
-        <v>0.18056643661168892</v>
+        <v>0.16951060617391089</v>
       </c>
       <c r="AK14" s="60">
         <f ca="1">IFERROR(VLOOKUP(BG4, $B$1:$G1001, 6), "")</f>
@@ -9857,7 +9857,7 @@
       </c>
       <c r="AU14" s="88">
         <f ca="1">IFERROR(VLOOKUP(BF4, $B$1:$G1001, 2), "")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV14" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG4, $B$1:$G1001, 2), "")</f>
@@ -10470,11 +10470,11 @@
       </c>
       <c r="AK20" s="87">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 6), "")</f>
-        <v>0.12385153109457545</v>
+        <v>9.7514498566808591E-2</v>
       </c>
       <c r="AL20" s="100">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12385153109457545</v>
+        <v>9.7514498566808591E-2</v>
       </c>
       <c r="AN20" s="72">
         <v>200</v>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="AV20" s="91">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 2), "")</f>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -11965,11 +11965,11 @@
       </c>
       <c r="S33" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.19863611315209401</v>
+        <v>0.19309405830096871</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0.36201939541942452</v>
+        <v>0.35647734056829922</v>
       </c>
       <c r="U33" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="W33" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>0.12771091409769464</v>
+        <v>0.12445086723469655</v>
       </c>
       <c r="X33" s="1"/>
       <c r="Y33" s="1">
@@ -12276,7 +12276,7 @@
       </c>
       <c r="U36" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>0.13372646692549997</v>
+        <v>0.10490776392161372</v>
       </c>
       <c r="V36" s="1">
         <f t="shared" ca="1" si="16"/>
@@ -12289,7 +12289,7 @@
       <c r="X36"/>
       <c r="Y36" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>0.12385153109457545</v>
+        <v>9.7514498566808591E-2</v>
       </c>
     </row>
     <row r="37" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12451,15 +12451,15 @@
       </c>
       <c r="AI39" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$F1000, 5), "")</f>
-        <v>0.16220780975543844</v>
+        <v>0.13877008438330826</v>
       </c>
       <c r="AJ39" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 6), "")</f>
-        <v>0.16220780975543847</v>
+        <v>0.13877008438330829</v>
       </c>
       <c r="AK39" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 2), "")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12469,7 +12469,7 @@
       </c>
       <c r="C40" s="37">
         <f>IFERROR(VLOOKUP($B40, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B40, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B40, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B40, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="37">
         <f>IFERROR(VLOOKUP($B40, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B40, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -12477,23 +12477,23 @@
       </c>
       <c r="E40" s="53">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F40" s="53">
         <f>IFERROR((E40 + Params!$B$3^2/(2 * C40))/(1 + Params!$B$3^2/C40), NA())</f>
-        <v>0.19679818887451489</v>
+        <v>0.18437531562468437</v>
       </c>
       <c r="G40" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C40))*SQRT(E40*(1-E40)/C40 + (Params!$B$3/(2*C40))^2), NA())</f>
-        <v>0.18056643661168892</v>
+        <v>0.16951060617391089</v>
       </c>
       <c r="H40" s="39">
         <f t="shared" si="1"/>
-        <v>1.6231752262825971E-2</v>
+        <v>1.4864709450773478E-2</v>
       </c>
       <c r="I40" s="39">
         <f t="shared" si="2"/>
-        <v>0.37736462548620381</v>
+        <v>0.35388592179859524</v>
       </c>
       <c r="AA40" s="37">
         <v>20</v>
@@ -12520,15 +12520,15 @@
       </c>
       <c r="AI40" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$F1001, 5), "")</f>
-        <v>0.21724574737604052</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="AJ40" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 6), "")</f>
-        <v>0.21724574737604055</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="AK40" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 2), "")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -12673,15 +12673,15 @@
       </c>
       <c r="AI42" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH42, $B$1:$F1003, 5), "")</f>
-        <v>0.27463108842782646</v>
+        <v>0.25682195476239883</v>
       </c>
       <c r="AJ42" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH42, $B$1:$G1003, 6), "")</f>
-        <v>0.15966951112455921</v>
+        <v>0.15075099986830925</v>
       </c>
       <c r="AK42" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH42, $B$1:$G1003, 2), "")</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12742,15 +12742,15 @@
       </c>
       <c r="AI43" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH43, $B$1:$F1004, 5), "")</f>
-        <v>0.23995894818595365</v>
+        <v>0.22439821539738533</v>
       </c>
       <c r="AJ43" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH43, $B$1:$G1004, 6), "")</f>
-        <v>0.1513544071794288</v>
+        <v>0.1425923496545321</v>
       </c>
       <c r="AK43" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH43, $B$1:$G1004, 2), "")</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12811,15 +12811,15 @@
       </c>
       <c r="AI44" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH44, $B$1:$F1005, 5), "")</f>
-        <v>0.13594252746033506</v>
+        <v>0.12712699730234486</v>
       </c>
       <c r="AJ44" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH44, $B$1:$G1005, 6), "")</f>
-        <v>0.11372259376924314</v>
+        <v>0.10657277560496134</v>
       </c>
       <c r="AK44" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH44, $B$1:$G1005, 2), "")</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12880,15 +12880,15 @@
       </c>
       <c r="AI45" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$F1006, 5), "")</f>
-        <v>0.29678101121768818</v>
+        <v>0.24665585731657882</v>
       </c>
       <c r="AJ45" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 6), "")</f>
-        <v>0.26672842534595786</v>
+        <v>0.22423894845328268</v>
       </c>
       <c r="AK45" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 2), "")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12949,15 +12949,15 @@
       </c>
       <c r="AI46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$F1007, 5), "")</f>
-        <v>0.33110390487771924</v>
+        <v>0.28326205062998494</v>
       </c>
       <c r="AJ46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 6), "")</f>
-        <v>0.2596262160196916</v>
+        <v>0.22658110264929165</v>
       </c>
       <c r="AK46" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 2), "")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13018,15 +13018,15 @@
       </c>
       <c r="AI47" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$F1008, 5), "")</f>
-        <v>0.17716942148760328</v>
+        <v>0.16220780975543844</v>
       </c>
       <c r="AJ47" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$G1008, 6), "")</f>
-        <v>0.17716942148760328</v>
+        <v>0.16220780975543847</v>
       </c>
       <c r="AK47" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$G1008, 2), "")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13087,15 +13087,15 @@
       </c>
       <c r="AI48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$F1009, 5), "")</f>
-        <v>0.16220780975543844</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="AJ48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 6), "")</f>
-        <v>0.16220780975543847</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="AK48" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 2), "")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13156,15 +13156,15 @@
       </c>
       <c r="AI49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$F1010, 5), "")</f>
-        <v>0.33110390487771924</v>
+        <v>0.30532020931971093</v>
       </c>
       <c r="AJ49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 6), "")</f>
-        <v>0.2596262160196916</v>
+        <v>0.24209644700748373</v>
       </c>
       <c r="AK49" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 2), "")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13242,7 +13242,7 @@
       </c>
       <c r="C52" s="37">
         <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D52" s="37">
         <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -13250,23 +13250,23 @@
       </c>
       <c r="E52" s="53">
         <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F52" s="53">
         <f>IFERROR((E52 + Params!$B$3^2/(2 * C52))/(1 + Params!$B$3^2/C52), NA())</f>
-        <v>0.13372646692549997</v>
+        <v>0.10490776392161372</v>
       </c>
       <c r="G52" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C52))*SQRT(E52*(1-E52)/C52 + (Params!$B$3/(2*C52))^2), NA())</f>
-        <v>0.12385153109457545</v>
+        <v>9.7514498566808591E-2</v>
       </c>
       <c r="H52" s="39">
         <f t="shared" si="1"/>
-        <v>9.874935830924525E-3</v>
+        <v>7.3932653548051258E-3</v>
       </c>
       <c r="I52" s="39">
         <f t="shared" si="2"/>
-        <v>0.25757799802007542</v>
+        <v>0.20242226248842232</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13394,15 +13394,15 @@
       </c>
       <c r="AI54" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$F1015, 5), "")</f>
-        <v>0.33110390487771924</v>
+        <v>0.30532020931971093</v>
       </c>
       <c r="AJ54" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 6), "")</f>
-        <v>0.2596262160196916</v>
+        <v>0.24209644700748373</v>
       </c>
       <c r="AK54" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 2), "")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13463,15 +13463,15 @@
       </c>
       <c r="AI55" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH55, $B$1:$F1016, 5), "")</f>
-        <v>0.20528680794408075</v>
+        <v>0.19840759208621522</v>
       </c>
       <c r="AJ55" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH55, $B$1:$G1016, 6), "")</f>
-        <v>0.14125333185830088</v>
+        <v>0.13690825209692045</v>
       </c>
       <c r="AK55" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH55, $B$1:$G1016, 2), "")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13532,15 +13532,15 @@
       </c>
       <c r="AI56" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH56, $B$1:$F1017, 5), "")</f>
-        <v>0.19863611315209401</v>
+        <v>0.19309405830096871</v>
       </c>
       <c r="AJ56" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH56, $B$1:$G1017, 6), "")</f>
-        <v>0.12771091409769464</v>
+        <v>0.12445086723469655</v>
       </c>
       <c r="AK56" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH56, $B$1:$G1017, 2), "")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AL56">
         <v>12002</v>
@@ -13841,7 +13841,7 @@
       </c>
       <c r="C61" s="37">
         <f>IFERROR(VLOOKUP($B61, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B61, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B61, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B61, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" s="37">
         <f>IFERROR(VLOOKUP($B61, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B61, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -13849,23 +13849,23 @@
       </c>
       <c r="E61" s="53">
         <f t="shared" si="0"/>
-        <v>0.16129032258064516</v>
+        <v>0.15625</v>
       </c>
       <c r="F61" s="53">
         <f>IFERROR((E61 + Params!$B$3^2/(2 * C61))/(1 + Params!$B$3^2/C61), NA())</f>
-        <v>0.19863611315209401</v>
+        <v>0.19309405830096871</v>
       </c>
       <c r="G61" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C61))*SQRT(E61*(1-E61)/C61 + (Params!$B$3/(2*C61))^2), NA())</f>
-        <v>0.12771091409769464</v>
+        <v>0.12445086723469655</v>
       </c>
       <c r="H61" s="39">
         <f t="shared" si="1"/>
-        <v>7.0925199054399368E-2</v>
+        <v>6.8643191066272161E-2</v>
       </c>
       <c r="I61" s="39">
         <f t="shared" si="2"/>
-        <v>0.32634702724978865</v>
+        <v>0.31754492553566527</v>
       </c>
       <c r="AA61" s="37"/>
       <c r="AB61" s="44"/>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="C67" s="37">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D67" s="37">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14197,11 +14197,11 @@
       </c>
       <c r="F67" s="53">
         <f>IFERROR((E67 + Params!$B$3^2/(2 * C67))/(1 + Params!$B$3^2/C67), NA())</f>
-        <v>0.16220780975543844</v>
+        <v>0.13877008438330826</v>
       </c>
       <c r="G67" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C67))*SQRT(E67*(1-E67)/C67 + (Params!$B$3/(2*C67))^2), NA())</f>
-        <v>0.16220780975543847</v>
+        <v>0.13877008438330829</v>
       </c>
       <c r="H67" s="39">
         <f t="shared" ref="H67:H130" si="22">F67-G67</f>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="I67" s="39">
         <f t="shared" ref="I67:I130" si="23">F67+G67</f>
-        <v>0.32441561951087694</v>
+        <v>0.27754016876661658</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="C68" s="37">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D68" s="37">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14231,11 +14231,11 @@
       </c>
       <c r="F68" s="53">
         <f>IFERROR((E68 + Params!$B$3^2/(2 * C68))/(1 + Params!$B$3^2/C68), NA())</f>
-        <v>0.21724574737604052</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="G68" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C68))*SQRT(E68*(1-E68)/C68 + (Params!$B$3/(2*C68))^2), NA())</f>
-        <v>0.21724574737604055</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="H68" s="39">
         <f t="shared" si="22"/>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="I68" s="39">
         <f t="shared" si="23"/>
-        <v>0.43449149475208104</v>
+        <v>0.35433884297520657</v>
       </c>
       <c r="AA68" s="37" t="s">
         <v>10</v>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="C70" s="37">
         <f>IFERROR(VLOOKUP($B70, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B70, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B70, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B70, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D70" s="37">
         <f>IFERROR(VLOOKUP($B70, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B70, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14363,23 +14363,23 @@
       </c>
       <c r="E70" s="53">
         <f t="shared" si="21"/>
-        <v>0.24</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="F70" s="53">
         <f>IFERROR((E70 + Params!$B$3^2/(2 * C70))/(1 + Params!$B$3^2/C70), NA())</f>
-        <v>0.27463108842782646</v>
+        <v>0.25682195476239883</v>
       </c>
       <c r="G70" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C70))*SQRT(E70*(1-E70)/C70 + (Params!$B$3/(2*C70))^2), NA())</f>
-        <v>0.15966951112455921</v>
+        <v>0.15075099986830925</v>
       </c>
       <c r="H70" s="39">
         <f t="shared" si="22"/>
-        <v>0.11496157730326725</v>
+        <v>0.10607095489408958</v>
       </c>
       <c r="I70" s="39">
         <f t="shared" si="23"/>
-        <v>0.43430059955238565</v>
+        <v>0.40757295463070808</v>
       </c>
       <c r="AA70" s="37">
         <v>20</v>
@@ -14424,7 +14424,7 @@
       </c>
       <c r="C71" s="37">
         <f>IFERROR(VLOOKUP($B71, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D71" s="37">
         <f>IFERROR(VLOOKUP($B71, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B71, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14432,23 +14432,23 @@
       </c>
       <c r="E71" s="53">
         <f t="shared" si="21"/>
-        <v>0.2</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="F71" s="53">
         <f>IFERROR((E71 + Params!$B$3^2/(2 * C71))/(1 + Params!$B$3^2/C71), NA())</f>
-        <v>0.23995894818595365</v>
+        <v>0.22439821539738533</v>
       </c>
       <c r="G71" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C71))*SQRT(E71*(1-E71)/C71 + (Params!$B$3/(2*C71))^2), NA())</f>
-        <v>0.1513544071794288</v>
+        <v>0.1425923496545321</v>
       </c>
       <c r="H71" s="39">
         <f t="shared" si="22"/>
-        <v>8.8604541006524845E-2</v>
+        <v>8.1805865742853229E-2</v>
       </c>
       <c r="I71" s="39">
         <f t="shared" si="23"/>
-        <v>0.39131335536538248</v>
+        <v>0.36699056505191741</v>
       </c>
       <c r="AA71" s="37">
         <v>20</v>
@@ -14493,7 +14493,7 @@
       </c>
       <c r="C72" s="37">
         <f>IFERROR(VLOOKUP($B72, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B72, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B72, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B72, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D72" s="37">
         <f>IFERROR(VLOOKUP($B72, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B72, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14501,23 +14501,23 @@
       </c>
       <c r="E72" s="53">
         <f t="shared" si="21"/>
-        <v>0.08</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="F72" s="53">
         <f>IFERROR((E72 + Params!$B$3^2/(2 * C72))/(1 + Params!$B$3^2/C72), NA())</f>
-        <v>0.13594252746033506</v>
+        <v>0.12712699730234486</v>
       </c>
       <c r="G72" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C72))*SQRT(E72*(1-E72)/C72 + (Params!$B$3/(2*C72))^2), NA())</f>
-        <v>0.11372259376924314</v>
+        <v>0.10657277560496134</v>
       </c>
       <c r="H72" s="39">
         <f t="shared" si="22"/>
-        <v>2.2219933691091917E-2</v>
+        <v>2.0554221697383523E-2</v>
       </c>
       <c r="I72" s="39">
         <f t="shared" si="23"/>
-        <v>0.24966512122957818</v>
+        <v>0.2336997729073062</v>
       </c>
       <c r="AA72" s="37">
         <v>20</v>
@@ -14562,7 +14562,7 @@
       </c>
       <c r="C73" s="37">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D73" s="37">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14570,23 +14570,23 @@
       </c>
       <c r="E73" s="53">
         <f t="shared" si="21"/>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="F73" s="53">
         <f>IFERROR((E73 + Params!$B$3^2/(2 * C73))/(1 + Params!$B$3^2/C73), NA())</f>
-        <v>0.29678101121768818</v>
+        <v>0.24665585731657882</v>
       </c>
       <c r="G73" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C73))*SQRT(E73*(1-E73)/C73 + (Params!$B$3/(2*C73))^2), NA())</f>
-        <v>0.26672842534595786</v>
+        <v>0.22423894845328268</v>
       </c>
       <c r="H73" s="39">
         <f t="shared" si="22"/>
-        <v>3.005258587173032E-2</v>
+        <v>2.2416908863296142E-2</v>
       </c>
       <c r="I73" s="39">
         <f t="shared" si="23"/>
-        <v>0.56350943656364605</v>
+        <v>0.47089480576986154</v>
       </c>
       <c r="AA73" s="37">
         <v>20</v>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="C74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14639,23 +14639,23 @@
       </c>
       <c r="E74" s="53">
         <f t="shared" si="21"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F74" s="53">
         <f>IFERROR((E74 + Params!$B$3^2/(2 * C74))/(1 + Params!$B$3^2/C74), NA())</f>
-        <v>0.33110390487771924</v>
+        <v>0.28326205062998494</v>
       </c>
       <c r="G74" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C74))*SQRT(E74*(1-E74)/C74 + (Params!$B$3/(2*C74))^2), NA())</f>
-        <v>0.2596262160196916</v>
+        <v>0.22658110264929165</v>
       </c>
       <c r="H74" s="39">
         <f t="shared" si="22"/>
-        <v>7.1477688858027633E-2</v>
+        <v>5.6680947980693286E-2</v>
       </c>
       <c r="I74" s="39">
         <f t="shared" si="23"/>
-        <v>0.59073012089741084</v>
+        <v>0.50984315327927665</v>
       </c>
       <c r="AA74" s="37"/>
       <c r="AB74" s="44"/>
@@ -14682,7 +14682,7 @@
       </c>
       <c r="C75" s="37">
         <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D75" s="37">
         <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14694,11 +14694,11 @@
       </c>
       <c r="F75" s="53">
         <f>IFERROR((E75 + Params!$B$3^2/(2 * C75))/(1 + Params!$B$3^2/C75), NA())</f>
-        <v>0.17716942148760328</v>
+        <v>0.16220780975543844</v>
       </c>
       <c r="G75" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C75))*SQRT(E75*(1-E75)/C75 + (Params!$B$3/(2*C75))^2), NA())</f>
-        <v>0.17716942148760328</v>
+        <v>0.16220780975543847</v>
       </c>
       <c r="H75" s="39">
         <f t="shared" si="22"/>
@@ -14706,7 +14706,7 @@
       </c>
       <c r="I75" s="39">
         <f t="shared" si="23"/>
-        <v>0.35433884297520657</v>
+        <v>0.32441561951087694</v>
       </c>
       <c r="AA75" s="37"/>
       <c r="AB75" s="44"/>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="C76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14745,11 +14745,11 @@
       </c>
       <c r="F76" s="53">
         <f>IFERROR((E76 + Params!$B$3^2/(2 * C76))/(1 + Params!$B$3^2/C76), NA())</f>
-        <v>0.16220780975543844</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="G76" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C76))*SQRT(E76*(1-E76)/C76 + (Params!$B$3/(2*C76))^2), NA())</f>
-        <v>0.16220780975543847</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="H76" s="39">
         <f t="shared" si="22"/>
@@ -14757,7 +14757,7 @@
       </c>
       <c r="I76" s="39">
         <f t="shared" si="23"/>
-        <v>0.32441561951087694</v>
+        <v>0.29915275355095938</v>
       </c>
       <c r="AA76" s="37"/>
       <c r="AB76" s="44"/>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="C77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14792,23 +14792,23 @@
       </c>
       <c r="E77" s="53">
         <f t="shared" si="21"/>
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="F77" s="53">
         <f>IFERROR((E77 + Params!$B$3^2/(2 * C77))/(1 + Params!$B$3^2/C77), NA())</f>
-        <v>0.33110390487771924</v>
+        <v>0.30532020931971093</v>
       </c>
       <c r="G77" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C77))*SQRT(E77*(1-E77)/C77 + (Params!$B$3/(2*C77))^2), NA())</f>
-        <v>0.2596262160196916</v>
+        <v>0.24209644700748373</v>
       </c>
       <c r="H77" s="39">
         <f t="shared" si="22"/>
-        <v>7.1477688858027633E-2</v>
+        <v>6.3223762312227205E-2</v>
       </c>
       <c r="I77" s="39">
         <f t="shared" si="23"/>
-        <v>0.59073012089741084</v>
+        <v>0.54741665632719472</v>
       </c>
       <c r="AA77" s="37"/>
       <c r="AB77" s="44"/>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="C78" s="37">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="37">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14843,23 +14843,23 @@
       </c>
       <c r="E78" s="53">
         <f t="shared" si="21"/>
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="F78" s="53">
         <f>IFERROR((E78 + Params!$B$3^2/(2 * C78))/(1 + Params!$B$3^2/C78), NA())</f>
-        <v>0.33110390487771924</v>
+        <v>0.30532020931971093</v>
       </c>
       <c r="G78" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C78))*SQRT(E78*(1-E78)/C78 + (Params!$B$3/(2*C78))^2), NA())</f>
-        <v>0.2596262160196916</v>
+        <v>0.24209644700748373</v>
       </c>
       <c r="H78" s="39">
         <f t="shared" si="22"/>
-        <v>7.1477688858027633E-2</v>
+        <v>6.3223762312227205E-2</v>
       </c>
       <c r="I78" s="39">
         <f t="shared" si="23"/>
-        <v>0.59073012089741084</v>
+        <v>0.54741665632719472</v>
       </c>
       <c r="AA78" s="37"/>
       <c r="AB78" s="44"/>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="C79" s="37">
         <f>IFERROR(VLOOKUP($B79, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B79, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B79, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B79, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D79" s="37">
         <f>IFERROR(VLOOKUP($B79, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B79, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14894,23 +14894,23 @@
       </c>
       <c r="E79" s="53">
         <f t="shared" si="21"/>
-        <v>0.16</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="F79" s="53">
         <f>IFERROR((E79 + Params!$B$3^2/(2 * C79))/(1 + Params!$B$3^2/C79), NA())</f>
-        <v>0.20528680794408075</v>
+        <v>0.19840759208621522</v>
       </c>
       <c r="G79" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C79))*SQRT(E79*(1-E79)/C79 + (Params!$B$3/(2*C79))^2), NA())</f>
-        <v>0.14125333185830088</v>
+        <v>0.13690825209692045</v>
       </c>
       <c r="H79" s="39">
         <f t="shared" si="22"/>
-        <v>6.4033476085779861E-2</v>
+        <v>6.1499339989294771E-2</v>
       </c>
       <c r="I79" s="39">
         <f t="shared" si="23"/>
-        <v>0.34654013980238163</v>
+        <v>0.33531584418313565</v>
       </c>
       <c r="AA79" s="37"/>
       <c r="AB79" s="44"/>
@@ -15226,15 +15226,15 @@
       </c>
       <c r="AI85" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH85, $B$1:$F1046, 5), "")</f>
-        <v>0.19863611315209401</v>
+        <v>0.19309405830096871</v>
       </c>
       <c r="AJ85" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH85, $B$1:$G1046, 6), "")</f>
-        <v>0.12771091409769464</v>
+        <v>0.12445086723469655</v>
       </c>
       <c r="AK85" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH85, $B$1:$G1046, 2), "")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -25858,9 +25858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
-    </sheetView>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -26838,16 +26836,16 @@
         <v>9030</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>9.0899999999999995E-2</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="F27" s="2">
-        <v>4.28</v>
+        <v>5.45</v>
       </c>
       <c r="G27">
         <v>0.1</v>
@@ -27218,16 +27216,16 @@
         <v>9042</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>5.5599999999999997E-2</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="F37" s="2">
-        <v>3.5</v>
+        <v>4.34</v>
       </c>
       <c r="G37">
         <v>0.1</v>
@@ -27639,7 +27637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -27696,7 +27696,7 @@
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43734.77981782407</v>
+        <v>43736.084692129632</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -29049,12 +29049,473 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1898E7C-F898-4084-B693-A01CFDCED357}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="45">
+        <f>SUM(L2:L1000)/18</f>
+        <v>10.034444444444444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>10002</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.63</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>11000</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.63</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>11001</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.59</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>13.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>11003</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.63</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="J5">
+        <v>0.3</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>11004</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.62</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="J6">
+        <v>0.4</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>13.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>11005</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.65</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>11006</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="J8">
+        <v>0.6</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>11007</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="J9">
+        <v>0.7</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>11008</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.61</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="J10">
+        <v>0.8</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>11009</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.64</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="J11">
+        <v>0.9</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>11010</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.59</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>12000</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.66</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>12001</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.63</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <v>0.1</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>14.45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB10E9C-96DF-435F-B7A0-B7ABC0D19BA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A069180-F043-4770-9311-79A9FC5EB57C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="9" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="11" r:id="rId1"/>
@@ -1117,7 +1117,7 @@
                   <c:v>0.19679818887451489</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13877008438330826</c:v>
+                  <c:v>0.12942000862440708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1349,10 +1349,10 @@
                   <c:v>0.46631090987494611</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38319212559182658</c:v>
+                  <c:v>0.46631090987494611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10490776392161372</c:v>
+                  <c:v>0.10127038721846221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1872,7 +1872,7 @@
                     <c:v>0.12377341382608752</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.12445086723469655</c:v>
+                    <c:v>0.12134926940249763</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.11859277894870295</c:v>
@@ -1902,7 +1902,7 @@
                     <c:v>0.12377341382608752</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.12445086723469655</c:v>
+                    <c:v>0.12134926940249763</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.11859277894870295</c:v>
@@ -1973,7 +1973,7 @@
                   <c:v>0.23156931580519868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19309405830096871</c:v>
+                  <c:v>0.18785286198210718</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1699347905951506</c:v>
@@ -2046,7 +2046,7 @@
                     <c:v>0.13105310555497438</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.7514498566808591E-2</c:v>
+                    <c:v>9.4174336831763045E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2076,7 +2076,7 @@
                     <c:v>0.13105310555497438</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.7514498566808591E-2</c:v>
+                    <c:v>9.4174336831763045E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2147,7 +2147,7 @@
                   <c:v>0.40713500341743192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10490776392161372</c:v>
+                  <c:v>0.10127038721846221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,7 +2261,7 @@
                         <c:v>0.37161132502012323</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.35647734056829922</c:v>
+                        <c:v>0.35123614424943772</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>0.39727222630418801</c:v>
@@ -2556,37 +2556,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.13877008438330829</c:v>
+                    <c:v>0.12125037874962125</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.17716942148760328</c:v>
+                    <c:v>0.14957637677547969</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.6364668187580054E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.15075099986830925</c:v>
+                    <c:v>0.14944842016633281</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.1425923496545321</c:v>
+                    <c:v>0.13856702859580494</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.10657277560496134</c:v>
+                    <c:v>0.1033228684057039</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.22423894845328268</c:v>
+                    <c:v>0.20755792172046483</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.22658110264929165</c:v>
+                    <c:v>0.21280976845362207</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.16220780975543847</c:v>
+                    <c:v>0.20755792172046483</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.14957637677547969</c:v>
+                    <c:v>0.19314031799092549</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.24209644700748373</c:v>
+                    <c:v>0.22658110264929165</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2598,37 +2598,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.13877008438330829</c:v>
+                    <c:v>0.12125037874962125</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.17716942148760328</c:v>
+                    <c:v>0.14957637677547969</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.6364668187580054E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.15075099986830925</c:v>
+                    <c:v>0.14944842016633281</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.1425923496545321</c:v>
+                    <c:v>0.13856702859580494</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.10657277560496134</c:v>
+                    <c:v>0.1033228684057039</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.22423894845328268</c:v>
+                    <c:v>0.20755792172046483</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.22658110264929165</c:v>
+                    <c:v>0.21280976845362207</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.16220780975543847</c:v>
+                    <c:v>0.20755792172046483</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.14957637677547969</c:v>
+                    <c:v>0.19314031799092549</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.24209644700748373</c:v>
+                    <c:v>0.22658110264929165</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2696,37 +2696,37 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.13877008438330826</c:v>
+                  <c:v>0.12125037874962125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17716942148760328</c:v>
+                  <c:v>0.14957637677547969</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.16338328226733051</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25682195476239883</c:v>
+                  <c:v>0.27163110201695412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22439821539738533</c:v>
+                  <c:v>0.21735088689010604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12712699730234486</c:v>
+                  <c:v>0.12313451585347469</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24665585731657882</c:v>
+                  <c:v>0.22744829304759534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28326205062998494</c:v>
+                  <c:v>0.26417636912462272</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16220780975543844</c:v>
+                  <c:v>0.22744829304759534</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14957637677547969</c:v>
+                  <c:v>0.21101606750664662</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.30532020931971093</c:v>
+                  <c:v>0.28326205062998494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2989,37 +2989,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.24209644700748373</c:v>
+                    <c:v>0.22658110264929165</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.13690825209692045</c:v>
+                    <c:v>0.13281615743592295</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.12445086723469655</c:v>
+                    <c:v>0.12134926940249763</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.11372259376924314</c:v>
+                    <c:v>0.10657277560496134</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.11372259376924314</c:v>
+                    <c:v>0.10657277560496134</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.12894725413152699</c:v>
+                    <c:v>0.12486560632874419</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.17716942148760328</c:v>
+                    <c:v>0.14957637677547969</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.24372777368502754</c:v>
+                    <c:v>0.20755792172046483</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.17716942148760328</c:v>
+                    <c:v>0.14957637677547969</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.24372777368502754</c:v>
+                    <c:v>0.20755792172046483</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.19517151682653225</c:v>
+                    <c:v>0.16220780975543847</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3031,37 +3031,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.24209644700748373</c:v>
+                    <c:v>0.22658110264929165</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.13690825209692045</c:v>
+                    <c:v>0.13281615743592295</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.12445086723469655</c:v>
+                    <c:v>0.12134926940249763</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.11372259376924314</c:v>
+                    <c:v>0.10657277560496134</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.11372259376924314</c:v>
+                    <c:v>0.10657277560496134</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.12894725413152699</c:v>
+                    <c:v>0.12486560632874419</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.17716942148760328</c:v>
+                    <c:v>0.14957637677547969</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.24372777368502754</c:v>
+                    <c:v>0.20755792172046483</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.17716942148760328</c:v>
+                    <c:v>0.14957637677547969</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.24372777368502754</c:v>
+                    <c:v>0.20755792172046483</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.19517151682653225</c:v>
+                    <c:v>0.16220780975543847</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3129,37 +3129,37 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.30532020931971093</c:v>
+                  <c:v>0.28326205062998494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19840759208621522</c:v>
+                  <c:v>0.19197447603237186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19309405830096871</c:v>
+                  <c:v>0.18785286198210718</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13594252746033506</c:v>
+                  <c:v>0.12712699730234486</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13594252746033506</c:v>
+                  <c:v>0.12712699730234486</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17061466770220793</c:v>
+                  <c:v>0.16489732454023914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17716942148760328</c:v>
+                  <c:v>0.14957637677547969</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26940672963400236</c:v>
+                  <c:v>0.22744829304759534</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17716942148760328</c:v>
+                  <c:v>0.14957637677547969</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26940672963400236</c:v>
+                  <c:v>0.22744829304759534</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19517151682653225</c:v>
+                  <c:v>0.16220780975543844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3791,7 +3791,7 @@
                     <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.12445086723469655</c:v>
+                    <c:v>0.12134926940249763</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0.14125333185830088</c:v>
@@ -3815,7 +3815,7 @@
                     <c:v>0.21724574737604055</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.12445086723469655</c:v>
+                    <c:v>0.12134926940249763</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0.14125333185830088</c:v>
@@ -3877,7 +3877,7 @@
                   <c:v>0.21724574737604052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19309405830096871</c:v>
+                  <c:v>0.18785286198210718</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.20528680794408075</c:v>
@@ -7909,7 +7909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AC10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4001'!N1</f>
-        <v>10.034444444444444</v>
+        <v>22.34</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="AH3" s="80">
         <f ca="1">IFERROR(VLOOKUP(BD3, $B$1:$F1000, 5), "")</f>
-        <v>0.19309405830096871</v>
+        <v>0.18785286198210718</v>
       </c>
       <c r="AI3" s="81">
         <f ca="1">IFERROR(VLOOKUP(BE3, $B$1:$F1000, 5), "")</f>
@@ -8526,7 +8526,7 @@
       </c>
       <c r="AK5" s="97">
         <f ca="1">IFERROR(VLOOKUP(BG5, $B$1:$F1002, 5), "")</f>
-        <v>0.13877008438330826</v>
+        <v>0.12942000862440708</v>
       </c>
       <c r="AL5" s="100">
         <f t="shared" ca="1" si="3"/>
@@ -9420,15 +9420,15 @@
       </c>
       <c r="AJ10" s="55">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$F1007, 5), "")</f>
-        <v>0.38319212559182658</v>
+        <v>0.46631090987494611</v>
       </c>
       <c r="AK10" s="99">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$F1007, 5), "")</f>
-        <v>0.10490776392161372</v>
+        <v>0.10127038721846221</v>
       </c>
       <c r="AL10" s="100">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10490776392161372</v>
+        <v>0.10127038721846221</v>
       </c>
       <c r="AN10" s="37">
         <v>200</v>
@@ -9704,7 +9704,7 @@
       </c>
       <c r="AH13" s="67">
         <f ca="1">IFERROR(VLOOKUP(BD3, $B$1:$G1000, 6), "")</f>
-        <v>0.12445086723469655</v>
+        <v>0.12134926940249763</v>
       </c>
       <c r="AI13" s="67">
         <f ca="1">IFERROR(VLOOKUP(BE3, $B$1:$G1000, 6), "")</f>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="AS13" s="88">
         <f ca="1">IFERROR(VLOOKUP(BD3, $B$1:$G1000, 2), "")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AT13" s="88">
         <f ca="1">IFERROR(VLOOKUP(BE3, $B$1:$G1000, 2), "")</f>
@@ -9930,7 +9930,7 @@
       </c>
       <c r="AK15" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG5, $B$1:$G1002, 6), "")</f>
-        <v>0.13877008438330829</v>
+        <v>0.12942000862440708</v>
       </c>
       <c r="AL15" s="100">
         <f t="shared" ca="1" si="7"/>
@@ -9969,7 +9969,7 @@
       </c>
       <c r="AV15" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG5, $B$1:$G1002, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:69" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -10466,15 +10466,15 @@
       </c>
       <c r="AJ20" s="55">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$G1007, 6), "")</f>
-        <v>0.26261052690908371</v>
+        <v>0.25360133443506561</v>
       </c>
       <c r="AK20" s="87">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 6), "")</f>
-        <v>9.7514498566808591E-2</v>
+        <v>9.4174336831763045E-2</v>
       </c>
       <c r="AL20" s="100">
         <f t="shared" ca="1" si="7"/>
-        <v>9.7514498566808591E-2</v>
+        <v>9.4174336831763045E-2</v>
       </c>
       <c r="AN20" s="72">
         <v>200</v>
@@ -10505,11 +10505,11 @@
       </c>
       <c r="AU20" s="90">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$G1007, 2), "")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV20" s="91">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 2), "")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -11965,11 +11965,11 @@
       </c>
       <c r="S33" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.19309405830096871</v>
+        <v>0.18785286198210718</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0.35647734056829922</v>
+        <v>0.35123614424943772</v>
       </c>
       <c r="U33" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="W33" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>0.12445086723469655</v>
+        <v>0.12134926940249763</v>
       </c>
       <c r="X33" s="1"/>
       <c r="Y33" s="1">
@@ -12276,7 +12276,7 @@
       </c>
       <c r="U36" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>0.10490776392161372</v>
+        <v>0.10127038721846221</v>
       </c>
       <c r="V36" s="1">
         <f t="shared" ca="1" si="16"/>
@@ -12289,7 +12289,7 @@
       <c r="X36"/>
       <c r="Y36" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>9.7514498566808591E-2</v>
+        <v>9.4174336831763045E-2</v>
       </c>
     </row>
     <row r="37" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12451,15 +12451,15 @@
       </c>
       <c r="AI39" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$F1000, 5), "")</f>
-        <v>0.13877008438330826</v>
+        <v>0.12125037874962125</v>
       </c>
       <c r="AJ39" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 6), "")</f>
-        <v>0.13877008438330829</v>
+        <v>0.12125037874962125</v>
       </c>
       <c r="AK39" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 2), "")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12520,15 +12520,15 @@
       </c>
       <c r="AI40" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$F1001, 5), "")</f>
-        <v>0.17716942148760328</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="AJ40" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 6), "")</f>
-        <v>0.17716942148760328</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="AK40" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 2), "")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -12673,15 +12673,15 @@
       </c>
       <c r="AI42" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH42, $B$1:$F1003, 5), "")</f>
-        <v>0.25682195476239883</v>
+        <v>0.27163110201695412</v>
       </c>
       <c r="AJ42" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH42, $B$1:$G1003, 6), "")</f>
-        <v>0.15075099986830925</v>
+        <v>0.14944842016633281</v>
       </c>
       <c r="AK42" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH42, $B$1:$G1003, 2), "")</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12742,15 +12742,15 @@
       </c>
       <c r="AI43" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH43, $B$1:$F1004, 5), "")</f>
-        <v>0.22439821539738533</v>
+        <v>0.21735088689010604</v>
       </c>
       <c r="AJ43" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH43, $B$1:$G1004, 6), "")</f>
-        <v>0.1425923496545321</v>
+        <v>0.13856702859580494</v>
       </c>
       <c r="AK43" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH43, $B$1:$G1004, 2), "")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12811,15 +12811,15 @@
       </c>
       <c r="AI44" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH44, $B$1:$F1005, 5), "")</f>
-        <v>0.12712699730234486</v>
+        <v>0.12313451585347469</v>
       </c>
       <c r="AJ44" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH44, $B$1:$G1005, 6), "")</f>
-        <v>0.10657277560496134</v>
+        <v>0.1033228684057039</v>
       </c>
       <c r="AK44" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH44, $B$1:$G1005, 2), "")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12880,15 +12880,15 @@
       </c>
       <c r="AI45" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$F1006, 5), "")</f>
-        <v>0.24665585731657882</v>
+        <v>0.22744829304759534</v>
       </c>
       <c r="AJ45" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 6), "")</f>
-        <v>0.22423894845328268</v>
+        <v>0.20755792172046483</v>
       </c>
       <c r="AK45" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 2), "")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12949,15 +12949,15 @@
       </c>
       <c r="AI46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$F1007, 5), "")</f>
-        <v>0.28326205062998494</v>
+        <v>0.26417636912462272</v>
       </c>
       <c r="AJ46" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 6), "")</f>
-        <v>0.22658110264929165</v>
+        <v>0.21280976845362207</v>
       </c>
       <c r="AK46" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12967,7 +12967,7 @@
       </c>
       <c r="C47" s="37">
         <f>IFERROR(VLOOKUP($B47, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B47, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B47, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B47, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D47" s="37">
         <f>IFERROR(VLOOKUP($B47, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B47, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -12979,11 +12979,11 @@
       </c>
       <c r="F47" s="53">
         <f>IFERROR((E47 + Params!$B$3^2/(2 * C47))/(1 + Params!$B$3^2/C47), NA())</f>
-        <v>0.13877008438330826</v>
+        <v>0.12942000862440708</v>
       </c>
       <c r="G47" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C47))*SQRT(E47*(1-E47)/C47 + (Params!$B$3/(2*C47))^2), NA())</f>
-        <v>0.13877008438330829</v>
+        <v>0.12942000862440708</v>
       </c>
       <c r="H47" s="39">
         <f t="shared" si="1"/>
@@ -12991,7 +12991,7 @@
       </c>
       <c r="I47" s="39">
         <f t="shared" si="2"/>
-        <v>0.27754016876661658</v>
+        <v>0.25884001724881417</v>
       </c>
       <c r="AA47" s="37">
         <v>20</v>
@@ -13018,15 +13018,15 @@
       </c>
       <c r="AI47" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$F1008, 5), "")</f>
-        <v>0.16220780975543844</v>
+        <v>0.22744829304759534</v>
       </c>
       <c r="AJ47" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$G1008, 6), "")</f>
-        <v>0.16220780975543847</v>
+        <v>0.20755792172046483</v>
       </c>
       <c r="AK47" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$G1008, 2), "")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13087,15 +13087,15 @@
       </c>
       <c r="AI48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$F1009, 5), "")</f>
-        <v>0.14957637677547969</v>
+        <v>0.21101606750664662</v>
       </c>
       <c r="AJ48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 6), "")</f>
-        <v>0.14957637677547969</v>
+        <v>0.19314031799092549</v>
       </c>
       <c r="AK48" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13156,15 +13156,15 @@
       </c>
       <c r="AI49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$F1010, 5), "")</f>
-        <v>0.30532020931971093</v>
+        <v>0.28326205062998494</v>
       </c>
       <c r="AJ49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 6), "")</f>
-        <v>0.24209644700748373</v>
+        <v>0.22658110264929165</v>
       </c>
       <c r="AK49" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13242,7 +13242,7 @@
       </c>
       <c r="C52" s="37">
         <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D52" s="37">
         <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -13250,23 +13250,23 @@
       </c>
       <c r="E52" s="53">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F52" s="53">
         <f>IFERROR((E52 + Params!$B$3^2/(2 * C52))/(1 + Params!$B$3^2/C52), NA())</f>
-        <v>0.10490776392161372</v>
+        <v>0.10127038721846221</v>
       </c>
       <c r="G52" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C52))*SQRT(E52*(1-E52)/C52 + (Params!$B$3/(2*C52))^2), NA())</f>
-        <v>9.7514498566808591E-2</v>
+        <v>9.4174336831763045E-2</v>
       </c>
       <c r="H52" s="39">
         <f t="shared" si="1"/>
-        <v>7.3932653548051258E-3</v>
+        <v>7.0960503866991653E-3</v>
       </c>
       <c r="I52" s="39">
         <f t="shared" si="2"/>
-        <v>0.20242226248842232</v>
+        <v>0.19544472405022525</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13394,15 +13394,15 @@
       </c>
       <c r="AI54" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$F1015, 5), "")</f>
-        <v>0.30532020931971093</v>
+        <v>0.28326205062998494</v>
       </c>
       <c r="AJ54" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 6), "")</f>
-        <v>0.24209644700748373</v>
+        <v>0.22658110264929165</v>
       </c>
       <c r="AK54" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13463,15 +13463,15 @@
       </c>
       <c r="AI55" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH55, $B$1:$F1016, 5), "")</f>
-        <v>0.19840759208621522</v>
+        <v>0.19197447603237186</v>
       </c>
       <c r="AJ55" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH55, $B$1:$G1016, 6), "")</f>
-        <v>0.13690825209692045</v>
+        <v>0.13281615743592295</v>
       </c>
       <c r="AK55" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH55, $B$1:$G1016, 2), "")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13532,15 +13532,15 @@
       </c>
       <c r="AI56" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH56, $B$1:$F1017, 5), "")</f>
-        <v>0.19309405830096871</v>
+        <v>0.18785286198210718</v>
       </c>
       <c r="AJ56" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH56, $B$1:$G1017, 6), "")</f>
-        <v>0.12445086723469655</v>
+        <v>0.12134926940249763</v>
       </c>
       <c r="AK56" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH56, $B$1:$G1017, 2), "")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AL56">
         <v>12002</v>
@@ -13616,15 +13616,15 @@
       </c>
       <c r="AI57" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH57, $B$1:$F1018, 5), "")</f>
-        <v>0.13594252746033506</v>
+        <v>0.12712699730234486</v>
       </c>
       <c r="AJ57" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH57, $B$1:$G1018, 6), "")</f>
-        <v>0.11372259376924314</v>
+        <v>0.10657277560496134</v>
       </c>
       <c r="AK57" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH57, $B$1:$G1018, 2), "")</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13634,31 +13634,31 @@
       </c>
       <c r="C58" s="37">
         <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D58" s="37">
         <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E58" s="53">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="F58" s="53">
         <f>IFERROR((E58 + Params!$B$3^2/(2 * C58))/(1 + Params!$B$3^2/C58), NA())</f>
-        <v>0.38319212559182658</v>
+        <v>0.46631090987494611</v>
       </c>
       <c r="G58" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C58))*SQRT(E58*(1-E58)/C58 + (Params!$B$3/(2*C58))^2), NA())</f>
-        <v>0.26261052690908371</v>
+        <v>0.25360133443506561</v>
       </c>
       <c r="H58" s="39">
         <f t="shared" si="1"/>
-        <v>0.12058159868274287</v>
+        <v>0.2127095754398805</v>
       </c>
       <c r="I58" s="39">
         <f t="shared" si="2"/>
-        <v>0.64580265250091029</v>
+        <v>0.71991224431001166</v>
       </c>
       <c r="AA58" s="37"/>
       <c r="AB58" s="44"/>
@@ -13685,15 +13685,15 @@
       </c>
       <c r="AI58" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH58, $B$1:$F1019, 5), "")</f>
-        <v>0.13594252746033506</v>
+        <v>0.12712699730234486</v>
       </c>
       <c r="AJ58" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH58, $B$1:$G1019, 6), "")</f>
-        <v>0.11372259376924314</v>
+        <v>0.10657277560496134</v>
       </c>
       <c r="AK58" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH58, $B$1:$G1019, 2), "")</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13754,15 +13754,15 @@
       </c>
       <c r="AI59" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH59, $B$1:$F1020, 5), "")</f>
-        <v>0.17061466770220793</v>
+        <v>0.16489732454023914</v>
       </c>
       <c r="AJ59" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH59, $B$1:$G1020, 6), "")</f>
-        <v>0.12894725413152699</v>
+        <v>0.12486560632874419</v>
       </c>
       <c r="AK59" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH59, $B$1:$G1020, 2), "")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13823,15 +13823,15 @@
       </c>
       <c r="AI60" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$F1021, 5), "")</f>
-        <v>0.17716942148760328</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="AJ60" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$G1021, 6), "")</f>
-        <v>0.17716942148760328</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="AK60" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$G1021, 2), "")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13841,7 +13841,7 @@
       </c>
       <c r="C61" s="37">
         <f>IFERROR(VLOOKUP($B61, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B61, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B61, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B61, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D61" s="37">
         <f>IFERROR(VLOOKUP($B61, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B61, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -13849,23 +13849,23 @@
       </c>
       <c r="E61" s="53">
         <f t="shared" si="0"/>
-        <v>0.15625</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="F61" s="53">
         <f>IFERROR((E61 + Params!$B$3^2/(2 * C61))/(1 + Params!$B$3^2/C61), NA())</f>
-        <v>0.19309405830096871</v>
+        <v>0.18785286198210718</v>
       </c>
       <c r="G61" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C61))*SQRT(E61*(1-E61)/C61 + (Params!$B$3/(2*C61))^2), NA())</f>
-        <v>0.12445086723469655</v>
+        <v>0.12134926940249763</v>
       </c>
       <c r="H61" s="39">
         <f t="shared" si="1"/>
-        <v>6.8643191066272161E-2</v>
+        <v>6.6503592579609555E-2</v>
       </c>
       <c r="I61" s="39">
         <f t="shared" si="2"/>
-        <v>0.31754492553566527</v>
+        <v>0.30920213138460484</v>
       </c>
       <c r="AA61" s="37"/>
       <c r="AB61" s="44"/>
@@ -13892,15 +13892,15 @@
       </c>
       <c r="AI61" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$F1022, 5), "")</f>
-        <v>0.26940672963400236</v>
+        <v>0.22744829304759534</v>
       </c>
       <c r="AJ61" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$G1022, 6), "")</f>
-        <v>0.24372777368502754</v>
+        <v>0.20755792172046483</v>
       </c>
       <c r="AK61" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$G1022, 2), "")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13961,15 +13961,15 @@
       </c>
       <c r="AI62" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$F1023, 5), "")</f>
-        <v>0.17716942148760328</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="AJ62" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$G1023, 6), "")</f>
-        <v>0.17716942148760328</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="AK62" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$G1023, 2), "")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -14030,15 +14030,15 @@
       </c>
       <c r="AI63" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$F1024, 5), "")</f>
-        <v>0.26940672963400236</v>
+        <v>0.22744829304759534</v>
       </c>
       <c r="AJ63" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$G1024, 6), "")</f>
-        <v>0.24372777368502754</v>
+        <v>0.20755792172046483</v>
       </c>
       <c r="AK63" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$G1024, 2), "")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -14099,15 +14099,15 @@
       </c>
       <c r="AI64" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$F1025, 5), "")</f>
-        <v>0.19517151682653225</v>
+        <v>0.16220780975543844</v>
       </c>
       <c r="AJ64" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$G1025, 6), "")</f>
-        <v>0.19517151682653225</v>
+        <v>0.16220780975543847</v>
       </c>
       <c r="AK64" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$G1025, 2), "")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -14185,7 +14185,7 @@
       </c>
       <c r="C67" s="37">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D67" s="37">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14197,11 +14197,11 @@
       </c>
       <c r="F67" s="53">
         <f>IFERROR((E67 + Params!$B$3^2/(2 * C67))/(1 + Params!$B$3^2/C67), NA())</f>
-        <v>0.13877008438330826</v>
+        <v>0.12125037874962125</v>
       </c>
       <c r="G67" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C67))*SQRT(E67*(1-E67)/C67 + (Params!$B$3/(2*C67))^2), NA())</f>
-        <v>0.13877008438330829</v>
+        <v>0.12125037874962125</v>
       </c>
       <c r="H67" s="39">
         <f t="shared" ref="H67:H130" si="22">F67-G67</f>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="I67" s="39">
         <f t="shared" ref="I67:I130" si="23">F67+G67</f>
-        <v>0.27754016876661658</v>
+        <v>0.24250075749924249</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="C68" s="37">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D68" s="37">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14231,11 +14231,11 @@
       </c>
       <c r="F68" s="53">
         <f>IFERROR((E68 + Params!$B$3^2/(2 * C68))/(1 + Params!$B$3^2/C68), NA())</f>
-        <v>0.17716942148760328</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="G68" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C68))*SQRT(E68*(1-E68)/C68 + (Params!$B$3/(2*C68))^2), NA())</f>
-        <v>0.17716942148760328</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="H68" s="39">
         <f t="shared" si="22"/>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="I68" s="39">
         <f t="shared" si="23"/>
-        <v>0.35433884297520657</v>
+        <v>0.29915275355095938</v>
       </c>
       <c r="AA68" s="37" t="s">
         <v>10</v>
@@ -14355,31 +14355,31 @@
       </c>
       <c r="C70" s="37">
         <f>IFERROR(VLOOKUP($B70, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B70, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B70, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B70, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D70" s="37">
         <f>IFERROR(VLOOKUP($B70, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B70, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E70" s="53">
         <f t="shared" si="21"/>
-        <v>0.22222222222222221</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="F70" s="53">
         <f>IFERROR((E70 + Params!$B$3^2/(2 * C70))/(1 + Params!$B$3^2/C70), NA())</f>
-        <v>0.25682195476239883</v>
+        <v>0.27163110201695412</v>
       </c>
       <c r="G70" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C70))*SQRT(E70*(1-E70)/C70 + (Params!$B$3/(2*C70))^2), NA())</f>
-        <v>0.15075099986830925</v>
+        <v>0.14944842016633281</v>
       </c>
       <c r="H70" s="39">
         <f t="shared" si="22"/>
-        <v>0.10607095489408958</v>
+        <v>0.12218268185062131</v>
       </c>
       <c r="I70" s="39">
         <f t="shared" si="23"/>
-        <v>0.40757295463070808</v>
+        <v>0.42107952218328693</v>
       </c>
       <c r="AA70" s="37">
         <v>20</v>
@@ -14424,7 +14424,7 @@
       </c>
       <c r="C71" s="37">
         <f>IFERROR(VLOOKUP($B71, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="37">
         <f>IFERROR(VLOOKUP($B71, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B71, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14432,23 +14432,23 @@
       </c>
       <c r="E71" s="53">
         <f t="shared" si="21"/>
-        <v>0.18518518518518517</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="F71" s="53">
         <f>IFERROR((E71 + Params!$B$3^2/(2 * C71))/(1 + Params!$B$3^2/C71), NA())</f>
-        <v>0.22439821539738533</v>
+        <v>0.21735088689010604</v>
       </c>
       <c r="G71" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C71))*SQRT(E71*(1-E71)/C71 + (Params!$B$3/(2*C71))^2), NA())</f>
-        <v>0.1425923496545321</v>
+        <v>0.13856702859580494</v>
       </c>
       <c r="H71" s="39">
         <f t="shared" si="22"/>
-        <v>8.1805865742853229E-2</v>
+        <v>7.8783858294301096E-2</v>
       </c>
       <c r="I71" s="39">
         <f t="shared" si="23"/>
-        <v>0.36699056505191741</v>
+        <v>0.35591791548591101</v>
       </c>
       <c r="AA71" s="37">
         <v>20</v>
@@ -14493,7 +14493,7 @@
       </c>
       <c r="C72" s="37">
         <f>IFERROR(VLOOKUP($B72, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B72, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B72, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B72, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="37">
         <f>IFERROR(VLOOKUP($B72, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B72, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14501,23 +14501,23 @@
       </c>
       <c r="E72" s="53">
         <f t="shared" si="21"/>
-        <v>7.407407407407407E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="F72" s="53">
         <f>IFERROR((E72 + Params!$B$3^2/(2 * C72))/(1 + Params!$B$3^2/C72), NA())</f>
-        <v>0.12712699730234486</v>
+        <v>0.12313451585347469</v>
       </c>
       <c r="G72" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C72))*SQRT(E72*(1-E72)/C72 + (Params!$B$3/(2*C72))^2), NA())</f>
-        <v>0.10657277560496134</v>
+        <v>0.1033228684057039</v>
       </c>
       <c r="H72" s="39">
         <f t="shared" si="22"/>
-        <v>2.0554221697383523E-2</v>
+        <v>1.9811647447770794E-2</v>
       </c>
       <c r="I72" s="39">
         <f t="shared" si="23"/>
-        <v>0.2336997729073062</v>
+        <v>0.22645738425917861</v>
       </c>
       <c r="AA72" s="37">
         <v>20</v>
@@ -14562,7 +14562,7 @@
       </c>
       <c r="C73" s="37">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="37">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14570,23 +14570,23 @@
       </c>
       <c r="E73" s="53">
         <f t="shared" si="21"/>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F73" s="53">
         <f>IFERROR((E73 + Params!$B$3^2/(2 * C73))/(1 + Params!$B$3^2/C73), NA())</f>
-        <v>0.24665585731657882</v>
+        <v>0.22744829304759534</v>
       </c>
       <c r="G73" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C73))*SQRT(E73*(1-E73)/C73 + (Params!$B$3/(2*C73))^2), NA())</f>
-        <v>0.22423894845328268</v>
+        <v>0.20755792172046483</v>
       </c>
       <c r="H73" s="39">
         <f t="shared" si="22"/>
-        <v>2.2416908863296142E-2</v>
+        <v>1.9890371327130507E-2</v>
       </c>
       <c r="I73" s="39">
         <f t="shared" si="23"/>
-        <v>0.47089480576986154</v>
+        <v>0.43500621476806017</v>
       </c>
       <c r="AA73" s="37">
         <v>20</v>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="C74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D74" s="37">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14639,23 +14639,23 @@
       </c>
       <c r="E74" s="53">
         <f t="shared" si="21"/>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F74" s="53">
         <f>IFERROR((E74 + Params!$B$3^2/(2 * C74))/(1 + Params!$B$3^2/C74), NA())</f>
-        <v>0.28326205062998494</v>
+        <v>0.26417636912462272</v>
       </c>
       <c r="G74" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C74))*SQRT(E74*(1-E74)/C74 + (Params!$B$3/(2*C74))^2), NA())</f>
-        <v>0.22658110264929165</v>
+        <v>0.21280976845362207</v>
       </c>
       <c r="H74" s="39">
         <f t="shared" si="22"/>
-        <v>5.6680947980693286E-2</v>
+        <v>5.1366600671000656E-2</v>
       </c>
       <c r="I74" s="39">
         <f t="shared" si="23"/>
-        <v>0.50984315327927665</v>
+        <v>0.47698613757824482</v>
       </c>
       <c r="AA74" s="37"/>
       <c r="AB74" s="44"/>
@@ -14682,31 +14682,31 @@
       </c>
       <c r="C75" s="37">
         <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="37">
         <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="53">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F75" s="53">
         <f>IFERROR((E75 + Params!$B$3^2/(2 * C75))/(1 + Params!$B$3^2/C75), NA())</f>
-        <v>0.16220780975543844</v>
+        <v>0.22744829304759534</v>
       </c>
       <c r="G75" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C75))*SQRT(E75*(1-E75)/C75 + (Params!$B$3/(2*C75))^2), NA())</f>
-        <v>0.16220780975543847</v>
+        <v>0.20755792172046483</v>
       </c>
       <c r="H75" s="39">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.9890371327130507E-2</v>
       </c>
       <c r="I75" s="39">
         <f t="shared" si="23"/>
-        <v>0.32441561951087694</v>
+        <v>0.43500621476806017</v>
       </c>
       <c r="AA75" s="37"/>
       <c r="AB75" s="44"/>
@@ -14733,31 +14733,31 @@
       </c>
       <c r="C76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="53">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F76" s="53">
         <f>IFERROR((E76 + Params!$B$3^2/(2 * C76))/(1 + Params!$B$3^2/C76), NA())</f>
-        <v>0.14957637677547969</v>
+        <v>0.21101606750664662</v>
       </c>
       <c r="G76" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C76))*SQRT(E76*(1-E76)/C76 + (Params!$B$3/(2*C76))^2), NA())</f>
-        <v>0.14957637677547969</v>
+        <v>0.19314031799092549</v>
       </c>
       <c r="H76" s="39">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.7875749515721129E-2</v>
       </c>
       <c r="I76" s="39">
         <f t="shared" si="23"/>
-        <v>0.29915275355095938</v>
+        <v>0.4041563854975721</v>
       </c>
       <c r="AA76" s="37"/>
       <c r="AB76" s="44"/>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="C77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14792,23 +14792,23 @@
       </c>
       <c r="E77" s="53">
         <f t="shared" si="21"/>
-        <v>0.22222222222222221</v>
+        <v>0.2</v>
       </c>
       <c r="F77" s="53">
         <f>IFERROR((E77 + Params!$B$3^2/(2 * C77))/(1 + Params!$B$3^2/C77), NA())</f>
-        <v>0.30532020931971093</v>
+        <v>0.28326205062998494</v>
       </c>
       <c r="G77" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C77))*SQRT(E77*(1-E77)/C77 + (Params!$B$3/(2*C77))^2), NA())</f>
-        <v>0.24209644700748373</v>
+        <v>0.22658110264929165</v>
       </c>
       <c r="H77" s="39">
         <f t="shared" si="22"/>
-        <v>6.3223762312227205E-2</v>
+        <v>5.6680947980693286E-2</v>
       </c>
       <c r="I77" s="39">
         <f t="shared" si="23"/>
-        <v>0.54741665632719472</v>
+        <v>0.50984315327927665</v>
       </c>
       <c r="AA77" s="37"/>
       <c r="AB77" s="44"/>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="C78" s="37">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" s="37">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14843,23 +14843,23 @@
       </c>
       <c r="E78" s="53">
         <f t="shared" si="21"/>
-        <v>0.22222222222222221</v>
+        <v>0.2</v>
       </c>
       <c r="F78" s="53">
         <f>IFERROR((E78 + Params!$B$3^2/(2 * C78))/(1 + Params!$B$3^2/C78), NA())</f>
-        <v>0.30532020931971093</v>
+        <v>0.28326205062998494</v>
       </c>
       <c r="G78" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C78))*SQRT(E78*(1-E78)/C78 + (Params!$B$3/(2*C78))^2), NA())</f>
-        <v>0.24209644700748373</v>
+        <v>0.22658110264929165</v>
       </c>
       <c r="H78" s="39">
         <f t="shared" si="22"/>
-        <v>6.3223762312227205E-2</v>
+        <v>5.6680947980693286E-2</v>
       </c>
       <c r="I78" s="39">
         <f t="shared" si="23"/>
-        <v>0.54741665632719472</v>
+        <v>0.50984315327927665</v>
       </c>
       <c r="AA78" s="37"/>
       <c r="AB78" s="44"/>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="C79" s="37">
         <f>IFERROR(VLOOKUP($B79, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B79, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B79, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B79, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D79" s="37">
         <f>IFERROR(VLOOKUP($B79, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B79, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14894,23 +14894,23 @@
       </c>
       <c r="E79" s="53">
         <f t="shared" si="21"/>
-        <v>0.15384615384615385</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="F79" s="53">
         <f>IFERROR((E79 + Params!$B$3^2/(2 * C79))/(1 + Params!$B$3^2/C79), NA())</f>
-        <v>0.19840759208621522</v>
+        <v>0.19197447603237186</v>
       </c>
       <c r="G79" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C79))*SQRT(E79*(1-E79)/C79 + (Params!$B$3/(2*C79))^2), NA())</f>
-        <v>0.13690825209692045</v>
+        <v>0.13281615743592295</v>
       </c>
       <c r="H79" s="39">
         <f t="shared" si="22"/>
-        <v>6.1499339989294771E-2</v>
+        <v>5.9158318596448906E-2</v>
       </c>
       <c r="I79" s="39">
         <f t="shared" si="23"/>
-        <v>0.33531584418313565</v>
+        <v>0.32479063346829484</v>
       </c>
       <c r="AA79" s="37"/>
       <c r="AB79" s="44"/>
@@ -14971,7 +14971,7 @@
       </c>
       <c r="C81" s="37">
         <f>IFERROR(VLOOKUP($B81, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B81, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B81, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B81, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B81, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B81, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D81" s="37">
         <f>IFERROR(VLOOKUP($B81, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B81, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14979,23 +14979,23 @@
       </c>
       <c r="E81" s="53">
         <f t="shared" si="21"/>
-        <v>0.08</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="F81" s="53">
         <f>IFERROR((E81 + Params!$B$3^2/(2 * C81))/(1 + Params!$B$3^2/C81), NA())</f>
-        <v>0.13594252746033506</v>
+        <v>0.12712699730234486</v>
       </c>
       <c r="G81" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C81))*SQRT(E81*(1-E81)/C81 + (Params!$B$3/(2*C81))^2), NA())</f>
-        <v>0.11372259376924314</v>
+        <v>0.10657277560496134</v>
       </c>
       <c r="H81" s="39">
         <f t="shared" si="22"/>
-        <v>2.2219933691091917E-2</v>
+        <v>2.0554221697383523E-2</v>
       </c>
       <c r="I81" s="39">
         <f t="shared" si="23"/>
-        <v>0.24966512122957818</v>
+        <v>0.2336997729073062</v>
       </c>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -15005,7 +15005,7 @@
       </c>
       <c r="C82" s="37">
         <f>IFERROR(VLOOKUP($B82, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B82, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B82, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B82, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B82, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B82, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D82" s="37">
         <f>IFERROR(VLOOKUP($B82, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B82, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -15013,23 +15013,23 @@
       </c>
       <c r="E82" s="53">
         <f t="shared" si="21"/>
-        <v>0.08</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="F82" s="53">
         <f>IFERROR((E82 + Params!$B$3^2/(2 * C82))/(1 + Params!$B$3^2/C82), NA())</f>
-        <v>0.13594252746033506</v>
+        <v>0.12712699730234486</v>
       </c>
       <c r="G82" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C82))*SQRT(E82*(1-E82)/C82 + (Params!$B$3/(2*C82))^2), NA())</f>
-        <v>0.11372259376924314</v>
+        <v>0.10657277560496134</v>
       </c>
       <c r="H82" s="39">
         <f t="shared" si="22"/>
-        <v>2.2219933691091917E-2</v>
+        <v>2.0554221697383523E-2</v>
       </c>
       <c r="I82" s="39">
         <f t="shared" si="23"/>
-        <v>0.24966512122957818</v>
+        <v>0.2336997729073062</v>
       </c>
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -15039,7 +15039,7 @@
       </c>
       <c r="C83" s="37">
         <f>IFERROR(VLOOKUP($B83, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B83, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B83, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B83, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D83" s="37">
         <f>IFERROR(VLOOKUP($B83, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B83, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -15047,23 +15047,23 @@
       </c>
       <c r="E83" s="53">
         <f t="shared" si="21"/>
-        <v>0.12</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="F83" s="53">
         <f>IFERROR((E83 + Params!$B$3^2/(2 * C83))/(1 + Params!$B$3^2/C83), NA())</f>
-        <v>0.17061466770220793</v>
+        <v>0.16489732454023914</v>
       </c>
       <c r="G83" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C83))*SQRT(E83*(1-E83)/C83 + (Params!$B$3/(2*C83))^2), NA())</f>
-        <v>0.12894725413152699</v>
+        <v>0.12486560632874419</v>
       </c>
       <c r="H83" s="39">
         <f t="shared" si="22"/>
-        <v>4.1667413570680933E-2</v>
+        <v>4.0031718211494954E-2</v>
       </c>
       <c r="I83" s="39">
         <f t="shared" si="23"/>
-        <v>0.29956192183373492</v>
+        <v>0.2897629308689833</v>
       </c>
       <c r="AA83" s="37" t="s">
         <v>10</v>
@@ -15106,7 +15106,7 @@
       </c>
       <c r="C84" s="37">
         <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D84" s="37">
         <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -15118,11 +15118,11 @@
       </c>
       <c r="F84" s="53">
         <f>IFERROR((E84 + Params!$B$3^2/(2 * C84))/(1 + Params!$B$3^2/C84), NA())</f>
-        <v>0.17716942148760328</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="G84" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C84))*SQRT(E84*(1-E84)/C84 + (Params!$B$3/(2*C84))^2), NA())</f>
-        <v>0.17716942148760328</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="H84" s="39">
         <f t="shared" si="22"/>
@@ -15130,7 +15130,7 @@
       </c>
       <c r="I84" s="39">
         <f t="shared" si="23"/>
-        <v>0.35433884297520657</v>
+        <v>0.29915275355095938</v>
       </c>
       <c r="AA84" s="37"/>
       <c r="AB84" s="44"/>
@@ -15175,7 +15175,7 @@
       </c>
       <c r="C85" s="37">
         <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D85" s="37">
         <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -15183,23 +15183,23 @@
       </c>
       <c r="E85" s="53">
         <f t="shared" si="21"/>
-        <v>0.14285714285714285</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F85" s="53">
         <f>IFERROR((E85 + Params!$B$3^2/(2 * C85))/(1 + Params!$B$3^2/C85), NA())</f>
-        <v>0.26940672963400236</v>
+        <v>0.22744829304759534</v>
       </c>
       <c r="G85" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C85))*SQRT(E85*(1-E85)/C85 + (Params!$B$3/(2*C85))^2), NA())</f>
-        <v>0.24372777368502754</v>
+        <v>0.20755792172046483</v>
       </c>
       <c r="H85" s="39">
         <f t="shared" si="22"/>
-        <v>2.5678955948974819E-2</v>
+        <v>1.9890371327130507E-2</v>
       </c>
       <c r="I85" s="39">
         <f t="shared" si="23"/>
-        <v>0.51313450331902988</v>
+        <v>0.43500621476806017</v>
       </c>
       <c r="AA85" s="37"/>
       <c r="AB85" s="44"/>
@@ -15226,15 +15226,15 @@
       </c>
       <c r="AI85" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH85, $B$1:$F1046, 5), "")</f>
-        <v>0.19309405830096871</v>
+        <v>0.18785286198210718</v>
       </c>
       <c r="AJ85" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH85, $B$1:$G1046, 6), "")</f>
-        <v>0.12445086723469655</v>
+        <v>0.12134926940249763</v>
       </c>
       <c r="AK85" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH85, $B$1:$G1046, 2), "")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -15244,7 +15244,7 @@
       </c>
       <c r="C86" s="37">
         <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D86" s="37">
         <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -15256,11 +15256,11 @@
       </c>
       <c r="F86" s="53">
         <f>IFERROR((E86 + Params!$B$3^2/(2 * C86))/(1 + Params!$B$3^2/C86), NA())</f>
-        <v>0.17716942148760328</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="G86" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C86))*SQRT(E86*(1-E86)/C86 + (Params!$B$3/(2*C86))^2), NA())</f>
-        <v>0.17716942148760328</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="H86" s="39">
         <f t="shared" si="22"/>
@@ -15268,7 +15268,7 @@
       </c>
       <c r="I86" s="39">
         <f t="shared" si="23"/>
-        <v>0.35433884297520657</v>
+        <v>0.29915275355095938</v>
       </c>
       <c r="AA86" s="37"/>
       <c r="AB86" s="44"/>
@@ -15313,7 +15313,7 @@
       </c>
       <c r="C87" s="37">
         <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D87" s="37">
         <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -15321,23 +15321,23 @@
       </c>
       <c r="E87" s="53">
         <f t="shared" si="21"/>
-        <v>0.14285714285714285</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F87" s="53">
         <f>IFERROR((E87 + Params!$B$3^2/(2 * C87))/(1 + Params!$B$3^2/C87), NA())</f>
-        <v>0.26940672963400236</v>
+        <v>0.22744829304759534</v>
       </c>
       <c r="G87" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C87))*SQRT(E87*(1-E87)/C87 + (Params!$B$3/(2*C87))^2), NA())</f>
-        <v>0.24372777368502754</v>
+        <v>0.20755792172046483</v>
       </c>
       <c r="H87" s="39">
         <f t="shared" si="22"/>
-        <v>2.5678955948974819E-2</v>
+        <v>1.9890371327130507E-2</v>
       </c>
       <c r="I87" s="39">
         <f t="shared" si="23"/>
-        <v>0.51313450331902988</v>
+        <v>0.43500621476806017</v>
       </c>
       <c r="AA87" s="37"/>
       <c r="AB87" s="44"/>
@@ -15382,7 +15382,7 @@
       </c>
       <c r="C88" s="37">
         <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D88" s="37">
         <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -15394,11 +15394,11 @@
       </c>
       <c r="F88" s="53">
         <f>IFERROR((E88 + Params!$B$3^2/(2 * C88))/(1 + Params!$B$3^2/C88), NA())</f>
-        <v>0.19517151682653225</v>
+        <v>0.16220780975543844</v>
       </c>
       <c r="G88" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C88))*SQRT(E88*(1-E88)/C88 + (Params!$B$3/(2*C88))^2), NA())</f>
-        <v>0.19517151682653225</v>
+        <v>0.16220780975543847</v>
       </c>
       <c r="H88" s="39">
         <f t="shared" si="22"/>
@@ -15406,7 +15406,7 @@
       </c>
       <c r="I88" s="39">
         <f t="shared" si="23"/>
-        <v>0.3903430336530645</v>
+        <v>0.32441561951087694</v>
       </c>
       <c r="AA88" s="37"/>
       <c r="AB88" s="44"/>
@@ -25858,7 +25858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -27026,7 +27026,7 @@
         <v>9037</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>3.62</v>
+        <v>5.19</v>
       </c>
       <c r="G32">
         <v>0.1</v>
@@ -27216,16 +27216,16 @@
         <v>9042</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>4.1700000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F37" s="2">
-        <v>4.34</v>
+        <v>5.08</v>
       </c>
       <c r="G37">
         <v>0.1</v>
@@ -27406,16 +27406,16 @@
         <v>9048</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E42" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="F42" s="2">
-        <v>8.8699999999999992</v>
+        <v>11.21</v>
       </c>
       <c r="G42">
         <v>0.1</v>
@@ -27696,7 +27696,7 @@
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43736.084692129632</v>
+        <v>43737.605535416667</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -29049,13 +29049,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1898E7C-F898-4084-B693-A01CFDCED357}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="5" max="6" width="8.83984375" style="2"/>
+    <col min="12" max="12" width="8.83984375" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -29070,10 +29074,10 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -29091,12 +29095,12 @@
       <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>53</v>
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/18</f>
-        <v>10.034444444444444</v>
+        <v>22.34</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29107,16 +29111,16 @@
         <v>10002</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.63</v>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.91</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -29127,8 +29131,8 @@
       <c r="I2">
         <v>20</v>
       </c>
-      <c r="L2">
-        <v>14.6</v>
+      <c r="L2" s="2">
+        <v>19.09</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29139,16 +29143,16 @@
         <v>11000</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.63</v>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.62</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -29159,8 +29163,8 @@
       <c r="K3">
         <v>20</v>
       </c>
-      <c r="L3">
-        <v>13.91</v>
+      <c r="L3" s="2">
+        <v>12.45</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29171,16 +29175,16 @@
         <v>11001</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.59</v>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.57999999999999996</v>
       </c>
       <c r="G4">
         <v>0.1</v>
@@ -29191,8 +29195,8 @@
       <c r="K4">
         <v>20</v>
       </c>
-      <c r="L4">
-        <v>13.07</v>
+      <c r="L4" s="2">
+        <v>11.69</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29203,15 +29207,15 @@
         <v>11003</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="2">
         <v>0.63</v>
       </c>
       <c r="G5">
@@ -29223,8 +29227,8 @@
       <c r="K5">
         <v>20</v>
       </c>
-      <c r="L5">
-        <v>13.76</v>
+      <c r="L5" s="2">
+        <v>12.51</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29235,16 +29239,16 @@
         <v>11004</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.62</v>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.61</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -29255,8 +29259,8 @@
       <c r="K6">
         <v>20</v>
       </c>
-      <c r="L6">
-        <v>13.57</v>
+      <c r="L6" s="2">
+        <v>12.15</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29267,16 +29271,16 @@
         <v>11005</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.65</v>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.64</v>
       </c>
       <c r="G7">
         <v>0.1</v>
@@ -29287,8 +29291,8 @@
       <c r="K7">
         <v>20</v>
       </c>
-      <c r="L7">
-        <v>14.26</v>
+      <c r="L7" s="2">
+        <v>12.81</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29299,16 +29303,16 @@
         <v>11006</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.57999999999999996</v>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.59</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -29319,8 +29323,8 @@
       <c r="K8">
         <v>20</v>
       </c>
-      <c r="L8">
-        <v>12.8</v>
+      <c r="L8" s="2">
+        <v>11.83</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29331,16 +29335,16 @@
         <v>11007</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.56999999999999995</v>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.66</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -29351,8 +29355,8 @@
       <c r="K9">
         <v>20</v>
       </c>
-      <c r="L9">
-        <v>12.5</v>
+      <c r="L9" s="2">
+        <v>13.12</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29363,16 +29367,16 @@
         <v>11008</v>
       </c>
       <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.61</v>
+      <c r="E10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.62</v>
       </c>
       <c r="G10">
         <v>0.1</v>
@@ -29383,8 +29387,8 @@
       <c r="K10">
         <v>20</v>
       </c>
-      <c r="L10">
-        <v>14.12</v>
+      <c r="L10" s="2">
+        <v>13.1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29395,16 +29399,16 @@
         <v>11009</v>
       </c>
       <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.64</v>
+      <c r="E11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.68</v>
       </c>
       <c r="G11">
         <v>0.1</v>
@@ -29415,8 +29419,8 @@
       <c r="K11">
         <v>20</v>
       </c>
-      <c r="L11">
-        <v>14.65</v>
+      <c r="L11" s="2">
+        <v>14.2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29427,16 +29431,16 @@
         <v>11010</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0.59</v>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.62</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -29447,8 +29451,8 @@
       <c r="K12">
         <v>20</v>
       </c>
-      <c r="L12">
-        <v>13.66</v>
+      <c r="L12" s="2">
+        <v>12.99</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29459,16 +29463,16 @@
         <v>12000</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0.66</v>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.94</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -29479,8 +29483,8 @@
       <c r="I13">
         <v>20</v>
       </c>
-      <c r="L13">
-        <v>15.27</v>
+      <c r="L13" s="2">
+        <v>19.64</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29491,16 +29495,16 @@
         <v>12001</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.63</v>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.92</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -29511,11 +29515,268 @@
       <c r="I14">
         <v>20</v>
       </c>
-      <c r="L14">
-        <v>14.45</v>
+      <c r="L14" s="2">
+        <v>19.260000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>12003</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.24</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
+        <v>0.3</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="L15" s="2">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>12004</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16">
+        <v>0.4</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="L16" s="2">
+        <v>25.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>12005</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="L17" s="2">
+        <v>26.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>12006</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
+        <v>0.6</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="L18" s="2">
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>12007</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <v>0.7</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="L19" s="2">
+        <v>31.62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>12008</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="L20" s="2">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>12009</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0.9</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="L21" s="2">
+        <v>25.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>12010</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="L22" s="2">
+        <v>25.91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Math/Results_20190626__003.xlsx
+++ b/Math/Results_20190626__003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A069180-F043-4770-9311-79A9FC5EB57C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E69953E-096F-4244-AB10-9B63DF95EEFE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="9" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="11" r:id="rId1"/>
@@ -1258,7 +1258,7 @@
                   <c:v>0.6684454506252695</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.42775401687666159</c:v>
+                  <c:v>0.46631090987494611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1716,7 +1716,7 @@
                     <c:v>0.11859277894870295</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.19517151682653225</c:v>
+                    <c:v>0.17716942148760328</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1746,7 +1746,7 @@
                     <c:v>0.11859277894870295</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.19517151682653225</c:v>
+                    <c:v>0.17716942148760328</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1817,7 +1817,7 @@
                   <c:v>0.1699347905951506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19517151682653225</c:v>
+                  <c:v>0.17716942148760328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1881,7 +1881,7 @@
                     <c:v>7.8113748837375874E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.19517151682653225</c:v>
+                    <c:v>0.17716942148760328</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1911,7 +1911,7 @@
                     <c:v>7.8113748837375874E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.19517151682653225</c:v>
+                    <c:v>0.17716942148760328</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1982,7 +1982,7 @@
                   <c:v>8.3830822924320328E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19517151682653225</c:v>
+                  <c:v>0.17716942148760328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2270,7 +2270,7 @@
                         <c:v>0.25376561351947091</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.3903430336530645</c:v>
+                        <c:v>0.35433884297520657</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2556,10 +2556,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.12125037874962125</c:v>
+                    <c:v>0.11405092152764583</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.14957637677547969</c:v>
+                    <c:v>0.13877008438330829</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -2568,13 +2568,13 @@
                     <c:v>0.14944842016633281</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.13856702859580494</c:v>
+                    <c:v>0.13475527650667593</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.1033228684057039</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.20755792172046483</c:v>
+                    <c:v>0.18056643661168892</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.21280976845362207</c:v>
@@ -2583,10 +2583,10 @@
                     <c:v>0.20755792172046483</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.19314031799092549</c:v>
+                    <c:v>0.18056643661168892</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.22658110264929165</c:v>
+                    <c:v>0.21280976845362207</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2598,10 +2598,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.12125037874962125</c:v>
+                    <c:v>0.11405092152764583</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.14957637677547969</c:v>
+                    <c:v>0.13877008438330829</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>8.6364668187580054E-2</c:v>
@@ -2610,13 +2610,13 @@
                     <c:v>0.14944842016633281</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.13856702859580494</c:v>
+                    <c:v>0.13475527650667593</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.1033228684057039</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.20755792172046483</c:v>
+                    <c:v>0.18056643661168892</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.21280976845362207</c:v>
@@ -2625,10 +2625,10 @@
                     <c:v>0.20755792172046483</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.19314031799092549</c:v>
+                    <c:v>0.18056643661168892</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.22658110264929165</c:v>
+                    <c:v>0.21280976845362207</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2696,10 +2696,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.12125037874962125</c:v>
+                  <c:v>0.11405092152764583</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14957637677547969</c:v>
+                  <c:v>0.13877008438330826</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.16338328226733051</c:v>
@@ -2708,13 +2708,13 @@
                   <c:v>0.27163110201695412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21735088689010604</c:v>
+                  <c:v>0.21073272922147521</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.12313451585347469</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22744829304759534</c:v>
+                  <c:v>0.19679818887451489</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.26417636912462272</c:v>
@@ -2723,10 +2723,10 @@
                   <c:v>0.22744829304759534</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21101606750664662</c:v>
+                  <c:v>0.19679818887451489</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28326205062998494</c:v>
+                  <c:v>0.26417636912462272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2989,10 +2989,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.22658110264929165</c:v>
+                    <c:v>0.21280976845362207</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.13281615743592295</c:v>
+                    <c:v>0.12895630057087773</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0.12134926940249763</c:v>
@@ -3004,10 +3004,10 @@
                     <c:v>0.10657277560496134</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.12486560632874419</c:v>
+                    <c:v>0.13281615743592295</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.14957637677547969</c:v>
+                    <c:v>0.13877008438330829</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.20755792172046483</c:v>
@@ -3019,7 +3019,7 @@
                     <c:v>0.20755792172046483</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.16220780975543847</c:v>
+                    <c:v>0.14957637677547969</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3031,10 +3031,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0.22658110264929165</c:v>
+                    <c:v>0.21280976845362207</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.13281615743592295</c:v>
+                    <c:v>0.12895630057087773</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0.12134926940249763</c:v>
@@ -3046,10 +3046,10 @@
                     <c:v>0.10657277560496134</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.12486560632874419</c:v>
+                    <c:v>0.13281615743592295</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.14957637677547969</c:v>
+                    <c:v>0.13877008438330829</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.20755792172046483</c:v>
@@ -3061,7 +3061,7 @@
                     <c:v>0.20755792172046483</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.16220780975543847</c:v>
+                    <c:v>0.14957637677547969</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3129,10 +3129,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.28326205062998494</c:v>
+                  <c:v>0.26417636912462272</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19197447603237186</c:v>
+                  <c:v>0.18594542987789558</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.18785286198210718</c:v>
@@ -3144,10 +3144,10 @@
                   <c:v>0.12712699730234486</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16489732454023914</c:v>
+                  <c:v>0.19197447603237186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14957637677547969</c:v>
+                  <c:v>0.13877008438330826</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.22744829304759534</c:v>
@@ -3159,7 +3159,7 @@
                   <c:v>0.22744829304759534</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16220780975543844</c:v>
+                  <c:v>0.14957637677547969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3439,7 +3439,7 @@
                     <c:v>0.16646649029588362</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>0.39672835426305358</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3463,7 +3463,7 @@
                     <c:v>0.16646649029588362</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>0.39672835426305358</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3525,7 +3525,7 @@
                   <c:v>0.30930322866969934</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.39672835426305353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3788,7 +3788,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.26672842534595786</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.12134926940249763</c:v>
@@ -3812,7 +3812,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.21724574737604055</c:v>
+                    <c:v>0.26672842534595786</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.12134926940249763</c:v>
@@ -3874,7 +3874,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.21724574737604052</c:v>
+                  <c:v>0.29678101121768818</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.18785286198210718</c:v>
@@ -7909,7 +7909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView topLeftCell="AC10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AC10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="L2" s="47">
         <f>+'V4001'!N1</f>
-        <v>22.34</v>
+        <v>17.939444444444444</v>
       </c>
       <c r="AC2" s="82" t="s">
         <v>39</v>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="AK3" s="94">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$F1000, 5), "")</f>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="AL3" s="100" t="str">
         <f ca="1">OFFSET(AD3, 0, ROW(AD3)-ROW($AD$3))</f>
@@ -9084,7 +9084,7 @@
       </c>
       <c r="AK8" s="98">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$F1005, 5), "")</f>
-        <v>0.42775401687666159</v>
+        <v>0.46631090987494611</v>
       </c>
       <c r="AL8" s="100">
         <f t="shared" ca="1" si="3"/>
@@ -9195,7 +9195,7 @@
       </c>
       <c r="C9" s="37">
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="37">
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -9207,11 +9207,11 @@
       </c>
       <c r="F9" s="53">
         <f>IFERROR((E9 + Params!$B$3^2/(2 * C9))/(1 + Params!$B$3^2/C9), NA())</f>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="G9" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C9))*SQRT(E9*(1-E9)/C9 + (Params!$B$3/(2*C9))^2), NA())</f>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="H9" s="39">
         <f t="shared" si="1"/>
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I9" s="39">
         <f t="shared" si="2"/>
-        <v>0.3903430336530645</v>
+        <v>0.35433884297520657</v>
       </c>
       <c r="AC9" s="70">
         <v>100</v>
@@ -9396,7 +9396,7 @@
       </c>
       <c r="AD10" s="76">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$F1007, 5), "")</f>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="AE10" s="63">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$F1007, 5), "")</f>
@@ -9716,7 +9716,7 @@
       </c>
       <c r="AK13" s="68">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$G1000, 6), "")</f>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="AL13" s="100" t="str">
         <f ca="1">OFFSET(AD13, 0, ROW(AD13)-ROW($AD$13))</f>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="AV13" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$G1000, 2), "")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:69" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -10254,7 +10254,7 @@
       </c>
       <c r="AK18" s="54">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$G1005, 6), "")</f>
-        <v>0.25957643567315197</v>
+        <v>0.25360133443506561</v>
       </c>
       <c r="AL18" s="100">
         <f t="shared" ca="1" si="7"/>
@@ -10293,7 +10293,7 @@
       </c>
       <c r="AV18" s="88">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$G1005, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:59" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -10442,7 +10442,7 @@
       </c>
       <c r="AD20" s="63">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$G1007, 6), "")</f>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="AE20" s="63">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$G1007, 6), "")</f>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="AO20" s="88">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$G1007, 2), "")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP20" s="88">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$G1007, 2), "")</f>
@@ -11480,7 +11480,7 @@
       </c>
       <c r="AH30" s="40">
         <f ca="1">IFERROR(VLOOKUP(BD30, $B$1:$F1027, 5), "")</f>
-        <v>0.30532020931971093</v>
+        <v>0.33155454937473045</v>
       </c>
       <c r="AI30" s="50">
         <f ca="1">IFERROR(VLOOKUP(BE30, $B$1:$F1027, 5), "")</f>
@@ -11671,11 +11671,11 @@
       </c>
       <c r="AI31" s="40">
         <f ca="1">IFERROR(VLOOKUP(BE31, $B$1:$F1028, 5), "")</f>
-        <v>0.56468137952446251</v>
+        <v>0.57160861594867096</v>
       </c>
       <c r="AJ31" s="50">
         <f ca="1">IFERROR(VLOOKUP(BF31, $B$1:$F1028, 5), "")</f>
-        <v>0.6444919662466766</v>
+        <v>0.60106727037516172</v>
       </c>
       <c r="AK31" s="50" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG31, $B$1:$F1028, 5), "")</f>
@@ -11846,7 +11846,7 @@
       </c>
       <c r="AJ32" s="40">
         <f ca="1">IFERROR(VLOOKUP(BF32, $B$1:$F1029, 5), "")</f>
-        <v>0.35550803375332329</v>
+        <v>0.33155454937473045</v>
       </c>
       <c r="AK32" s="39" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG32, $B$1:$F1029, 5), "")</f>
@@ -12264,15 +12264,15 @@
       </c>
       <c r="R36" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="S36" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="T36" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0.3903430336530645</v>
+        <v>0.35433884297520657</v>
       </c>
       <c r="U36" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -12280,11 +12280,11 @@
       </c>
       <c r="V36" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="W36" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="X36"/>
       <c r="Y36" s="1">
@@ -12451,15 +12451,15 @@
       </c>
       <c r="AI39" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$F1000, 5), "")</f>
-        <v>0.12125037874962125</v>
+        <v>0.11405092152764583</v>
       </c>
       <c r="AJ39" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 6), "")</f>
-        <v>0.12125037874962125</v>
+        <v>0.11405092152764583</v>
       </c>
       <c r="AK39" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 2), "")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12520,15 +12520,15 @@
       </c>
       <c r="AI40" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$F1001, 5), "")</f>
-        <v>0.14957637677547969</v>
+        <v>0.13877008438330826</v>
       </c>
       <c r="AJ40" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 6), "")</f>
-        <v>0.14957637677547969</v>
+        <v>0.13877008438330829</v>
       </c>
       <c r="AK40" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -12742,15 +12742,15 @@
       </c>
       <c r="AI43" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH43, $B$1:$F1004, 5), "")</f>
-        <v>0.21735088689010604</v>
+        <v>0.21073272922147521</v>
       </c>
       <c r="AJ43" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH43, $B$1:$G1004, 6), "")</f>
-        <v>0.13856702859580494</v>
+        <v>0.13475527650667593</v>
       </c>
       <c r="AK43" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH43, $B$1:$G1004, 2), "")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12880,15 +12880,15 @@
       </c>
       <c r="AI45" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$F1006, 5), "")</f>
-        <v>0.22744829304759534</v>
+        <v>0.19679818887451489</v>
       </c>
       <c r="AJ45" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 6), "")</f>
-        <v>0.20755792172046483</v>
+        <v>0.18056643661168892</v>
       </c>
       <c r="AK45" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 2), "")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:59" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13087,15 +13087,15 @@
       </c>
       <c r="AI48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$F1009, 5), "")</f>
-        <v>0.21101606750664662</v>
+        <v>0.19679818887451489</v>
       </c>
       <c r="AJ48" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 6), "")</f>
-        <v>0.19314031799092549</v>
+        <v>0.18056643661168892</v>
       </c>
       <c r="AK48" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13156,15 +13156,15 @@
       </c>
       <c r="AI49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$F1010, 5), "")</f>
-        <v>0.28326205062998494</v>
+        <v>0.26417636912462272</v>
       </c>
       <c r="AJ49" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 6), "")</f>
-        <v>0.22658110264929165</v>
+        <v>0.21280976845362207</v>
       </c>
       <c r="AK49" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13174,31 +13174,31 @@
       </c>
       <c r="C50" s="37">
         <f>IFERROR(VLOOKUP($B50, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B50, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B50, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B50, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50" s="37">
         <f>IFERROR(VLOOKUP($B50, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B50, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E50" s="53">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="F50" s="53">
         <f>IFERROR((E50 + Params!$B$3^2/(2 * C50))/(1 + Params!$B$3^2/C50), NA())</f>
-        <v>0.42775401687666159</v>
+        <v>0.46631090987494611</v>
       </c>
       <c r="G50" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C50))*SQRT(E50*(1-E50)/C50 + (Params!$B$3/(2*C50))^2), NA())</f>
-        <v>0.25957643567315197</v>
+        <v>0.25360133443506561</v>
       </c>
       <c r="H50" s="39">
         <f t="shared" si="1"/>
-        <v>0.16817758120350962</v>
+        <v>0.2127095754398805</v>
       </c>
       <c r="I50" s="39">
         <f t="shared" si="2"/>
-        <v>0.68733045254981362</v>
+        <v>0.71991224431001166</v>
       </c>
     </row>
     <row r="51" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13394,15 +13394,15 @@
       </c>
       <c r="AI54" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$F1015, 5), "")</f>
-        <v>0.28326205062998494</v>
+        <v>0.26417636912462272</v>
       </c>
       <c r="AJ54" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 6), "")</f>
-        <v>0.22658110264929165</v>
+        <v>0.21280976845362207</v>
       </c>
       <c r="AK54" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 2), "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13463,15 +13463,15 @@
       </c>
       <c r="AI55" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH55, $B$1:$F1016, 5), "")</f>
-        <v>0.19197447603237186</v>
+        <v>0.18594542987789558</v>
       </c>
       <c r="AJ55" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH55, $B$1:$G1016, 6), "")</f>
-        <v>0.13281615743592295</v>
+        <v>0.12895630057087773</v>
       </c>
       <c r="AK55" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH55, $B$1:$G1016, 2), "")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13754,15 +13754,15 @@
       </c>
       <c r="AI59" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH59, $B$1:$F1020, 5), "")</f>
-        <v>0.16489732454023914</v>
+        <v>0.19197447603237186</v>
       </c>
       <c r="AJ59" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH59, $B$1:$G1020, 6), "")</f>
-        <v>0.12486560632874419</v>
+        <v>0.13281615743592295</v>
       </c>
       <c r="AK59" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH59, $B$1:$G1020, 2), "")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -13823,15 +13823,15 @@
       </c>
       <c r="AI60" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$F1021, 5), "")</f>
-        <v>0.14957637677547969</v>
+        <v>0.13877008438330826</v>
       </c>
       <c r="AJ60" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$G1021, 6), "")</f>
-        <v>0.14957637677547969</v>
+        <v>0.13877008438330829</v>
       </c>
       <c r="AK60" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$G1021, 2), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -14099,15 +14099,15 @@
       </c>
       <c r="AI64" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$F1025, 5), "")</f>
-        <v>0.16220780975543844</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="AJ64" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$G1025, 6), "")</f>
-        <v>0.16220780975543847</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="AK64" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$G1025, 2), "")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -14117,7 +14117,7 @@
       </c>
       <c r="C65" s="37">
         <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65" s="37">
         <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14129,11 +14129,11 @@
       </c>
       <c r="F65" s="53">
         <f>IFERROR((E65 + Params!$B$3^2/(2 * C65))/(1 + Params!$B$3^2/C65), NA())</f>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="G65" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C65))*SQRT(E65*(1-E65)/C65 + (Params!$B$3/(2*C65))^2), NA())</f>
-        <v>0.19517151682653225</v>
+        <v>0.17716942148760328</v>
       </c>
       <c r="H65" s="39">
         <f t="shared" si="1"/>
@@ -14141,7 +14141,7 @@
       </c>
       <c r="I65" s="39">
         <f t="shared" si="2"/>
-        <v>0.3903430336530645</v>
+        <v>0.35433884297520657</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -14185,7 +14185,7 @@
       </c>
       <c r="C67" s="37">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D67" s="37">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14197,11 +14197,11 @@
       </c>
       <c r="F67" s="53">
         <f>IFERROR((E67 + Params!$B$3^2/(2 * C67))/(1 + Params!$B$3^2/C67), NA())</f>
-        <v>0.12125037874962125</v>
+        <v>0.11405092152764583</v>
       </c>
       <c r="G67" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C67))*SQRT(E67*(1-E67)/C67 + (Params!$B$3/(2*C67))^2), NA())</f>
-        <v>0.12125037874962125</v>
+        <v>0.11405092152764583</v>
       </c>
       <c r="H67" s="39">
         <f t="shared" ref="H67:H130" si="22">F67-G67</f>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="I67" s="39">
         <f t="shared" ref="I67:I130" si="23">F67+G67</f>
-        <v>0.24250075749924249</v>
+        <v>0.22810184305529166</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="C68" s="37">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" s="37">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14231,11 +14231,11 @@
       </c>
       <c r="F68" s="53">
         <f>IFERROR((E68 + Params!$B$3^2/(2 * C68))/(1 + Params!$B$3^2/C68), NA())</f>
-        <v>0.14957637677547969</v>
+        <v>0.13877008438330826</v>
       </c>
       <c r="G68" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C68))*SQRT(E68*(1-E68)/C68 + (Params!$B$3/(2*C68))^2), NA())</f>
-        <v>0.14957637677547969</v>
+        <v>0.13877008438330829</v>
       </c>
       <c r="H68" s="39">
         <f t="shared" si="22"/>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="I68" s="39">
         <f t="shared" si="23"/>
-        <v>0.29915275355095938</v>
+        <v>0.27754016876661658</v>
       </c>
       <c r="AA68" s="37" t="s">
         <v>10</v>
@@ -14424,7 +14424,7 @@
       </c>
       <c r="C71" s="37">
         <f>IFERROR(VLOOKUP($B71, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D71" s="37">
         <f>IFERROR(VLOOKUP($B71, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B71, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14432,23 +14432,23 @@
       </c>
       <c r="E71" s="53">
         <f t="shared" si="21"/>
-        <v>0.17857142857142858</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="F71" s="53">
         <f>IFERROR((E71 + Params!$B$3^2/(2 * C71))/(1 + Params!$B$3^2/C71), NA())</f>
-        <v>0.21735088689010604</v>
+        <v>0.21073272922147521</v>
       </c>
       <c r="G71" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C71))*SQRT(E71*(1-E71)/C71 + (Params!$B$3/(2*C71))^2), NA())</f>
-        <v>0.13856702859580494</v>
+        <v>0.13475527650667593</v>
       </c>
       <c r="H71" s="39">
         <f t="shared" si="22"/>
-        <v>7.8783858294301096E-2</v>
+        <v>7.5977452714799276E-2</v>
       </c>
       <c r="I71" s="39">
         <f t="shared" si="23"/>
-        <v>0.35591791548591101</v>
+        <v>0.34548800572815114</v>
       </c>
       <c r="AA71" s="37">
         <v>20</v>
@@ -14562,7 +14562,7 @@
       </c>
       <c r="C73" s="37">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D73" s="37">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14570,23 +14570,23 @@
       </c>
       <c r="E73" s="53">
         <f t="shared" si="21"/>
-        <v>0.1111111111111111</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="F73" s="53">
         <f>IFERROR((E73 + Params!$B$3^2/(2 * C73))/(1 + Params!$B$3^2/C73), NA())</f>
-        <v>0.22744829304759534</v>
+        <v>0.19679818887451489</v>
       </c>
       <c r="G73" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C73))*SQRT(E73*(1-E73)/C73 + (Params!$B$3/(2*C73))^2), NA())</f>
-        <v>0.20755792172046483</v>
+        <v>0.18056643661168892</v>
       </c>
       <c r="H73" s="39">
         <f t="shared" si="22"/>
-        <v>1.9890371327130507E-2</v>
+        <v>1.6231752262825971E-2</v>
       </c>
       <c r="I73" s="39">
         <f t="shared" si="23"/>
-        <v>0.43500621476806017</v>
+        <v>0.37736462548620381</v>
       </c>
       <c r="AA73" s="37">
         <v>20</v>
@@ -14611,17 +14611,17 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG73-1, 0)</f>
         <v>13003</v>
       </c>
-      <c r="AI73" s="39" t="str">
+      <c r="AI73" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH73, $B$1:$F1034, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AJ73" s="39" t="str">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="AJ73" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH73, $B$1:$G1034, 6), "")</f>
-        <v/>
+        <v>0.39672835426305358</v>
       </c>
       <c r="AK73" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH73, $B$1:$G1034, 2), "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -14733,7 +14733,7 @@
       </c>
       <c r="C76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D76" s="37">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14741,23 +14741,23 @@
       </c>
       <c r="E76" s="53">
         <f t="shared" si="21"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="F76" s="53">
         <f>IFERROR((E76 + Params!$B$3^2/(2 * C76))/(1 + Params!$B$3^2/C76), NA())</f>
-        <v>0.21101606750664662</v>
+        <v>0.19679818887451489</v>
       </c>
       <c r="G76" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C76))*SQRT(E76*(1-E76)/C76 + (Params!$B$3/(2*C76))^2), NA())</f>
-        <v>0.19314031799092549</v>
+        <v>0.18056643661168892</v>
       </c>
       <c r="H76" s="39">
         <f t="shared" si="22"/>
-        <v>1.7875749515721129E-2</v>
+        <v>1.6231752262825971E-2</v>
       </c>
       <c r="I76" s="39">
         <f t="shared" si="23"/>
-        <v>0.4041563854975721</v>
+        <v>0.37736462548620381</v>
       </c>
       <c r="AA76" s="37"/>
       <c r="AB76" s="44"/>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="C77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D77" s="37">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14792,23 +14792,23 @@
       </c>
       <c r="E77" s="53">
         <f t="shared" si="21"/>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F77" s="53">
         <f>IFERROR((E77 + Params!$B$3^2/(2 * C77))/(1 + Params!$B$3^2/C77), NA())</f>
-        <v>0.28326205062998494</v>
+        <v>0.26417636912462272</v>
       </c>
       <c r="G77" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C77))*SQRT(E77*(1-E77)/C77 + (Params!$B$3/(2*C77))^2), NA())</f>
-        <v>0.22658110264929165</v>
+        <v>0.21280976845362207</v>
       </c>
       <c r="H77" s="39">
         <f t="shared" si="22"/>
-        <v>5.6680947980693286E-2</v>
+        <v>5.1366600671000656E-2</v>
       </c>
       <c r="I77" s="39">
         <f t="shared" si="23"/>
-        <v>0.50984315327927665</v>
+        <v>0.47698613757824482</v>
       </c>
       <c r="AA77" s="37"/>
       <c r="AB77" s="44"/>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="C78" s="37">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D78" s="37">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14843,23 +14843,23 @@
       </c>
       <c r="E78" s="53">
         <f t="shared" si="21"/>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F78" s="53">
         <f>IFERROR((E78 + Params!$B$3^2/(2 * C78))/(1 + Params!$B$3^2/C78), NA())</f>
-        <v>0.28326205062998494</v>
+        <v>0.26417636912462272</v>
       </c>
       <c r="G78" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C78))*SQRT(E78*(1-E78)/C78 + (Params!$B$3/(2*C78))^2), NA())</f>
-        <v>0.22658110264929165</v>
+        <v>0.21280976845362207</v>
       </c>
       <c r="H78" s="39">
         <f t="shared" si="22"/>
-        <v>5.6680947980693286E-2</v>
+        <v>5.1366600671000656E-2</v>
       </c>
       <c r="I78" s="39">
         <f t="shared" si="23"/>
-        <v>0.50984315327927665</v>
+        <v>0.47698613757824482</v>
       </c>
       <c r="AA78" s="37"/>
       <c r="AB78" s="44"/>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="C79" s="37">
         <f>IFERROR(VLOOKUP($B79, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B79, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B79, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B79, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="37">
         <f>IFERROR(VLOOKUP($B79, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B79, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -14894,23 +14894,23 @@
       </c>
       <c r="E79" s="53">
         <f t="shared" si="21"/>
-        <v>0.14814814814814814</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F79" s="53">
         <f>IFERROR((E79 + Params!$B$3^2/(2 * C79))/(1 + Params!$B$3^2/C79), NA())</f>
-        <v>0.19197447603237186</v>
+        <v>0.18594542987789558</v>
       </c>
       <c r="G79" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C79))*SQRT(E79*(1-E79)/C79 + (Params!$B$3/(2*C79))^2), NA())</f>
-        <v>0.13281615743592295</v>
+        <v>0.12895630057087773</v>
       </c>
       <c r="H79" s="39">
         <f t="shared" si="22"/>
-        <v>5.9158318596448906E-2</v>
+        <v>5.6989129307017855E-2</v>
       </c>
       <c r="I79" s="39">
         <f t="shared" si="23"/>
-        <v>0.32479063346829484</v>
+        <v>0.31490173044877334</v>
       </c>
       <c r="AA79" s="37"/>
       <c r="AB79" s="44"/>
@@ -15039,31 +15039,31 @@
       </c>
       <c r="C83" s="37">
         <f>IFERROR(VLOOKUP($B83, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B83, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B83, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B83, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D83" s="37">
         <f>IFERROR(VLOOKUP($B83, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B83, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E83" s="53">
         <f t="shared" si="21"/>
-        <v>0.11538461538461539</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="F83" s="53">
         <f>IFERROR((E83 + Params!$B$3^2/(2 * C83))/(1 + Params!$B$3^2/C83), NA())</f>
-        <v>0.16489732454023914</v>
+        <v>0.19197447603237186</v>
       </c>
       <c r="G83" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C83))*SQRT(E83*(1-E83)/C83 + (Params!$B$3/(2*C83))^2), NA())</f>
-        <v>0.12486560632874419</v>
+        <v>0.13281615743592295</v>
       </c>
       <c r="H83" s="39">
         <f t="shared" si="22"/>
-        <v>4.0031718211494954E-2</v>
+        <v>5.9158318596448906E-2</v>
       </c>
       <c r="I83" s="39">
         <f t="shared" si="23"/>
-        <v>0.2897629308689833</v>
+        <v>0.32479063346829484</v>
       </c>
       <c r="AA83" s="37" t="s">
         <v>10</v>
@@ -15106,7 +15106,7 @@
       </c>
       <c r="C84" s="37">
         <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" s="37">
         <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -15118,11 +15118,11 @@
       </c>
       <c r="F84" s="53">
         <f>IFERROR((E84 + Params!$B$3^2/(2 * C84))/(1 + Params!$B$3^2/C84), NA())</f>
-        <v>0.14957637677547969</v>
+        <v>0.13877008438330826</v>
       </c>
       <c r="G84" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C84))*SQRT(E84*(1-E84)/C84 + (Params!$B$3/(2*C84))^2), NA())</f>
-        <v>0.14957637677547969</v>
+        <v>0.13877008438330829</v>
       </c>
       <c r="H84" s="39">
         <f t="shared" si="22"/>
@@ -15130,7 +15130,7 @@
       </c>
       <c r="I84" s="39">
         <f t="shared" si="23"/>
-        <v>0.29915275355095938</v>
+        <v>0.27754016876661658</v>
       </c>
       <c r="AA84" s="37"/>
       <c r="AB84" s="44"/>
@@ -15157,15 +15157,15 @@
       </c>
       <c r="AI84" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$F1045, 5), "")</f>
-        <v>0.21724574737604052</v>
+        <v>0.29678101121768818</v>
       </c>
       <c r="AJ84" s="39">
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$G1045, 6), "")</f>
-        <v>0.21724574737604055</v>
+        <v>0.26672842534595786</v>
       </c>
       <c r="AK84" s="41">
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$G1045, 2), "")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -15382,7 +15382,7 @@
       </c>
       <c r="C88" s="37">
         <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="37">
         <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -15394,11 +15394,11 @@
       </c>
       <c r="F88" s="53">
         <f>IFERROR((E88 + Params!$B$3^2/(2 * C88))/(1 + Params!$B$3^2/C88), NA())</f>
-        <v>0.16220780975543844</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="G88" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C88))*SQRT(E88*(1-E88)/C88 + (Params!$B$3/(2*C88))^2), NA())</f>
-        <v>0.16220780975543847</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="H88" s="39">
         <f t="shared" si="22"/>
@@ -15406,7 +15406,7 @@
       </c>
       <c r="I88" s="39">
         <f t="shared" si="23"/>
-        <v>0.32441561951087694</v>
+        <v>0.29915275355095938</v>
       </c>
       <c r="AA88" s="37"/>
       <c r="AB88" s="44"/>
@@ -15604,31 +15604,31 @@
       </c>
       <c r="C92" s="37">
         <f>IFERROR(VLOOKUP($B92, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B92, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B92, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B92, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B92, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B92, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B92, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B92, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" s="37">
         <f>IFERROR(VLOOKUP($B92, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B92, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E92" s="53" t="e">
+      <c r="E92" s="53">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F92" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F92" s="53">
         <f>IFERROR((E92 + Params!$B$3^2/(2 * C92))/(1 + Params!$B$3^2/C92), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G92" s="39" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G92" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C92))*SQRT(E92*(1-E92)/C92 + (Params!$B$3/(2*C92))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H92" s="39" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H92" s="39">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I92" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="I92" s="39">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
       <c r="AA92" s="37"/>
       <c r="AB92" s="44"/>
@@ -16335,31 +16335,31 @@
       </c>
       <c r="C112" s="37">
         <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D112" s="37">
         <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" s="53">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F112" s="53">
         <f>IFERROR((E112 + Params!$B$3^2/(2 * C112))/(1 + Params!$B$3^2/C112), NA())</f>
-        <v>0.21724574737604052</v>
+        <v>0.29678101121768818</v>
       </c>
       <c r="G112" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C112))*SQRT(E112*(1-E112)/C112 + (Params!$B$3/(2*C112))^2), NA())</f>
-        <v>0.21724574737604055</v>
+        <v>0.26672842534595786</v>
       </c>
       <c r="H112" s="39">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3.005258587173032E-2</v>
       </c>
       <c r="I112" s="39">
         <f t="shared" si="23"/>
-        <v>0.43449149475208104</v>
+        <v>0.56350943656364605</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -16709,31 +16709,31 @@
       </c>
       <c r="C123" s="37">
         <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D123" s="37">
         <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E123" s="53">
         <f t="shared" si="21"/>
-        <v>0.22222222222222221</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="F123" s="53">
         <f>IFERROR((E123 + Params!$B$3^2/(2 * C123))/(1 + Params!$B$3^2/C123), NA())</f>
-        <v>0.30532020931971093</v>
+        <v>0.33155454937473045</v>
       </c>
       <c r="G123" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C123))*SQRT(E123*(1-E123)/C123 + (Params!$B$3/(2*C123))^2), NA())</f>
-        <v>0.24209644700748373</v>
+        <v>0.23409574363551577</v>
       </c>
       <c r="H123" s="39">
         <f t="shared" si="22"/>
-        <v>6.3223762312227205E-2</v>
+        <v>9.7458805739214671E-2</v>
       </c>
       <c r="I123" s="39">
         <f t="shared" si="23"/>
-        <v>0.54741665632719472</v>
+        <v>0.56565029301024627</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -17389,31 +17389,31 @@
       </c>
       <c r="C143" s="37">
         <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D143" s="37">
         <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E143" s="53">
         <f t="shared" si="30"/>
-        <v>0.56896551724137934</v>
+        <v>0.57627118644067798</v>
       </c>
       <c r="F143" s="53">
         <f>IFERROR((E143 + Params!$B$3^2/(2 * C143))/(1 + Params!$B$3^2/C143), NA())</f>
-        <v>0.56468137952446251</v>
+        <v>0.57160861594867096</v>
       </c>
       <c r="G143" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C143))*SQRT(E143*(1-E143)/C143 + (Params!$B$3/(2*C143))^2), NA())</f>
-        <v>0.12350261246718826</v>
+        <v>0.12226606122030464</v>
       </c>
       <c r="H143" s="39">
         <f t="shared" si="31"/>
-        <v>0.44117876705727427</v>
+        <v>0.44934255472836632</v>
       </c>
       <c r="I143" s="39">
         <f t="shared" si="32"/>
-        <v>0.68818399199165081</v>
+        <v>0.69387467716897566</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="C149" s="37">
         <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D149" s="37">
         <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -17601,23 +17601,23 @@
       </c>
       <c r="E149" s="53">
         <f t="shared" si="30"/>
-        <v>0.7</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="F149" s="53">
         <f>IFERROR((E149 + Params!$B$3^2/(2 * C149))/(1 + Params!$B$3^2/C149), NA())</f>
-        <v>0.6444919662466766</v>
+        <v>0.60106727037516172</v>
       </c>
       <c r="G149" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C149))*SQRT(E149*(1-E149)/C149 + (Params!$B$3/(2*C149))^2), NA())</f>
-        <v>0.24771874626711152</v>
+        <v>0.24727049348352442</v>
       </c>
       <c r="H149" s="39">
         <f t="shared" si="31"/>
-        <v>0.39677321997956505</v>
+        <v>0.3537967768916373</v>
       </c>
       <c r="I149" s="39">
         <f t="shared" si="32"/>
-        <v>0.89221071251378814</v>
+        <v>0.8483377638586862</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -17627,7 +17627,7 @@
       </c>
       <c r="C150" s="37">
         <f>IFERROR(VLOOKUP($B150, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, 'V4001'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D150" s="37">
         <f>IFERROR(VLOOKUP($B150, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B150, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, 'V4000'!$B$2:$D$1001, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, 'V4001'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -17635,23 +17635,23 @@
       </c>
       <c r="E150" s="53">
         <f t="shared" si="30"/>
-        <v>0.3</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="F150" s="53">
         <f>IFERROR((E150 + Params!$B$3^2/(2 * C150))/(1 + Params!$B$3^2/C150), NA())</f>
-        <v>0.35550803375332329</v>
+        <v>0.33155454937473045</v>
       </c>
       <c r="G150" s="39">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C150))*SQRT(E150*(1-E150)/C150 + (Params!$B$3/(2*C150))^2), NA())</f>
-        <v>0.24771874626711146</v>
+        <v>0.23409574363551577</v>
       </c>
       <c r="H150" s="39">
         <f t="shared" si="31"/>
-        <v>0.10778928748621183</v>
+        <v>9.7458805739214671E-2</v>
       </c>
       <c r="I150" s="39">
         <f t="shared" si="32"/>
-        <v>0.60322678002043473</v>
+        <v>0.56565029301024627</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -25858,7 +25858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -27140,16 +27142,16 @@
         <v>9040</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E35" s="1">
-        <v>0.4</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="F35" s="2">
-        <v>6.53</v>
+        <v>7.6</v>
       </c>
       <c r="G35">
         <v>0.1</v>
@@ -27635,10 +27637,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -27689,14 +27691,14 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/48</f>
-        <v>10.036041666666669</v>
+        <v>14.864583333333334</v>
       </c>
       <c r="O1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="92">
         <f ca="1">NOW() +N1</f>
-        <v>43737.605535416667</v>
+        <v>43742.533705208334</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -27707,7 +27709,7 @@
         <v>7007</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -27716,7 +27718,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>2.17</v>
+        <v>2.86</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -27728,7 +27730,7 @@
         <v>200</v>
       </c>
       <c r="L2" s="2">
-        <v>34.65</v>
+        <v>42.91</v>
       </c>
       <c r="O2" s="92" t="s">
         <v>59</v>
@@ -28163,7 +28165,7 @@
         <v>10006</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -28172,7 +28174,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -28184,7 +28186,7 @@
         <v>200</v>
       </c>
       <c r="L14" s="2">
-        <v>34.06</v>
+        <v>41.21</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -28259,7 +28261,7 @@
         <v>11001</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -28268,7 +28270,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>2.0299999999999998</v>
+        <v>2.87</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -28280,7 +28282,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="2">
-        <v>34.58</v>
+        <v>45.87</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28291,16 +28293,16 @@
         <v>11006</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="F18" s="2">
-        <v>1.19</v>
+        <v>2.58</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -28312,7 +28314,7 @@
         <v>20</v>
       </c>
       <c r="L18" s="2">
-        <v>16.690000000000001</v>
+        <v>36.14</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28440,7 +28442,7 @@
         <v>20</v>
       </c>
       <c r="L22" s="2">
-        <v>24.55</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28472,7 +28474,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="2">
-        <v>28.47</v>
+        <v>26.69</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28483,7 +28485,7 @@
         <v>12006</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -28492,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>1.41</v>
+        <v>2.21</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -28504,7 +28506,7 @@
         <v>20</v>
       </c>
       <c r="L24" s="2">
-        <v>22.55</v>
+        <v>33.15</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28536,7 +28538,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="2">
-        <v>23.91</v>
+        <v>22.42</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28568,7 +28570,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="2">
-        <v>27.6</v>
+        <v>25.88</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28600,7 +28602,7 @@
         <v>20</v>
       </c>
       <c r="L27" s="2">
-        <v>27.85</v>
+        <v>26.11</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28611,7 +28613,7 @@
         <v>12010</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -28620,7 +28622,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>1.26</v>
+        <v>2</v>
       </c>
       <c r="G28">
         <v>0.1</v>
@@ -28632,7 +28634,7 @@
         <v>20</v>
       </c>
       <c r="L28" s="2">
-        <v>20.18</v>
+        <v>30.06</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28640,22 +28642,22 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>13010</v>
+        <v>13003</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>2.36</v>
+        <v>10.52</v>
       </c>
       <c r="G29">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="J29">
         <v>0.2</v>
@@ -28664,7 +28666,7 @@
         <v>20</v>
       </c>
       <c r="L29" s="2">
-        <v>40.04</v>
+        <v>168.36</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28672,31 +28674,31 @@
         <v>20</v>
       </c>
       <c r="B30">
-        <v>14010</v>
+        <v>13010</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F30" s="2">
-        <v>3.09</v>
+        <v>2.36</v>
       </c>
       <c r="G30">
         <v>0.01</v>
       </c>
-      <c r="H30">
-        <v>0.2</v>
-      </c>
-      <c r="I30">
+      <c r="J30">
+        <v>0.2</v>
+      </c>
+      <c r="K30">
         <v>20</v>
       </c>
       <c r="L30" s="2">
-        <v>52.59</v>
+        <v>37.68</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28704,22 +28706,22 @@
         <v>20</v>
       </c>
       <c r="B31">
-        <v>15008</v>
+        <v>14010</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>0.22220000000000001</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F31" s="2">
-        <v>3.37</v>
+        <v>3.75</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="H31">
         <v>0.2</v>
@@ -28727,14 +28729,8 @@
       <c r="I31">
         <v>20</v>
       </c>
-      <c r="J31">
-        <v>0.2</v>
-      </c>
-      <c r="K31">
-        <v>20</v>
-      </c>
       <c r="L31" s="2">
-        <v>0</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -28742,19 +28738,19 @@
         <v>20</v>
       </c>
       <c r="B32">
-        <v>15016</v>
+        <v>15008</v>
       </c>
       <c r="C32">
         <v>11</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1">
-        <v>0.54549999999999998</v>
+        <v>0.2727</v>
       </c>
       <c r="F32" s="2">
-        <v>2.71</v>
+        <v>5.05</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -28769,7 +28765,7 @@
         <v>0.2</v>
       </c>
       <c r="K32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -28780,19 +28776,19 @@
         <v>20</v>
       </c>
       <c r="B33">
-        <v>15017</v>
+        <v>15016</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33">
         <v>6</v>
       </c>
       <c r="E33" s="1">
-        <v>0.6</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="F33" s="2">
-        <v>3.12</v>
+        <v>2.71</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -28807,7 +28803,7 @@
         <v>0.2</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
@@ -28818,19 +28814,19 @@
         <v>20</v>
       </c>
       <c r="B34">
-        <v>15027</v>
+        <v>15017</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" s="1">
-        <v>0.45450000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="F34" s="2">
-        <v>2.92</v>
+        <v>3.12</v>
       </c>
       <c r="G34">
         <v>10</v>
@@ -28839,13 +28835,13 @@
         <v>0.2</v>
       </c>
       <c r="I34">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J34">
         <v>0.2</v>
       </c>
       <c r="K34">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L34" s="2">
         <v>0</v>
@@ -28856,19 +28852,19 @@
         <v>20</v>
       </c>
       <c r="B35">
-        <v>15028</v>
+        <v>15027</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <v>5</v>
       </c>
       <c r="E35" s="1">
-        <v>0.5</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="F35" s="2">
-        <v>2.61</v>
+        <v>2.92</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -28883,7 +28879,7 @@
         <v>0.2</v>
       </c>
       <c r="K35">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
@@ -28894,7 +28890,7 @@
         <v>20</v>
       </c>
       <c r="B36">
-        <v>15029</v>
+        <v>15028</v>
       </c>
       <c r="C36">
         <v>11</v>
@@ -28906,7 +28902,7 @@
         <v>0.54549999999999998</v>
       </c>
       <c r="F36" s="2">
-        <v>2.79</v>
+        <v>3.6</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -28921,7 +28917,7 @@
         <v>0.2</v>
       </c>
       <c r="K36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
@@ -28932,19 +28928,19 @@
         <v>20</v>
       </c>
       <c r="B37">
-        <v>15033</v>
+        <v>15029</v>
       </c>
       <c r="C37">
         <v>11</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E37" s="1">
-        <v>0.36359999999999998</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="F37" s="2">
-        <v>2.44</v>
+        <v>2.79</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -28953,13 +28949,13 @@
         <v>0.2</v>
       </c>
       <c r="I37">
+        <v>50</v>
+      </c>
+      <c r="J37">
+        <v>0.2</v>
+      </c>
+      <c r="K37">
         <v>100</v>
-      </c>
-      <c r="J37">
-        <v>0.2</v>
-      </c>
-      <c r="K37">
-        <v>20</v>
       </c>
       <c r="L37" s="2">
         <v>0</v>
@@ -28970,19 +28966,19 @@
         <v>20</v>
       </c>
       <c r="B38">
-        <v>15034</v>
+        <v>15033</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1">
-        <v>0.7</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="F38" s="2">
-        <v>2.17</v>
+        <v>2.44</v>
       </c>
       <c r="G38">
         <v>10</v>
@@ -28997,7 +28993,7 @@
         <v>0.2</v>
       </c>
       <c r="K38">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L38" s="2">
         <v>0</v>
@@ -29008,19 +29004,19 @@
         <v>20</v>
       </c>
       <c r="B39">
-        <v>15035</v>
+        <v>15034</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E39" s="1">
-        <v>0.3</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="F39" s="2">
-        <v>2.81</v>
+        <v>3.19</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -29035,9 +29031,47 @@
         <v>0.2</v>
       </c>
       <c r="K39">
+        <v>50</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>15035</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.2727</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>0.2</v>
+      </c>
+      <c r="I40">
         <v>100</v>
       </c>
-      <c r="L39" s="2">
+      <c r="J40">
+        <v>0.2</v>
+      </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+      <c r="L40" s="2">
         <v>0</v>
       </c>
     </row>
@@ -29051,9 +29085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1898E7C-F898-4084-B693-A01CFDCED357}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -29100,7 +29132,7 @@
       </c>
       <c r="N1" s="45">
         <f>SUM(L2:L1000)/18</f>
-        <v>22.34</v>
+        <v>17.939444444444444</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29132,7 +29164,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="2">
-        <v>19.09</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29143,7 +29175,7 @@
         <v>11000</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -29152,7 +29184,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -29164,7 +29196,7 @@
         <v>20</v>
       </c>
       <c r="L3" s="2">
-        <v>12.45</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29196,7 +29228,7 @@
         <v>20</v>
       </c>
       <c r="L4" s="2">
-        <v>11.69</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29228,7 +29260,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="2">
-        <v>12.51</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29239,7 +29271,7 @@
         <v>11004</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -29248,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -29260,7 +29292,7 @@
         <v>20</v>
       </c>
       <c r="L6" s="2">
-        <v>12.15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29292,7 +29324,7 @@
         <v>20</v>
       </c>
       <c r="L7" s="2">
-        <v>12.81</v>
+        <v>9.61</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29324,7 +29356,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="2">
-        <v>11.83</v>
+        <v>8.8800000000000008</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29356,7 +29388,7 @@
         <v>20</v>
       </c>
       <c r="L9" s="2">
-        <v>13.12</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29388,7 +29420,7 @@
         <v>20</v>
       </c>
       <c r="L10" s="2">
-        <v>13.1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29399,16 +29431,16 @@
         <v>11009</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>0.5</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F11" s="2">
-        <v>0.68</v>
+        <v>0.83</v>
       </c>
       <c r="G11">
         <v>0.1</v>
@@ -29420,7 +29452,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="2">
-        <v>14.2</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29431,7 +29463,7 @@
         <v>11010</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -29440,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>0.62</v>
+        <v>0.78</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -29452,7 +29484,7 @@
         <v>20</v>
       </c>
       <c r="L12" s="2">
-        <v>12.99</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29463,7 +29495,7 @@
         <v>12000</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -29472,7 +29504,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -29484,7 +29516,7 @@
         <v>20</v>
       </c>
       <c r="L13" s="2">
-        <v>19.64</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29495,7 +29527,7 @@
         <v>12001</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -29504,7 +29536,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -29516,7 +29548,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="2">
-        <v>19.260000000000002</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29548,7 +29580,7 @@
         <v>20</v>
       </c>
       <c r="L15" s="2">
-        <v>26.1</v>
+        <v>19.88</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -29580,7 +29612,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="2">
-        <v>25.05</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -29591,16 +29623,16 @@
         <v>12005</v>
       </c>
       <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="2">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -29612,7 +29644,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="2">
-        <v>26.41</v>
+        <v>28.07</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -29644,7 +29676,7 @@
         <v>20</v>
       </c>
       <c r="L18" s="2">
-        <v>25.49</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -29676,7 +29708,7 @@
         <v>20</v>
       </c>
       <c r="L19" s="2">
-        <v>31.62</v>
+        <v>25.59</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -29708,7 +29740,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="2">
-        <v>31.44</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -29740,7 +29772,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="2">
-        <v>25.26</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -29772,7 +29804,7 @@
         <v>20</v>
       </c>
       <c r="L22" s="2">
-        <v>25.91</v>
+        <v>22.21</v>
       </c>
     </row>
   </sheetData>
